--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="84">
   <si>
     <t>BRANCH</t>
   </si>
@@ -35,15 +35,6 @@
     <t>MFA</t>
   </si>
   <si>
-    <t>BRANCH WITH LINK</t>
-  </si>
-  <si>
-    <t>Load and Store Multiple (w/o bit S Effect)</t>
-  </si>
-  <si>
-    <t>Misc. Load &amp; Store SB, SH, &amp; DW</t>
-  </si>
-  <si>
     <t>Immediate Offset</t>
   </si>
   <si>
@@ -53,9 +44,6 @@
     <t>Immediate Post-indexed</t>
   </si>
   <si>
-    <t>Load &amp; Store W &amp; UB</t>
-  </si>
-  <si>
     <t>Register Offset</t>
   </si>
   <si>
@@ -222,6 +210,72 @@
   </si>
   <si>
     <t>0 0 0 0 1</t>
+  </si>
+  <si>
+    <t>Store Multiple (w/o bit S Effect)</t>
+  </si>
+  <si>
+    <t>Load Multiple (w/o bit S Effect)</t>
+  </si>
+  <si>
+    <t>Misc. Load SB, SH, &amp; D</t>
+  </si>
+  <si>
+    <t>Misc. Store SB, SH, &amp; D</t>
+  </si>
+  <si>
+    <t>Store W &amp; UB</t>
+  </si>
+  <si>
+    <t>Load W &amp; UB</t>
+  </si>
+  <si>
+    <t>BRANCH &amp; LINK</t>
+  </si>
+  <si>
+    <t>and - 1</t>
+  </si>
+  <si>
+    <t>eor - 1</t>
+  </si>
+  <si>
+    <t>rsb - 1</t>
+  </si>
+  <si>
+    <t>add - 1</t>
+  </si>
+  <si>
+    <t>adc - 1</t>
+  </si>
+  <si>
+    <t>sbc - 1</t>
+  </si>
+  <si>
+    <t>rsc - 1</t>
+  </si>
+  <si>
+    <t>tst - 1</t>
+  </si>
+  <si>
+    <t>teq - 1</t>
+  </si>
+  <si>
+    <t>cmp - 1</t>
+  </si>
+  <si>
+    <t>cmn - 1</t>
+  </si>
+  <si>
+    <t>orr - 1</t>
+  </si>
+  <si>
+    <t>mov - 1</t>
+  </si>
+  <si>
+    <t>bic - 1</t>
+  </si>
+  <si>
+    <t>mvn - 1</t>
   </si>
 </sst>
 </file>
@@ -611,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC137"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,92 +681,92 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="P3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="T3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="V3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>1</v>
@@ -723,46 +777,46 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O4" s="9">
         <v>0</v>
@@ -789,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X4" s="9">
         <v>0</v>
@@ -798,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB4" s="9">
         <v>0</v>
@@ -809,37 +863,37 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J5" s="9">
         <v>1111</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -848,7 +902,7 @@
         <v>1101</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O5" s="9">
         <v>0</v>
@@ -875,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X5" s="9">
         <v>0</v>
@@ -884,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB5" s="9">
         <v>0</v>
@@ -895,31 +949,31 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" s="9">
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J6" s="9">
         <v>1111</v>
@@ -934,7 +988,7 @@
         <v>1101</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O6" s="9">
         <v>0</v>
@@ -961,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X6" s="9">
         <v>0</v>
@@ -970,33 +1024,33 @@
         <v>0</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB6" s="9">
         <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -1008,22 +1062,22 @@
         <v>1</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O7" s="9">
         <v>0</v>
@@ -1050,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X7" s="9">
         <v>0</v>
@@ -1059,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AA7" s="9">
         <v>0</v>
@@ -1070,22 +1124,22 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -1094,22 +1148,22 @@
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O8" s="9">
         <v>0</v>
@@ -1136,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X8" s="9">
         <v>0</v>
@@ -1145,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="9">
         <v>0</v>
@@ -1186,7 +1240,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1218,7 +1272,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1250,82 +1304,82 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="J12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="P12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="11" t="s">
+      <c r="T12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="11" t="s">
+      <c r="V12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>1</v>
@@ -1335,8 +1389,8 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>1</v>
+      <c r="A13" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1367,8 +1421,8 @@
       <c r="AB13" s="9"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>2</v>
+      <c r="A14" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1399,8 +1453,8 @@
       <c r="AB14" s="9"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>3</v>
+      <c r="A15" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1431,8 +1485,8 @@
       <c r="AB15" s="9"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1463,94 +1517,40 @@
       <c r="AB16" s="9"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>1</v>
+      <c r="A18" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1581,8 +1581,8 @@
       <c r="AB18" s="9"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>2</v>
+      <c r="A19" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1613,8 +1613,8 @@
       <c r="AB19" s="9"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>3</v>
+      <c r="A20" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1645,8 +1645,8 @@
       <c r="AB20" s="9"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>9</v>
+      <c r="A21" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1677,8 +1677,8 @@
       <c r="AB21" s="9"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
+      <c r="A22" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1709,94 +1709,40 @@
       <c r="AB22" s="9"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>1</v>
+      <c r="A24" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1827,8 +1773,8 @@
       <c r="AB24" s="9"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>2</v>
+      <c r="A25" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1859,8 +1805,8 @@
       <c r="AB25" s="9"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>3</v>
+      <c r="A26" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1891,8 +1837,8 @@
       <c r="AB26" s="9"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
+      <c r="A27" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1923,126 +1869,126 @@
       <c r="AB27" s="9"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="11" t="s">
+      <c r="J29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="O29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="P29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="11" t="s">
+      <c r="T29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="11" t="s">
+      <c r="V29" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Z29" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y28" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AA29" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB28" s="11" t="s">
+      <c r="AB29" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>1</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-    </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>2</v>
+      <c r="A30" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2073,8 +2019,8 @@
       <c r="AB30" s="9"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
+      <c r="A31" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2105,94 +2051,40 @@
       <c r="AB31" s="9"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V32" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W32" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y32" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>1</v>
+      <c r="A33" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2223,8 +2115,8 @@
       <c r="AB33" s="9"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>2</v>
+      <c r="A34" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2255,8 +2147,8 @@
       <c r="AB34" s="9"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>11</v>
+      <c r="A35" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2287,94 +2179,40 @@
       <c r="AB35" s="9"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U36" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W36" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y36" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>1</v>
+      <c r="A37" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2405,8 +2243,8 @@
       <c r="AB37" s="9"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>2</v>
+      <c r="A38" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2437,8 +2275,8 @@
       <c r="AB38" s="9"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
+      <c r="A39" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2469,94 +2307,40 @@
       <c r="AB39" s="9"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R40" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U40" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V40" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>1</v>
+      <c r="A41" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2587,8 +2371,8 @@
       <c r="AB41" s="9"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>2</v>
+      <c r="A42" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2619,8 +2403,8 @@
       <c r="AB42" s="9"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>3</v>
+      <c r="A43" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2651,8 +2435,8 @@
       <c r="AB43" s="9"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>12</v>
+      <c r="A44" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2683,94 +2467,40 @@
       <c r="AB44" s="9"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W45" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>1</v>
+      <c r="A46" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2801,40 +2531,94 @@
       <c r="AB46" s="9"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X47" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA47" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2865,8 +2649,8 @@
       <c r="AB48" s="9"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>5</v>
+      <c r="A49" s="7">
+        <v>2</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2897,8 +2681,8 @@
       <c r="AB49" s="9"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>6</v>
+      <c r="A50" s="7">
+        <v>3</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2929,126 +2713,126 @@
       <c r="AB50" s="9"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="11" t="s">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="11" t="s">
+      <c r="J52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="O52" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="P52" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S52" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N51" s="11" t="s">
+      <c r="T52" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U52" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O51" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P51" s="11" t="s">
+      <c r="V52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X52" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y52" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Z52" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R51" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U51" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V51" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W51" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y51" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z51" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA51" s="11" t="s">
+      <c r="AA52" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB51" s="11" t="s">
+      <c r="AB52" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>1</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -3080,7 +2864,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -3112,7 +2896,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -3144,82 +2928,82 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" s="11" t="s">
+      <c r="J56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="O56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="P56" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N56" s="11" t="s">
+      <c r="T56" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U56" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P56" s="11" t="s">
+      <c r="V56" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W56" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y56" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Z56" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="R56" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U56" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V56" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W56" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y56" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z56" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="AA56" s="11" t="s">
         <v>1</v>
@@ -3294,7 +3078,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3326,82 +3110,82 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H60" s="11" t="s">
+      <c r="J60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N60" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="O60" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="P60" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S60" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N60" s="11" t="s">
+      <c r="T60" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U60" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O60" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P60" s="11" t="s">
+      <c r="V60" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W60" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X60" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y60" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Z60" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="R60" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T60" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U60" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V60" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W60" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y60" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z60" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="AA60" s="11" t="s">
         <v>1</v>
@@ -3475,8 +3259,8 @@
       <c r="AB62" s="9"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
-        <v>3</v>
+      <c r="A63" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3507,126 +3291,126 @@
       <c r="AB63" s="9"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
+      <c r="A64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S64" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T64" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V64" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W64" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X64" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z64" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA64" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M65" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O65" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q65" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R65" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U65" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V65" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y65" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z65" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA65" s="11" t="s">
+      <c r="A65" s="7">
         <v>1</v>
       </c>
-      <c r="AB65" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3658,7 +3442,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3689,8 +3473,8 @@
       <c r="AB67" s="9"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
-        <v>3</v>
+      <c r="A68" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3721,126 +3505,126 @@
       <c r="AB68" s="9"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-      <c r="AB69" s="9"/>
+      <c r="A69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T69" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W69" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X69" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y69" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z69" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q70" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U70" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V70" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W70" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X70" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y70" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z70" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA70" s="11" t="s">
+      <c r="A70" s="7">
         <v>1</v>
       </c>
-      <c r="AB70" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3872,7 +3656,7 @@
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3903,8 +3687,8 @@
       <c r="AB72" s="9"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
-        <v>3</v>
+      <c r="A73" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3935,8 +3719,8 @@
       <c r="AB73" s="9"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>0</v>
+      <c r="A74" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3968,82 +3752,82 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F75" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G75" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" s="11" t="s">
+      <c r="J75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N75" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="O75" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="P75" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R75" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S75" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N75" s="11" t="s">
+      <c r="T75" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U75" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O75" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P75" s="11" t="s">
+      <c r="V75" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X75" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y75" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q75" s="11" t="s">
+      <c r="Z75" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="R75" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T75" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U75" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="V75" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="W75" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y75" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z75" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="AA75" s="11" t="s">
         <v>1</v>
@@ -4149,6 +3933,9 @@
       <c r="AB78" s="9"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -4178,204 +3965,3315 @@
       <c r="AB79" s="9"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
-      <c r="AB80" s="9"/>
-    </row>
-    <row r="81" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC81" s="8"/>
-    </row>
-    <row r="82" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC82" s="8"/>
-    </row>
-    <row r="83" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC83" s="8"/>
-    </row>
-    <row r="84" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC84" s="8"/>
-    </row>
-    <row r="85" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC85" s="8"/>
-    </row>
-    <row r="86" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC86" s="8"/>
-    </row>
-    <row r="87" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC87" s="8"/>
-    </row>
-    <row r="88" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC88" s="8"/>
-    </row>
-    <row r="89" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC89" s="8"/>
-    </row>
-    <row r="90" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC90" s="8"/>
-    </row>
-    <row r="91" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC91" s="8"/>
-    </row>
-    <row r="92" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC92" s="8"/>
-    </row>
-    <row r="93" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC93" s="8"/>
-    </row>
-    <row r="94" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC94" s="8"/>
-    </row>
-    <row r="95" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC95" s="8"/>
-    </row>
-    <row r="96" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC96" s="8"/>
-    </row>
-    <row r="97" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC97" s="8"/>
-    </row>
-    <row r="98" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC98" s="8"/>
-    </row>
-    <row r="99" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC99" s="8"/>
-    </row>
-    <row r="100" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC100" s="8"/>
-    </row>
-    <row r="101" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC101" s="8"/>
-    </row>
-    <row r="102" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC102" s="8"/>
-    </row>
-    <row r="103" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC103" s="8"/>
-    </row>
-    <row r="104" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC104" s="8"/>
-    </row>
-    <row r="105" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC105" s="8"/>
-    </row>
-    <row r="106" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC106" s="8"/>
-    </row>
-    <row r="107" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC107" s="8"/>
-    </row>
-    <row r="108" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC108" s="8"/>
-    </row>
-    <row r="109" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC109" s="8"/>
-    </row>
-    <row r="110" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC110" s="8"/>
-    </row>
-    <row r="111" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC111" s="8"/>
-    </row>
-    <row r="112" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC112" s="8"/>
-    </row>
-    <row r="113" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC113" s="8"/>
-    </row>
-    <row r="114" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC114" s="8"/>
-    </row>
-    <row r="115" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC115" s="8"/>
-    </row>
-    <row r="116" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC116" s="8"/>
-    </row>
-    <row r="117" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC117" s="8"/>
-    </row>
-    <row r="118" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC118" s="8"/>
-    </row>
-    <row r="119" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC119" s="8"/>
-    </row>
-    <row r="120" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC120" s="8"/>
-    </row>
-    <row r="121" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC121" s="8"/>
-    </row>
-    <row r="122" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC122" s="8"/>
-    </row>
-    <row r="123" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC123" s="8"/>
-    </row>
-    <row r="124" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC124" s="8"/>
-    </row>
-    <row r="125" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC125" s="8"/>
-    </row>
-    <row r="126" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC126" s="8"/>
-    </row>
-    <row r="127" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC127" s="8"/>
-    </row>
-    <row r="128" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC128" s="8"/>
-    </row>
-    <row r="129" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC129" s="8"/>
-    </row>
-    <row r="130" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC130" s="8"/>
-    </row>
-    <row r="131" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC131" s="8"/>
-    </row>
-    <row r="132" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC132" s="8"/>
-    </row>
-    <row r="133" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC133" s="8"/>
-    </row>
-    <row r="134" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC134" s="8"/>
-    </row>
-    <row r="135" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC135" s="8"/>
-    </row>
-    <row r="136" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC136" s="8"/>
-    </row>
-    <row r="137" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC137" s="8"/>
+      <c r="A80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R80" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S80" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T80" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U80" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V80" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W80" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X80" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y80" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA80" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>1</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>2</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R84" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S84" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T84" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U84" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V84" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W84" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X84" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y84" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA84" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB84" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>1</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
+      <c r="Z85" s="9"/>
+      <c r="AA85" s="9"/>
+      <c r="AB85" s="9"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>2</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
+      <c r="Z86" s="9"/>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="9"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
+      <c r="AB87" s="9"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P88" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R88" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T88" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U88" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V88" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W88" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X88" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y88" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA88" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB88" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>1</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
+      <c r="Z89" s="9"/>
+      <c r="AA89" s="9"/>
+      <c r="AB89" s="9"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>2</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="9"/>
+      <c r="AA90" s="9"/>
+      <c r="AB90" s="9"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P92" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R92" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T92" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U92" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V92" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W92" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X92" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y92" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z92" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA92" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>1</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
+      <c r="Y93" s="9"/>
+      <c r="Z93" s="9"/>
+      <c r="AA93" s="9"/>
+      <c r="AB93" s="9"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>2</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="9"/>
+      <c r="Z94" s="9"/>
+      <c r="AA94" s="9"/>
+      <c r="AB94" s="9"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>3</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="9"/>
+      <c r="Z95" s="9"/>
+      <c r="AA95" s="9"/>
+      <c r="AB95" s="9"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="9"/>
+      <c r="AA96" s="9"/>
+      <c r="AB96" s="9"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H97" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P97" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R97" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S97" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T97" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U97" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V97" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W97" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X97" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y97" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z97" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA97" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB97" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>1</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="9"/>
+      <c r="Z98" s="9"/>
+      <c r="AA98" s="9"/>
+      <c r="AB98" s="9"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>2</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="9"/>
+      <c r="AA99" s="9"/>
+      <c r="AB99" s="9"/>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>3</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+      <c r="AB100" s="9"/>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+      <c r="AB101" s="9"/>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+      <c r="AB102" s="9"/>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P103" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R103" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S103" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T103" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U103" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V103" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W103" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X103" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y103" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z103" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA103" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB103" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>1</v>
+      </c>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="9"/>
+      <c r="Z104" s="9"/>
+      <c r="AA104" s="9"/>
+      <c r="AB104" s="9"/>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>2</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
+      <c r="Z105" s="9"/>
+      <c r="AA105" s="9"/>
+      <c r="AB105" s="9"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>3</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
+      <c r="Z106" s="9"/>
+      <c r="AA106" s="9"/>
+      <c r="AB106" s="9"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
+      <c r="Z107" s="9"/>
+      <c r="AA107" s="9"/>
+      <c r="AB107" s="9"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M108" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O108" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P108" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R108" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S108" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T108" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U108" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V108" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W108" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X108" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y108" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z108" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA108" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB108" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>1</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
+      <c r="Z109" s="9"/>
+      <c r="AA109" s="9"/>
+      <c r="AB109" s="9"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>2</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="9"/>
+      <c r="Z110" s="9"/>
+      <c r="AA110" s="9"/>
+      <c r="AB110" s="9"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="9"/>
+      <c r="Z111" s="9"/>
+      <c r="AA111" s="9"/>
+      <c r="AB111" s="9"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P112" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R112" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T112" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U112" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V112" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W112" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X112" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y112" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z112" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA112" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB112" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>1</v>
+      </c>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="9"/>
+      <c r="W113" s="9"/>
+      <c r="X113" s="9"/>
+      <c r="Y113" s="9"/>
+      <c r="Z113" s="9"/>
+      <c r="AA113" s="9"/>
+      <c r="AB113" s="9"/>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>2</v>
+      </c>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="9"/>
+      <c r="AA114" s="9"/>
+      <c r="AB114" s="9"/>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>3</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
+      <c r="Z115" s="9"/>
+      <c r="AA115" s="9"/>
+      <c r="AB115" s="9"/>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="9"/>
+      <c r="Y116" s="9"/>
+      <c r="Z116" s="9"/>
+      <c r="AA116" s="9"/>
+      <c r="AB116" s="9"/>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+      <c r="Y117" s="9"/>
+      <c r="Z117" s="9"/>
+      <c r="AA117" s="9"/>
+      <c r="AB117" s="9"/>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O118" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P118" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q118" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R118" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T118" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U118" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V118" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W118" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X118" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y118" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z118" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA118" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB118" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>1</v>
+      </c>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+      <c r="Y119" s="9"/>
+      <c r="Z119" s="9"/>
+      <c r="AA119" s="9"/>
+      <c r="AB119" s="9"/>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>2</v>
+      </c>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="9"/>
+      <c r="Y120" s="9"/>
+      <c r="Z120" s="9"/>
+      <c r="AA120" s="9"/>
+      <c r="AB120" s="9"/>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>3</v>
+      </c>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="9"/>
+      <c r="Y121" s="9"/>
+      <c r="Z121" s="9"/>
+      <c r="AA121" s="9"/>
+      <c r="AB121" s="9"/>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9"/>
+      <c r="Y122" s="9"/>
+      <c r="Z122" s="9"/>
+      <c r="AA122" s="9"/>
+      <c r="AB122" s="9"/>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O123" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P123" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R123" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S123" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T123" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U123" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V123" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W123" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X123" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y123" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z123" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA123" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB123" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>1</v>
+      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="U124" s="9"/>
+      <c r="V124" s="9"/>
+      <c r="W124" s="9"/>
+      <c r="X124" s="9"/>
+      <c r="Y124" s="9"/>
+      <c r="Z124" s="9"/>
+      <c r="AA124" s="9"/>
+      <c r="AB124" s="9"/>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>2</v>
+      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="9"/>
+      <c r="Z125" s="9"/>
+      <c r="AA125" s="9"/>
+      <c r="AB125" s="9"/>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="9"/>
+      <c r="Z126" s="9"/>
+      <c r="AA126" s="9"/>
+      <c r="AB126" s="9"/>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M127" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O127" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P127" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q127" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R127" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S127" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T127" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U127" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V127" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W127" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X127" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y127" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z127" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA127" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB127" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>1</v>
+      </c>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="9"/>
+      <c r="Y128" s="9"/>
+      <c r="Z128" s="9"/>
+      <c r="AA128" s="9"/>
+      <c r="AB128" s="9"/>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>2</v>
+      </c>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="9"/>
+      <c r="Y129" s="9"/>
+      <c r="Z129" s="9"/>
+      <c r="AA129" s="9"/>
+      <c r="AB129" s="9"/>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>3</v>
+      </c>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="U130" s="9"/>
+      <c r="V130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="9"/>
+      <c r="Y130" s="9"/>
+      <c r="Z130" s="9"/>
+      <c r="AA130" s="9"/>
+      <c r="AB130" s="9"/>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
+      <c r="U131" s="9"/>
+      <c r="V131" s="9"/>
+      <c r="W131" s="9"/>
+      <c r="X131" s="9"/>
+      <c r="Y131" s="9"/>
+      <c r="Z131" s="9"/>
+      <c r="AA131" s="9"/>
+      <c r="AB131" s="9"/>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J132" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M132" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N132" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O132" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P132" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R132" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S132" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T132" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U132" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V132" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W132" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X132" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y132" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z132" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA132" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB132" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>5</v>
+      </c>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
+      <c r="T133" s="9"/>
+      <c r="U133" s="9"/>
+      <c r="V133" s="9"/>
+      <c r="W133" s="9"/>
+      <c r="X133" s="9"/>
+      <c r="Y133" s="9"/>
+      <c r="Z133" s="9"/>
+      <c r="AA133" s="9"/>
+      <c r="AB133" s="9"/>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>6</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="9"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="9"/>
+      <c r="T134" s="9"/>
+      <c r="U134" s="9"/>
+      <c r="V134" s="9"/>
+      <c r="W134" s="9"/>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="9"/>
+      <c r="Z134" s="9"/>
+      <c r="AA134" s="9"/>
+      <c r="AB134" s="9"/>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>7</v>
+      </c>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="9"/>
+      <c r="Q135" s="9"/>
+      <c r="R135" s="9"/>
+      <c r="S135" s="9"/>
+      <c r="T135" s="9"/>
+      <c r="U135" s="9"/>
+      <c r="V135" s="9"/>
+      <c r="W135" s="9"/>
+      <c r="X135" s="9"/>
+      <c r="Y135" s="9"/>
+      <c r="Z135" s="9"/>
+      <c r="AA135" s="9"/>
+      <c r="AB135" s="9"/>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="9"/>
+      <c r="Q136" s="9"/>
+      <c r="R136" s="9"/>
+      <c r="S136" s="9"/>
+      <c r="T136" s="9"/>
+      <c r="U136" s="9"/>
+      <c r="V136" s="9"/>
+      <c r="W136" s="9"/>
+      <c r="X136" s="9"/>
+      <c r="Y136" s="9"/>
+      <c r="Z136" s="9"/>
+      <c r="AA136" s="9"/>
+      <c r="AB136" s="9"/>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O137" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P137" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q137" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R137" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S137" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T137" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U137" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V137" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W137" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X137" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y137" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z137" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA137" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB137" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>5</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="9"/>
+      <c r="T138" s="9"/>
+      <c r="U138" s="9"/>
+      <c r="V138" s="9"/>
+      <c r="W138" s="9"/>
+      <c r="X138" s="9"/>
+      <c r="Y138" s="9"/>
+      <c r="Z138" s="9"/>
+      <c r="AA138" s="9"/>
+      <c r="AB138" s="9"/>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>6</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="9"/>
+      <c r="Q139" s="9"/>
+      <c r="R139" s="9"/>
+      <c r="S139" s="9"/>
+      <c r="T139" s="9"/>
+      <c r="U139" s="9"/>
+      <c r="V139" s="9"/>
+      <c r="W139" s="9"/>
+      <c r="X139" s="9"/>
+      <c r="Y139" s="9"/>
+      <c r="Z139" s="9"/>
+      <c r="AA139" s="9"/>
+      <c r="AB139" s="9"/>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>7</v>
+      </c>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="9"/>
+      <c r="Q140" s="9"/>
+      <c r="R140" s="9"/>
+      <c r="S140" s="9"/>
+      <c r="T140" s="9"/>
+      <c r="U140" s="9"/>
+      <c r="V140" s="9"/>
+      <c r="W140" s="9"/>
+      <c r="X140" s="9"/>
+      <c r="Y140" s="9"/>
+      <c r="Z140" s="9"/>
+      <c r="AA140" s="9"/>
+      <c r="AB140" s="9"/>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="9"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="9"/>
+      <c r="T141" s="9"/>
+      <c r="U141" s="9"/>
+      <c r="V141" s="9"/>
+      <c r="W141" s="9"/>
+      <c r="X141" s="9"/>
+      <c r="Y141" s="9"/>
+      <c r="Z141" s="9"/>
+      <c r="AA141" s="9"/>
+      <c r="AB141" s="9"/>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O142" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P142" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R142" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T142" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U142" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V142" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W142" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X142" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y142" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z142" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA142" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB142" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>1</v>
+      </c>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="9"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="9"/>
+      <c r="T143" s="9"/>
+      <c r="U143" s="9"/>
+      <c r="V143" s="9"/>
+      <c r="W143" s="9"/>
+      <c r="X143" s="9"/>
+      <c r="Y143" s="9"/>
+      <c r="Z143" s="9"/>
+      <c r="AA143" s="9"/>
+      <c r="AB143" s="9"/>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>2</v>
+      </c>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="9"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="9"/>
+      <c r="T144" s="9"/>
+      <c r="U144" s="9"/>
+      <c r="V144" s="9"/>
+      <c r="W144" s="9"/>
+      <c r="X144" s="9"/>
+      <c r="Y144" s="9"/>
+      <c r="Z144" s="9"/>
+      <c r="AA144" s="9"/>
+      <c r="AB144" s="9"/>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>3</v>
+      </c>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="9"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="9"/>
+      <c r="T145" s="9"/>
+      <c r="U145" s="9"/>
+      <c r="V145" s="9"/>
+      <c r="W145" s="9"/>
+      <c r="X145" s="9"/>
+      <c r="Y145" s="9"/>
+      <c r="Z145" s="9"/>
+      <c r="AA145" s="9"/>
+      <c r="AB145" s="9"/>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="9"/>
+      <c r="T146" s="9"/>
+      <c r="U146" s="9"/>
+      <c r="V146" s="9"/>
+      <c r="W146" s="9"/>
+      <c r="X146" s="9"/>
+      <c r="Y146" s="9"/>
+      <c r="Z146" s="9"/>
+      <c r="AA146" s="9"/>
+      <c r="AB146" s="9"/>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O147" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P147" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q147" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R147" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S147" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T147" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U147" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V147" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W147" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X147" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y147" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z147" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA147" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB147" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>1</v>
+      </c>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
+      <c r="R148" s="9"/>
+      <c r="S148" s="9"/>
+      <c r="T148" s="9"/>
+      <c r="U148" s="9"/>
+      <c r="V148" s="9"/>
+      <c r="W148" s="9"/>
+      <c r="X148" s="9"/>
+      <c r="Y148" s="9"/>
+      <c r="Z148" s="9"/>
+      <c r="AA148" s="9"/>
+      <c r="AB148" s="9"/>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>2</v>
+      </c>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c r="L149" s="9"/>
+      <c r="M149" s="9"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="9"/>
+      <c r="T149" s="9"/>
+      <c r="U149" s="9"/>
+      <c r="V149" s="9"/>
+      <c r="W149" s="9"/>
+      <c r="X149" s="9"/>
+      <c r="Y149" s="9"/>
+      <c r="Z149" s="9"/>
+      <c r="AA149" s="9"/>
+      <c r="AB149" s="9"/>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A150" s="7">
+        <v>3</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+      <c r="R150" s="9"/>
+      <c r="S150" s="9"/>
+      <c r="T150" s="9"/>
+      <c r="U150" s="9"/>
+      <c r="V150" s="9"/>
+      <c r="W150" s="9"/>
+      <c r="X150" s="9"/>
+      <c r="Y150" s="9"/>
+      <c r="Z150" s="9"/>
+      <c r="AA150" s="9"/>
+      <c r="AB150" s="9"/>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
+      <c r="R151" s="9"/>
+      <c r="S151" s="9"/>
+      <c r="T151" s="9"/>
+      <c r="U151" s="9"/>
+      <c r="V151" s="9"/>
+      <c r="W151" s="9"/>
+      <c r="X151" s="9"/>
+      <c r="Y151" s="9"/>
+      <c r="Z151" s="9"/>
+      <c r="AA151" s="9"/>
+      <c r="AB151" s="9"/>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
+      <c r="R152" s="9"/>
+      <c r="S152" s="9"/>
+      <c r="T152" s="9"/>
+      <c r="U152" s="9"/>
+      <c r="V152" s="9"/>
+      <c r="W152" s="9"/>
+      <c r="X152" s="9"/>
+      <c r="Y152" s="9"/>
+      <c r="Z152" s="9"/>
+      <c r="AA152" s="9"/>
+      <c r="AB152" s="9"/>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC153" s="8"/>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC154" s="8"/>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC155" s="8"/>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC156" s="8"/>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC157" s="8"/>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC158" s="8"/>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC159" s="8"/>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC160" s="8"/>
+    </row>
+    <row r="161" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC161" s="8"/>
+    </row>
+    <row r="162" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC162" s="8"/>
+    </row>
+    <row r="163" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC163" s="8"/>
+    </row>
+    <row r="164" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC164" s="8"/>
+    </row>
+    <row r="165" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC165" s="8"/>
+    </row>
+    <row r="166" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC166" s="8"/>
+    </row>
+    <row r="167" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC167" s="8"/>
+    </row>
+    <row r="168" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC168" s="8"/>
+    </row>
+    <row r="169" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC169" s="8"/>
+    </row>
+    <row r="170" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC170" s="8"/>
+    </row>
+    <row r="171" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC171" s="8"/>
+    </row>
+    <row r="172" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC172" s="8"/>
+    </row>
+    <row r="173" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC173" s="8"/>
+    </row>
+    <row r="174" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC174" s="8"/>
+    </row>
+    <row r="175" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC175" s="8"/>
+    </row>
+    <row r="176" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC176" s="8"/>
+    </row>
+    <row r="177" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC177" s="8"/>
+    </row>
+    <row r="178" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC178" s="8"/>
+    </row>
+    <row r="179" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC179" s="8"/>
+    </row>
+    <row r="180" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC180" s="8"/>
+    </row>
+    <row r="181" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC181" s="8"/>
+    </row>
+    <row r="182" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC182" s="8"/>
+    </row>
+    <row r="183" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC183" s="8"/>
+    </row>
+    <row r="184" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC184" s="8"/>
+    </row>
+    <row r="185" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC185" s="8"/>
+    </row>
+    <row r="186" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC186" s="8"/>
+    </row>
+    <row r="187" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC187" s="8"/>
+    </row>
+    <row r="188" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC188" s="8"/>
+    </row>
+    <row r="189" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC189" s="8"/>
+    </row>
+    <row r="190" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC190" s="8"/>
+    </row>
+    <row r="191" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC191" s="8"/>
+    </row>
+    <row r="192" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC192" s="8"/>
+    </row>
+    <row r="193" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC193" s="8"/>
+    </row>
+    <row r="194" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC194" s="8"/>
+    </row>
+    <row r="195" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC195" s="8"/>
+    </row>
+    <row r="196" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC196" s="8"/>
+    </row>
+    <row r="197" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC197" s="8"/>
+    </row>
+    <row r="198" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC198" s="8"/>
+    </row>
+    <row r="199" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC199" s="8"/>
+    </row>
+    <row r="200" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC200" s="8"/>
+    </row>
+    <row r="201" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC201" s="8"/>
+    </row>
+    <row r="202" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC202" s="8"/>
+    </row>
+    <row r="203" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC203" s="8"/>
+    </row>
+    <row r="204" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC204" s="8"/>
+    </row>
+    <row r="205" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC205" s="8"/>
+    </row>
+    <row r="206" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC206" s="8"/>
+    </row>
+    <row r="207" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC207" s="8"/>
+    </row>
+    <row r="208" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC208" s="8"/>
+    </row>
+    <row r="209" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC209" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="99">
   <si>
     <t>BRANCH</t>
   </si>
@@ -233,49 +233,439 @@
     <t>BRANCH &amp; LINK</t>
   </si>
   <si>
-    <t>and - 1</t>
-  </si>
-  <si>
-    <t>eor - 1</t>
-  </si>
-  <si>
-    <t>rsb - 1</t>
-  </si>
-  <si>
-    <t>add - 1</t>
-  </si>
-  <si>
-    <t>adc - 1</t>
-  </si>
-  <si>
-    <t>sbc - 1</t>
-  </si>
-  <si>
-    <t>rsc - 1</t>
-  </si>
-  <si>
-    <t>tst - 1</t>
-  </si>
-  <si>
-    <t>teq - 1</t>
-  </si>
-  <si>
-    <t>cmp - 1</t>
-  </si>
-  <si>
-    <t>cmn - 1</t>
-  </si>
-  <si>
-    <t>orr - 1</t>
-  </si>
-  <si>
-    <t>mov - 1</t>
-  </si>
-  <si>
-    <t>bic - 1</t>
-  </si>
-  <si>
-    <t>mvn - 1</t>
+    <t>(immed)   mvn - 1</t>
+  </si>
+  <si>
+    <t>(immed)   bic - 1</t>
+  </si>
+  <si>
+    <t>(immed)   mov - 1</t>
+  </si>
+  <si>
+    <t>(immed)   orr - 1</t>
+  </si>
+  <si>
+    <t>(immed)   cmn - 1</t>
+  </si>
+  <si>
+    <t>(immed)   cmp - 1</t>
+  </si>
+  <si>
+    <t>(immed)   teq - 1</t>
+  </si>
+  <si>
+    <t>(immed)   tst - 1</t>
+  </si>
+  <si>
+    <t>(immed)   rsc - 1</t>
+  </si>
+  <si>
+    <t>(immed)   sbc - 1</t>
+  </si>
+  <si>
+    <t>(immed)   adc - 1</t>
+  </si>
+  <si>
+    <t>(immed)   add - 1</t>
+  </si>
+  <si>
+    <t>(immed)   rsb - 1</t>
+  </si>
+  <si>
+    <t>(immed)   eor - 1</t>
+  </si>
+  <si>
+    <t>(immed)   and - 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rsb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sbc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rsc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(32-bit)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mvn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -314,7 +704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +735,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -358,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -384,6 +786,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,41 +1805,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
+    <row r="13" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>70</v>
+      <c r="A14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1453,1204 +1868,1144 @@
       <c r="AB14" s="9"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+    </row>
+    <row r="17" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+    </row>
+    <row r="20" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+    </row>
+    <row r="22" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+    </row>
+    <row r="23" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+    </row>
+    <row r="24" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+    </row>
+    <row r="25" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+    </row>
+    <row r="26" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+    </row>
+    <row r="27" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+    </row>
+    <row r="29" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+    </row>
+    <row r="31" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+    </row>
+    <row r="33" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+    </row>
+    <row r="34" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+    </row>
+    <row r="35" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+    </row>
+    <row r="36" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+    </row>
+    <row r="37" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+    </row>
+    <row r="38" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+    </row>
+    <row r="39" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+    </row>
+    <row r="40" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+    </row>
+    <row r="41" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+    </row>
+    <row r="42" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+    </row>
+    <row r="43" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y29" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+    </row>
+    <row r="44" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+    </row>
+    <row r="45" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+    </row>
+    <row r="46" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+    </row>
+    <row r="47" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+    </row>
+    <row r="48" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V47" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W47" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y47" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>1</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>2</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2681,7 +3036,7 @@
       <c r="AB49" s="9"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="9"/>
@@ -2713,126 +3068,126 @@
       <c r="AB50" s="9"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
-      <c r="Z51" s="9"/>
-      <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
+      <c r="A51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W51" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X51" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y51" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z51" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA51" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O52" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R52" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S52" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V52" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W52" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X52" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y52" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z52" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA52" s="11" t="s">
+      <c r="A52" s="7">
         <v>1</v>
       </c>
-      <c r="AB52" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2864,7 +3219,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2896,7 +3251,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -3078,7 +3433,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3260,7 +3615,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3441,8 +3796,8 @@
       <c r="AB66" s="9"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
-        <v>3</v>
+      <c r="A67" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3473,126 +3828,126 @@
       <c r="AB67" s="9"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
+      <c r="A68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R68" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T68" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W68" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X68" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y68" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z68" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA68" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L69" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N69" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P69" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R69" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S69" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T69" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U69" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V69" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W69" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y69" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA69" s="11" t="s">
+      <c r="A69" s="7">
         <v>1</v>
       </c>
-      <c r="AB69" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3624,7 +3979,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3655,8 +4010,8 @@
       <c r="AB71" s="9"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
-        <v>3</v>
+      <c r="A72" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3687,40 +4042,94 @@
       <c r="AB72" s="9"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-      <c r="AB73" s="9"/>
+      <c r="A73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T73" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V73" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W73" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X73" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y73" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z73" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA73" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>3</v>
+      <c r="A74" s="7">
+        <v>1</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3751,94 +4160,40 @@
       <c r="AB74" s="9"/>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K75" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O75" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P75" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R75" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S75" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T75" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U75" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V75" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W75" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y75" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA75" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB75" s="11" t="s">
+      <c r="A75" s="7">
         <v>2</v>
       </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3869,9 +4224,7 @@
       <c r="AB76" s="9"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
-        <v>2</v>
-      </c>
+      <c r="A77" s="7"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -3901,8 +4254,8 @@
       <c r="AB77" s="9"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
-        <v>3</v>
+      <c r="A78" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3934,7 +4287,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -4115,8 +4468,8 @@
       <c r="AB82" s="9"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>4</v>
+      <c r="A83" s="7">
+        <v>3</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -4147,126 +4500,126 @@
       <c r="AB83" s="9"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B85" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D85" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E85" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="G85" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="I85" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="J85" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K85" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L85" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M85" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N85" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O85" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P85" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q85" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R84" s="11" t="s">
+      <c r="R85" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S84" s="11" t="s">
+      <c r="S85" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T84" s="11" t="s">
+      <c r="T85" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U84" s="11" t="s">
+      <c r="U85" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V84" s="11" t="s">
+      <c r="V85" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W84" s="11" t="s">
+      <c r="W85" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X84" s="11" t="s">
+      <c r="X85" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y84" s="11" t="s">
+      <c r="Y85" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z84" s="11" t="s">
+      <c r="Z85" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AA84" s="11" t="s">
+      <c r="AA85" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB84" s="11" t="s">
+      <c r="AB85" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
-        <v>1</v>
-      </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="9"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-      <c r="Y85" s="9"/>
-      <c r="Z85" s="9"/>
-      <c r="AA85" s="9"/>
-      <c r="AB85" s="9"/>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -4297,8 +4650,8 @@
       <c r="AB86" s="9"/>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>7</v>
+      <c r="A87" s="7">
+        <v>2</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -4329,126 +4682,126 @@
       <c r="AB87" s="9"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
+      <c r="Z88" s="9"/>
+      <c r="AA88" s="9"/>
+      <c r="AB88" s="9"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D89" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E89" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F89" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="G89" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="I89" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="J89" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K88" s="11" t="s">
+      <c r="K89" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L88" s="11" t="s">
+      <c r="L89" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M89" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N89" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O88" s="11" t="s">
+      <c r="O89" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P89" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q88" s="11" t="s">
+      <c r="Q89" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R88" s="11" t="s">
+      <c r="R89" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S88" s="11" t="s">
+      <c r="S89" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T88" s="11" t="s">
+      <c r="T89" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U88" s="11" t="s">
+      <c r="U89" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V88" s="11" t="s">
+      <c r="V89" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W88" s="11" t="s">
+      <c r="W89" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X88" s="11" t="s">
+      <c r="X89" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y88" s="11" t="s">
+      <c r="Y89" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z88" s="11" t="s">
+      <c r="Z89" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AA88" s="11" t="s">
+      <c r="AA89" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB88" s="11" t="s">
+      <c r="AB89" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
-        <v>1</v>
-      </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-      <c r="U89" s="9"/>
-      <c r="V89" s="9"/>
-      <c r="W89" s="9"/>
-      <c r="X89" s="9"/>
-      <c r="Y89" s="9"/>
-      <c r="Z89" s="9"/>
-      <c r="AA89" s="9"/>
-      <c r="AB89" s="9"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -4479,8 +4832,8 @@
       <c r="AB90" s="9"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>5</v>
+      <c r="A91" s="7">
+        <v>2</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -4511,126 +4864,126 @@
       <c r="AB91" s="9"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
+      <c r="Z92" s="9"/>
+      <c r="AA92" s="9"/>
+      <c r="AB92" s="9"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D93" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E93" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F93" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G93" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I93" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J93" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K93" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L93" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M93" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N93" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O92" s="11" t="s">
+      <c r="O93" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P92" s="11" t="s">
+      <c r="P93" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q92" s="11" t="s">
+      <c r="Q93" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R92" s="11" t="s">
+      <c r="R93" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S92" s="11" t="s">
+      <c r="S93" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T92" s="11" t="s">
+      <c r="T93" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U92" s="11" t="s">
+      <c r="U93" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V92" s="11" t="s">
+      <c r="V93" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W92" s="11" t="s">
+      <c r="W93" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X92" s="11" t="s">
+      <c r="X93" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y92" s="11" t="s">
+      <c r="Y93" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z92" s="11" t="s">
+      <c r="Z93" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AA92" s="11" t="s">
+      <c r="AA93" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB92" s="11" t="s">
+      <c r="AB93" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
-        <v>1</v>
-      </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="9"/>
-      <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
-      <c r="X93" s="9"/>
-      <c r="Y93" s="9"/>
-      <c r="Z93" s="9"/>
-      <c r="AA93" s="9"/>
-      <c r="AB93" s="9"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -4662,7 +5015,7 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -4694,7 +5047,7 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -4907,8 +5260,8 @@
       <c r="AB100" s="9"/>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>64</v>
+      <c r="A101" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4939,126 +5292,126 @@
       <c r="AB101" s="9"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="9"/>
-      <c r="Y102" s="9"/>
-      <c r="Z102" s="9"/>
-      <c r="AA102" s="9"/>
-      <c r="AB102" s="9"/>
+      <c r="A102" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N102" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O102" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P102" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R102" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S102" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T102" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U102" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V102" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W102" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X102" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y102" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z102" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA102" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB102" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J103" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K103" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L103" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M103" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N103" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O103" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P103" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q103" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R103" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S103" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T103" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U103" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V103" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W103" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X103" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y103" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z103" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA103" s="11" t="s">
+      <c r="A103" s="7">
         <v>1</v>
       </c>
-      <c r="AB103" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+      <c r="AB103" s="9"/>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -5090,7 +5443,7 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -5121,9 +5474,7 @@
       <c r="AB105" s="9"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
-        <v>3</v>
-      </c>
+      <c r="A106" s="7"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -5153,8 +5504,8 @@
       <c r="AB106" s="9"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>4</v>
+      <c r="A107" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -5185,126 +5536,126 @@
       <c r="AB107" s="9"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
+      <c r="Z108" s="9"/>
+      <c r="AA108" s="9"/>
+      <c r="AB108" s="9"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D109" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E109" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F109" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="11" t="s">
+      <c r="G109" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="H109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="I109" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J108" s="11" t="s">
+      <c r="J109" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K108" s="11" t="s">
+      <c r="K109" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L108" s="11" t="s">
+      <c r="L109" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M109" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N109" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O109" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P108" s="11" t="s">
+      <c r="P109" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q108" s="11" t="s">
+      <c r="Q109" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R108" s="11" t="s">
+      <c r="R109" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S108" s="11" t="s">
+      <c r="S109" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T108" s="11" t="s">
+      <c r="T109" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U108" s="11" t="s">
+      <c r="U109" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V108" s="11" t="s">
+      <c r="V109" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W108" s="11" t="s">
+      <c r="W109" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X108" s="11" t="s">
+      <c r="X109" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y108" s="11" t="s">
+      <c r="Y109" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z108" s="11" t="s">
+      <c r="Z109" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AA108" s="11" t="s">
+      <c r="AA109" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB108" s="11" t="s">
+      <c r="AB109" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
-        <v>1</v>
-      </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="9"/>
-      <c r="P109" s="9"/>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
-      <c r="X109" s="9"/>
-      <c r="Y109" s="9"/>
-      <c r="Z109" s="9"/>
-      <c r="AA109" s="9"/>
-      <c r="AB109" s="9"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -5335,8 +5686,8 @@
       <c r="AB110" s="9"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>5</v>
+      <c r="A111" s="7">
+        <v>2</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -5367,94 +5718,40 @@
       <c r="AB111" s="9"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H112" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J112" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K112" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L112" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M112" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N112" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O112" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P112" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q112" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R112" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S112" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T112" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U112" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V112" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W112" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X112" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y112" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z112" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA112" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB112" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A112" s="7">
+        <v>3</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="9"/>
+      <c r="Y112" s="9"/>
+      <c r="Z112" s="9"/>
+      <c r="AA112" s="9"/>
+      <c r="AB112" s="9"/>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
-        <v>1</v>
+      <c r="A113" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -5485,40 +5782,94 @@
       <c r="AB113" s="9"/>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+      <c r="A114" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O114" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P114" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q114" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R114" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T114" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U114" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V114" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W114" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X114" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y114" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z114" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA114" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB114" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
-      <c r="Y114" s="9"/>
-      <c r="Z114" s="9"/>
-      <c r="AA114" s="9"/>
-      <c r="AB114" s="9"/>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -5549,8 +5900,8 @@
       <c r="AB115" s="9"/>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>65</v>
+      <c r="A116" s="7">
+        <v>2</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -5582,7 +5933,7 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -5795,9 +6146,7 @@
       <c r="AB121" s="9"/>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A122" s="7"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -5827,94 +6176,40 @@
       <c r="AB122" s="9"/>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J123" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K123" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L123" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M123" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N123" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O123" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P123" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q123" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R123" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S123" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T123" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U123" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V123" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W123" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X123" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y123" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z123" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA123" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB123" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A123" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+      <c r="X123" s="9"/>
+      <c r="Y123" s="9"/>
+      <c r="Z123" s="9"/>
+      <c r="AA123" s="9"/>
+      <c r="AB123" s="9"/>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A124" s="7">
-        <v>1</v>
+      <c r="A124" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -5945,40 +6240,94 @@
       <c r="AB124" s="9"/>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+      <c r="A125" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H125" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O125" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P125" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R125" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S125" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T125" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U125" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V125" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W125" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X125" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y125" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z125" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA125" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB125" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-      <c r="M125" s="9"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="9"/>
-      <c r="P125" s="9"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="9"/>
-      <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="9"/>
-      <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
-      <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
-      <c r="Z125" s="9"/>
-      <c r="AA125" s="9"/>
-      <c r="AB125" s="9"/>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>5</v>
+      <c r="A126" s="7">
+        <v>1</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -6009,94 +6358,40 @@
       <c r="AB126" s="9"/>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J127" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K127" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L127" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M127" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N127" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O127" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P127" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q127" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R127" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S127" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T127" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U127" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V127" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W127" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X127" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y127" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z127" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA127" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB127" s="11" t="s">
+      <c r="A127" s="7">
         <v>2</v>
       </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="9"/>
+      <c r="Y127" s="9"/>
+      <c r="Z127" s="9"/>
+      <c r="AA127" s="9"/>
+      <c r="AB127" s="9"/>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -6127,8 +6422,8 @@
       <c r="AB128" s="9"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
-        <v>2</v>
+      <c r="A129" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -6159,40 +6454,94 @@
       <c r="AB129" s="9"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A130" s="7">
-        <v>3</v>
-      </c>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-      <c r="M130" s="9"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="9"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="9"/>
-      <c r="S130" s="9"/>
-      <c r="T130" s="9"/>
-      <c r="U130" s="9"/>
-      <c r="V130" s="9"/>
-      <c r="W130" s="9"/>
-      <c r="X130" s="9"/>
-      <c r="Y130" s="9"/>
-      <c r="Z130" s="9"/>
-      <c r="AA130" s="9"/>
-      <c r="AB130" s="9"/>
+      <c r="A130" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K130" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M130" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N130" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O130" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P130" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q130" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R130" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S130" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T130" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U130" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V130" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W130" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X130" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y130" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z130" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA130" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB130" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>62</v>
+      <c r="A131" s="7">
+        <v>1</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -6223,93 +6572,39 @@
       <c r="AB131" s="9"/>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J132" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K132" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L132" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M132" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N132" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O132" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P132" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q132" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R132" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S132" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T132" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U132" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V132" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W132" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X132" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y132" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z132" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA132" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB132" s="11" t="s">
+      <c r="A132" s="7">
         <v>2</v>
       </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="9"/>
+      <c r="Y132" s="9"/>
+      <c r="Z132" s="9"/>
+      <c r="AA132" s="9"/>
+      <c r="AB132" s="9"/>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
+      <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B133" s="9"/>
@@ -6341,40 +6636,94 @@
       <c r="AB133" s="9"/>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
-        <v>6</v>
-      </c>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="9"/>
-      <c r="S134" s="9"/>
-      <c r="T134" s="9"/>
-      <c r="U134" s="9"/>
-      <c r="V134" s="9"/>
-      <c r="W134" s="9"/>
-      <c r="X134" s="9"/>
-      <c r="Y134" s="9"/>
-      <c r="Z134" s="9"/>
-      <c r="AA134" s="9"/>
-      <c r="AB134" s="9"/>
+      <c r="A134" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O134" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P134" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q134" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R134" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T134" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U134" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V134" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W134" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X134" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y134" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z134" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA134" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB134" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -6405,8 +6754,8 @@
       <c r="AB135" s="9"/>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>63</v>
+      <c r="A136" s="7">
+        <v>2</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -6437,95 +6786,39 @@
       <c r="AB136" s="9"/>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I137" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J137" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K137" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L137" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M137" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N137" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O137" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P137" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q137" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R137" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S137" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T137" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U137" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V137" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W137" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X137" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y137" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z137" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA137" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB137" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A137" s="7">
+        <v>3</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+      <c r="R137" s="9"/>
+      <c r="S137" s="9"/>
+      <c r="T137" s="9"/>
+      <c r="U137" s="9"/>
+      <c r="V137" s="9"/>
+      <c r="W137" s="9"/>
+      <c r="X137" s="9"/>
+      <c r="Y137" s="9"/>
+      <c r="Z137" s="9"/>
+      <c r="AA137" s="9"/>
+      <c r="AB137" s="9"/>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A138" s="7">
-        <v>5</v>
-      </c>
+      <c r="A138" s="7"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -6555,8 +6848,8 @@
       <c r="AB138" s="9"/>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A139" s="7">
-        <v>6</v>
+      <c r="A139" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -6587,40 +6880,94 @@
       <c r="AB139" s="9"/>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A140" s="7">
-        <v>7</v>
-      </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="9"/>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="9"/>
-      <c r="R140" s="9"/>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9"/>
-      <c r="U140" s="9"/>
-      <c r="V140" s="9"/>
-      <c r="W140" s="9"/>
-      <c r="X140" s="9"/>
-      <c r="Y140" s="9"/>
-      <c r="Z140" s="9"/>
-      <c r="AA140" s="9"/>
-      <c r="AB140" s="9"/>
+      <c r="A140" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M140" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N140" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O140" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P140" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q140" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R140" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S140" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T140" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U140" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V140" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W140" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X140" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y140" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z140" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA140" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB140" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>68</v>
+      <c r="A141" s="7">
+        <v>5</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -6651,94 +6998,40 @@
       <c r="AB141" s="9"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J142" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K142" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L142" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M142" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N142" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O142" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P142" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q142" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R142" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S142" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="T142" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="U142" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V142" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W142" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X142" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y142" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z142" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA142" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB142" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A142" s="7">
+        <v>6</v>
+      </c>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="9"/>
+      <c r="T142" s="9"/>
+      <c r="U142" s="9"/>
+      <c r="V142" s="9"/>
+      <c r="W142" s="9"/>
+      <c r="X142" s="9"/>
+      <c r="Y142" s="9"/>
+      <c r="Z142" s="9"/>
+      <c r="AA142" s="9"/>
+      <c r="AB142" s="9"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -6769,9 +7062,7 @@
       <c r="AB143" s="9"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A144" s="7">
-        <v>2</v>
-      </c>
+      <c r="A144" s="7"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -6800,9 +7091,9 @@
       <c r="AA144" s="9"/>
       <c r="AB144" s="9"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A145" s="7">
-        <v>3</v>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -6832,127 +7123,127 @@
       <c r="AA145" s="9"/>
       <c r="AB145" s="9"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
-      <c r="P146" s="9"/>
-      <c r="Q146" s="9"/>
-      <c r="R146" s="9"/>
-      <c r="S146" s="9"/>
-      <c r="T146" s="9"/>
-      <c r="U146" s="9"/>
-      <c r="V146" s="9"/>
-      <c r="W146" s="9"/>
-      <c r="X146" s="9"/>
-      <c r="Y146" s="9"/>
-      <c r="Z146" s="9"/>
-      <c r="AA146" s="9"/>
-      <c r="AB146" s="9"/>
-    </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B146" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D146" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E146" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F146" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G147" s="11" t="s">
+      <c r="G146" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H147" s="11" t="s">
+      <c r="H146" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I147" s="11" t="s">
+      <c r="I146" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J147" s="11" t="s">
+      <c r="J146" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K147" s="11" t="s">
+      <c r="K146" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L147" s="11" t="s">
+      <c r="L146" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="M147" s="11" t="s">
+      <c r="M146" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N147" s="11" t="s">
+      <c r="N146" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O147" s="11" t="s">
+      <c r="O146" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P147" s="11" t="s">
+      <c r="P146" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q147" s="11" t="s">
+      <c r="Q146" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R147" s="11" t="s">
+      <c r="R146" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S147" s="11" t="s">
+      <c r="S146" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T147" s="11" t="s">
+      <c r="T146" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U147" s="11" t="s">
+      <c r="U146" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V147" s="11" t="s">
+      <c r="V146" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W147" s="11" t="s">
+      <c r="W146" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="X147" s="11" t="s">
+      <c r="X146" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y147" s="11" t="s">
+      <c r="Y146" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z147" s="11" t="s">
+      <c r="Z146" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AA147" s="11" t="s">
+      <c r="AA146" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AB147" s="11" t="s">
+      <c r="AB146" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>8</v>
+      </c>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
+      <c r="R147" s="9"/>
+      <c r="S147" s="9"/>
+      <c r="T147" s="9"/>
+      <c r="U147" s="9"/>
+      <c r="V147" s="9"/>
+      <c r="W147" s="9"/>
+      <c r="X147" s="9"/>
+      <c r="Y147" s="9"/>
+      <c r="Z147" s="9"/>
+      <c r="AA147" s="9"/>
+      <c r="AB147" s="9"/>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -6982,9 +7273,9 @@
       <c r="AA148" s="9"/>
       <c r="AB148" s="9"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -7014,10 +7305,8 @@
       <c r="AA149" s="9"/>
       <c r="AB149" s="9"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A150" s="7">
-        <v>3</v>
-      </c>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A150" s="7"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -7046,7 +7335,10 @@
       <c r="AA150" s="9"/>
       <c r="AB150" s="9"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -7075,105 +7367,527 @@
       <c r="AA151" s="9"/>
       <c r="AB151" s="9"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
-      <c r="L152" s="9"/>
-      <c r="M152" s="9"/>
-      <c r="N152" s="9"/>
-      <c r="O152" s="9"/>
-      <c r="P152" s="9"/>
-      <c r="Q152" s="9"/>
-      <c r="R152" s="9"/>
-      <c r="S152" s="9"/>
-      <c r="T152" s="9"/>
-      <c r="U152" s="9"/>
-      <c r="V152" s="9"/>
-      <c r="W152" s="9"/>
-      <c r="X152" s="9"/>
-      <c r="Y152" s="9"/>
-      <c r="Z152" s="9"/>
-      <c r="AA152" s="9"/>
-      <c r="AB152" s="9"/>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC153" s="8"/>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC154" s="8"/>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC155" s="8"/>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC156" s="8"/>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC157" s="8"/>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC158" s="8"/>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC159" s="8"/>
-    </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AC160" s="8"/>
-    </row>
-    <row r="161" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC161" s="8"/>
-    </row>
-    <row r="162" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC162" s="8"/>
-    </row>
-    <row r="163" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC163" s="8"/>
-    </row>
-    <row r="164" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K152" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O152" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P152" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R152" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S152" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T152" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U152" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V152" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W152" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X152" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y152" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z152" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA152" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB152" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
+        <v>1</v>
+      </c>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9"/>
+      <c r="R153" s="9"/>
+      <c r="S153" s="9"/>
+      <c r="T153" s="9"/>
+      <c r="U153" s="9"/>
+      <c r="V153" s="9"/>
+      <c r="W153" s="9"/>
+      <c r="X153" s="9"/>
+      <c r="Y153" s="9"/>
+      <c r="Z153" s="9"/>
+      <c r="AA153" s="9"/>
+      <c r="AB153" s="9"/>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>2</v>
+      </c>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="9"/>
+      <c r="O154" s="9"/>
+      <c r="P154" s="9"/>
+      <c r="Q154" s="9"/>
+      <c r="R154" s="9"/>
+      <c r="S154" s="9"/>
+      <c r="T154" s="9"/>
+      <c r="U154" s="9"/>
+      <c r="V154" s="9"/>
+      <c r="W154" s="9"/>
+      <c r="X154" s="9"/>
+      <c r="Y154" s="9"/>
+      <c r="Z154" s="9"/>
+      <c r="AA154" s="9"/>
+      <c r="AB154" s="9"/>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
+        <v>3</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9"/>
+      <c r="R155" s="9"/>
+      <c r="S155" s="9"/>
+      <c r="T155" s="9"/>
+      <c r="U155" s="9"/>
+      <c r="V155" s="9"/>
+      <c r="W155" s="9"/>
+      <c r="X155" s="9"/>
+      <c r="Y155" s="9"/>
+      <c r="Z155" s="9"/>
+      <c r="AA155" s="9"/>
+      <c r="AB155" s="9"/>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="9"/>
+      <c r="R156" s="9"/>
+      <c r="S156" s="9"/>
+      <c r="T156" s="9"/>
+      <c r="U156" s="9"/>
+      <c r="V156" s="9"/>
+      <c r="W156" s="9"/>
+      <c r="X156" s="9"/>
+      <c r="Y156" s="9"/>
+      <c r="Z156" s="9"/>
+      <c r="AA156" s="9"/>
+      <c r="AB156" s="9"/>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
+      <c r="R157" s="9"/>
+      <c r="S157" s="9"/>
+      <c r="T157" s="9"/>
+      <c r="U157" s="9"/>
+      <c r="V157" s="9"/>
+      <c r="W157" s="9"/>
+      <c r="X157" s="9"/>
+      <c r="Y157" s="9"/>
+      <c r="Z157" s="9"/>
+      <c r="AA157" s="9"/>
+      <c r="AB157" s="9"/>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K158" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L158" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M158" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N158" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O158" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P158" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q158" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R158" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S158" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T158" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U158" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V158" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W158" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X158" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y158" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z158" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA158" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB158" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
+        <v>1</v>
+      </c>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="9"/>
+      <c r="L159" s="9"/>
+      <c r="M159" s="9"/>
+      <c r="N159" s="9"/>
+      <c r="O159" s="9"/>
+      <c r="P159" s="9"/>
+      <c r="Q159" s="9"/>
+      <c r="R159" s="9"/>
+      <c r="S159" s="9"/>
+      <c r="T159" s="9"/>
+      <c r="U159" s="9"/>
+      <c r="V159" s="9"/>
+      <c r="W159" s="9"/>
+      <c r="X159" s="9"/>
+      <c r="Y159" s="9"/>
+      <c r="Z159" s="9"/>
+      <c r="AA159" s="9"/>
+      <c r="AB159" s="9"/>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A160" s="7">
+        <v>2</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="9"/>
+      <c r="Q160" s="9"/>
+      <c r="R160" s="9"/>
+      <c r="S160" s="9"/>
+      <c r="T160" s="9"/>
+      <c r="U160" s="9"/>
+      <c r="V160" s="9"/>
+      <c r="W160" s="9"/>
+      <c r="X160" s="9"/>
+      <c r="Y160" s="9"/>
+      <c r="Z160" s="9"/>
+      <c r="AA160" s="9"/>
+      <c r="AB160" s="9"/>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>3</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
+      <c r="O161" s="9"/>
+      <c r="P161" s="9"/>
+      <c r="Q161" s="9"/>
+      <c r="R161" s="9"/>
+      <c r="S161" s="9"/>
+      <c r="T161" s="9"/>
+      <c r="U161" s="9"/>
+      <c r="V161" s="9"/>
+      <c r="W161" s="9"/>
+      <c r="X161" s="9"/>
+      <c r="Y161" s="9"/>
+      <c r="Z161" s="9"/>
+      <c r="AA161" s="9"/>
+      <c r="AB161" s="9"/>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="9"/>
+      <c r="R162" s="9"/>
+      <c r="S162" s="9"/>
+      <c r="T162" s="9"/>
+      <c r="U162" s="9"/>
+      <c r="V162" s="9"/>
+      <c r="W162" s="9"/>
+      <c r="X162" s="9"/>
+      <c r="Y162" s="9"/>
+      <c r="Z162" s="9"/>
+      <c r="AA162" s="9"/>
+      <c r="AB162" s="9"/>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="9"/>
+      <c r="R163" s="9"/>
+      <c r="S163" s="9"/>
+      <c r="T163" s="9"/>
+      <c r="U163" s="9"/>
+      <c r="V163" s="9"/>
+      <c r="W163" s="9"/>
+      <c r="X163" s="9"/>
+      <c r="Y163" s="9"/>
+      <c r="Z163" s="9"/>
+      <c r="AA163" s="9"/>
+      <c r="AB163" s="9"/>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC164" s="8"/>
     </row>
-    <row r="165" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC165" s="8"/>
     </row>
-    <row r="166" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC166" s="8"/>
     </row>
-    <row r="167" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC167" s="8"/>
     </row>
-    <row r="168" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC168" s="8"/>
     </row>
-    <row r="169" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC169" s="8"/>
     </row>
-    <row r="170" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC170" s="8"/>
     </row>
-    <row r="171" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC171" s="8"/>
     </row>
-    <row r="172" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC172" s="8"/>
     </row>
-    <row r="173" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC173" s="8"/>
     </row>
-    <row r="174" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC174" s="8"/>
     </row>
-    <row r="175" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC175" s="8"/>
     </row>
-    <row r="176" spans="29:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="AC176" s="8"/>
     </row>
     <row r="177" spans="29:29" x14ac:dyDescent="0.25">
@@ -7274,6 +7988,39 @@
     </row>
     <row r="209" spans="29:29" x14ac:dyDescent="0.25">
       <c r="AC209" s="8"/>
+    </row>
+    <row r="210" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC210" s="8"/>
+    </row>
+    <row r="211" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC211" s="8"/>
+    </row>
+    <row r="212" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC212" s="8"/>
+    </row>
+    <row r="213" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC213" s="8"/>
+    </row>
+    <row r="214" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC214" s="8"/>
+    </row>
+    <row r="215" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC215" s="8"/>
+    </row>
+    <row r="216" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC216" s="8"/>
+    </row>
+    <row r="217" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC217" s="8"/>
+    </row>
+    <row r="218" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC218" s="8"/>
+    </row>
+    <row r="219" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC219" s="8"/>
+    </row>
+    <row r="220" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC220" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="152">
   <si>
     <t>BRANCH</t>
   </si>
@@ -159,12 +159,6 @@
   </si>
   <si>
     <t>Misc. Store SB, SH, &amp; D</t>
-  </si>
-  <si>
-    <t>Store W &amp; UB</t>
-  </si>
-  <si>
-    <t>Load W &amp; UB</t>
   </si>
   <si>
     <t>BRANCH &amp; LINK</t>
@@ -770,6 +764,90 @@
   </si>
   <si>
     <t>(immed)   mvn - 35</t>
+  </si>
+  <si>
+    <t>Load W &amp; B</t>
+  </si>
+  <si>
+    <t>Store W &amp; B</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>Rn=EA</t>
+  </si>
+  <si>
+    <t>EA=Rn - 1</t>
+  </si>
+  <si>
+    <t>Rn=EA - 1</t>
+  </si>
+  <si>
+    <t>EA=Rn+offset_12 - 1</t>
+  </si>
+  <si>
+    <t>EA=Rn+Rm - 1</t>
+  </si>
+  <si>
+    <t>Rn=Rn+offset_12</t>
+  </si>
+  <si>
+    <t>Rn=Rn+Rm</t>
+  </si>
+  <si>
+    <t>Rn=Rn-Rm</t>
+  </si>
+  <si>
+    <t>EA=Rn+offset_12 - 2</t>
+  </si>
+  <si>
+    <t>EA=Rn+Rm - 2</t>
+  </si>
+  <si>
+    <t>Rn=Rn+offset_13</t>
+  </si>
+  <si>
+    <t>EA=Rn-offset_12 - 3</t>
+  </si>
+  <si>
+    <t>EA=Rn-offset_12 - 4</t>
+  </si>
+  <si>
+    <t>EA=Rn-Rm - 3</t>
+  </si>
+  <si>
+    <t>EA=Rn-Rm - 4</t>
+  </si>
+  <si>
+    <t>Rn=Rn-offset_14</t>
+  </si>
+  <si>
+    <t>Rn=Rn-offset_15</t>
+  </si>
+  <si>
+    <t>EA=Rn+offset_8 - 2</t>
+  </si>
+  <si>
+    <t>EA=Rn+offset_8 - 1</t>
+  </si>
+  <si>
+    <t>EA=Rn-offset_8 - 3</t>
+  </si>
+  <si>
+    <t>EA=Rn-offset_8 - 4</t>
+  </si>
+  <si>
+    <t>Rn=Rn+offset_5</t>
+  </si>
+  <si>
+    <t>Rn=Rn+offset_6</t>
+  </si>
+  <si>
+    <t>Rn=Rn-offset_7</t>
+  </si>
+  <si>
+    <t>Rn=Rn-offset_8</t>
   </si>
 </sst>
 </file>
@@ -895,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -970,9 +1048,19 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO197"/>
+  <dimension ref="A1:AO253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:XFD166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -1299,7 +1387,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -1309,36 +1397,36 @@
       <c r="O2" s="23"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R2" s="28"/>
       <c r="S2" s="13"/>
       <c r="T2" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W2" s="13"/>
       <c r="X2" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="13"/>
       <c r="Z2" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="27"/>
       <c r="AD2" s="25"/>
       <c r="AE2" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="13"/>
       <c r="AG2" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="27"/>
       <c r="AI2" s="27"/>
@@ -1361,40 +1449,40 @@
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U3" s="13"/>
       <c r="V3" s="11" t="s">
@@ -1438,7 +1526,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>31</v>
@@ -1474,7 +1562,7 @@
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>29</v>
@@ -1525,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>31</v>
@@ -1561,7 +1649,7 @@
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R5" s="9">
         <v>1101</v>
@@ -1612,7 +1700,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>31</v>
@@ -1648,7 +1736,7 @@
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R6" s="9">
         <v>1101</v>
@@ -1697,7 +1785,7 @@
       <c r="AL6" s="29"/>
       <c r="AM6" s="29"/>
       <c r="AN6" s="29"/>
-      <c r="AO6" s="30"/>
+      <c r="AO6" s="32"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1707,13 +1795,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="9">
@@ -1743,7 +1831,7 @@
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>29</v>
@@ -1777,7 +1865,7 @@
       </c>
       <c r="AF7" s="13"/>
       <c r="AG7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH7" s="9">
         <v>0</v>
@@ -1794,13 +1882,13 @@
         <v>38</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="9">
@@ -1830,7 +1918,7 @@
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>29</v>
@@ -1955,23 +2043,23 @@
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
       <c r="S11" s="13"/>
       <c r="T11" s="8"/>
       <c r="V11" s="13"/>
@@ -1980,22 +2068,22 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
       <c r="AJ11" s="8"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -2004,7 +2092,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -2014,36 +2102,36 @@
       <c r="O12" s="23"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R12" s="28"/>
       <c r="S12" s="13"/>
       <c r="T12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y12" s="13"/>
       <c r="Z12" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA12" s="13"/>
       <c r="AB12" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AC12" s="27"/>
       <c r="AD12" s="25"/>
       <c r="AE12" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AF12" s="13"/>
       <c r="AG12" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH12" s="27"/>
       <c r="AI12" s="27"/>
@@ -2066,40 +2154,40 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U13" s="13"/>
       <c r="V13" s="11" t="s">
@@ -2174,19 +2262,19 @@
     </row>
     <row r="15" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="15">
@@ -2216,10 +2304,10 @@
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S15" s="26"/>
       <c r="T15" s="17">
@@ -2261,19 +2349,19 @@
     </row>
     <row r="16" spans="1:41" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="14">
@@ -2303,7 +2391,7 @@
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R16" s="24"/>
       <c r="S16" s="26"/>
@@ -2346,19 +2434,19 @@
     </row>
     <row r="17" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="15">
@@ -2388,10 +2476,10 @@
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S17" s="26"/>
       <c r="T17" s="17">
@@ -2433,19 +2521,19 @@
     </row>
     <row r="18" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="14">
@@ -2475,7 +2563,7 @@
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R18" s="24"/>
       <c r="S18" s="13"/>
@@ -2518,19 +2606,19 @@
     </row>
     <row r="19" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="15">
@@ -2560,10 +2648,10 @@
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S19" s="26"/>
       <c r="T19" s="17">
@@ -2605,19 +2693,19 @@
     </row>
     <row r="20" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="14">
@@ -2647,7 +2735,7 @@
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R20" s="24"/>
       <c r="S20" s="13"/>
@@ -2690,19 +2778,19 @@
     </row>
     <row r="21" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="15">
@@ -2732,10 +2820,10 @@
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S21" s="26"/>
       <c r="T21" s="17">
@@ -2777,19 +2865,19 @@
     </row>
     <row r="22" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="14">
@@ -2819,7 +2907,7 @@
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R22" s="24"/>
       <c r="S22" s="13"/>
@@ -2862,19 +2950,19 @@
     </row>
     <row r="23" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="15">
@@ -2904,10 +2992,10 @@
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S23" s="26"/>
       <c r="T23" s="17">
@@ -2949,19 +3037,19 @@
     </row>
     <row r="24" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="14">
@@ -2991,7 +3079,7 @@
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R24" s="24"/>
       <c r="S24" s="13"/>
@@ -3034,19 +3122,19 @@
     </row>
     <row r="25" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="15">
@@ -3076,10 +3164,10 @@
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S25" s="26"/>
       <c r="T25" s="17">
@@ -3121,19 +3209,19 @@
     </row>
     <row r="26" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="14">
@@ -3163,7 +3251,7 @@
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R26" s="14"/>
       <c r="S26" s="13"/>
@@ -3206,19 +3294,19 @@
     </row>
     <row r="27" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="15">
@@ -3248,10 +3336,10 @@
       </c>
       <c r="P27" s="13"/>
       <c r="Q27" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S27" s="26"/>
       <c r="T27" s="17">
@@ -3293,19 +3381,19 @@
     </row>
     <row r="28" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="14">
@@ -3335,7 +3423,7 @@
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R28" s="14"/>
       <c r="S28" s="13"/>
@@ -3378,19 +3466,19 @@
     </row>
     <row r="29" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="15">
@@ -3420,10 +3508,10 @@
       </c>
       <c r="P29" s="13"/>
       <c r="Q29" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S29" s="26"/>
       <c r="T29" s="17">
@@ -3465,19 +3553,19 @@
     </row>
     <row r="30" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="14">
@@ -3507,7 +3595,7 @@
       </c>
       <c r="P30" s="13"/>
       <c r="Q30" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R30" s="14"/>
       <c r="S30" s="13"/>
@@ -3550,19 +3638,19 @@
     </row>
     <row r="31" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="15">
@@ -3592,10 +3680,10 @@
       </c>
       <c r="P31" s="13"/>
       <c r="Q31" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S31" s="26"/>
       <c r="T31" s="17">
@@ -3637,19 +3725,19 @@
     </row>
     <row r="32" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="14">
@@ -3679,7 +3767,7 @@
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R32" s="14"/>
       <c r="S32" s="13"/>
@@ -3722,19 +3810,19 @@
     </row>
     <row r="33" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="15">
@@ -3764,10 +3852,10 @@
       </c>
       <c r="P33" s="13"/>
       <c r="Q33" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S33" s="26"/>
       <c r="T33" s="17">
@@ -3809,19 +3897,19 @@
     </row>
     <row r="34" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="14">
@@ -3851,7 +3939,7 @@
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R34" s="14"/>
       <c r="S34" s="13"/>
@@ -3894,19 +3982,19 @@
     </row>
     <row r="35" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="15">
@@ -3936,10 +4024,10 @@
       </c>
       <c r="P35" s="13"/>
       <c r="Q35" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S35" s="26"/>
       <c r="T35" s="17">
@@ -3981,19 +4069,19 @@
     </row>
     <row r="36" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="14">
@@ -4023,7 +4111,7 @@
       </c>
       <c r="P36" s="13"/>
       <c r="Q36" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R36" s="14"/>
       <c r="S36" s="13"/>
@@ -4066,19 +4154,19 @@
     </row>
     <row r="37" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="15">
@@ -4108,10 +4196,10 @@
       </c>
       <c r="P37" s="13"/>
       <c r="Q37" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S37" s="26"/>
       <c r="T37" s="17">
@@ -4153,19 +4241,19 @@
     </row>
     <row r="38" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="14">
@@ -4195,7 +4283,7 @@
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R38" s="14"/>
       <c r="S38" s="13"/>
@@ -4238,19 +4326,19 @@
     </row>
     <row r="39" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="15">
@@ -4280,10 +4368,10 @@
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S39" s="26"/>
       <c r="T39" s="17">
@@ -4325,19 +4413,19 @@
     </row>
     <row r="40" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="14">
@@ -4367,7 +4455,7 @@
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R40" s="14"/>
       <c r="S40" s="13"/>
@@ -4410,19 +4498,19 @@
     </row>
     <row r="41" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="15">
@@ -4452,10 +4540,10 @@
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S41" s="26"/>
       <c r="T41" s="17">
@@ -4497,19 +4585,19 @@
     </row>
     <row r="42" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="14">
@@ -4539,7 +4627,7 @@
       </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R42" s="14"/>
       <c r="S42" s="13"/>
@@ -4582,19 +4670,19 @@
     </row>
     <row r="43" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="15">
@@ -4624,10 +4712,10 @@
       </c>
       <c r="P43" s="13"/>
       <c r="Q43" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S43" s="26"/>
       <c r="T43" s="17">
@@ -4669,19 +4757,19 @@
     </row>
     <row r="44" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="14">
@@ -4711,7 +4799,7 @@
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R44" s="14"/>
       <c r="S44" s="13"/>
@@ -4754,19 +4842,19 @@
     </row>
     <row r="45" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="15">
@@ -4796,10 +4884,10 @@
       </c>
       <c r="P45" s="13"/>
       <c r="Q45" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S45" s="26"/>
       <c r="T45" s="17">
@@ -4841,19 +4929,19 @@
     </row>
     <row r="46" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="14">
@@ -4883,7 +4971,7 @@
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R46" s="14"/>
       <c r="S46" s="13"/>
@@ -4929,7 +5017,7 @@
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
@@ -4965,7 +5053,7 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -5007,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
@@ -5016,7 +5104,7 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J49" s="27"/>
       <c r="K49" s="27"/>
@@ -5026,36 +5114,36 @@
       <c r="O49" s="23"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R49" s="28"/>
       <c r="S49" s="13"/>
       <c r="T49" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V49" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W49" s="13"/>
       <c r="X49" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y49" s="13"/>
       <c r="Z49" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA49" s="13"/>
       <c r="AB49" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AC49" s="27"/>
       <c r="AD49" s="25"/>
       <c r="AE49" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AF49" s="13"/>
       <c r="AG49" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH49" s="27"/>
       <c r="AI49" s="27"/>
@@ -5078,40 +5166,40 @@
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>32</v>
       </c>
       <c r="S50" s="13"/>
       <c r="T50" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U50" s="13"/>
       <c r="V50" s="11" t="s">
@@ -5148,8 +5236,8 @@
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>1</v>
+      <c r="A51" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -5189,7 +5277,9 @@
       <c r="AI51" s="9"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -5226,15 +5316,17 @@
       <c r="AI52" s="9"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>6</v>
+      <c r="A53" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
       <c r="H53" s="21"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -5265,104 +5357,54 @@
       <c r="AI53" s="9"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A54" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G54" s="9"/>
       <c r="H54" s="21"/>
-      <c r="I54" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N54" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O54" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="13"/>
-      <c r="Q54" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
       <c r="S54" s="13"/>
-      <c r="T54" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T54" s="9"/>
       <c r="U54" s="13"/>
-      <c r="V54" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V54" s="9"/>
       <c r="W54" s="13"/>
-      <c r="X54" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X54" s="9"/>
       <c r="Y54" s="13"/>
-      <c r="Z54" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z54" s="9"/>
       <c r="AA54" s="13"/>
-      <c r="AB54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC54" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
       <c r="AD54" s="13"/>
-      <c r="AE54" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE54" s="9"/>
       <c r="AF54" s="13"/>
-      <c r="AG54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>1</v>
+      <c r="A55" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
+      <c r="G55" s="9"/>
       <c r="H55" s="21"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -5393,52 +5435,104 @@
       <c r="AI55" s="9"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="A56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="F56" s="21"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="H56" s="21"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
+      <c r="I56" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="P56" s="13"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
+      <c r="Q56" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="S56" s="13"/>
-      <c r="T56" s="9"/>
+      <c r="T56" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="U56" s="13"/>
-      <c r="V56" s="9"/>
+      <c r="V56" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="W56" s="13"/>
-      <c r="X56" s="9"/>
+      <c r="X56" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="Y56" s="13"/>
-      <c r="Z56" s="9"/>
+      <c r="Z56" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="AA56" s="13"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
+      <c r="AB56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC56" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="AD56" s="13"/>
-      <c r="AE56" s="9"/>
+      <c r="AE56" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="AF56" s="13"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="9"/>
+      <c r="AG56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH56" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>4</v>
+      <c r="A57" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="9"/>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
       <c r="H57" s="21"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -5469,95 +5563,47 @@
       <c r="AI57" s="9"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A58" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G58" s="9"/>
       <c r="H58" s="21"/>
-      <c r="I58" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N58" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
       <c r="P58" s="13"/>
-      <c r="Q58" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R58" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
       <c r="S58" s="13"/>
-      <c r="T58" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T58" s="9"/>
       <c r="U58" s="13"/>
-      <c r="V58" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V58" s="9"/>
       <c r="W58" s="13"/>
-      <c r="X58" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X58" s="9"/>
       <c r="Y58" s="13"/>
-      <c r="Z58" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z58" s="9"/>
       <c r="AA58" s="13"/>
-      <c r="AB58" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC58" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
       <c r="AD58" s="13"/>
-      <c r="AE58" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE58" s="9"/>
       <c r="AF58" s="13"/>
-      <c r="AG58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH58" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>1</v>
+      <c r="A59" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -5597,7 +5643,9 @@
       <c r="AI59" s="9"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -5635,7 +5683,7 @@
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -5690,40 +5738,40 @@
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L62" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N62" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P62" s="13"/>
       <c r="Q62" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R62" s="11" t="s">
         <v>32</v>
       </c>
       <c r="S62" s="13"/>
       <c r="T62" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U62" s="13"/>
       <c r="V62" s="11" t="s">
@@ -5760,8 +5808,8 @@
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>1</v>
+      <c r="A63" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -5801,7 +5849,9 @@
       <c r="AI63" s="9"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+      <c r="A64" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -5838,8 +5888,8 @@
       <c r="AI64" s="9"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>5</v>
+      <c r="A65" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -5877,104 +5927,54 @@
       <c r="AI65" s="9"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A66" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="21"/>
-      <c r="G66" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G66" s="9"/>
       <c r="H66" s="21"/>
-      <c r="I66" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O66" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
       <c r="P66" s="13"/>
-      <c r="Q66" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R66" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
       <c r="S66" s="13"/>
-      <c r="T66" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T66" s="9"/>
       <c r="U66" s="13"/>
-      <c r="V66" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V66" s="9"/>
       <c r="W66" s="13"/>
-      <c r="X66" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X66" s="9"/>
       <c r="Y66" s="13"/>
-      <c r="Z66" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z66" s="9"/>
       <c r="AA66" s="13"/>
-      <c r="AB66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC66" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
       <c r="AD66" s="13"/>
-      <c r="AE66" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE66" s="9"/>
       <c r="AF66" s="13"/>
-      <c r="AG66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH66" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI66" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="9"/>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>1</v>
+      <c r="A67" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="21"/>
-      <c r="G67" s="9">
-        <v>0</v>
-      </c>
+      <c r="G67" s="9"/>
       <c r="H67" s="21"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -6005,7 +6005,9 @@
       <c r="AI67" s="9"/>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -6042,143 +6044,143 @@
       <c r="AI68" s="9"/>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="A69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="F69" s="21"/>
-      <c r="G69" s="9"/>
+      <c r="G69" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="H69" s="21"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
+      <c r="I69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="P69" s="13"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
+      <c r="Q69" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="S69" s="13"/>
-      <c r="T69" s="9"/>
+      <c r="T69" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="U69" s="13"/>
-      <c r="V69" s="9"/>
+      <c r="V69" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="W69" s="13"/>
-      <c r="X69" s="9"/>
+      <c r="X69" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="Y69" s="13"/>
-      <c r="Z69" s="9"/>
+      <c r="Z69" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="AA69" s="13"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
+      <c r="AB69" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC69" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="AD69" s="13"/>
-      <c r="AE69" s="9"/>
+      <c r="AE69" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="AF69" s="13"/>
-      <c r="AG69" s="9"/>
-      <c r="AH69" s="9"/>
-      <c r="AI69" s="9"/>
+      <c r="AG69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI69" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A70" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="21"/>
-      <c r="G70" s="11" t="s">
-        <v>88</v>
+      <c r="G70" s="9">
+        <v>0</v>
       </c>
       <c r="H70" s="21"/>
-      <c r="I70" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
       <c r="P70" s="13"/>
-      <c r="Q70" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
       <c r="S70" s="13"/>
-      <c r="T70" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T70" s="9"/>
       <c r="U70" s="13"/>
-      <c r="V70" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V70" s="9"/>
       <c r="W70" s="13"/>
-      <c r="X70" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X70" s="9"/>
       <c r="Y70" s="13"/>
-      <c r="Z70" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z70" s="9"/>
       <c r="AA70" s="13"/>
-      <c r="AB70" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC70" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
       <c r="AD70" s="13"/>
-      <c r="AE70" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE70" s="9"/>
       <c r="AF70" s="13"/>
-      <c r="AG70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH70" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>1</v>
+      <c r="A71" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="21"/>
-      <c r="G71" s="9">
-        <v>0</v>
-      </c>
+      <c r="G71" s="9"/>
       <c r="H71" s="21"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -6209,15 +6211,15 @@
       <c r="AI71" s="9"/>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+      <c r="A72" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="21"/>
-      <c r="G72" s="9">
-        <v>0</v>
-      </c>
+      <c r="G72" s="9"/>
       <c r="H72" s="21"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -6248,8 +6250,8 @@
       <c r="AI72" s="9"/>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>45</v>
+      <c r="A73" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -6287,199 +6289,182 @@
       <c r="AI73" s="9"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
+      <c r="A74" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="21"/>
-      <c r="I74" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="23"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
       <c r="P74" s="13"/>
-      <c r="Q74" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R74" s="28"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
       <c r="S74" s="13"/>
-      <c r="T74" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V74" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="T74" s="9"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="9"/>
       <c r="W74" s="13"/>
-      <c r="X74" s="23" t="s">
-        <v>75</v>
-      </c>
+      <c r="X74" s="9"/>
       <c r="Y74" s="13"/>
-      <c r="Z74" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="Z74" s="9"/>
       <c r="AA74" s="13"/>
-      <c r="AB74" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC74" s="27"/>
-      <c r="AD74" s="25"/>
-      <c r="AE74" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="9"/>
       <c r="AF74" s="13"/>
-      <c r="AG74" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH74" s="27"/>
-      <c r="AI74" s="27"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="9"/>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="13"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="9"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D76" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E76" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="11" t="s">
+      <c r="F76" s="21"/>
+      <c r="G76" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" s="21"/>
+      <c r="I76" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K75" s="11" t="s">
+      <c r="N76" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="11" t="s">
+      <c r="P76" s="13"/>
+      <c r="Q76" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N75" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O75" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R75" s="11" t="s">
+      <c r="R76" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S75" s="13"/>
-      <c r="T75" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U75" s="13"/>
-      <c r="V75" s="11" t="s">
+      <c r="S76" s="13"/>
+      <c r="T76" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U76" s="13"/>
+      <c r="V76" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W75" s="13"/>
-      <c r="X75" s="11" t="s">
+      <c r="W76" s="13"/>
+      <c r="X76" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="11" t="s">
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AA75" s="13"/>
-      <c r="AB75" s="11" t="s">
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AC75" s="11" t="s">
+      <c r="AC76" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AD75" s="13"/>
-      <c r="AE75" s="11" t="s">
+      <c r="AD76" s="13"/>
+      <c r="AE76" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF75" s="13"/>
-      <c r="AG75" s="11" t="s">
+      <c r="AF76" s="13"/>
+      <c r="AG76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AH75" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI75" s="11" t="s">
+      <c r="AH76" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI76" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>1</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="9">
-        <v>0</v>
-      </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="9"/>
-      <c r="AA76" s="13"/>
-      <c r="AB76" s="9"/>
-      <c r="AC76" s="9"/>
-      <c r="AD76" s="13"/>
-      <c r="AE76" s="9"/>
-      <c r="AF76" s="13"/>
-      <c r="AG76" s="9"/>
-      <c r="AH76" s="9"/>
-      <c r="AI76" s="9"/>
-    </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
+      <c r="A77" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="9"/>
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
       <c r="H77" s="21"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -6510,8 +6495,8 @@
       <c r="AI77" s="9"/>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>6</v>
+      <c r="A78" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -6549,104 +6534,54 @@
       <c r="AI78" s="9"/>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A79" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G79" s="9"/>
       <c r="H79" s="21"/>
-      <c r="I79" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N79" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O79" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
       <c r="P79" s="13"/>
-      <c r="Q79" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R79" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
       <c r="S79" s="13"/>
-      <c r="T79" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T79" s="9"/>
       <c r="U79" s="13"/>
-      <c r="V79" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V79" s="9"/>
       <c r="W79" s="13"/>
-      <c r="X79" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X79" s="9"/>
       <c r="Y79" s="13"/>
-      <c r="Z79" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z79" s="9"/>
       <c r="AA79" s="13"/>
-      <c r="AB79" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC79" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
       <c r="AD79" s="13"/>
-      <c r="AE79" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE79" s="9"/>
       <c r="AF79" s="13"/>
-      <c r="AG79" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI79" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG79" s="9"/>
+      <c r="AH79" s="9"/>
+      <c r="AI79" s="9"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>1</v>
+      <c r="A80" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="9">
-        <v>0</v>
-      </c>
+      <c r="G80" s="9"/>
       <c r="H80" s="21"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -6677,7 +6612,9 @@
       <c r="AI80" s="9"/>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
+      <c r="A81" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -6715,7 +6652,7 @@
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -6770,40 +6707,40 @@
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L83" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N83" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O83" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P83" s="13"/>
       <c r="Q83" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R83" s="11" t="s">
         <v>32</v>
       </c>
       <c r="S83" s="13"/>
       <c r="T83" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U83" s="13"/>
       <c r="V83" s="11" t="s">
@@ -6840,8 +6777,8 @@
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>1</v>
+      <c r="A84" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -6881,7 +6818,9 @@
       <c r="AI84" s="9"/>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
+      <c r="A85" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -6918,8 +6857,8 @@
       <c r="AI85" s="9"/>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>7</v>
+      <c r="A86" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -6957,104 +6896,54 @@
       <c r="AI86" s="9"/>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A87" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G87" s="9"/>
       <c r="H87" s="21"/>
-      <c r="I87" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L87" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M87" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N87" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O87" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
       <c r="P87" s="13"/>
-      <c r="Q87" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R87" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
       <c r="S87" s="13"/>
-      <c r="T87" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T87" s="9"/>
       <c r="U87" s="13"/>
-      <c r="V87" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V87" s="9"/>
       <c r="W87" s="13"/>
-      <c r="X87" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X87" s="9"/>
       <c r="Y87" s="13"/>
-      <c r="Z87" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z87" s="9"/>
       <c r="AA87" s="13"/>
-      <c r="AB87" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC87" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB87" s="9"/>
+      <c r="AC87" s="9"/>
       <c r="AD87" s="13"/>
-      <c r="AE87" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE87" s="9"/>
       <c r="AF87" s="13"/>
-      <c r="AG87" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH87" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI87" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG87" s="9"/>
+      <c r="AH87" s="9"/>
+      <c r="AI87" s="9"/>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <v>1</v>
+      <c r="A88" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="9">
-        <v>0</v>
-      </c>
+      <c r="G88" s="9"/>
       <c r="H88" s="21"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -7085,7 +6974,9 @@
       <c r="AI88" s="9"/>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
+      <c r="A89" s="35" t="s">
+        <v>126</v>
+      </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -7122,9 +7013,7 @@
       <c r="AI89" s="9"/>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A90" s="6"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -7161,180 +7050,201 @@
       <c r="AI90" s="9"/>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="13"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="13"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="13"/>
+      <c r="AG91" s="9"/>
+      <c r="AH91" s="9"/>
+      <c r="AI91" s="9"/>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R92" s="28"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V92" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W92" s="13"/>
+      <c r="X92" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y92" s="13"/>
+      <c r="Z92" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA92" s="13"/>
+      <c r="AB92" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="25"/>
+      <c r="AE92" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF92" s="13"/>
+      <c r="AG92" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH92" s="27"/>
+      <c r="AI92" s="27"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D93" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E93" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F91" s="21"/>
-      <c r="G91" s="11" t="s">
+      <c r="F93" s="21"/>
+      <c r="G93" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H93" s="21"/>
+      <c r="I93" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M93" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H91" s="21"/>
-      <c r="I91" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K91" s="11" t="s">
+      <c r="N93" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O93" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L91" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M91" s="11" t="s">
+      <c r="P93" s="13"/>
+      <c r="Q93" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N91" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O91" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R91" s="11" t="s">
+      <c r="R93" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S91" s="13"/>
-      <c r="T91" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U91" s="13"/>
-      <c r="V91" s="11" t="s">
+      <c r="S93" s="13"/>
+      <c r="T93" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U93" s="13"/>
+      <c r="V93" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W91" s="13"/>
-      <c r="X91" s="11" t="s">
+      <c r="W93" s="13"/>
+      <c r="X93" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="11" t="s">
+      <c r="Y93" s="13"/>
+      <c r="Z93" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AA91" s="13"/>
-      <c r="AB91" s="11" t="s">
+      <c r="AA93" s="13"/>
+      <c r="AB93" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AC91" s="11" t="s">
+      <c r="AC93" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AD91" s="13"/>
-      <c r="AE91" s="11" t="s">
+      <c r="AD93" s="13"/>
+      <c r="AE93" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF91" s="13"/>
-      <c r="AG91" s="11" t="s">
+      <c r="AF93" s="13"/>
+      <c r="AG93" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AH91" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI91" s="11" t="s">
+      <c r="AH93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI93" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
-        <v>1</v>
-      </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="9">
-        <v>0</v>
-      </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="9"/>
-      <c r="AA92" s="13"/>
-      <c r="AB92" s="9"/>
-      <c r="AC92" s="9"/>
-      <c r="AD92" s="13"/>
-      <c r="AE92" s="9"/>
-      <c r="AF92" s="13"/>
-      <c r="AG92" s="9"/>
-      <c r="AH92" s="9"/>
-      <c r="AI92" s="9"/>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="9"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="9"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="13"/>
-      <c r="V93" s="9"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="9"/>
-      <c r="Y93" s="13"/>
-      <c r="Z93" s="9"/>
-      <c r="AA93" s="13"/>
-      <c r="AB93" s="9"/>
-      <c r="AC93" s="9"/>
-      <c r="AD93" s="13"/>
-      <c r="AE93" s="9"/>
-      <c r="AF93" s="13"/>
-      <c r="AG93" s="9"/>
-      <c r="AH93" s="9"/>
-      <c r="AI93" s="9"/>
-    </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>8</v>
+      <c r="A94" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="9"/>
+      <c r="G94" s="9">
+        <v>0</v>
+      </c>
       <c r="H94" s="21"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -7365,104 +7275,54 @@
       <c r="AI94" s="9"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A95" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G95" s="9"/>
       <c r="H95" s="21"/>
-      <c r="I95" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M95" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N95" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O95" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
       <c r="P95" s="13"/>
-      <c r="Q95" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R95" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
       <c r="S95" s="13"/>
-      <c r="T95" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T95" s="9"/>
       <c r="U95" s="13"/>
-      <c r="V95" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V95" s="9"/>
       <c r="W95" s="13"/>
-      <c r="X95" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X95" s="9"/>
       <c r="Y95" s="13"/>
-      <c r="Z95" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z95" s="9"/>
       <c r="AA95" s="13"/>
-      <c r="AB95" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC95" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB95" s="9"/>
+      <c r="AC95" s="9"/>
       <c r="AD95" s="13"/>
-      <c r="AE95" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE95" s="9"/>
       <c r="AF95" s="13"/>
-      <c r="AG95" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH95" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI95" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG95" s="9"/>
+      <c r="AH95" s="9"/>
+      <c r="AI95" s="9"/>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
-        <v>1</v>
+      <c r="A96" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="21"/>
-      <c r="G96" s="9">
-        <v>0</v>
-      </c>
+      <c r="G96" s="9"/>
       <c r="H96" s="21"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -7493,15 +7353,15 @@
       <c r="AI96" s="9"/>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
+      <c r="A97" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="21"/>
-      <c r="G97" s="9">
-        <v>0</v>
-      </c>
+      <c r="G97" s="9"/>
       <c r="H97" s="21"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -7532,8 +7392,8 @@
       <c r="AI97" s="9"/>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>43</v>
+      <c r="A98" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -7571,162 +7431,143 @@
       <c r="AI98" s="9"/>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
+      <c r="A99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="F99" s="21"/>
-      <c r="G99" s="21"/>
+      <c r="G99" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="H99" s="21"/>
-      <c r="I99" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="23"/>
+      <c r="I99" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O99" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="P99" s="13"/>
-      <c r="Q99" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R99" s="28"/>
+      <c r="Q99" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R99" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="S99" s="13"/>
-      <c r="T99" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V99" s="19" t="s">
-        <v>74</v>
+      <c r="T99" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U99" s="13"/>
+      <c r="V99" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="W99" s="13"/>
-      <c r="X99" s="23" t="s">
-        <v>75</v>
+      <c r="X99" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="Y99" s="13"/>
-      <c r="Z99" s="19" t="s">
-        <v>76</v>
+      <c r="Z99" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="AA99" s="13"/>
-      <c r="AB99" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC99" s="27"/>
-      <c r="AD99" s="25"/>
-      <c r="AE99" s="19" t="s">
-        <v>78</v>
+      <c r="AB99" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC99" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD99" s="13"/>
+      <c r="AE99" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="AF99" s="13"/>
-      <c r="AG99" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH99" s="27"/>
-      <c r="AI99" s="27"/>
+      <c r="AG99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH99" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI99" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A100" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="21"/>
-      <c r="G100" s="11" t="s">
-        <v>88</v>
+      <c r="G100" s="9">
+        <v>0</v>
       </c>
       <c r="H100" s="21"/>
-      <c r="I100" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K100" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L100" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M100" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N100" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O100" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
       <c r="P100" s="13"/>
-      <c r="Q100" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R100" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
       <c r="S100" s="13"/>
-      <c r="T100" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T100" s="9"/>
       <c r="U100" s="13"/>
-      <c r="V100" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V100" s="9"/>
       <c r="W100" s="13"/>
-      <c r="X100" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X100" s="9"/>
       <c r="Y100" s="13"/>
-      <c r="Z100" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z100" s="9"/>
       <c r="AA100" s="13"/>
-      <c r="AB100" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC100" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB100" s="9"/>
+      <c r="AC100" s="9"/>
       <c r="AD100" s="13"/>
-      <c r="AE100" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE100" s="9"/>
       <c r="AF100" s="13"/>
-      <c r="AG100" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH100" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI100" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG100" s="9"/>
+      <c r="AH100" s="9"/>
+      <c r="AI100" s="9"/>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
-        <v>1</v>
+      <c r="A101" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="21"/>
-      <c r="G101" s="9">
-        <v>0</v>
-      </c>
+      <c r="G101" s="9"/>
       <c r="H101" s="21"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -7757,7 +7598,9 @@
       <c r="AI101" s="9"/>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
+      <c r="A102" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -7794,8 +7637,8 @@
       <c r="AI102" s="9"/>
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>4</v>
+      <c r="A103" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -7833,141 +7676,143 @@
       <c r="AI103" s="9"/>
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="13"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="13"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="13"/>
+      <c r="Z104" s="9"/>
+      <c r="AA104" s="13"/>
+      <c r="AB104" s="9"/>
+      <c r="AC104" s="9"/>
+      <c r="AD104" s="13"/>
+      <c r="AE104" s="9"/>
+      <c r="AF104" s="13"/>
+      <c r="AG104" s="9"/>
+      <c r="AH104" s="9"/>
+      <c r="AI104" s="9"/>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B105" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D105" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E105" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F104" s="21"/>
-      <c r="G104" s="11" t="s">
+      <c r="F105" s="21"/>
+      <c r="G105" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H105" s="21"/>
+      <c r="I105" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M105" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H104" s="21"/>
-      <c r="I104" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K104" s="11" t="s">
+      <c r="N105" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O105" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L104" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M104" s="11" t="s">
+      <c r="P105" s="13"/>
+      <c r="Q105" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N104" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O104" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R104" s="11" t="s">
+      <c r="R105" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S104" s="13"/>
-      <c r="T104" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U104" s="13"/>
-      <c r="V104" s="11" t="s">
+      <c r="S105" s="13"/>
+      <c r="T105" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U105" s="13"/>
+      <c r="V105" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W104" s="13"/>
-      <c r="X104" s="11" t="s">
+      <c r="W105" s="13"/>
+      <c r="X105" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y104" s="13"/>
-      <c r="Z104" s="11" t="s">
+      <c r="Y105" s="13"/>
+      <c r="Z105" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AA104" s="13"/>
-      <c r="AB104" s="11" t="s">
+      <c r="AA105" s="13"/>
+      <c r="AB105" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AC104" s="11" t="s">
+      <c r="AC105" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AD104" s="13"/>
-      <c r="AE104" s="11" t="s">
+      <c r="AD105" s="13"/>
+      <c r="AE105" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF104" s="13"/>
-      <c r="AG104" s="11" t="s">
+      <c r="AF105" s="13"/>
+      <c r="AG105" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AH104" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI104" s="11" t="s">
+      <c r="AH105" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI105" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
-        <v>1</v>
-      </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="9">
-        <v>0</v>
-      </c>
-      <c r="H105" s="21"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="9"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="13"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="9"/>
-      <c r="Y105" s="13"/>
-      <c r="Z105" s="9"/>
-      <c r="AA105" s="13"/>
-      <c r="AB105" s="9"/>
-      <c r="AC105" s="9"/>
-      <c r="AD105" s="13"/>
-      <c r="AE105" s="9"/>
-      <c r="AF105" s="13"/>
-      <c r="AG105" s="9"/>
-      <c r="AH105" s="9"/>
-      <c r="AI105" s="9"/>
-    </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
+      <c r="A106" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="21"/>
-      <c r="G106" s="9"/>
+      <c r="G106" s="9">
+        <v>0</v>
+      </c>
       <c r="H106" s="21"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -7998,8 +7843,8 @@
       <c r="AI106" s="9"/>
     </row>
     <row r="107" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>5</v>
+      <c r="A107" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -8037,104 +7882,54 @@
       <c r="AI107" s="9"/>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A108" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
       <c r="F108" s="21"/>
-      <c r="G108" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G108" s="9"/>
       <c r="H108" s="21"/>
-      <c r="I108" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J108" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K108" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L108" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M108" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N108" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O108" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
       <c r="P108" s="13"/>
-      <c r="Q108" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R108" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
       <c r="S108" s="13"/>
-      <c r="T108" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T108" s="9"/>
       <c r="U108" s="13"/>
-      <c r="V108" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V108" s="9"/>
       <c r="W108" s="13"/>
-      <c r="X108" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X108" s="9"/>
       <c r="Y108" s="13"/>
-      <c r="Z108" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z108" s="9"/>
       <c r="AA108" s="13"/>
-      <c r="AB108" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC108" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB108" s="9"/>
+      <c r="AC108" s="9"/>
       <c r="AD108" s="13"/>
-      <c r="AE108" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE108" s="9"/>
       <c r="AF108" s="13"/>
-      <c r="AG108" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH108" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI108" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG108" s="9"/>
+      <c r="AH108" s="9"/>
+      <c r="AI108" s="9"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
-        <v>1</v>
+      <c r="A109" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="21"/>
-      <c r="G109" s="9">
-        <v>0</v>
-      </c>
+      <c r="G109" s="9"/>
       <c r="H109" s="21"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -8165,7 +7960,9 @@
       <c r="AI109" s="9"/>
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
+      <c r="A110" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -8202,8 +7999,8 @@
       <c r="AI110" s="9"/>
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>44</v>
+      <c r="A111" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -8241,162 +8038,143 @@
       <c r="AI111" s="9"/>
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
+      <c r="A112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="F112" s="21"/>
-      <c r="G112" s="21"/>
+      <c r="G112" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="H112" s="21"/>
-      <c r="I112" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="27"/>
-      <c r="O112" s="23"/>
+      <c r="I112" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="P112" s="13"/>
-      <c r="Q112" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R112" s="28"/>
+      <c r="Q112" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R112" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="S112" s="13"/>
-      <c r="T112" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V112" s="19" t="s">
-        <v>74</v>
+      <c r="T112" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U112" s="13"/>
+      <c r="V112" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="W112" s="13"/>
-      <c r="X112" s="23" t="s">
-        <v>75</v>
+      <c r="X112" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="Y112" s="13"/>
-      <c r="Z112" s="19" t="s">
-        <v>76</v>
+      <c r="Z112" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="AA112" s="13"/>
-      <c r="AB112" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC112" s="27"/>
-      <c r="AD112" s="25"/>
-      <c r="AE112" s="19" t="s">
-        <v>78</v>
+      <c r="AB112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC112" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD112" s="13"/>
+      <c r="AE112" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="AF112" s="13"/>
-      <c r="AG112" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH112" s="27"/>
-      <c r="AI112" s="27"/>
+      <c r="AG112" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH112" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI112" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A113" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
       <c r="F113" s="21"/>
-      <c r="G113" s="11" t="s">
-        <v>88</v>
+      <c r="G113" s="9">
+        <v>0</v>
       </c>
       <c r="H113" s="21"/>
-      <c r="I113" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L113" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M113" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N113" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O113" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
       <c r="P113" s="13"/>
-      <c r="Q113" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R113" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
       <c r="S113" s="13"/>
-      <c r="T113" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T113" s="9"/>
       <c r="U113" s="13"/>
-      <c r="V113" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V113" s="9"/>
       <c r="W113" s="13"/>
-      <c r="X113" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X113" s="9"/>
       <c r="Y113" s="13"/>
-      <c r="Z113" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z113" s="9"/>
       <c r="AA113" s="13"/>
-      <c r="AB113" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC113" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB113" s="9"/>
+      <c r="AC113" s="9"/>
       <c r="AD113" s="13"/>
-      <c r="AE113" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE113" s="9"/>
       <c r="AF113" s="13"/>
-      <c r="AG113" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH113" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI113" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG113" s="9"/>
+      <c r="AH113" s="9"/>
+      <c r="AI113" s="9"/>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A114" s="6">
-        <v>1</v>
+      <c r="A114" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="21"/>
-      <c r="G114" s="9">
-        <v>0</v>
-      </c>
+      <c r="G114" s="9"/>
       <c r="H114" s="21"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -8427,7 +8205,9 @@
       <c r="AI114" s="9"/>
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
+      <c r="A115" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -8464,8 +8244,8 @@
       <c r="AI115" s="9"/>
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>4</v>
+      <c r="A116" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -8503,104 +8283,54 @@
       <c r="AI116" s="9"/>
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A117" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
       <c r="F117" s="21"/>
-      <c r="G117" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G117" s="9"/>
       <c r="H117" s="21"/>
-      <c r="I117" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J117" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K117" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L117" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M117" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N117" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O117" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
       <c r="P117" s="13"/>
-      <c r="Q117" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R117" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
       <c r="S117" s="13"/>
-      <c r="T117" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T117" s="9"/>
       <c r="U117" s="13"/>
-      <c r="V117" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V117" s="9"/>
       <c r="W117" s="13"/>
-      <c r="X117" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X117" s="9"/>
       <c r="Y117" s="13"/>
-      <c r="Z117" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z117" s="9"/>
       <c r="AA117" s="13"/>
-      <c r="AB117" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC117" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB117" s="9"/>
+      <c r="AC117" s="9"/>
       <c r="AD117" s="13"/>
-      <c r="AE117" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE117" s="9"/>
       <c r="AF117" s="13"/>
-      <c r="AG117" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH117" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI117" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG117" s="9"/>
+      <c r="AH117" s="9"/>
+      <c r="AI117" s="9"/>
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
-        <v>1</v>
+      <c r="A118" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="21"/>
-      <c r="G118" s="9">
-        <v>0</v>
-      </c>
+      <c r="G118" s="9"/>
       <c r="H118" s="21"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -8631,52 +8361,104 @@
       <c r="AI118" s="9"/>
     </row>
     <row r="119" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="A119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="F119" s="21"/>
-      <c r="G119" s="9"/>
+      <c r="G119" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="H119" s="21"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="9"/>
+      <c r="I119" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O119" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="P119" s="13"/>
-      <c r="Q119" s="9"/>
-      <c r="R119" s="9"/>
+      <c r="Q119" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R119" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="S119" s="13"/>
-      <c r="T119" s="9"/>
+      <c r="T119" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="U119" s="13"/>
-      <c r="V119" s="9"/>
+      <c r="V119" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="W119" s="13"/>
-      <c r="X119" s="9"/>
+      <c r="X119" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="Y119" s="13"/>
-      <c r="Z119" s="9"/>
+      <c r="Z119" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="AA119" s="13"/>
-      <c r="AB119" s="9"/>
-      <c r="AC119" s="9"/>
+      <c r="AB119" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC119" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="AD119" s="13"/>
-      <c r="AE119" s="9"/>
+      <c r="AE119" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="AF119" s="13"/>
-      <c r="AG119" s="9"/>
-      <c r="AH119" s="9"/>
-      <c r="AI119" s="9"/>
+      <c r="AG119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH119" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI119" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>5</v>
+      <c r="A120" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="21"/>
-      <c r="G120" s="9"/>
+      <c r="G120" s="9">
+        <v>0</v>
+      </c>
       <c r="H120" s="21"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -8707,104 +8489,54 @@
       <c r="AI120" s="9"/>
     </row>
     <row r="121" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A121" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
       <c r="F121" s="21"/>
-      <c r="G121" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G121" s="9"/>
       <c r="H121" s="21"/>
-      <c r="I121" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K121" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L121" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M121" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N121" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O121" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
       <c r="P121" s="13"/>
-      <c r="Q121" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R121" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
       <c r="S121" s="13"/>
-      <c r="T121" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T121" s="9"/>
       <c r="U121" s="13"/>
-      <c r="V121" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V121" s="9"/>
       <c r="W121" s="13"/>
-      <c r="X121" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X121" s="9"/>
       <c r="Y121" s="13"/>
-      <c r="Z121" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z121" s="9"/>
       <c r="AA121" s="13"/>
-      <c r="AB121" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC121" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB121" s="9"/>
+      <c r="AC121" s="9"/>
       <c r="AD121" s="13"/>
-      <c r="AE121" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE121" s="9"/>
       <c r="AF121" s="13"/>
-      <c r="AG121" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH121" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI121" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="AG121" s="9"/>
+      <c r="AH121" s="9"/>
+      <c r="AI121" s="9"/>
     </row>
     <row r="122" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
-        <v>1</v>
+      <c r="A122" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="21"/>
-      <c r="G122" s="9">
-        <v>0</v>
-      </c>
+      <c r="G122" s="9"/>
       <c r="H122" s="21"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -8835,7 +8567,9 @@
       <c r="AI122" s="9"/>
     </row>
     <row r="123" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
+      <c r="A123" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -8872,199 +8606,182 @@
       <c r="AI123" s="9"/>
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B124" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
+      <c r="A124" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
       <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
+      <c r="G124" s="9"/>
       <c r="H124" s="21"/>
-      <c r="I124" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J124" s="27"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="27"/>
-      <c r="O124" s="23"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
       <c r="P124" s="13"/>
-      <c r="Q124" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R124" s="28"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="9"/>
       <c r="S124" s="13"/>
-      <c r="T124" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V124" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="T124" s="9"/>
+      <c r="U124" s="13"/>
+      <c r="V124" s="9"/>
       <c r="W124" s="13"/>
-      <c r="X124" s="23" t="s">
-        <v>75</v>
-      </c>
+      <c r="X124" s="9"/>
       <c r="Y124" s="13"/>
-      <c r="Z124" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="Z124" s="9"/>
       <c r="AA124" s="13"/>
-      <c r="AB124" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC124" s="27"/>
-      <c r="AD124" s="25"/>
-      <c r="AE124" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="AB124" s="9"/>
+      <c r="AC124" s="9"/>
+      <c r="AD124" s="13"/>
+      <c r="AE124" s="9"/>
       <c r="AF124" s="13"/>
-      <c r="AG124" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH124" s="27"/>
-      <c r="AI124" s="27"/>
+      <c r="AG124" s="9"/>
+      <c r="AH124" s="9"/>
+      <c r="AI124" s="9"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="13"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="13"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="13"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="13"/>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="13"/>
+      <c r="Z125" s="9"/>
+      <c r="AA125" s="13"/>
+      <c r="AB125" s="9"/>
+      <c r="AC125" s="9"/>
+      <c r="AD125" s="13"/>
+      <c r="AE125" s="9"/>
+      <c r="AF125" s="13"/>
+      <c r="AG125" s="9"/>
+      <c r="AH125" s="9"/>
+      <c r="AI125" s="9"/>
+    </row>
+    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B126" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C126" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D126" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="E126" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F125" s="21"/>
-      <c r="G125" s="11" t="s">
+      <c r="F126" s="21"/>
+      <c r="G126" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H126" s="21"/>
+      <c r="I126" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M126" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H125" s="21"/>
-      <c r="I125" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J125" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K125" s="11" t="s">
+      <c r="N126" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O126" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L125" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M125" s="11" t="s">
+      <c r="P126" s="13"/>
+      <c r="Q126" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N125" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O125" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P125" s="13"/>
-      <c r="Q125" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R125" s="11" t="s">
+      <c r="R126" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S125" s="13"/>
-      <c r="T125" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U125" s="13"/>
-      <c r="V125" s="11" t="s">
+      <c r="S126" s="13"/>
+      <c r="T126" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U126" s="13"/>
+      <c r="V126" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W125" s="13"/>
-      <c r="X125" s="11" t="s">
+      <c r="W126" s="13"/>
+      <c r="X126" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y125" s="13"/>
-      <c r="Z125" s="11" t="s">
+      <c r="Y126" s="13"/>
+      <c r="Z126" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AA125" s="13"/>
-      <c r="AB125" s="11" t="s">
+      <c r="AA126" s="13"/>
+      <c r="AB126" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AC125" s="11" t="s">
+      <c r="AC126" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AD125" s="13"/>
-      <c r="AE125" s="11" t="s">
+      <c r="AD126" s="13"/>
+      <c r="AE126" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF125" s="13"/>
-      <c r="AG125" s="11" t="s">
+      <c r="AF126" s="13"/>
+      <c r="AG126" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AH125" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI125" s="11" t="s">
+      <c r="AH126" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI126" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
-        <v>5</v>
-      </c>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="9">
-        <v>0</v>
-      </c>
-      <c r="H126" s="21"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-      <c r="M126" s="9"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="9"/>
-      <c r="P126" s="13"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="9"/>
-      <c r="S126" s="13"/>
-      <c r="T126" s="9"/>
-      <c r="U126" s="13"/>
-      <c r="V126" s="9"/>
-      <c r="W126" s="13"/>
-      <c r="X126" s="9"/>
-      <c r="Y126" s="13"/>
-      <c r="Z126" s="9"/>
-      <c r="AA126" s="13"/>
-      <c r="AB126" s="9"/>
-      <c r="AC126" s="9"/>
-      <c r="AD126" s="13"/>
-      <c r="AE126" s="9"/>
-      <c r="AF126" s="13"/>
-      <c r="AG126" s="9"/>
-      <c r="AH126" s="9"/>
-      <c r="AI126" s="9"/>
-    </row>
     <row r="127" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
+      <c r="A127" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="21"/>
-      <c r="G127" s="9"/>
+      <c r="G127" s="9">
+        <v>0</v>
+      </c>
       <c r="H127" s="21"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -9095,162 +8812,93 @@
       <c r="AI127" s="9"/>
     </row>
     <row r="128" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
+      <c r="A128" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
       <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
+      <c r="G128" s="9"/>
       <c r="H128" s="21"/>
-      <c r="I128" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J128" s="27"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="23"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
       <c r="P128" s="13"/>
-      <c r="Q128" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R128" s="28"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
       <c r="S128" s="13"/>
-      <c r="T128" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V128" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="T128" s="9"/>
+      <c r="U128" s="13"/>
+      <c r="V128" s="9"/>
       <c r="W128" s="13"/>
-      <c r="X128" s="23" t="s">
-        <v>75</v>
-      </c>
+      <c r="X128" s="9"/>
       <c r="Y128" s="13"/>
-      <c r="Z128" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="Z128" s="9"/>
       <c r="AA128" s="13"/>
-      <c r="AB128" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC128" s="27"/>
-      <c r="AD128" s="25"/>
-      <c r="AE128" s="19" t="s">
-        <v>78</v>
-      </c>
+      <c r="AB128" s="9"/>
+      <c r="AC128" s="9"/>
+      <c r="AD128" s="13"/>
+      <c r="AE128" s="9"/>
       <c r="AF128" s="13"/>
-      <c r="AG128" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH128" s="27"/>
-      <c r="AI128" s="27"/>
-    </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="AG128" s="9"/>
+      <c r="AH128" s="9"/>
+      <c r="AI128" s="9"/>
+    </row>
+    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
       <c r="F129" s="21"/>
-      <c r="G129" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="G129" s="9"/>
       <c r="H129" s="21"/>
-      <c r="I129" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J129" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K129" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L129" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M129" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N129" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O129" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
       <c r="P129" s="13"/>
-      <c r="Q129" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R129" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
       <c r="S129" s="13"/>
-      <c r="T129" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T129" s="9"/>
       <c r="U129" s="13"/>
-      <c r="V129" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V129" s="9"/>
       <c r="W129" s="13"/>
-      <c r="X129" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X129" s="9"/>
       <c r="Y129" s="13"/>
-      <c r="Z129" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z129" s="9"/>
       <c r="AA129" s="13"/>
-      <c r="AB129" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC129" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB129" s="9"/>
+      <c r="AC129" s="9"/>
       <c r="AD129" s="13"/>
-      <c r="AE129" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE129" s="9"/>
       <c r="AF129" s="13"/>
-      <c r="AG129" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH129" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI129" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A130" s="6">
-        <v>8</v>
+      <c r="AG129" s="9"/>
+      <c r="AH129" s="9"/>
+      <c r="AI129" s="9"/>
+    </row>
+    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="21"/>
-      <c r="G130" s="9">
-        <v>0</v>
-      </c>
+      <c r="G130" s="9"/>
       <c r="H130" s="21"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -9280,8 +8928,10 @@
       <c r="AH130" s="9"/>
       <c r="AI130" s="9"/>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -9317,508 +8967,350 @@
       <c r="AH131" s="9"/>
       <c r="AI131" s="9"/>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B132" s="28" t="s">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A132" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="13"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="13"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="13"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="13"/>
+      <c r="X132" s="9"/>
+      <c r="Y132" s="13"/>
+      <c r="Z132" s="9"/>
+      <c r="AA132" s="13"/>
+      <c r="AB132" s="9"/>
+      <c r="AC132" s="9"/>
+      <c r="AD132" s="13"/>
+      <c r="AE132" s="9"/>
+      <c r="AF132" s="13"/>
+      <c r="AG132" s="9"/>
+      <c r="AH132" s="9"/>
+      <c r="AI132" s="9"/>
+    </row>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="13"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="13"/>
+      <c r="T133" s="9"/>
+      <c r="U133" s="13"/>
+      <c r="V133" s="9"/>
+      <c r="W133" s="13"/>
+      <c r="X133" s="9"/>
+      <c r="Y133" s="13"/>
+      <c r="Z133" s="9"/>
+      <c r="AA133" s="13"/>
+      <c r="AB133" s="9"/>
+      <c r="AC133" s="9"/>
+      <c r="AD133" s="13"/>
+      <c r="AE133" s="9"/>
+      <c r="AF133" s="13"/>
+      <c r="AG133" s="9"/>
+      <c r="AH133" s="9"/>
+      <c r="AI133" s="9"/>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c r="L134" s="9"/>
+      <c r="M134" s="9"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="9"/>
+      <c r="S134" s="13"/>
+      <c r="T134" s="9"/>
+      <c r="U134" s="13"/>
+      <c r="V134" s="9"/>
+      <c r="W134" s="13"/>
+      <c r="X134" s="9"/>
+      <c r="Y134" s="13"/>
+      <c r="Z134" s="9"/>
+      <c r="AA134" s="13"/>
+      <c r="AB134" s="9"/>
+      <c r="AC134" s="9"/>
+      <c r="AD134" s="13"/>
+      <c r="AE134" s="9"/>
+      <c r="AF134" s="13"/>
+      <c r="AG134" s="9"/>
+      <c r="AH134" s="9"/>
+      <c r="AI134" s="9"/>
+    </row>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="28"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+      <c r="O135" s="23"/>
+      <c r="P135" s="13"/>
+      <c r="Q135" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R135" s="28"/>
+      <c r="S135" s="13"/>
+      <c r="T135" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
-      <c r="I132" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J132" s="27"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="27"/>
-      <c r="O132" s="23"/>
-      <c r="P132" s="13"/>
-      <c r="Q132" s="28" t="s">
+      <c r="V135" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="R132" s="28"/>
-      <c r="S132" s="13"/>
-      <c r="T132" s="7" t="s">
+      <c r="W135" s="13"/>
+      <c r="X135" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="V132" s="19" t="s">
+      <c r="Y135" s="13"/>
+      <c r="Z135" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="W132" s="13"/>
-      <c r="X132" s="23" t="s">
+      <c r="AA135" s="13"/>
+      <c r="AB135" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="Y132" s="13"/>
-      <c r="Z132" s="19" t="s">
+      <c r="AC135" s="27"/>
+      <c r="AD135" s="25"/>
+      <c r="AE135" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AA132" s="13"/>
-      <c r="AB132" s="27" t="s">
+      <c r="AF135" s="13"/>
+      <c r="AG135" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="AC132" s="27"/>
-      <c r="AD132" s="25"/>
-      <c r="AE132" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF132" s="13"/>
-      <c r="AG132" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH132" s="27"/>
-      <c r="AI132" s="27"/>
-    </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="AH135" s="27"/>
+      <c r="AI135" s="27"/>
+    </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B136" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C136" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D136" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E136" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F133" s="21"/>
-      <c r="G133" s="11" t="s">
+      <c r="F136" s="21"/>
+      <c r="G136" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H136" s="21"/>
+      <c r="I136" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M136" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H133" s="21"/>
-      <c r="I133" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J133" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K133" s="11" t="s">
+      <c r="N136" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O136" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="L133" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M133" s="11" t="s">
+      <c r="P136" s="13"/>
+      <c r="Q136" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N133" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O133" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P133" s="13"/>
-      <c r="Q133" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R133" s="11" t="s">
+      <c r="R136" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S133" s="13"/>
-      <c r="T133" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U133" s="13"/>
-      <c r="V133" s="11" t="s">
+      <c r="S136" s="13"/>
+      <c r="T136" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U136" s="13"/>
+      <c r="V136" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W133" s="13"/>
-      <c r="X133" s="11" t="s">
+      <c r="W136" s="13"/>
+      <c r="X136" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Y133" s="13"/>
-      <c r="Z133" s="11" t="s">
+      <c r="Y136" s="13"/>
+      <c r="Z136" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AA133" s="13"/>
-      <c r="AB133" s="11" t="s">
+      <c r="AA136" s="13"/>
+      <c r="AB136" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AC133" s="11" t="s">
+      <c r="AC136" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AD133" s="13"/>
-      <c r="AE133" s="11" t="s">
+      <c r="AD136" s="13"/>
+      <c r="AE136" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF133" s="13"/>
-      <c r="AG133" s="11" t="s">
+      <c r="AF136" s="13"/>
+      <c r="AG136" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AH133" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI133" s="11" t="s">
+      <c r="AH136" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI136" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
-        <v>1</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13">
-        <v>0</v>
-      </c>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13">
-        <v>0</v>
-      </c>
-      <c r="J134" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K134" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L134" s="13">
-        <v>1111</v>
-      </c>
-      <c r="M134" s="13">
-        <v>0</v>
-      </c>
-      <c r="N134" s="13">
-        <v>1110</v>
-      </c>
-      <c r="O134" s="13">
-        <v>0</v>
-      </c>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="R134" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="S134" s="26"/>
-      <c r="T134" s="26">
-        <v>0</v>
-      </c>
-      <c r="U134" s="13"/>
-      <c r="V134" s="13">
-        <v>0</v>
-      </c>
-      <c r="W134" s="13"/>
-      <c r="X134" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y134" s="13"/>
-      <c r="Z134" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA134" s="13"/>
-      <c r="AB134" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC134" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD134" s="13"/>
-      <c r="AE134" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF134" s="13"/>
-      <c r="AG134" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH134" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI134" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="21"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="9"/>
-      <c r="P135" s="13"/>
-      <c r="Q135" s="9"/>
-      <c r="R135" s="9"/>
-      <c r="S135" s="13"/>
-      <c r="T135" s="9"/>
-      <c r="U135" s="13"/>
-      <c r="V135" s="9"/>
-      <c r="W135" s="13"/>
-      <c r="X135" s="9"/>
-      <c r="Y135" s="13"/>
-      <c r="Z135" s="9"/>
-      <c r="AA135" s="13"/>
-      <c r="AB135" s="9"/>
-      <c r="AC135" s="9"/>
-      <c r="AD135" s="13"/>
-      <c r="AE135" s="9"/>
-      <c r="AF135" s="13"/>
-      <c r="AG135" s="9"/>
-      <c r="AH135" s="9"/>
-      <c r="AI135" s="9"/>
-    </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
-      <c r="I136" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J136" s="27"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="27"/>
-      <c r="M136" s="27"/>
-      <c r="N136" s="27"/>
-      <c r="O136" s="23"/>
-      <c r="P136" s="13"/>
-      <c r="Q136" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R136" s="28"/>
-      <c r="S136" s="13"/>
-      <c r="T136" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V136" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="W136" s="13"/>
-      <c r="X136" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y136" s="13"/>
-      <c r="Z136" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA136" s="13"/>
-      <c r="AB136" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC136" s="27"/>
-      <c r="AD136" s="25"/>
-      <c r="AE136" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF136" s="13"/>
-      <c r="AG136" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH136" s="27"/>
-      <c r="AI136" s="27"/>
-    </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>22</v>
-      </c>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
       <c r="F137" s="21"/>
-      <c r="G137" s="11" t="s">
-        <v>88</v>
+      <c r="G137" s="9">
+        <v>0</v>
       </c>
       <c r="H137" s="21"/>
-      <c r="I137" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J137" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K137" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M137" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N137" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O137" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
       <c r="P137" s="13"/>
-      <c r="Q137" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R137" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q137" s="9"/>
+      <c r="R137" s="9"/>
       <c r="S137" s="13"/>
-      <c r="T137" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="T137" s="9"/>
       <c r="U137" s="13"/>
-      <c r="V137" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="V137" s="9"/>
       <c r="W137" s="13"/>
-      <c r="X137" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="X137" s="9"/>
       <c r="Y137" s="13"/>
-      <c r="Z137" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z137" s="9"/>
       <c r="AA137" s="13"/>
-      <c r="AB137" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC137" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="AB137" s="9"/>
+      <c r="AC137" s="9"/>
       <c r="AD137" s="13"/>
-      <c r="AE137" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="AE137" s="9"/>
       <c r="AF137" s="13"/>
-      <c r="AG137" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH137" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI137" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A138" s="6">
-        <v>2</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13">
-        <v>0</v>
-      </c>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13">
-        <v>0</v>
-      </c>
-      <c r="J138" s="13">
-        <v>1111</v>
-      </c>
-      <c r="K138" s="13">
-        <v>0</v>
-      </c>
-      <c r="L138" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M138" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N138" s="13">
-        <v>1111</v>
-      </c>
-      <c r="O138" s="13">
-        <v>0</v>
-      </c>
+      <c r="AG137" s="9"/>
+      <c r="AH137" s="9"/>
+      <c r="AI137" s="9"/>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
       <c r="P138" s="13"/>
-      <c r="Q138" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="R138" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="S138" s="26"/>
-      <c r="T138" s="26" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="13"/>
+      <c r="T138" s="9"/>
       <c r="U138" s="13"/>
-      <c r="V138" s="13">
-        <v>1</v>
-      </c>
+      <c r="V138" s="9"/>
       <c r="W138" s="13"/>
-      <c r="X138" s="13">
-        <v>0</v>
-      </c>
+      <c r="X138" s="9"/>
       <c r="Y138" s="13"/>
-      <c r="Z138" s="13">
-        <v>0</v>
-      </c>
+      <c r="Z138" s="9"/>
       <c r="AA138" s="13"/>
-      <c r="AB138" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC138" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="AB138" s="9"/>
+      <c r="AC138" s="9"/>
       <c r="AD138" s="13"/>
-      <c r="AE138" s="13">
-        <v>0</v>
-      </c>
+      <c r="AE138" s="9"/>
       <c r="AF138" s="13"/>
-      <c r="AG138" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH138" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI138" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AG138" s="9"/>
+      <c r="AH138" s="9"/>
+      <c r="AI138" s="9"/>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -9854,7 +9346,10 @@
       <c r="AH139" s="9"/>
       <c r="AI139" s="9"/>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -9890,176 +9385,2981 @@
       <c r="AH140" s="9"/>
       <c r="AI140" s="9"/>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AJ141" s="8"/>
-    </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AJ142" s="8"/>
-    </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AJ143" s="8"/>
-    </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AJ144" s="8"/>
-    </row>
-    <row r="145" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ145" s="8"/>
-    </row>
-    <row r="146" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ146" s="8"/>
-    </row>
-    <row r="147" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ147" s="8"/>
-    </row>
-    <row r="148" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ148" s="8"/>
-    </row>
-    <row r="149" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ149" s="8"/>
-    </row>
-    <row r="150" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ150" s="8"/>
-    </row>
-    <row r="151" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ151" s="8"/>
-    </row>
-    <row r="152" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ152" s="8"/>
-    </row>
-    <row r="153" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ153" s="8"/>
-    </row>
-    <row r="154" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ154" s="8"/>
-    </row>
-    <row r="155" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ155" s="8"/>
-    </row>
-    <row r="156" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ156" s="8"/>
-    </row>
-    <row r="157" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ157" s="8"/>
-    </row>
-    <row r="158" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ158" s="8"/>
-    </row>
-    <row r="159" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ159" s="8"/>
-    </row>
-    <row r="160" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ160" s="8"/>
-    </row>
-    <row r="161" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ161" s="8"/>
-    </row>
-    <row r="162" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ162" s="8"/>
-    </row>
-    <row r="163" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ163" s="8"/>
-    </row>
-    <row r="164" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ164" s="8"/>
-    </row>
-    <row r="165" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ165" s="8"/>
-    </row>
-    <row r="166" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ166" s="8"/>
-    </row>
-    <row r="167" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ167" s="8"/>
-    </row>
-    <row r="168" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ168" s="8"/>
-    </row>
-    <row r="169" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ169" s="8"/>
-    </row>
-    <row r="170" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ170" s="8"/>
-    </row>
-    <row r="171" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ171" s="8"/>
-    </row>
-    <row r="172" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ172" s="8"/>
-    </row>
-    <row r="173" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ173" s="8"/>
-    </row>
-    <row r="174" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ174" s="8"/>
-    </row>
-    <row r="175" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ175" s="8"/>
-    </row>
-    <row r="176" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ176" s="8"/>
-    </row>
-    <row r="177" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ177" s="8"/>
-    </row>
-    <row r="178" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ178" s="8"/>
-    </row>
-    <row r="179" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ179" s="8"/>
-    </row>
-    <row r="180" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ180" s="8"/>
-    </row>
-    <row r="181" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ181" s="8"/>
-    </row>
-    <row r="182" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ182" s="8"/>
-    </row>
-    <row r="183" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ183" s="8"/>
-    </row>
-    <row r="184" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ184" s="8"/>
-    </row>
-    <row r="185" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ185" s="8"/>
-    </row>
-    <row r="186" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ186" s="8"/>
-    </row>
-    <row r="187" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ187" s="8"/>
-    </row>
-    <row r="188" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ188" s="8"/>
-    </row>
-    <row r="189" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ189" s="8"/>
-    </row>
-    <row r="190" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ190" s="8"/>
-    </row>
-    <row r="191" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ191" s="8"/>
-    </row>
-    <row r="192" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ192" s="8"/>
-    </row>
-    <row r="193" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ193" s="8"/>
-    </row>
-    <row r="194" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ194" s="8"/>
-    </row>
-    <row r="195" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ195" s="8"/>
-    </row>
-    <row r="196" spans="36:36" x14ac:dyDescent="0.25">
-      <c r="AJ196" s="8"/>
-    </row>
-    <row r="197" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="13"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="9"/>
+      <c r="S141" s="13"/>
+      <c r="T141" s="9"/>
+      <c r="U141" s="13"/>
+      <c r="V141" s="9"/>
+      <c r="W141" s="13"/>
+      <c r="X141" s="9"/>
+      <c r="Y141" s="13"/>
+      <c r="Z141" s="9"/>
+      <c r="AA141" s="13"/>
+      <c r="AB141" s="9"/>
+      <c r="AC141" s="9"/>
+      <c r="AD141" s="13"/>
+      <c r="AE141" s="9"/>
+      <c r="AF141" s="13"/>
+      <c r="AG141" s="9"/>
+      <c r="AH141" s="9"/>
+      <c r="AI141" s="9"/>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="21"/>
+      <c r="G142" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H142" s="21"/>
+      <c r="I142" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J142" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K142" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L142" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M142" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N142" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O142" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P142" s="13"/>
+      <c r="Q142" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R142" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S142" s="13"/>
+      <c r="T142" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U142" s="13"/>
+      <c r="V142" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W142" s="13"/>
+      <c r="X142" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y142" s="13"/>
+      <c r="Z142" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA142" s="13"/>
+      <c r="AB142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC142" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD142" s="13"/>
+      <c r="AE142" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF142" s="13"/>
+      <c r="AG142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH142" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI142" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="9">
+        <v>0</v>
+      </c>
+      <c r="H143" s="21"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="9"/>
+      <c r="S143" s="13"/>
+      <c r="T143" s="9"/>
+      <c r="U143" s="13"/>
+      <c r="V143" s="9"/>
+      <c r="W143" s="13"/>
+      <c r="X143" s="9"/>
+      <c r="Y143" s="13"/>
+      <c r="Z143" s="9"/>
+      <c r="AA143" s="13"/>
+      <c r="AB143" s="9"/>
+      <c r="AC143" s="9"/>
+      <c r="AD143" s="13"/>
+      <c r="AE143" s="9"/>
+      <c r="AF143" s="13"/>
+      <c r="AG143" s="9"/>
+      <c r="AH143" s="9"/>
+      <c r="AI143" s="9"/>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="21"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="13"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="9"/>
+      <c r="S144" s="13"/>
+      <c r="T144" s="9"/>
+      <c r="U144" s="13"/>
+      <c r="V144" s="9"/>
+      <c r="W144" s="13"/>
+      <c r="X144" s="9"/>
+      <c r="Y144" s="13"/>
+      <c r="Z144" s="9"/>
+      <c r="AA144" s="13"/>
+      <c r="AB144" s="9"/>
+      <c r="AC144" s="9"/>
+      <c r="AD144" s="13"/>
+      <c r="AE144" s="9"/>
+      <c r="AF144" s="13"/>
+      <c r="AG144" s="9"/>
+      <c r="AH144" s="9"/>
+      <c r="AI144" s="9"/>
+    </row>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+      <c r="P145" s="13"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="9"/>
+      <c r="S145" s="13"/>
+      <c r="T145" s="9"/>
+      <c r="U145" s="13"/>
+      <c r="V145" s="9"/>
+      <c r="W145" s="13"/>
+      <c r="X145" s="9"/>
+      <c r="Y145" s="13"/>
+      <c r="Z145" s="9"/>
+      <c r="AA145" s="13"/>
+      <c r="AB145" s="9"/>
+      <c r="AC145" s="9"/>
+      <c r="AD145" s="13"/>
+      <c r="AE145" s="9"/>
+      <c r="AF145" s="13"/>
+      <c r="AG145" s="9"/>
+      <c r="AH145" s="9"/>
+      <c r="AI145" s="9"/>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="13"/>
+      <c r="Q146" s="9"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="13"/>
+      <c r="T146" s="9"/>
+      <c r="U146" s="13"/>
+      <c r="V146" s="9"/>
+      <c r="W146" s="13"/>
+      <c r="X146" s="9"/>
+      <c r="Y146" s="13"/>
+      <c r="Z146" s="9"/>
+      <c r="AA146" s="13"/>
+      <c r="AB146" s="9"/>
+      <c r="AC146" s="9"/>
+      <c r="AD146" s="13"/>
+      <c r="AE146" s="9"/>
+      <c r="AF146" s="13"/>
+      <c r="AG146" s="9"/>
+      <c r="AH146" s="9"/>
+      <c r="AI146" s="9"/>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="13"/>
+      <c r="Q147" s="9"/>
+      <c r="R147" s="9"/>
+      <c r="S147" s="13"/>
+      <c r="T147" s="9"/>
+      <c r="U147" s="13"/>
+      <c r="V147" s="9"/>
+      <c r="W147" s="13"/>
+      <c r="X147" s="9"/>
+      <c r="Y147" s="13"/>
+      <c r="Z147" s="9"/>
+      <c r="AA147" s="13"/>
+      <c r="AB147" s="9"/>
+      <c r="AC147" s="9"/>
+      <c r="AD147" s="13"/>
+      <c r="AE147" s="9"/>
+      <c r="AF147" s="13"/>
+      <c r="AG147" s="9"/>
+      <c r="AH147" s="9"/>
+      <c r="AI147" s="9"/>
+    </row>
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
+      <c r="M148" s="9"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="9"/>
+      <c r="R148" s="9"/>
+      <c r="S148" s="13"/>
+      <c r="T148" s="9"/>
+      <c r="U148" s="13"/>
+      <c r="V148" s="9"/>
+      <c r="W148" s="13"/>
+      <c r="X148" s="9"/>
+      <c r="Y148" s="13"/>
+      <c r="Z148" s="9"/>
+      <c r="AA148" s="13"/>
+      <c r="AB148" s="9"/>
+      <c r="AC148" s="9"/>
+      <c r="AD148" s="13"/>
+      <c r="AE148" s="9"/>
+      <c r="AF148" s="13"/>
+      <c r="AG148" s="9"/>
+      <c r="AH148" s="9"/>
+      <c r="AI148" s="9"/>
+    </row>
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" s="21"/>
+      <c r="G149" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H149" s="21"/>
+      <c r="I149" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L149" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M149" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O149" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P149" s="13"/>
+      <c r="Q149" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R149" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S149" s="13"/>
+      <c r="T149" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U149" s="13"/>
+      <c r="V149" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W149" s="13"/>
+      <c r="X149" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y149" s="13"/>
+      <c r="Z149" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA149" s="13"/>
+      <c r="AB149" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC149" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD149" s="13"/>
+      <c r="AE149" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF149" s="13"/>
+      <c r="AG149" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH149" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI149" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="9">
+        <v>0</v>
+      </c>
+      <c r="H150" s="21"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="9"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="9"/>
+      <c r="R150" s="9"/>
+      <c r="S150" s="13"/>
+      <c r="T150" s="9"/>
+      <c r="U150" s="13"/>
+      <c r="V150" s="9"/>
+      <c r="W150" s="13"/>
+      <c r="X150" s="9"/>
+      <c r="Y150" s="13"/>
+      <c r="Z150" s="9"/>
+      <c r="AA150" s="13"/>
+      <c r="AB150" s="9"/>
+      <c r="AC150" s="9"/>
+      <c r="AD150" s="13"/>
+      <c r="AE150" s="9"/>
+      <c r="AF150" s="13"/>
+      <c r="AG150" s="9"/>
+      <c r="AH150" s="9"/>
+      <c r="AI150" s="9"/>
+    </row>
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="13"/>
+      <c r="Q151" s="9"/>
+      <c r="R151" s="9"/>
+      <c r="S151" s="13"/>
+      <c r="T151" s="9"/>
+      <c r="U151" s="13"/>
+      <c r="V151" s="9"/>
+      <c r="W151" s="13"/>
+      <c r="X151" s="9"/>
+      <c r="Y151" s="13"/>
+      <c r="Z151" s="9"/>
+      <c r="AA151" s="13"/>
+      <c r="AB151" s="9"/>
+      <c r="AC151" s="9"/>
+      <c r="AD151" s="13"/>
+      <c r="AE151" s="9"/>
+      <c r="AF151" s="13"/>
+      <c r="AG151" s="9"/>
+      <c r="AH151" s="9"/>
+      <c r="AI151" s="9"/>
+    </row>
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9"/>
+      <c r="M152" s="9"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="13"/>
+      <c r="Q152" s="9"/>
+      <c r="R152" s="9"/>
+      <c r="S152" s="13"/>
+      <c r="T152" s="9"/>
+      <c r="U152" s="13"/>
+      <c r="V152" s="9"/>
+      <c r="W152" s="13"/>
+      <c r="X152" s="9"/>
+      <c r="Y152" s="13"/>
+      <c r="Z152" s="9"/>
+      <c r="AA152" s="13"/>
+      <c r="AB152" s="9"/>
+      <c r="AC152" s="9"/>
+      <c r="AD152" s="13"/>
+      <c r="AE152" s="9"/>
+      <c r="AF152" s="13"/>
+      <c r="AG152" s="9"/>
+      <c r="AH152" s="9"/>
+      <c r="AI152" s="9"/>
+    </row>
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="13"/>
+      <c r="Q153" s="9"/>
+      <c r="R153" s="9"/>
+      <c r="S153" s="13"/>
+      <c r="T153" s="9"/>
+      <c r="U153" s="13"/>
+      <c r="V153" s="9"/>
+      <c r="W153" s="13"/>
+      <c r="X153" s="9"/>
+      <c r="Y153" s="13"/>
+      <c r="Z153" s="9"/>
+      <c r="AA153" s="13"/>
+      <c r="AB153" s="9"/>
+      <c r="AC153" s="9"/>
+      <c r="AD153" s="13"/>
+      <c r="AE153" s="9"/>
+      <c r="AF153" s="13"/>
+      <c r="AG153" s="9"/>
+      <c r="AH153" s="9"/>
+      <c r="AI153" s="9"/>
+    </row>
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="9"/>
+      <c r="L154" s="9"/>
+      <c r="M154" s="9"/>
+      <c r="N154" s="9"/>
+      <c r="O154" s="9"/>
+      <c r="P154" s="13"/>
+      <c r="Q154" s="9"/>
+      <c r="R154" s="9"/>
+      <c r="S154" s="13"/>
+      <c r="T154" s="9"/>
+      <c r="U154" s="13"/>
+      <c r="V154" s="9"/>
+      <c r="W154" s="13"/>
+      <c r="X154" s="9"/>
+      <c r="Y154" s="13"/>
+      <c r="Z154" s="9"/>
+      <c r="AA154" s="13"/>
+      <c r="AB154" s="9"/>
+      <c r="AC154" s="9"/>
+      <c r="AD154" s="13"/>
+      <c r="AE154" s="9"/>
+      <c r="AF154" s="13"/>
+      <c r="AG154" s="9"/>
+      <c r="AH154" s="9"/>
+      <c r="AI154" s="9"/>
+    </row>
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A155" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
+      <c r="M155" s="9"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="13"/>
+      <c r="Q155" s="9"/>
+      <c r="R155" s="9"/>
+      <c r="S155" s="13"/>
+      <c r="T155" s="9"/>
+      <c r="U155" s="13"/>
+      <c r="V155" s="9"/>
+      <c r="W155" s="13"/>
+      <c r="X155" s="9"/>
+      <c r="Y155" s="13"/>
+      <c r="Z155" s="9"/>
+      <c r="AA155" s="13"/>
+      <c r="AB155" s="9"/>
+      <c r="AC155" s="9"/>
+      <c r="AD155" s="13"/>
+      <c r="AE155" s="9"/>
+      <c r="AF155" s="13"/>
+      <c r="AG155" s="9"/>
+      <c r="AH155" s="9"/>
+      <c r="AI155" s="9"/>
+    </row>
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="21"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="9"/>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="9"/>
+      <c r="R156" s="9"/>
+      <c r="S156" s="13"/>
+      <c r="T156" s="9"/>
+      <c r="U156" s="13"/>
+      <c r="V156" s="9"/>
+      <c r="W156" s="13"/>
+      <c r="X156" s="9"/>
+      <c r="Y156" s="13"/>
+      <c r="Z156" s="9"/>
+      <c r="AA156" s="13"/>
+      <c r="AB156" s="9"/>
+      <c r="AC156" s="9"/>
+      <c r="AD156" s="13"/>
+      <c r="AE156" s="9"/>
+      <c r="AF156" s="13"/>
+      <c r="AG156" s="9"/>
+      <c r="AH156" s="9"/>
+      <c r="AI156" s="9"/>
+    </row>
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="9"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="9"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="13"/>
+      <c r="Q157" s="9"/>
+      <c r="R157" s="9"/>
+      <c r="S157" s="13"/>
+      <c r="T157" s="9"/>
+      <c r="U157" s="13"/>
+      <c r="V157" s="9"/>
+      <c r="W157" s="13"/>
+      <c r="X157" s="9"/>
+      <c r="Y157" s="13"/>
+      <c r="Z157" s="9"/>
+      <c r="AA157" s="13"/>
+      <c r="AB157" s="9"/>
+      <c r="AC157" s="9"/>
+      <c r="AD157" s="13"/>
+      <c r="AE157" s="9"/>
+      <c r="AF157" s="13"/>
+      <c r="AG157" s="9"/>
+      <c r="AH157" s="9"/>
+      <c r="AI157" s="9"/>
+    </row>
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="28"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J158" s="27"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="27"/>
+      <c r="M158" s="27"/>
+      <c r="N158" s="27"/>
+      <c r="O158" s="23"/>
+      <c r="P158" s="13"/>
+      <c r="Q158" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R158" s="28"/>
+      <c r="S158" s="13"/>
+      <c r="T158" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V158" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W158" s="13"/>
+      <c r="X158" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y158" s="13"/>
+      <c r="Z158" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA158" s="13"/>
+      <c r="AB158" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC158" s="27"/>
+      <c r="AD158" s="25"/>
+      <c r="AE158" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF158" s="13"/>
+      <c r="AG158" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH158" s="27"/>
+      <c r="AI158" s="27"/>
+    </row>
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159" s="21"/>
+      <c r="G159" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H159" s="21"/>
+      <c r="I159" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J159" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K159" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L159" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M159" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N159" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O159" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P159" s="13"/>
+      <c r="Q159" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R159" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S159" s="13"/>
+      <c r="T159" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U159" s="13"/>
+      <c r="V159" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W159" s="13"/>
+      <c r="X159" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y159" s="13"/>
+      <c r="Z159" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA159" s="13"/>
+      <c r="AB159" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC159" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD159" s="13"/>
+      <c r="AE159" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF159" s="13"/>
+      <c r="AG159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH159" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI159" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="9">
+        <v>0</v>
+      </c>
+      <c r="H160" s="21"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="13"/>
+      <c r="Q160" s="9"/>
+      <c r="R160" s="9"/>
+      <c r="S160" s="13"/>
+      <c r="T160" s="9"/>
+      <c r="U160" s="13"/>
+      <c r="V160" s="9"/>
+      <c r="W160" s="13"/>
+      <c r="X160" s="9"/>
+      <c r="Y160" s="13"/>
+      <c r="Z160" s="9"/>
+      <c r="AA160" s="13"/>
+      <c r="AB160" s="9"/>
+      <c r="AC160" s="9"/>
+      <c r="AD160" s="13"/>
+      <c r="AE160" s="9"/>
+      <c r="AF160" s="13"/>
+      <c r="AG160" s="9"/>
+      <c r="AH160" s="9"/>
+      <c r="AI160" s="9"/>
+    </row>
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
+      <c r="M161" s="9"/>
+      <c r="N161" s="9"/>
+      <c r="O161" s="9"/>
+      <c r="P161" s="13"/>
+      <c r="Q161" s="9"/>
+      <c r="R161" s="9"/>
+      <c r="S161" s="13"/>
+      <c r="T161" s="9"/>
+      <c r="U161" s="13"/>
+      <c r="V161" s="9"/>
+      <c r="W161" s="13"/>
+      <c r="X161" s="9"/>
+      <c r="Y161" s="13"/>
+      <c r="Z161" s="9"/>
+      <c r="AA161" s="13"/>
+      <c r="AB161" s="9"/>
+      <c r="AC161" s="9"/>
+      <c r="AD161" s="13"/>
+      <c r="AE161" s="9"/>
+      <c r="AF161" s="13"/>
+      <c r="AG161" s="9"/>
+      <c r="AH161" s="9"/>
+      <c r="AI161" s="9"/>
+    </row>
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="9"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="13"/>
+      <c r="Q162" s="9"/>
+      <c r="R162" s="9"/>
+      <c r="S162" s="13"/>
+      <c r="T162" s="9"/>
+      <c r="U162" s="13"/>
+      <c r="V162" s="9"/>
+      <c r="W162" s="13"/>
+      <c r="X162" s="9"/>
+      <c r="Y162" s="13"/>
+      <c r="Z162" s="9"/>
+      <c r="AA162" s="13"/>
+      <c r="AB162" s="9"/>
+      <c r="AC162" s="9"/>
+      <c r="AD162" s="13"/>
+      <c r="AE162" s="9"/>
+      <c r="AF162" s="13"/>
+      <c r="AG162" s="9"/>
+      <c r="AH162" s="9"/>
+      <c r="AI162" s="9"/>
+    </row>
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="13"/>
+      <c r="Q163" s="9"/>
+      <c r="R163" s="9"/>
+      <c r="S163" s="13"/>
+      <c r="T163" s="9"/>
+      <c r="U163" s="13"/>
+      <c r="V163" s="9"/>
+      <c r="W163" s="13"/>
+      <c r="X163" s="9"/>
+      <c r="Y163" s="13"/>
+      <c r="Z163" s="9"/>
+      <c r="AA163" s="13"/>
+      <c r="AB163" s="9"/>
+      <c r="AC163" s="9"/>
+      <c r="AD163" s="13"/>
+      <c r="AE163" s="9"/>
+      <c r="AF163" s="13"/>
+      <c r="AG163" s="9"/>
+      <c r="AH163" s="9"/>
+      <c r="AI163" s="9"/>
+    </row>
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="9"/>
+      <c r="O164" s="9"/>
+      <c r="P164" s="13"/>
+      <c r="Q164" s="9"/>
+      <c r="R164" s="9"/>
+      <c r="S164" s="13"/>
+      <c r="T164" s="9"/>
+      <c r="U164" s="13"/>
+      <c r="V164" s="9"/>
+      <c r="W164" s="13"/>
+      <c r="X164" s="9"/>
+      <c r="Y164" s="13"/>
+      <c r="Z164" s="9"/>
+      <c r="AA164" s="13"/>
+      <c r="AB164" s="9"/>
+      <c r="AC164" s="9"/>
+      <c r="AD164" s="13"/>
+      <c r="AE164" s="9"/>
+      <c r="AF164" s="13"/>
+      <c r="AG164" s="9"/>
+      <c r="AH164" s="9"/>
+      <c r="AI164" s="9"/>
+    </row>
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="21"/>
+      <c r="G165" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H165" s="21"/>
+      <c r="I165" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J165" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K165" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L165" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M165" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N165" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O165" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P165" s="13"/>
+      <c r="Q165" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R165" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S165" s="13"/>
+      <c r="T165" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U165" s="13"/>
+      <c r="V165" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W165" s="13"/>
+      <c r="X165" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y165" s="13"/>
+      <c r="Z165" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA165" s="13"/>
+      <c r="AB165" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC165" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD165" s="13"/>
+      <c r="AE165" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF165" s="13"/>
+      <c r="AG165" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH165" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI165" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="9">
+        <v>0</v>
+      </c>
+      <c r="H166" s="21"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="9"/>
+      <c r="L166" s="9"/>
+      <c r="M166" s="9"/>
+      <c r="N166" s="9"/>
+      <c r="O166" s="9"/>
+      <c r="P166" s="13"/>
+      <c r="Q166" s="9"/>
+      <c r="R166" s="9"/>
+      <c r="S166" s="13"/>
+      <c r="T166" s="9"/>
+      <c r="U166" s="13"/>
+      <c r="V166" s="9"/>
+      <c r="W166" s="13"/>
+      <c r="X166" s="9"/>
+      <c r="Y166" s="13"/>
+      <c r="Z166" s="9"/>
+      <c r="AA166" s="13"/>
+      <c r="AB166" s="9"/>
+      <c r="AC166" s="9"/>
+      <c r="AD166" s="13"/>
+      <c r="AE166" s="9"/>
+      <c r="AF166" s="13"/>
+      <c r="AG166" s="9"/>
+      <c r="AH166" s="9"/>
+      <c r="AI166" s="9"/>
+    </row>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="9"/>
+      <c r="L167" s="9"/>
+      <c r="M167" s="9"/>
+      <c r="N167" s="9"/>
+      <c r="O167" s="9"/>
+      <c r="P167" s="13"/>
+      <c r="Q167" s="9"/>
+      <c r="R167" s="9"/>
+      <c r="S167" s="13"/>
+      <c r="T167" s="9"/>
+      <c r="U167" s="13"/>
+      <c r="V167" s="9"/>
+      <c r="W167" s="13"/>
+      <c r="X167" s="9"/>
+      <c r="Y167" s="13"/>
+      <c r="Z167" s="9"/>
+      <c r="AA167" s="13"/>
+      <c r="AB167" s="9"/>
+      <c r="AC167" s="9"/>
+      <c r="AD167" s="13"/>
+      <c r="AE167" s="9"/>
+      <c r="AF167" s="13"/>
+      <c r="AG167" s="9"/>
+      <c r="AH167" s="9"/>
+      <c r="AI167" s="9"/>
+    </row>
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="21"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="9"/>
+      <c r="L168" s="9"/>
+      <c r="M168" s="9"/>
+      <c r="N168" s="9"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="13"/>
+      <c r="Q168" s="9"/>
+      <c r="R168" s="9"/>
+      <c r="S168" s="13"/>
+      <c r="T168" s="9"/>
+      <c r="U168" s="13"/>
+      <c r="V168" s="9"/>
+      <c r="W168" s="13"/>
+      <c r="X168" s="9"/>
+      <c r="Y168" s="13"/>
+      <c r="Z168" s="9"/>
+      <c r="AA168" s="13"/>
+      <c r="AB168" s="9"/>
+      <c r="AC168" s="9"/>
+      <c r="AD168" s="13"/>
+      <c r="AE168" s="9"/>
+      <c r="AF168" s="13"/>
+      <c r="AG168" s="9"/>
+      <c r="AH168" s="9"/>
+      <c r="AI168" s="9"/>
+    </row>
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="9"/>
+      <c r="M169" s="9"/>
+      <c r="N169" s="9"/>
+      <c r="O169" s="9"/>
+      <c r="P169" s="13"/>
+      <c r="Q169" s="9"/>
+      <c r="R169" s="9"/>
+      <c r="S169" s="13"/>
+      <c r="T169" s="9"/>
+      <c r="U169" s="13"/>
+      <c r="V169" s="9"/>
+      <c r="W169" s="13"/>
+      <c r="X169" s="9"/>
+      <c r="Y169" s="13"/>
+      <c r="Z169" s="9"/>
+      <c r="AA169" s="13"/>
+      <c r="AB169" s="9"/>
+      <c r="AC169" s="9"/>
+      <c r="AD169" s="13"/>
+      <c r="AE169" s="9"/>
+      <c r="AF169" s="13"/>
+      <c r="AG169" s="9"/>
+      <c r="AH169" s="9"/>
+      <c r="AI169" s="9"/>
+    </row>
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="21"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="9"/>
+      <c r="M170" s="9"/>
+      <c r="N170" s="9"/>
+      <c r="O170" s="9"/>
+      <c r="P170" s="13"/>
+      <c r="Q170" s="9"/>
+      <c r="R170" s="9"/>
+      <c r="S170" s="13"/>
+      <c r="T170" s="9"/>
+      <c r="U170" s="13"/>
+      <c r="V170" s="9"/>
+      <c r="W170" s="13"/>
+      <c r="X170" s="9"/>
+      <c r="Y170" s="13"/>
+      <c r="Z170" s="9"/>
+      <c r="AA170" s="13"/>
+      <c r="AB170" s="9"/>
+      <c r="AC170" s="9"/>
+      <c r="AD170" s="13"/>
+      <c r="AE170" s="9"/>
+      <c r="AF170" s="13"/>
+      <c r="AG170" s="9"/>
+      <c r="AH170" s="9"/>
+      <c r="AI170" s="9"/>
+    </row>
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="9"/>
+      <c r="M171" s="9"/>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="13"/>
+      <c r="Q171" s="9"/>
+      <c r="R171" s="9"/>
+      <c r="S171" s="13"/>
+      <c r="T171" s="9"/>
+      <c r="U171" s="13"/>
+      <c r="V171" s="9"/>
+      <c r="W171" s="13"/>
+      <c r="X171" s="9"/>
+      <c r="Y171" s="13"/>
+      <c r="Z171" s="9"/>
+      <c r="AA171" s="13"/>
+      <c r="AB171" s="9"/>
+      <c r="AC171" s="9"/>
+      <c r="AD171" s="13"/>
+      <c r="AE171" s="9"/>
+      <c r="AF171" s="13"/>
+      <c r="AG171" s="9"/>
+      <c r="AH171" s="9"/>
+      <c r="AI171" s="9"/>
+    </row>
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172" s="21"/>
+      <c r="G172" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H172" s="21"/>
+      <c r="I172" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J172" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K172" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L172" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M172" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N172" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O172" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P172" s="13"/>
+      <c r="Q172" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R172" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S172" s="13"/>
+      <c r="T172" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U172" s="13"/>
+      <c r="V172" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W172" s="13"/>
+      <c r="X172" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y172" s="13"/>
+      <c r="Z172" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA172" s="13"/>
+      <c r="AB172" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC172" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD172" s="13"/>
+      <c r="AE172" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF172" s="13"/>
+      <c r="AG172" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH172" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI172" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="9">
+        <v>0</v>
+      </c>
+      <c r="H173" s="21"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="9"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="13"/>
+      <c r="Q173" s="9"/>
+      <c r="R173" s="9"/>
+      <c r="S173" s="13"/>
+      <c r="T173" s="9"/>
+      <c r="U173" s="13"/>
+      <c r="V173" s="9"/>
+      <c r="W173" s="13"/>
+      <c r="X173" s="9"/>
+      <c r="Y173" s="13"/>
+      <c r="Z173" s="9"/>
+      <c r="AA173" s="13"/>
+      <c r="AB173" s="9"/>
+      <c r="AC173" s="9"/>
+      <c r="AD173" s="13"/>
+      <c r="AE173" s="9"/>
+      <c r="AF173" s="13"/>
+      <c r="AG173" s="9"/>
+      <c r="AH173" s="9"/>
+      <c r="AI173" s="9"/>
+    </row>
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="9"/>
+      <c r="N174" s="9"/>
+      <c r="O174" s="9"/>
+      <c r="P174" s="13"/>
+      <c r="Q174" s="9"/>
+      <c r="R174" s="9"/>
+      <c r="S174" s="13"/>
+      <c r="T174" s="9"/>
+      <c r="U174" s="13"/>
+      <c r="V174" s="9"/>
+      <c r="W174" s="13"/>
+      <c r="X174" s="9"/>
+      <c r="Y174" s="13"/>
+      <c r="Z174" s="9"/>
+      <c r="AA174" s="13"/>
+      <c r="AB174" s="9"/>
+      <c r="AC174" s="9"/>
+      <c r="AD174" s="13"/>
+      <c r="AE174" s="9"/>
+      <c r="AF174" s="13"/>
+      <c r="AG174" s="9"/>
+      <c r="AH174" s="9"/>
+      <c r="AI174" s="9"/>
+    </row>
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="9"/>
+      <c r="L175" s="9"/>
+      <c r="M175" s="9"/>
+      <c r="N175" s="9"/>
+      <c r="O175" s="9"/>
+      <c r="P175" s="13"/>
+      <c r="Q175" s="9"/>
+      <c r="R175" s="9"/>
+      <c r="S175" s="13"/>
+      <c r="T175" s="9"/>
+      <c r="U175" s="13"/>
+      <c r="V175" s="9"/>
+      <c r="W175" s="13"/>
+      <c r="X175" s="9"/>
+      <c r="Y175" s="13"/>
+      <c r="Z175" s="9"/>
+      <c r="AA175" s="13"/>
+      <c r="AB175" s="9"/>
+      <c r="AC175" s="9"/>
+      <c r="AD175" s="13"/>
+      <c r="AE175" s="9"/>
+      <c r="AF175" s="13"/>
+      <c r="AG175" s="9"/>
+      <c r="AH175" s="9"/>
+      <c r="AI175" s="9"/>
+    </row>
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="9"/>
+      <c r="N176" s="9"/>
+      <c r="O176" s="9"/>
+      <c r="P176" s="13"/>
+      <c r="Q176" s="9"/>
+      <c r="R176" s="9"/>
+      <c r="S176" s="13"/>
+      <c r="T176" s="9"/>
+      <c r="U176" s="13"/>
+      <c r="V176" s="9"/>
+      <c r="W176" s="13"/>
+      <c r="X176" s="9"/>
+      <c r="Y176" s="13"/>
+      <c r="Z176" s="9"/>
+      <c r="AA176" s="13"/>
+      <c r="AB176" s="9"/>
+      <c r="AC176" s="9"/>
+      <c r="AD176" s="13"/>
+      <c r="AE176" s="9"/>
+      <c r="AF176" s="13"/>
+      <c r="AG176" s="9"/>
+      <c r="AH176" s="9"/>
+      <c r="AI176" s="9"/>
+    </row>
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
+      <c r="M177" s="9"/>
+      <c r="N177" s="9"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="13"/>
+      <c r="Q177" s="9"/>
+      <c r="R177" s="9"/>
+      <c r="S177" s="13"/>
+      <c r="T177" s="9"/>
+      <c r="U177" s="13"/>
+      <c r="V177" s="9"/>
+      <c r="W177" s="13"/>
+      <c r="X177" s="9"/>
+      <c r="Y177" s="13"/>
+      <c r="Z177" s="9"/>
+      <c r="AA177" s="13"/>
+      <c r="AB177" s="9"/>
+      <c r="AC177" s="9"/>
+      <c r="AD177" s="13"/>
+      <c r="AE177" s="9"/>
+      <c r="AF177" s="13"/>
+      <c r="AG177" s="9"/>
+      <c r="AH177" s="9"/>
+      <c r="AI177" s="9"/>
+    </row>
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A178" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="9"/>
+      <c r="O178" s="9"/>
+      <c r="P178" s="13"/>
+      <c r="Q178" s="9"/>
+      <c r="R178" s="9"/>
+      <c r="S178" s="13"/>
+      <c r="T178" s="9"/>
+      <c r="U178" s="13"/>
+      <c r="V178" s="9"/>
+      <c r="W178" s="13"/>
+      <c r="X178" s="9"/>
+      <c r="Y178" s="13"/>
+      <c r="Z178" s="9"/>
+      <c r="AA178" s="13"/>
+      <c r="AB178" s="9"/>
+      <c r="AC178" s="9"/>
+      <c r="AD178" s="13"/>
+      <c r="AE178" s="9"/>
+      <c r="AF178" s="13"/>
+      <c r="AG178" s="9"/>
+      <c r="AH178" s="9"/>
+      <c r="AI178" s="9"/>
+    </row>
+    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A179" s="6"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="9"/>
+      <c r="M179" s="9"/>
+      <c r="N179" s="9"/>
+      <c r="O179" s="9"/>
+      <c r="P179" s="13"/>
+      <c r="Q179" s="9"/>
+      <c r="R179" s="9"/>
+      <c r="S179" s="13"/>
+      <c r="T179" s="9"/>
+      <c r="U179" s="13"/>
+      <c r="V179" s="9"/>
+      <c r="W179" s="13"/>
+      <c r="X179" s="9"/>
+      <c r="Y179" s="13"/>
+      <c r="Z179" s="9"/>
+      <c r="AA179" s="13"/>
+      <c r="AB179" s="9"/>
+      <c r="AC179" s="9"/>
+      <c r="AD179" s="13"/>
+      <c r="AE179" s="9"/>
+      <c r="AF179" s="13"/>
+      <c r="AG179" s="9"/>
+      <c r="AH179" s="9"/>
+      <c r="AI179" s="9"/>
+    </row>
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B180" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="28"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+      <c r="L180" s="27"/>
+      <c r="M180" s="27"/>
+      <c r="N180" s="27"/>
+      <c r="O180" s="23"/>
+      <c r="P180" s="13"/>
+      <c r="Q180" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R180" s="28"/>
+      <c r="S180" s="13"/>
+      <c r="T180" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V180" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W180" s="13"/>
+      <c r="X180" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y180" s="13"/>
+      <c r="Z180" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA180" s="13"/>
+      <c r="AB180" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC180" s="27"/>
+      <c r="AD180" s="25"/>
+      <c r="AE180" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF180" s="13"/>
+      <c r="AG180" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH180" s="27"/>
+      <c r="AI180" s="27"/>
+    </row>
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" s="21"/>
+      <c r="G181" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H181" s="21"/>
+      <c r="I181" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K181" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L181" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M181" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N181" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O181" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P181" s="13"/>
+      <c r="Q181" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R181" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S181" s="13"/>
+      <c r="T181" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U181" s="13"/>
+      <c r="V181" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W181" s="13"/>
+      <c r="X181" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y181" s="13"/>
+      <c r="Z181" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA181" s="13"/>
+      <c r="AB181" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC181" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD181" s="13"/>
+      <c r="AE181" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF181" s="13"/>
+      <c r="AG181" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH181" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI181" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="34">
+        <v>5</v>
+      </c>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31">
+        <v>0</v>
+      </c>
+      <c r="H182" s="31"/>
+      <c r="I182" s="31"/>
+      <c r="J182" s="31"/>
+      <c r="K182" s="31"/>
+      <c r="L182" s="31"/>
+      <c r="M182" s="31"/>
+      <c r="N182" s="31"/>
+      <c r="O182" s="31"/>
+      <c r="P182" s="31"/>
+      <c r="Q182" s="31"/>
+      <c r="R182" s="31"/>
+      <c r="S182" s="31"/>
+      <c r="T182" s="31"/>
+      <c r="U182" s="31"/>
+      <c r="V182" s="31"/>
+      <c r="W182" s="31"/>
+      <c r="X182" s="31"/>
+      <c r="Y182" s="31"/>
+      <c r="Z182" s="31"/>
+      <c r="AA182" s="31"/>
+      <c r="AB182" s="31"/>
+      <c r="AC182" s="31"/>
+      <c r="AD182" s="31"/>
+      <c r="AE182" s="31"/>
+      <c r="AF182" s="31"/>
+      <c r="AG182" s="31"/>
+      <c r="AH182" s="31"/>
+      <c r="AI182" s="31"/>
+    </row>
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A183" s="6"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="9"/>
+      <c r="M183" s="9"/>
+      <c r="N183" s="9"/>
+      <c r="O183" s="9"/>
+      <c r="P183" s="13"/>
+      <c r="Q183" s="9"/>
+      <c r="R183" s="9"/>
+      <c r="S183" s="13"/>
+      <c r="T183" s="9"/>
+      <c r="U183" s="13"/>
+      <c r="V183" s="9"/>
+      <c r="W183" s="13"/>
+      <c r="X183" s="9"/>
+      <c r="Y183" s="13"/>
+      <c r="Z183" s="9"/>
+      <c r="AA183" s="13"/>
+      <c r="AB183" s="9"/>
+      <c r="AC183" s="9"/>
+      <c r="AD183" s="13"/>
+      <c r="AE183" s="9"/>
+      <c r="AF183" s="13"/>
+      <c r="AG183" s="9"/>
+      <c r="AH183" s="9"/>
+      <c r="AI183" s="9"/>
+    </row>
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B184" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C184" s="28"/>
+      <c r="D184" s="28"/>
+      <c r="E184" s="28"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J184" s="27"/>
+      <c r="K184" s="27"/>
+      <c r="L184" s="27"/>
+      <c r="M184" s="27"/>
+      <c r="N184" s="27"/>
+      <c r="O184" s="23"/>
+      <c r="P184" s="13"/>
+      <c r="Q184" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R184" s="28"/>
+      <c r="S184" s="13"/>
+      <c r="T184" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V184" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W184" s="13"/>
+      <c r="X184" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y184" s="13"/>
+      <c r="Z184" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA184" s="13"/>
+      <c r="AB184" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC184" s="27"/>
+      <c r="AD184" s="25"/>
+      <c r="AE184" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF184" s="13"/>
+      <c r="AG184" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH184" s="27"/>
+      <c r="AI184" s="27"/>
+    </row>
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185" s="21"/>
+      <c r="G185" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H185" s="21"/>
+      <c r="I185" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J185" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K185" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L185" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M185" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N185" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O185" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P185" s="13"/>
+      <c r="Q185" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R185" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S185" s="13"/>
+      <c r="T185" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U185" s="13"/>
+      <c r="V185" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W185" s="13"/>
+      <c r="X185" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y185" s="13"/>
+      <c r="Z185" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA185" s="13"/>
+      <c r="AB185" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC185" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD185" s="13"/>
+      <c r="AE185" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF185" s="13"/>
+      <c r="AG185" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH185" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI185" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="34">
+        <v>8</v>
+      </c>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31">
+        <v>0</v>
+      </c>
+      <c r="H186" s="31"/>
+      <c r="I186" s="31"/>
+      <c r="J186" s="31"/>
+      <c r="K186" s="31"/>
+      <c r="L186" s="31"/>
+      <c r="M186" s="31"/>
+      <c r="N186" s="31"/>
+      <c r="O186" s="31"/>
+      <c r="P186" s="31"/>
+      <c r="Q186" s="31"/>
+      <c r="R186" s="31"/>
+      <c r="S186" s="31"/>
+      <c r="T186" s="31"/>
+      <c r="U186" s="31"/>
+      <c r="V186" s="31"/>
+      <c r="W186" s="31"/>
+      <c r="X186" s="31"/>
+      <c r="Y186" s="31"/>
+      <c r="Z186" s="31"/>
+      <c r="AA186" s="31"/>
+      <c r="AB186" s="31"/>
+      <c r="AC186" s="31"/>
+      <c r="AD186" s="31"/>
+      <c r="AE186" s="31"/>
+      <c r="AF186" s="31"/>
+      <c r="AG186" s="31"/>
+      <c r="AH186" s="31"/>
+      <c r="AI186" s="31"/>
+    </row>
+    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
+      <c r="L187" s="9"/>
+      <c r="M187" s="9"/>
+      <c r="N187" s="9"/>
+      <c r="O187" s="9"/>
+      <c r="P187" s="13"/>
+      <c r="Q187" s="9"/>
+      <c r="R187" s="9"/>
+      <c r="S187" s="13"/>
+      <c r="T187" s="9"/>
+      <c r="U187" s="13"/>
+      <c r="V187" s="9"/>
+      <c r="W187" s="13"/>
+      <c r="X187" s="9"/>
+      <c r="Y187" s="13"/>
+      <c r="Z187" s="9"/>
+      <c r="AA187" s="13"/>
+      <c r="AB187" s="9"/>
+      <c r="AC187" s="9"/>
+      <c r="AD187" s="13"/>
+      <c r="AE187" s="9"/>
+      <c r="AF187" s="13"/>
+      <c r="AG187" s="9"/>
+      <c r="AH187" s="9"/>
+      <c r="AI187" s="9"/>
+    </row>
+    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B188" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="28"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J188" s="27"/>
+      <c r="K188" s="27"/>
+      <c r="L188" s="27"/>
+      <c r="M188" s="27"/>
+      <c r="N188" s="27"/>
+      <c r="O188" s="23"/>
+      <c r="P188" s="13"/>
+      <c r="Q188" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R188" s="28"/>
+      <c r="S188" s="13"/>
+      <c r="T188" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V188" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W188" s="13"/>
+      <c r="X188" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y188" s="13"/>
+      <c r="Z188" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA188" s="13"/>
+      <c r="AB188" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC188" s="27"/>
+      <c r="AD188" s="25"/>
+      <c r="AE188" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF188" s="13"/>
+      <c r="AG188" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH188" s="27"/>
+      <c r="AI188" s="27"/>
+    </row>
+    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189" s="21"/>
+      <c r="G189" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H189" s="21"/>
+      <c r="I189" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J189" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K189" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L189" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M189" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N189" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O189" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P189" s="13"/>
+      <c r="Q189" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R189" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S189" s="13"/>
+      <c r="T189" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U189" s="13"/>
+      <c r="V189" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W189" s="13"/>
+      <c r="X189" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y189" s="13"/>
+      <c r="Z189" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA189" s="13"/>
+      <c r="AB189" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC189" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD189" s="13"/>
+      <c r="AE189" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF189" s="13"/>
+      <c r="AG189" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH189" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI189" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>1</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13">
+        <v>0</v>
+      </c>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13">
+        <v>0</v>
+      </c>
+      <c r="J190" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K190" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L190" s="13">
+        <v>1111</v>
+      </c>
+      <c r="M190" s="13">
+        <v>0</v>
+      </c>
+      <c r="N190" s="13">
+        <v>1110</v>
+      </c>
+      <c r="O190" s="13">
+        <v>0</v>
+      </c>
+      <c r="P190" s="13"/>
+      <c r="Q190" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="R190" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="S190" s="26"/>
+      <c r="T190" s="26">
+        <v>0</v>
+      </c>
+      <c r="U190" s="13"/>
+      <c r="V190" s="13">
+        <v>0</v>
+      </c>
+      <c r="W190" s="13"/>
+      <c r="X190" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y190" s="13"/>
+      <c r="Z190" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA190" s="13"/>
+      <c r="AB190" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC190" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD190" s="13"/>
+      <c r="AE190" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF190" s="13"/>
+      <c r="AG190" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH190" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI190" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A191" s="6"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="9"/>
+      <c r="L191" s="9"/>
+      <c r="M191" s="9"/>
+      <c r="N191" s="9"/>
+      <c r="O191" s="9"/>
+      <c r="P191" s="13"/>
+      <c r="Q191" s="9"/>
+      <c r="R191" s="9"/>
+      <c r="S191" s="13"/>
+      <c r="T191" s="9"/>
+      <c r="U191" s="13"/>
+      <c r="V191" s="9"/>
+      <c r="W191" s="13"/>
+      <c r="X191" s="9"/>
+      <c r="Y191" s="13"/>
+      <c r="Z191" s="9"/>
+      <c r="AA191" s="13"/>
+      <c r="AB191" s="9"/>
+      <c r="AC191" s="9"/>
+      <c r="AD191" s="13"/>
+      <c r="AE191" s="9"/>
+      <c r="AF191" s="13"/>
+      <c r="AG191" s="9"/>
+      <c r="AH191" s="9"/>
+      <c r="AI191" s="9"/>
+    </row>
+    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C192" s="28"/>
+      <c r="D192" s="28"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J192" s="27"/>
+      <c r="K192" s="27"/>
+      <c r="L192" s="27"/>
+      <c r="M192" s="27"/>
+      <c r="N192" s="27"/>
+      <c r="O192" s="23"/>
+      <c r="P192" s="13"/>
+      <c r="Q192" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="R192" s="28"/>
+      <c r="S192" s="13"/>
+      <c r="T192" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V192" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W192" s="13"/>
+      <c r="X192" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y192" s="13"/>
+      <c r="Z192" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA192" s="13"/>
+      <c r="AB192" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC192" s="27"/>
+      <c r="AD192" s="25"/>
+      <c r="AE192" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF192" s="13"/>
+      <c r="AG192" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH192" s="27"/>
+      <c r="AI192" s="27"/>
+    </row>
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" s="21"/>
+      <c r="G193" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H193" s="21"/>
+      <c r="I193" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J193" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K193" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L193" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M193" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N193" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O193" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P193" s="13"/>
+      <c r="Q193" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R193" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S193" s="13"/>
+      <c r="T193" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U193" s="13"/>
+      <c r="V193" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W193" s="13"/>
+      <c r="X193" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y193" s="13"/>
+      <c r="Z193" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA193" s="13"/>
+      <c r="AB193" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC193" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD193" s="13"/>
+      <c r="AE193" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF193" s="13"/>
+      <c r="AG193" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH193" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI193" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>2</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13">
+        <v>0</v>
+      </c>
+      <c r="H194" s="13"/>
+      <c r="I194" s="13">
+        <v>0</v>
+      </c>
+      <c r="J194" s="13">
+        <v>1111</v>
+      </c>
+      <c r="K194" s="13">
+        <v>0</v>
+      </c>
+      <c r="L194" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M194" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N194" s="13">
+        <v>1111</v>
+      </c>
+      <c r="O194" s="13">
+        <v>0</v>
+      </c>
+      <c r="P194" s="13"/>
+      <c r="Q194" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="R194" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="S194" s="26"/>
+      <c r="T194" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U194" s="13"/>
+      <c r="V194" s="13">
+        <v>1</v>
+      </c>
+      <c r="W194" s="13"/>
+      <c r="X194" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y194" s="13"/>
+      <c r="Z194" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA194" s="13"/>
+      <c r="AB194" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC194" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD194" s="13"/>
+      <c r="AE194" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF194" s="13"/>
+      <c r="AG194" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH194" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI194" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="9"/>
+      <c r="L195" s="9"/>
+      <c r="M195" s="9"/>
+      <c r="N195" s="9"/>
+      <c r="O195" s="9"/>
+      <c r="P195" s="13"/>
+      <c r="Q195" s="9"/>
+      <c r="R195" s="9"/>
+      <c r="S195" s="13"/>
+      <c r="T195" s="9"/>
+      <c r="U195" s="13"/>
+      <c r="V195" s="9"/>
+      <c r="W195" s="13"/>
+      <c r="X195" s="9"/>
+      <c r="Y195" s="13"/>
+      <c r="Z195" s="9"/>
+      <c r="AA195" s="13"/>
+      <c r="AB195" s="9"/>
+      <c r="AC195" s="9"/>
+      <c r="AD195" s="13"/>
+      <c r="AE195" s="9"/>
+      <c r="AF195" s="13"/>
+      <c r="AG195" s="9"/>
+      <c r="AH195" s="9"/>
+      <c r="AI195" s="9"/>
+    </row>
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="9"/>
+      <c r="N196" s="9"/>
+      <c r="O196" s="9"/>
+      <c r="P196" s="13"/>
+      <c r="Q196" s="9"/>
+      <c r="R196" s="9"/>
+      <c r="S196" s="13"/>
+      <c r="T196" s="9"/>
+      <c r="U196" s="13"/>
+      <c r="V196" s="9"/>
+      <c r="W196" s="13"/>
+      <c r="X196" s="9"/>
+      <c r="Y196" s="13"/>
+      <c r="Z196" s="9"/>
+      <c r="AA196" s="13"/>
+      <c r="AB196" s="9"/>
+      <c r="AC196" s="9"/>
+      <c r="AD196" s="13"/>
+      <c r="AE196" s="9"/>
+      <c r="AF196" s="13"/>
+      <c r="AG196" s="9"/>
+      <c r="AH196" s="9"/>
+      <c r="AI196" s="9"/>
+    </row>
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AJ197" s="8"/>
+    </row>
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ198" s="8"/>
+    </row>
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ199" s="8"/>
+    </row>
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ200" s="8"/>
+    </row>
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ201" s="8"/>
+    </row>
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ202" s="8"/>
+    </row>
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ203" s="8"/>
+    </row>
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ204" s="8"/>
+    </row>
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ205" s="8"/>
+    </row>
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ206" s="8"/>
+    </row>
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ207" s="8"/>
+    </row>
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ208" s="8"/>
+    </row>
+    <row r="209" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ209" s="8"/>
+    </row>
+    <row r="210" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ210" s="8"/>
+    </row>
+    <row r="211" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ211" s="8"/>
+    </row>
+    <row r="212" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ212" s="8"/>
+    </row>
+    <row r="213" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ213" s="8"/>
+    </row>
+    <row r="214" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ214" s="8"/>
+    </row>
+    <row r="215" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ215" s="8"/>
+    </row>
+    <row r="216" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ216" s="8"/>
+    </row>
+    <row r="217" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ217" s="8"/>
+    </row>
+    <row r="218" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ218" s="8"/>
+    </row>
+    <row r="219" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ219" s="8"/>
+    </row>
+    <row r="220" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ220" s="8"/>
+    </row>
+    <row r="221" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ221" s="8"/>
+    </row>
+    <row r="222" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ222" s="8"/>
+    </row>
+    <row r="223" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ223" s="8"/>
+    </row>
+    <row r="224" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ224" s="8"/>
+    </row>
+    <row r="225" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ225" s="8"/>
+    </row>
+    <row r="226" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ226" s="8"/>
+    </row>
+    <row r="227" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ227" s="8"/>
+    </row>
+    <row r="228" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ228" s="8"/>
+    </row>
+    <row r="229" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ229" s="8"/>
+    </row>
+    <row r="230" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ230" s="8"/>
+    </row>
+    <row r="231" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ231" s="8"/>
+    </row>
+    <row r="232" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ232" s="8"/>
+    </row>
+    <row r="233" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ233" s="8"/>
+    </row>
+    <row r="234" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ234" s="8"/>
+    </row>
+    <row r="235" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ235" s="8"/>
+    </row>
+    <row r="236" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ236" s="8"/>
+    </row>
+    <row r="237" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ237" s="8"/>
+    </row>
+    <row r="238" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ238" s="8"/>
+    </row>
+    <row r="239" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ239" s="8"/>
+    </row>
+    <row r="240" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ240" s="8"/>
+    </row>
+    <row r="241" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ241" s="8"/>
+    </row>
+    <row r="242" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ242" s="8"/>
+    </row>
+    <row r="243" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ243" s="8"/>
+    </row>
+    <row r="244" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ244" s="8"/>
+    </row>
+    <row r="245" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ245" s="8"/>
+    </row>
+    <row r="246" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ246" s="8"/>
+    </row>
+    <row r="247" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ247" s="8"/>
+    </row>
+    <row r="248" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ248" s="8"/>
+    </row>
+    <row r="249" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ249" s="8"/>
+    </row>
+    <row r="250" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ250" s="8"/>
+    </row>
+    <row r="251" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ251" s="8"/>
+    </row>
+    <row r="252" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ252" s="8"/>
+    </row>
+    <row r="253" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ253" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -10081,45 +12381,45 @@
     <mergeCell ref="I49:N49"/>
     <mergeCell ref="Q49:R49"/>
     <mergeCell ref="AG49:AI49"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="I74:N74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="AG74:AI74"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="I99:N99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="AG99:AI99"/>
-    <mergeCell ref="AG112:AI112"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="I124:N124"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="I112:N112"/>
-    <mergeCell ref="Q112:R112"/>
-    <mergeCell ref="AG124:AI124"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="I128:N128"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="AG128:AI128"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="I132:N132"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="AG132:AI132"/>
-    <mergeCell ref="AG136:AI136"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="I136:N136"/>
-    <mergeCell ref="Q136:R136"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="I92:N92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="AG92:AI92"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="I135:N135"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="AG135:AI135"/>
+    <mergeCell ref="AG158:AI158"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="I180:N180"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="I158:N158"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="AG180:AI180"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="I184:N184"/>
+    <mergeCell ref="Q184:R184"/>
+    <mergeCell ref="AG184:AI184"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="I188:N188"/>
+    <mergeCell ref="Q188:R188"/>
+    <mergeCell ref="AG188:AI188"/>
+    <mergeCell ref="AG192:AI192"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="I192:N192"/>
+    <mergeCell ref="Q192:R192"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AB132:AC132"/>
-    <mergeCell ref="AB136:AC136"/>
+    <mergeCell ref="AB188:AC188"/>
+    <mergeCell ref="AB192:AC192"/>
     <mergeCell ref="D47:AG47"/>
-    <mergeCell ref="AB112:AC112"/>
-    <mergeCell ref="AB124:AC124"/>
-    <mergeCell ref="AB128:AC128"/>
+    <mergeCell ref="AB158:AC158"/>
+    <mergeCell ref="AB180:AC180"/>
+    <mergeCell ref="AB184:AC184"/>
     <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB74:AC74"/>
-    <mergeCell ref="AB99:AC99"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="AB135:AC135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="197">
   <si>
     <t>BRANCH</t>
   </si>
@@ -1482,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG160" sqref="AG160:AJ160"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AG46" sqref="AG15:AG46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,9 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AF15" s="13"/>
-      <c r="AG15" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG15" s="15"/>
       <c r="AH15" s="15" t="s">
         <v>29</v>
       </c>
@@ -2591,9 +2589,7 @@
         <v>1</v>
       </c>
       <c r="AF16" s="13"/>
-      <c r="AG16" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG16" s="14"/>
       <c r="AH16" s="14" t="s">
         <v>29</v>
       </c>
@@ -2681,9 +2677,7 @@
         <v>1</v>
       </c>
       <c r="AF17" s="13"/>
-      <c r="AG17" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG17" s="15"/>
       <c r="AH17" s="15" t="s">
         <v>29</v>
       </c>
@@ -2769,9 +2763,7 @@
         <v>1</v>
       </c>
       <c r="AF18" s="13"/>
-      <c r="AG18" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG18" s="14"/>
       <c r="AH18" s="14" t="s">
         <v>29</v>
       </c>
@@ -2859,9 +2851,7 @@
         <v>1</v>
       </c>
       <c r="AF19" s="13"/>
-      <c r="AG19" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG19" s="15"/>
       <c r="AH19" s="15" t="s">
         <v>29</v>
       </c>
@@ -2947,9 +2937,7 @@
         <v>1</v>
       </c>
       <c r="AF20" s="13"/>
-      <c r="AG20" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG20" s="14"/>
       <c r="AH20" s="14" t="s">
         <v>29</v>
       </c>
@@ -3037,9 +3025,7 @@
         <v>1</v>
       </c>
       <c r="AF21" s="13"/>
-      <c r="AG21" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG21" s="15"/>
       <c r="AH21" s="15" t="s">
         <v>29</v>
       </c>
@@ -3125,9 +3111,7 @@
         <v>1</v>
       </c>
       <c r="AF22" s="13"/>
-      <c r="AG22" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG22" s="14"/>
       <c r="AH22" s="14" t="s">
         <v>29</v>
       </c>
@@ -3215,9 +3199,7 @@
         <v>1</v>
       </c>
       <c r="AF23" s="13"/>
-      <c r="AG23" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG23" s="15"/>
       <c r="AH23" s="15" t="s">
         <v>29</v>
       </c>
@@ -3303,9 +3285,7 @@
         <v>1</v>
       </c>
       <c r="AF24" s="13"/>
-      <c r="AG24" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG24" s="14"/>
       <c r="AH24" s="14" t="s">
         <v>29</v>
       </c>
@@ -3393,9 +3373,7 @@
         <v>1</v>
       </c>
       <c r="AF25" s="13"/>
-      <c r="AG25" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG25" s="15"/>
       <c r="AH25" s="15" t="s">
         <v>29</v>
       </c>
@@ -3481,9 +3459,7 @@
         <v>1</v>
       </c>
       <c r="AF26" s="13"/>
-      <c r="AG26" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG26" s="14"/>
       <c r="AH26" s="14" t="s">
         <v>29</v>
       </c>
@@ -3571,9 +3547,7 @@
         <v>1</v>
       </c>
       <c r="AF27" s="13"/>
-      <c r="AG27" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG27" s="15"/>
       <c r="AH27" s="15" t="s">
         <v>29</v>
       </c>
@@ -3659,9 +3633,7 @@
         <v>1</v>
       </c>
       <c r="AF28" s="13"/>
-      <c r="AG28" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG28" s="14"/>
       <c r="AH28" s="14" t="s">
         <v>29</v>
       </c>
@@ -3749,9 +3721,7 @@
         <v>1</v>
       </c>
       <c r="AF29" s="13"/>
-      <c r="AG29" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG29" s="15"/>
       <c r="AH29" s="15" t="s">
         <v>29</v>
       </c>
@@ -3837,9 +3807,7 @@
         <v>1</v>
       </c>
       <c r="AF30" s="13"/>
-      <c r="AG30" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG30" s="14"/>
       <c r="AH30" s="14" t="s">
         <v>29</v>
       </c>
@@ -3927,9 +3895,7 @@
         <v>1</v>
       </c>
       <c r="AF31" s="13"/>
-      <c r="AG31" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG31" s="15"/>
       <c r="AH31" s="15" t="s">
         <v>29</v>
       </c>
@@ -4015,9 +3981,7 @@
         <v>1</v>
       </c>
       <c r="AF32" s="13"/>
-      <c r="AG32" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG32" s="14"/>
       <c r="AH32" s="14" t="s">
         <v>29</v>
       </c>
@@ -4105,9 +4069,7 @@
         <v>1</v>
       </c>
       <c r="AF33" s="13"/>
-      <c r="AG33" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG33" s="15"/>
       <c r="AH33" s="15" t="s">
         <v>29</v>
       </c>
@@ -4193,9 +4155,7 @@
         <v>1</v>
       </c>
       <c r="AF34" s="13"/>
-      <c r="AG34" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG34" s="14"/>
       <c r="AH34" s="14" t="s">
         <v>29</v>
       </c>
@@ -4283,9 +4243,7 @@
         <v>1</v>
       </c>
       <c r="AF35" s="13"/>
-      <c r="AG35" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG35" s="15"/>
       <c r="AH35" s="15" t="s">
         <v>29</v>
       </c>
@@ -4371,9 +4329,7 @@
         <v>1</v>
       </c>
       <c r="AF36" s="13"/>
-      <c r="AG36" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG36" s="14"/>
       <c r="AH36" s="14" t="s">
         <v>29</v>
       </c>
@@ -4461,9 +4417,7 @@
         <v>1</v>
       </c>
       <c r="AF37" s="13"/>
-      <c r="AG37" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG37" s="15"/>
       <c r="AH37" s="15" t="s">
         <v>29</v>
       </c>
@@ -4549,9 +4503,7 @@
         <v>1</v>
       </c>
       <c r="AF38" s="13"/>
-      <c r="AG38" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG38" s="14"/>
       <c r="AH38" s="14" t="s">
         <v>29</v>
       </c>
@@ -4639,9 +4591,7 @@
         <v>1</v>
       </c>
       <c r="AF39" s="13"/>
-      <c r="AG39" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG39" s="15"/>
       <c r="AH39" s="15" t="s">
         <v>29</v>
       </c>
@@ -4727,9 +4677,7 @@
         <v>1</v>
       </c>
       <c r="AF40" s="13"/>
-      <c r="AG40" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG40" s="14"/>
       <c r="AH40" s="14" t="s">
         <v>29</v>
       </c>
@@ -4817,9 +4765,7 @@
         <v>1</v>
       </c>
       <c r="AF41" s="13"/>
-      <c r="AG41" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG41" s="15"/>
       <c r="AH41" s="15" t="s">
         <v>29</v>
       </c>
@@ -4905,9 +4851,7 @@
         <v>1</v>
       </c>
       <c r="AF42" s="13"/>
-      <c r="AG42" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG42" s="14"/>
       <c r="AH42" s="14" t="s">
         <v>29</v>
       </c>
@@ -4995,9 +4939,7 @@
         <v>1</v>
       </c>
       <c r="AF43" s="13"/>
-      <c r="AG43" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG43" s="15"/>
       <c r="AH43" s="15" t="s">
         <v>29</v>
       </c>
@@ -5083,9 +5025,7 @@
         <v>1</v>
       </c>
       <c r="AF44" s="13"/>
-      <c r="AG44" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG44" s="14"/>
       <c r="AH44" s="14" t="s">
         <v>29</v>
       </c>
@@ -5173,9 +5113,7 @@
         <v>1</v>
       </c>
       <c r="AF45" s="13"/>
-      <c r="AG45" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG45" s="15"/>
       <c r="AH45" s="15" t="s">
         <v>29</v>
       </c>
@@ -5261,9 +5199,7 @@
         <v>1</v>
       </c>
       <c r="AF46" s="13"/>
-      <c r="AG46" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG46" s="14"/>
       <c r="AH46" s="14" t="s">
         <v>29</v>
       </c>
@@ -7130,9 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AF79" s="13"/>
-      <c r="AG79" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="AG79" s="9"/>
       <c r="AH79" s="9" t="s">
         <v>77</v>
       </c>
@@ -11028,9 +10962,7 @@
         <v>1</v>
       </c>
       <c r="AF150" s="13"/>
-      <c r="AG150" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG150" s="13"/>
       <c r="AH150" s="13" t="s">
         <v>29</v>
       </c>
@@ -11305,9 +11237,7 @@
         <v>0</v>
       </c>
       <c r="AF154" s="13"/>
-      <c r="AG154" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="AG154" s="13"/>
       <c r="AH154" s="13" t="s">
         <v>29</v>
       </c>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Documents\armverilogimplementation\ArquiProjecto\Phase2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Arqui\gitrepository\armverilogimplementation\ArquiProjecto\Phase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1221,19 +1221,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,17 +1519,17 @@
   </sheetPr>
   <dimension ref="A1:AQ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P149" sqref="P149"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="28" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="28" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="28" customWidth="1"/>
     <col min="6" max="6" width="1.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="1.85546875" style="19" customWidth="1"/>
@@ -1555,12 +1555,12 @@
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -1574,11 +1574,11 @@
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
       <c r="T2" s="13"/>
       <c r="U2" s="7" t="s">
         <v>67</v>
@@ -2257,23 +2257,23 @@
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="8"/>
@@ -2283,26 +2283,26 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
       <c r="AE11" s="23"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -2316,11 +2316,11 @@
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="42" t="s">
+      <c r="Q12" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
       <c r="T12" s="13"/>
       <c r="U12" s="7" t="s">
         <v>67</v>
@@ -5557,12 +5557,12 @@
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
@@ -5576,11 +5576,11 @@
       <c r="N49" s="43"/>
       <c r="O49" s="43"/>
       <c r="P49" s="13"/>
-      <c r="Q49" s="42" t="s">
+      <c r="Q49" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
       <c r="T49" s="13"/>
       <c r="U49" s="7" t="s">
         <v>67</v>
@@ -8134,12 +8134,12 @@
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
@@ -8153,11 +8153,11 @@
       <c r="N81" s="43"/>
       <c r="O81" s="43"/>
       <c r="P81" s="13"/>
-      <c r="Q81" s="42" t="s">
+      <c r="Q81" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
+      <c r="R81" s="45"/>
+      <c r="S81" s="45"/>
       <c r="T81" s="13"/>
       <c r="U81" s="7" t="s">
         <v>67</v>
@@ -10711,12 +10711,12 @@
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
@@ -10730,11 +10730,11 @@
       <c r="N113" s="43"/>
       <c r="O113" s="43"/>
       <c r="P113" s="13"/>
-      <c r="Q113" s="42" t="s">
+      <c r="Q113" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R113" s="42"/>
-      <c r="S113" s="42"/>
+      <c r="R113" s="45"/>
+      <c r="S113" s="45"/>
       <c r="T113" s="13"/>
       <c r="U113" s="7" t="s">
         <v>67</v>
@@ -12142,12 +12142,12 @@
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="42" t="s">
+      <c r="B131" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
@@ -12161,11 +12161,11 @@
       <c r="N131" s="43"/>
       <c r="O131" s="43"/>
       <c r="P131" s="13"/>
-      <c r="Q131" s="42" t="s">
+      <c r="Q131" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R131" s="42"/>
-      <c r="S131" s="42"/>
+      <c r="R131" s="45"/>
+      <c r="S131" s="45"/>
       <c r="T131" s="13"/>
       <c r="U131" s="7" t="s">
         <v>67</v>
@@ -13532,12 +13532,12 @@
       <c r="A148" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="42" t="s">
+      <c r="B148" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C148" s="42"/>
-      <c r="D148" s="42"/>
-      <c r="E148" s="42"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
@@ -13551,11 +13551,11 @@
       <c r="N148" s="43"/>
       <c r="O148" s="43"/>
       <c r="P148" s="13"/>
-      <c r="Q148" s="42" t="s">
+      <c r="Q148" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R148" s="42"/>
-      <c r="S148" s="42"/>
+      <c r="R148" s="45"/>
+      <c r="S148" s="45"/>
       <c r="T148" s="13"/>
       <c r="U148" s="7" t="s">
         <v>67</v>
@@ -13817,12 +13817,12 @@
       <c r="A152" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="42" t="s">
+      <c r="B152" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C152" s="42"/>
-      <c r="D152" s="42"/>
-      <c r="E152" s="42"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
+      <c r="E152" s="45"/>
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
@@ -13836,11 +13836,11 @@
       <c r="N152" s="43"/>
       <c r="O152" s="43"/>
       <c r="P152" s="13"/>
-      <c r="Q152" s="42" t="s">
+      <c r="Q152" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R152" s="42"/>
-      <c r="S152" s="42"/>
+      <c r="R152" s="45"/>
+      <c r="S152" s="45"/>
       <c r="T152" s="13"/>
       <c r="U152" s="7" t="s">
         <v>67</v>
@@ -14101,12 +14101,12 @@
       <c r="A156" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B156" s="42" t="s">
+      <c r="B156" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C156" s="42"/>
-      <c r="D156" s="42"/>
-      <c r="E156" s="42"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="45"/>
+      <c r="E156" s="45"/>
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
@@ -14120,11 +14120,11 @@
       <c r="N156" s="43"/>
       <c r="O156" s="43"/>
       <c r="P156" s="13"/>
-      <c r="Q156" s="42" t="s">
+      <c r="Q156" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R156" s="42"/>
-      <c r="S156" s="42"/>
+      <c r="R156" s="45"/>
+      <c r="S156" s="45"/>
       <c r="T156" s="13"/>
       <c r="U156" s="7" t="s">
         <v>67</v>
@@ -14338,12 +14338,12 @@
       <c r="A160" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B160" s="42" t="s">
+      <c r="B160" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C160" s="42"/>
-      <c r="D160" s="42"/>
-      <c r="E160" s="42"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
@@ -14357,11 +14357,11 @@
       <c r="N160" s="43"/>
       <c r="O160" s="43"/>
       <c r="P160" s="13"/>
-      <c r="Q160" s="42" t="s">
+      <c r="Q160" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R160" s="42"/>
-      <c r="S160" s="42"/>
+      <c r="R160" s="45"/>
+      <c r="S160" s="45"/>
       <c r="T160" s="13"/>
       <c r="U160" s="7" t="s">
         <v>67</v>
@@ -14582,7 +14582,7 @@
       <c r="AL166" s="8"/>
     </row>
     <row r="167" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A167" s="46"/>
+      <c r="A167" s="42"/>
       <c r="AL167" s="8"/>
     </row>
     <row r="168" spans="1:38" x14ac:dyDescent="0.25">
@@ -14719,6 +14719,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="AC160:AD160"/>
+    <mergeCell ref="AH160:AK160"/>
+    <mergeCell ref="I160:O160"/>
+    <mergeCell ref="Q160:S160"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="AC156:AD156"/>
+    <mergeCell ref="AH156:AK156"/>
+    <mergeCell ref="I156:O156"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="I49:O49"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="AC148:AD148"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="AH131:AK131"/>
+    <mergeCell ref="I81:O81"/>
+    <mergeCell ref="I113:O113"/>
+    <mergeCell ref="I131:O131"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="Q131:S131"/>
     <mergeCell ref="AC152:AD152"/>
     <mergeCell ref="D47:AI47"/>
     <mergeCell ref="AC131:AD131"/>
@@ -14735,46 +14775,6 @@
     <mergeCell ref="AH81:AK81"/>
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="AH131:AK131"/>
-    <mergeCell ref="I81:O81"/>
-    <mergeCell ref="I113:O113"/>
-    <mergeCell ref="I131:O131"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="Q131:S131"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="AC148:AD148"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="I49:O49"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="AC156:AD156"/>
-    <mergeCell ref="AH156:AK156"/>
-    <mergeCell ref="I156:O156"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="AC160:AD160"/>
-    <mergeCell ref="AH160:AK160"/>
-    <mergeCell ref="I160:O160"/>
-    <mergeCell ref="Q160:S160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Arqui\gitrepository\armverilogimplementation\ArquiProjecto\Phase2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Documents\Github Files\ARMVerilogImplementation\ArquiProjecto\Phase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="4035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12798" windowHeight="4038"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="192">
   <si>
     <t>BRANCH</t>
   </si>
@@ -848,12 +848,6 @@
   </si>
   <si>
     <t xml:space="preserve"> write to rf - 53</t>
-  </si>
-  <si>
-    <t>EA=Rn+offset_12 - 54</t>
-  </si>
-  <si>
-    <t>EA=Rn-offset_12 - 55</t>
   </si>
   <si>
     <t>EA=Rn+Rm - 56</t>
@@ -1099,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1200,6 +1194,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1500,68 +1497,68 @@
   </sheetPr>
   <dimension ref="A1:AQ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="L122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL144" sqref="AL144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.26171875" customWidth="1"/>
+    <col min="2" max="2" width="9.15625" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" style="8" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.85546875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="1.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.41796875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="1.83984375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="5.68359375" customWidth="1"/>
+    <col min="8" max="8" width="1.83984375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.68359375" customWidth="1"/>
+    <col min="16" max="16" width="1.83984375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="1.83984375" style="8" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="1.7109375" style="8" customWidth="1"/>
-    <col min="24" max="24" width="1.85546875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="1.85546875" style="8" customWidth="1"/>
-    <col min="28" max="28" width="1.85546875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="1.85546875" style="8" customWidth="1"/>
-    <col min="33" max="33" width="1.85546875" style="8" customWidth="1"/>
-    <col min="34" max="35" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="1.68359375" style="8" customWidth="1"/>
+    <col min="24" max="24" width="1.83984375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="1.83984375" style="8" customWidth="1"/>
+    <col min="28" max="28" width="1.83984375" style="8" customWidth="1"/>
+    <col min="31" max="31" width="1.83984375" style="8" customWidth="1"/>
+    <col min="33" max="33" width="1.83984375" style="8" customWidth="1"/>
+    <col min="34" max="35" width="10.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
       <c r="T2" s="13"/>
       <c r="U2" s="7" t="s">
         <v>67</v>
@@ -1578,23 +1575,23 @@
         <v>70</v>
       </c>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="42"/>
+      <c r="AD2" s="43"/>
       <c r="AE2" s="23"/>
       <c r="AF2" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG2" s="13"/>
-      <c r="AH2" s="42" t="s">
+      <c r="AH2" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1634,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="11" t="s">
@@ -1687,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1780,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1873,9 +1870,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>28</v>
@@ -1904,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>28</v>
@@ -1967,7 +1964,7 @@
       </c>
       <c r="AQ6" s="26"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -2048,7 +2045,7 @@
       </c>
       <c r="AG7" s="36"/>
       <c r="AH7" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AI7" s="35" t="s">
         <v>74</v>
@@ -2060,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -2154,7 +2151,7 @@
       </c>
       <c r="AL8" s="8"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="13"/>
       <c r="C9" s="40"/>
@@ -2194,7 +2191,7 @@
       <c r="AK9" s="13"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2236,27 +2233,27 @@
       <c r="AK10" s="13"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="8"/>
@@ -2266,44 +2263,44 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
       <c r="AE11" s="23"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="41" t="s">
+      <c r="Q12" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
       <c r="T12" s="13"/>
       <c r="U12" s="7" t="s">
         <v>67</v>
@@ -2320,23 +2317,23 @@
         <v>70</v>
       </c>
       <c r="AB12" s="13"/>
-      <c r="AC12" s="42" t="s">
+      <c r="AC12" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD12" s="42"/>
+      <c r="AD12" s="43"/>
       <c r="AE12" s="23"/>
       <c r="AF12" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG12" s="13"/>
-      <c r="AH12" s="42" t="s">
+      <c r="AH12" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2376,7 +2373,7 @@
         <v>11</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="11" t="s">
@@ -2434,7 +2431,7 @@
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
     </row>
-    <row r="14" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="40"/>
@@ -2473,7 +2470,7 @@
       <c r="AJ14" s="13"/>
       <c r="AK14" s="13"/>
     </row>
-    <row r="15" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="16" t="s">
         <v>87</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="16" t="s">
         <v>88</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="16" t="s">
         <v>89</v>
       </c>
@@ -2752,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -2845,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="16" t="s">
         <v>91</v>
       </c>
@@ -2938,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="16" t="s">
         <v>103</v>
       </c>
@@ -3031,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="16" t="s">
         <v>92</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="16" t="s">
         <v>104</v>
       </c>
@@ -3217,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="16" t="s">
         <v>93</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="16" t="s">
         <v>105</v>
       </c>
@@ -3403,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="16" t="s">
         <v>94</v>
       </c>
@@ -3496,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="16" t="s">
         <v>106</v>
       </c>
@@ -3589,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="16" t="s">
         <v>95</v>
       </c>
@@ -3682,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="16" t="s">
         <v>107</v>
       </c>
@@ -3775,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="16" t="s">
         <v>96</v>
       </c>
@@ -3868,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="16" t="s">
         <v>108</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="16" t="s">
         <v>97</v>
       </c>
@@ -4054,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="16" t="s">
         <v>109</v>
       </c>
@@ -4147,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="16" t="s">
         <v>98</v>
       </c>
@@ -4240,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="16" t="s">
         <v>110</v>
       </c>
@@ -4333,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="16" t="s">
         <v>99</v>
       </c>
@@ -4426,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="16" t="s">
         <v>111</v>
       </c>
@@ -4519,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="s">
         <v>100</v>
       </c>
@@ -4612,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="16" t="s">
         <v>112</v>
       </c>
@@ -4705,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="16" t="s">
         <v>101</v>
       </c>
@@ -4798,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="16" t="s">
         <v>113</v>
       </c>
@@ -4891,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="16" t="s">
         <v>102</v>
       </c>
@@ -4984,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="16" t="s">
         <v>114</v>
       </c>
@@ -5077,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="16" t="s">
         <v>116</v>
       </c>
@@ -5170,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="16" t="s">
         <v>117</v>
       </c>
@@ -5263,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="16" t="s">
         <v>115</v>
       </c>
@@ -5356,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="16" t="s">
         <v>118</v>
       </c>
@@ -5449,44 +5446,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="16"/>
       <c r="B47" s="13"/>
       <c r="C47" s="40"/>
-      <c r="D47" s="44" t="s">
+      <c r="D47" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
-      <c r="Z47" s="44"/>
-      <c r="AA47" s="44"/>
-      <c r="AB47" s="44"/>
-      <c r="AC47" s="44"/>
-      <c r="AD47" s="44"/>
-      <c r="AE47" s="44"/>
-      <c r="AF47" s="44"/>
-      <c r="AG47" s="44"/>
-      <c r="AH47" s="44"/>
-      <c r="AI47" s="44"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="45"/>
+      <c r="Y47" s="45"/>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="45"/>
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="45"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="45"/>
+      <c r="AG47" s="45"/>
+      <c r="AH47" s="45"/>
+      <c r="AI47" s="45"/>
       <c r="AJ47" s="13"/>
       <c r="AK47" s="13"/>
       <c r="AL47"/>
@@ -5495,7 +5492,7 @@
       <c r="AO47"/>
       <c r="AP47"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5" t="s">
         <v>119</v>
       </c>
@@ -5536,34 +5533,34 @@
       <c r="AJ48" s="9"/>
       <c r="AK48" s="9"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="42" t="s">
+      <c r="I49" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
       <c r="P49" s="13"/>
-      <c r="Q49" s="41" t="s">
+      <c r="Q49" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
       <c r="T49" s="13"/>
       <c r="U49" s="7" t="s">
         <v>67</v>
@@ -5580,23 +5577,23 @@
         <v>70</v>
       </c>
       <c r="AB49" s="13"/>
-      <c r="AC49" s="42" t="s">
+      <c r="AC49" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD49" s="42"/>
+      <c r="AD49" s="43"/>
       <c r="AE49" s="23"/>
       <c r="AF49" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG49" s="13"/>
-      <c r="AH49" s="42" t="s">
+      <c r="AH49" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI49" s="42"/>
-      <c r="AJ49" s="42"/>
-      <c r="AK49" s="42"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI49" s="43"/>
+      <c r="AJ49" s="43"/>
+      <c r="AK49" s="43"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -5636,7 +5633,7 @@
         <v>11</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="11" t="s">
@@ -5689,8 +5686,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -5703,7 +5700,7 @@
         <v>29</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="9">
@@ -5766,7 +5763,7 @@
       </c>
       <c r="AE51" s="13"/>
       <c r="AF51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="9" t="s">
@@ -5782,8 +5779,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -5796,7 +5793,7 @@
         <v>29</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="9">
@@ -5859,7 +5856,7 @@
       </c>
       <c r="AE52" s="13"/>
       <c r="AF52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="9" t="s">
@@ -5875,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -5916,7 +5913,7 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
         <v>25</v>
       </c>
@@ -5956,7 +5953,7 @@
         <v>11</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P54" s="13"/>
       <c r="Q54" s="11" t="s">
@@ -6009,8 +6006,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -6023,7 +6020,7 @@
         <v>29</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="9">
@@ -6086,7 +6083,7 @@
       </c>
       <c r="AE55" s="13"/>
       <c r="AF55" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="9" t="s">
@@ -6102,8 +6099,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -6116,7 +6113,7 @@
         <v>29</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="9">
@@ -6145,7 +6142,7 @@
         <v>28</v>
       </c>
       <c r="P56" s="13"/>
-      <c r="Q56" s="17" t="s">
+      <c r="Q56" s="37" t="s">
         <v>75</v>
       </c>
       <c r="R56" s="17" t="s">
@@ -6179,7 +6176,7 @@
       </c>
       <c r="AE56" s="13"/>
       <c r="AF56" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="13"/>
       <c r="AH56" s="9" t="s">
@@ -6195,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -6236,7 +6233,7 @@
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -6276,7 +6273,7 @@
         <v>11</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P58" s="13"/>
       <c r="Q58" s="11" t="s">
@@ -6329,8 +6326,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="16" t="s">
         <v>141</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -6343,7 +6340,7 @@
         <v>29</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="9">
@@ -6406,7 +6403,7 @@
       </c>
       <c r="AE59" s="36"/>
       <c r="AF59" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="36"/>
       <c r="AH59" s="35" t="s">
@@ -6422,8 +6419,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="16" t="s">
         <v>142</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -6436,7 +6433,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="9">
@@ -6499,7 +6496,7 @@
       </c>
       <c r="AE60" s="36"/>
       <c r="AF60" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="36"/>
       <c r="AH60" s="35" t="s">
@@ -6515,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -6556,7 +6553,7 @@
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -6596,7 +6593,7 @@
         <v>11</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P62" s="13"/>
       <c r="Q62" s="11" t="s">
@@ -6649,8 +6646,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -6663,7 +6660,7 @@
         <v>29</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="9">
@@ -6726,7 +6723,7 @@
       </c>
       <c r="AE63" s="36"/>
       <c r="AF63" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63" s="36"/>
       <c r="AH63" s="35" t="s">
@@ -6742,8 +6739,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -6756,7 +6753,7 @@
         <v>29</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="9">
@@ -6819,7 +6816,7 @@
       </c>
       <c r="AE64" s="36"/>
       <c r="AF64" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="36"/>
       <c r="AH64" s="35" t="s">
@@ -6835,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -6876,7 +6873,7 @@
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>25</v>
       </c>
@@ -6916,7 +6913,7 @@
         <v>11</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P66" s="13"/>
       <c r="Q66" s="11" t="s">
@@ -6969,8 +6966,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="16" t="s">
         <v>145</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -7008,11 +7005,11 @@
       <c r="N67" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O67" s="9">
-        <v>10</v>
+      <c r="O67" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="P67" s="13"/>
-      <c r="Q67" s="9">
+      <c r="Q67" s="35">
         <v>0</v>
       </c>
       <c r="R67" s="9">
@@ -7046,7 +7043,7 @@
       </c>
       <c r="AE67" s="13"/>
       <c r="AF67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" s="13"/>
       <c r="AH67" s="9" t="s">
@@ -7062,8 +7059,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -7101,8 +7098,8 @@
       <c r="N68" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O68" s="9">
-        <v>10</v>
+      <c r="O68" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="P68" s="13"/>
       <c r="Q68" s="9">
@@ -7139,7 +7136,7 @@
       </c>
       <c r="AE68" s="13"/>
       <c r="AF68" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="9" t="s">
@@ -7155,8 +7152,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="16" t="s">
         <v>146</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -7169,7 +7166,7 @@
         <v>29</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="9">
@@ -7194,8 +7191,8 @@
       <c r="N69" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O69" s="35" t="s">
-        <v>28</v>
+      <c r="O69" s="35">
+        <v>10</v>
       </c>
       <c r="P69" s="36"/>
       <c r="Q69" s="37">
@@ -7221,7 +7218,7 @@
       </c>
       <c r="Z69" s="36"/>
       <c r="AA69" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69" s="36"/>
       <c r="AC69" s="35">
@@ -7232,7 +7229,7 @@
       </c>
       <c r="AE69" s="36"/>
       <c r="AF69" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="36"/>
       <c r="AH69" s="35" t="s">
@@ -7248,8 +7245,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -7262,7 +7259,7 @@
         <v>29</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="9">
@@ -7287,8 +7284,8 @@
       <c r="N70" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O70" s="35" t="s">
-        <v>28</v>
+      <c r="O70" s="35">
+        <v>10</v>
       </c>
       <c r="P70" s="36"/>
       <c r="Q70" s="37">
@@ -7314,7 +7311,7 @@
       </c>
       <c r="Z70" s="36"/>
       <c r="AA70" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB70" s="36"/>
       <c r="AC70" s="35">
@@ -7325,7 +7322,7 @@
       </c>
       <c r="AE70" s="36"/>
       <c r="AF70" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG70" s="36"/>
       <c r="AH70" s="35" t="s">
@@ -7341,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -7382,7 +7379,7 @@
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>25</v>
       </c>
@@ -7422,7 +7419,7 @@
         <v>11</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P72" s="13"/>
       <c r="Q72" s="11" t="s">
@@ -7475,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6" t="s">
         <v>134</v>
       </c>
@@ -7508,23 +7505,23 @@
       <c r="L73" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M73" s="35">
+      <c r="M73" s="41">
         <v>11</v>
       </c>
       <c r="N73" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O73" s="35">
-        <v>10</v>
+      <c r="O73" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="P73" s="36"/>
-      <c r="Q73" s="35">
-        <v>0</v>
-      </c>
-      <c r="R73" s="35">
+      <c r="Q73" s="41">
+        <v>0</v>
+      </c>
+      <c r="R73" s="41">
         <v>1101</v>
       </c>
-      <c r="S73" s="35">
+      <c r="S73" s="41">
         <v>1</v>
       </c>
       <c r="T73" s="36"/>
@@ -7540,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="Z73" s="36"/>
-      <c r="AA73" s="35">
+      <c r="AA73" s="41">
         <v>0</v>
       </c>
       <c r="AB73" s="36"/>
@@ -7551,8 +7548,8 @@
         <v>29</v>
       </c>
       <c r="AE73" s="36"/>
-      <c r="AF73" s="35">
-        <v>1</v>
+      <c r="AF73" s="41">
+        <v>0</v>
       </c>
       <c r="AG73" s="36"/>
       <c r="AH73" s="35" t="s">
@@ -7568,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6" t="s">
         <v>129</v>
       </c>
@@ -7607,8 +7604,8 @@
       <c r="N74" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O74" s="35">
-        <v>10</v>
+      <c r="O74" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="P74" s="36"/>
       <c r="Q74" s="35">
@@ -7645,7 +7642,7 @@
       </c>
       <c r="AE74" s="36"/>
       <c r="AF74" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG74" s="36"/>
       <c r="AH74" s="35" t="s">
@@ -7661,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6" t="s">
         <v>148</v>
       </c>
@@ -7675,7 +7672,7 @@
         <v>29</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="9">
@@ -7727,7 +7724,7 @@
       </c>
       <c r="Z75" s="36"/>
       <c r="AA75" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB75" s="36"/>
       <c r="AC75" s="35">
@@ -7738,7 +7735,7 @@
       </c>
       <c r="AE75" s="36"/>
       <c r="AF75" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="36"/>
       <c r="AH75" s="35" t="s">
@@ -7754,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6" t="s">
         <v>149</v>
       </c>
@@ -7820,7 +7817,7 @@
       </c>
       <c r="Z76" s="36"/>
       <c r="AA76" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB76" s="36"/>
       <c r="AC76" s="35">
@@ -7831,7 +7828,7 @@
       </c>
       <c r="AE76" s="36"/>
       <c r="AF76" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" s="36"/>
       <c r="AH76" s="35" t="s">
@@ -7847,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="28" t="s">
         <v>150</v>
       </c>
@@ -7861,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="9">
@@ -7901,7 +7898,7 @@
       </c>
       <c r="T77" s="38"/>
       <c r="U77" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V77" s="38"/>
       <c r="W77" s="35">
@@ -7940,7 +7937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="6" t="s">
         <v>151</v>
       </c>
@@ -7980,21 +7977,21 @@
         <v>27</v>
       </c>
       <c r="O78" s="35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P78" s="38"/>
       <c r="Q78" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="R78" s="35">
-        <v>1101</v>
+        <v>76</v>
+      </c>
+      <c r="R78" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="S78" s="35">
         <v>1</v>
       </c>
       <c r="T78" s="38"/>
       <c r="U78" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V78" s="38"/>
       <c r="W78" s="35">
@@ -8033,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="6"/>
       <c r="B79" s="9"/>
       <c r="C79" s="34"/>
@@ -8072,7 +8069,7 @@
       <c r="AJ79" s="9"/>
       <c r="AK79" s="9"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="5" t="s">
         <v>120</v>
       </c>
@@ -8113,34 +8110,34 @@
       <c r="AJ80" s="9"/>
       <c r="AK80" s="9"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="42" t="s">
+      <c r="I81" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="42"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
       <c r="P81" s="13"/>
-      <c r="Q81" s="41" t="s">
+      <c r="Q81" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R81" s="41"/>
-      <c r="S81" s="41"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
       <c r="T81" s="13"/>
       <c r="U81" s="7" t="s">
         <v>67</v>
@@ -8157,23 +8154,23 @@
         <v>70</v>
       </c>
       <c r="AB81" s="13"/>
-      <c r="AC81" s="42" t="s">
+      <c r="AC81" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD81" s="42"/>
+      <c r="AD81" s="43"/>
       <c r="AE81" s="23"/>
       <c r="AF81" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG81" s="13"/>
-      <c r="AH81" s="42" t="s">
+      <c r="AH81" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI81" s="42"/>
-      <c r="AJ81" s="42"/>
-      <c r="AK81" s="42"/>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI81" s="43"/>
+      <c r="AJ81" s="43"/>
+      <c r="AK81" s="43"/>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
         <v>25</v>
       </c>
@@ -8189,7 +8186,7 @@
       <c r="E82" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F82" s="20"/>
+      <c r="F82" s="41"/>
       <c r="G82" s="11" t="s">
         <v>82</v>
       </c>
@@ -8213,9 +8210,9 @@
         <v>11</v>
       </c>
       <c r="O82" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P82" s="36"/>
+        <v>186</v>
+      </c>
+      <c r="P82" s="41"/>
       <c r="Q82" s="11" t="s">
         <v>85</v>
       </c>
@@ -8225,34 +8222,34 @@
       <c r="S82" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="T82" s="36"/>
+      <c r="T82" s="41"/>
       <c r="U82" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="V82" s="36"/>
+      <c r="V82" s="41"/>
       <c r="W82" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X82" s="36"/>
+      <c r="X82" s="41"/>
       <c r="Y82" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z82" s="36"/>
+      <c r="Z82" s="41"/>
       <c r="AA82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB82" s="36"/>
+      <c r="AB82" s="41"/>
       <c r="AC82" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD82" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE82" s="36"/>
+      <c r="AE82" s="41"/>
       <c r="AF82" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AG82" s="36"/>
+      <c r="AG82" s="41"/>
       <c r="AH82" s="11" t="s">
         <v>133</v>
       </c>
@@ -8266,24 +8263,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83" s="9" t="s">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>191</v>
+      <c r="D83" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F83" s="20"/>
-      <c r="G83" s="9">
+      <c r="G83" s="35">
         <v>0</v>
       </c>
       <c r="H83" s="20"/>
@@ -8308,7 +8305,7 @@
       <c r="O83" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="P83" s="36"/>
+      <c r="P83" s="41"/>
       <c r="Q83" s="37">
         <v>101</v>
       </c>
@@ -8318,34 +8315,34 @@
       <c r="S83" s="35">
         <v>1</v>
       </c>
-      <c r="T83" s="36"/>
+      <c r="T83" s="41"/>
       <c r="U83" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V83" s="36"/>
+      <c r="V83" s="41"/>
       <c r="W83" s="35">
         <v>1</v>
       </c>
-      <c r="X83" s="36"/>
+      <c r="X83" s="41"/>
       <c r="Y83" s="35">
         <v>1</v>
       </c>
-      <c r="Z83" s="36"/>
+      <c r="Z83" s="41"/>
       <c r="AA83" s="35">
         <v>0</v>
       </c>
-      <c r="AB83" s="36"/>
+      <c r="AB83" s="41"/>
       <c r="AC83" s="35">
         <v>1</v>
       </c>
       <c r="AD83" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE83" s="36"/>
+      <c r="AE83" s="41"/>
       <c r="AF83" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG83" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="41"/>
       <c r="AH83" s="35" t="s">
         <v>28</v>
       </c>
@@ -8359,24 +8356,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="9" t="s">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D84" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84" s="40" t="s">
-        <v>191</v>
+      <c r="D84" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F84" s="20"/>
-      <c r="G84" s="9">
+      <c r="G84" s="35">
         <v>0</v>
       </c>
       <c r="H84" s="20"/>
@@ -8401,7 +8398,7 @@
       <c r="O84" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="P84" s="36"/>
+      <c r="P84" s="41"/>
       <c r="Q84" s="37">
         <v>101</v>
       </c>
@@ -8411,34 +8408,34 @@
       <c r="S84" s="35">
         <v>1</v>
       </c>
-      <c r="T84" s="36"/>
+      <c r="T84" s="41"/>
       <c r="U84" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V84" s="36"/>
+      <c r="V84" s="41"/>
       <c r="W84" s="35">
         <v>1</v>
       </c>
-      <c r="X84" s="36"/>
+      <c r="X84" s="41"/>
       <c r="Y84" s="35">
         <v>1</v>
       </c>
-      <c r="Z84" s="36"/>
+      <c r="Z84" s="41"/>
       <c r="AA84" s="35">
         <v>0</v>
       </c>
-      <c r="AB84" s="36"/>
+      <c r="AB84" s="41"/>
       <c r="AC84" s="35">
         <v>1</v>
       </c>
       <c r="AD84" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE84" s="36"/>
+      <c r="AE84" s="41"/>
       <c r="AF84" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG84" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="41"/>
       <c r="AH84" s="35" t="s">
         <v>28</v>
       </c>
@@ -8452,16 +8449,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="40"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="41"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="9"/>
+      <c r="G85" s="35"/>
       <c r="H85" s="20"/>
       <c r="I85" s="35"/>
       <c r="J85" s="35"/>
@@ -8470,30 +8467,30 @@
       <c r="M85" s="35"/>
       <c r="N85" s="35"/>
       <c r="O85" s="35"/>
-      <c r="P85" s="36"/>
+      <c r="P85" s="41"/>
       <c r="Q85" s="35"/>
       <c r="R85" s="35"/>
       <c r="S85" s="35"/>
-      <c r="T85" s="36"/>
+      <c r="T85" s="41"/>
       <c r="U85" s="35"/>
-      <c r="V85" s="36"/>
+      <c r="V85" s="41"/>
       <c r="W85" s="35"/>
-      <c r="X85" s="36"/>
+      <c r="X85" s="41"/>
       <c r="Y85" s="35"/>
-      <c r="Z85" s="36"/>
+      <c r="Z85" s="41"/>
       <c r="AA85" s="35"/>
-      <c r="AB85" s="36"/>
+      <c r="AB85" s="41"/>
       <c r="AC85" s="35"/>
       <c r="AD85" s="35"/>
-      <c r="AE85" s="36"/>
+      <c r="AE85" s="41"/>
       <c r="AF85" s="35"/>
-      <c r="AG85" s="36"/>
+      <c r="AG85" s="41"/>
       <c r="AH85" s="35"/>
       <c r="AI85" s="35"/>
       <c r="AJ85" s="35"/>
       <c r="AK85" s="35"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
         <v>25</v>
       </c>
@@ -8533,9 +8530,9 @@
         <v>11</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P86" s="36"/>
+        <v>186</v>
+      </c>
+      <c r="P86" s="41"/>
       <c r="Q86" s="11" t="s">
         <v>85</v>
       </c>
@@ -8545,34 +8542,34 @@
       <c r="S86" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="T86" s="36"/>
+      <c r="T86" s="41"/>
       <c r="U86" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="V86" s="36"/>
+      <c r="V86" s="41"/>
       <c r="W86" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X86" s="36"/>
+      <c r="X86" s="41"/>
       <c r="Y86" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z86" s="36"/>
+      <c r="Z86" s="41"/>
       <c r="AA86" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB86" s="36"/>
+      <c r="AB86" s="41"/>
       <c r="AC86" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD86" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE86" s="36"/>
+      <c r="AE86" s="41"/>
       <c r="AF86" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AG86" s="36"/>
+      <c r="AG86" s="41"/>
       <c r="AH86" s="11" t="s">
         <v>133</v>
       </c>
@@ -8586,24 +8583,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C87" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>191</v>
+      <c r="D87" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F87" s="20"/>
-      <c r="G87" s="9">
+      <c r="G87" s="35">
         <v>0</v>
       </c>
       <c r="H87" s="20"/>
@@ -8628,7 +8625,7 @@
       <c r="O87" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="P87" s="36"/>
+      <c r="P87" s="41"/>
       <c r="Q87" s="37" t="s">
         <v>75</v>
       </c>
@@ -8638,34 +8635,34 @@
       <c r="S87" s="35">
         <v>1</v>
       </c>
-      <c r="T87" s="36"/>
+      <c r="T87" s="41"/>
       <c r="U87" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V87" s="36"/>
+      <c r="V87" s="41"/>
       <c r="W87" s="35">
         <v>1</v>
       </c>
-      <c r="X87" s="36"/>
+      <c r="X87" s="41"/>
       <c r="Y87" s="35">
         <v>1</v>
       </c>
-      <c r="Z87" s="36"/>
+      <c r="Z87" s="41"/>
       <c r="AA87" s="35">
         <v>0</v>
       </c>
-      <c r="AB87" s="36"/>
+      <c r="AB87" s="41"/>
       <c r="AC87" s="35">
         <v>1</v>
       </c>
       <c r="AD87" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE87" s="36"/>
+      <c r="AE87" s="41"/>
       <c r="AF87" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG87" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="41"/>
       <c r="AH87" s="35" t="s">
         <v>28</v>
       </c>
@@ -8679,24 +8676,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>191</v>
+      <c r="D88" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F88" s="20"/>
-      <c r="G88" s="9">
+      <c r="G88" s="35">
         <v>0</v>
       </c>
       <c r="H88" s="20"/>
@@ -8721,7 +8718,7 @@
       <c r="O88" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="P88" s="36"/>
+      <c r="P88" s="41"/>
       <c r="Q88" s="37" t="s">
         <v>75</v>
       </c>
@@ -8731,34 +8728,34 @@
       <c r="S88" s="35">
         <v>1</v>
       </c>
-      <c r="T88" s="36"/>
+      <c r="T88" s="41"/>
       <c r="U88" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V88" s="36"/>
+      <c r="V88" s="41"/>
       <c r="W88" s="35">
         <v>1</v>
       </c>
-      <c r="X88" s="36"/>
+      <c r="X88" s="41"/>
       <c r="Y88" s="35">
         <v>1</v>
       </c>
-      <c r="Z88" s="36"/>
+      <c r="Z88" s="41"/>
       <c r="AA88" s="35">
         <v>0</v>
       </c>
-      <c r="AB88" s="36"/>
+      <c r="AB88" s="41"/>
       <c r="AC88" s="35">
         <v>1</v>
       </c>
       <c r="AD88" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE88" s="36"/>
+      <c r="AE88" s="41"/>
       <c r="AF88" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG88" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="41"/>
       <c r="AH88" s="35" t="s">
         <v>28</v>
       </c>
@@ -8772,16 +8769,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="40"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="41"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="9"/>
+      <c r="G89" s="35"/>
       <c r="H89" s="20"/>
       <c r="I89" s="35"/>
       <c r="J89" s="35"/>
@@ -8790,30 +8787,30 @@
       <c r="M89" s="35"/>
       <c r="N89" s="35"/>
       <c r="O89" s="35"/>
-      <c r="P89" s="36"/>
+      <c r="P89" s="41"/>
       <c r="Q89" s="35"/>
       <c r="R89" s="35"/>
       <c r="S89" s="35"/>
-      <c r="T89" s="36"/>
+      <c r="T89" s="41"/>
       <c r="U89" s="35"/>
-      <c r="V89" s="36"/>
+      <c r="V89" s="41"/>
       <c r="W89" s="35"/>
-      <c r="X89" s="36"/>
+      <c r="X89" s="41"/>
       <c r="Y89" s="35"/>
-      <c r="Z89" s="36"/>
+      <c r="Z89" s="41"/>
       <c r="AA89" s="35"/>
-      <c r="AB89" s="36"/>
+      <c r="AB89" s="41"/>
       <c r="AC89" s="35"/>
       <c r="AD89" s="35"/>
-      <c r="AE89" s="36"/>
+      <c r="AE89" s="41"/>
       <c r="AF89" s="35"/>
-      <c r="AG89" s="36"/>
+      <c r="AG89" s="41"/>
       <c r="AH89" s="35"/>
       <c r="AI89" s="35"/>
       <c r="AJ89" s="35"/>
       <c r="AK89" s="35"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
         <v>25</v>
       </c>
@@ -8853,9 +8850,9 @@
         <v>11</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P90" s="36"/>
+        <v>186</v>
+      </c>
+      <c r="P90" s="41"/>
       <c r="Q90" s="11" t="s">
         <v>85</v>
       </c>
@@ -8865,34 +8862,34 @@
       <c r="S90" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="T90" s="36"/>
+      <c r="T90" s="41"/>
       <c r="U90" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="V90" s="36"/>
+      <c r="V90" s="41"/>
       <c r="W90" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X90" s="36"/>
+      <c r="X90" s="41"/>
       <c r="Y90" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z90" s="36"/>
+      <c r="Z90" s="41"/>
       <c r="AA90" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB90" s="36"/>
+      <c r="AB90" s="41"/>
       <c r="AC90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD90" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE90" s="36"/>
+      <c r="AE90" s="41"/>
       <c r="AF90" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AG90" s="36"/>
+      <c r="AG90" s="41"/>
       <c r="AH90" s="11" t="s">
         <v>133</v>
       </c>
@@ -8906,24 +8903,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C91" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D91" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>191</v>
+      <c r="D91" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F91" s="20"/>
-      <c r="G91" s="9">
+      <c r="G91" s="35">
         <v>0</v>
       </c>
       <c r="H91" s="20"/>
@@ -8948,7 +8945,7 @@
       <c r="O91" s="35">
         <v>10</v>
       </c>
-      <c r="P91" s="36"/>
+      <c r="P91" s="41"/>
       <c r="Q91" s="37">
         <v>101</v>
       </c>
@@ -8958,34 +8955,34 @@
       <c r="S91" s="35">
         <v>1</v>
       </c>
-      <c r="T91" s="36"/>
+      <c r="T91" s="41"/>
       <c r="U91" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V91" s="36"/>
+      <c r="V91" s="41"/>
       <c r="W91" s="35">
         <v>1</v>
       </c>
-      <c r="X91" s="36"/>
+      <c r="X91" s="41"/>
       <c r="Y91" s="35">
         <v>1</v>
       </c>
-      <c r="Z91" s="36"/>
+      <c r="Z91" s="41"/>
       <c r="AA91" s="35">
         <v>0</v>
       </c>
-      <c r="AB91" s="36"/>
+      <c r="AB91" s="41"/>
       <c r="AC91" s="35">
         <v>1</v>
       </c>
       <c r="AD91" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE91" s="36"/>
+      <c r="AE91" s="41"/>
       <c r="AF91" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG91" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="41"/>
       <c r="AH91" s="35" t="s">
         <v>28</v>
       </c>
@@ -8999,24 +8996,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B92" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D92" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="40" t="s">
-        <v>191</v>
+      <c r="D92" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F92" s="20"/>
-      <c r="G92" s="9">
+      <c r="G92" s="35">
         <v>0</v>
       </c>
       <c r="H92" s="20"/>
@@ -9041,7 +9038,7 @@
       <c r="O92" s="35">
         <v>10</v>
       </c>
-      <c r="P92" s="36"/>
+      <c r="P92" s="41"/>
       <c r="Q92" s="37">
         <v>101</v>
       </c>
@@ -9051,34 +9048,34 @@
       <c r="S92" s="35">
         <v>1</v>
       </c>
-      <c r="T92" s="36"/>
+      <c r="T92" s="41"/>
       <c r="U92" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V92" s="36"/>
+      <c r="V92" s="41"/>
       <c r="W92" s="35">
         <v>1</v>
       </c>
-      <c r="X92" s="36"/>
+      <c r="X92" s="41"/>
       <c r="Y92" s="35">
         <v>1</v>
       </c>
-      <c r="Z92" s="36"/>
+      <c r="Z92" s="41"/>
       <c r="AA92" s="35">
         <v>0</v>
       </c>
-      <c r="AB92" s="36"/>
+      <c r="AB92" s="41"/>
       <c r="AC92" s="35">
         <v>1</v>
       </c>
       <c r="AD92" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE92" s="36"/>
+      <c r="AE92" s="41"/>
       <c r="AF92" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG92" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="41"/>
       <c r="AH92" s="35" t="s">
         <v>28</v>
       </c>
@@ -9092,16 +9089,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="40"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="41"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="9"/>
+      <c r="G93" s="35"/>
       <c r="H93" s="20"/>
       <c r="I93" s="35"/>
       <c r="J93" s="35"/>
@@ -9110,30 +9107,30 @@
       <c r="M93" s="35"/>
       <c r="N93" s="35"/>
       <c r="O93" s="35"/>
-      <c r="P93" s="36"/>
+      <c r="P93" s="41"/>
       <c r="Q93" s="35"/>
       <c r="R93" s="35"/>
       <c r="S93" s="35"/>
-      <c r="T93" s="36"/>
+      <c r="T93" s="41"/>
       <c r="U93" s="35"/>
-      <c r="V93" s="36"/>
+      <c r="V93" s="41"/>
       <c r="W93" s="35"/>
-      <c r="X93" s="36"/>
+      <c r="X93" s="41"/>
       <c r="Y93" s="35"/>
-      <c r="Z93" s="36"/>
+      <c r="Z93" s="41"/>
       <c r="AA93" s="35"/>
-      <c r="AB93" s="36"/>
+      <c r="AB93" s="41"/>
       <c r="AC93" s="35"/>
       <c r="AD93" s="35"/>
-      <c r="AE93" s="36"/>
+      <c r="AE93" s="41"/>
       <c r="AF93" s="35"/>
-      <c r="AG93" s="36"/>
+      <c r="AG93" s="41"/>
       <c r="AH93" s="35"/>
       <c r="AI93" s="35"/>
       <c r="AJ93" s="35"/>
       <c r="AK93" s="35"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
         <v>25</v>
       </c>
@@ -9173,9 +9170,9 @@
         <v>11</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P94" s="36"/>
+        <v>186</v>
+      </c>
+      <c r="P94" s="41"/>
       <c r="Q94" s="11" t="s">
         <v>85</v>
       </c>
@@ -9185,34 +9182,34 @@
       <c r="S94" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="T94" s="36"/>
+      <c r="T94" s="41"/>
       <c r="U94" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="V94" s="36"/>
+      <c r="V94" s="41"/>
       <c r="W94" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X94" s="36"/>
+      <c r="X94" s="41"/>
       <c r="Y94" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z94" s="36"/>
+      <c r="Z94" s="41"/>
       <c r="AA94" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB94" s="36"/>
+      <c r="AB94" s="41"/>
       <c r="AC94" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD94" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE94" s="36"/>
+      <c r="AE94" s="41"/>
       <c r="AF94" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AG94" s="36"/>
+      <c r="AG94" s="41"/>
       <c r="AH94" s="11" t="s">
         <v>133</v>
       </c>
@@ -9226,24 +9223,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B95" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C95" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="40" t="s">
-        <v>191</v>
+      <c r="D95" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F95" s="20"/>
-      <c r="G95" s="9">
+      <c r="G95" s="35">
         <v>0</v>
       </c>
       <c r="H95" s="20"/>
@@ -9268,7 +9265,7 @@
       <c r="O95" s="35">
         <v>10</v>
       </c>
-      <c r="P95" s="36"/>
+      <c r="P95" s="41"/>
       <c r="Q95" s="37" t="s">
         <v>75</v>
       </c>
@@ -9278,34 +9275,34 @@
       <c r="S95" s="35">
         <v>1</v>
       </c>
-      <c r="T95" s="36"/>
+      <c r="T95" s="41"/>
       <c r="U95" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V95" s="36"/>
+      <c r="V95" s="41"/>
       <c r="W95" s="35">
         <v>1</v>
       </c>
-      <c r="X95" s="36"/>
+      <c r="X95" s="41"/>
       <c r="Y95" s="35">
         <v>1</v>
       </c>
-      <c r="Z95" s="36"/>
+      <c r="Z95" s="41"/>
       <c r="AA95" s="35">
         <v>0</v>
       </c>
-      <c r="AB95" s="36"/>
+      <c r="AB95" s="41"/>
       <c r="AC95" s="35">
         <v>1</v>
       </c>
       <c r="AD95" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE95" s="36"/>
+      <c r="AE95" s="41"/>
       <c r="AF95" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG95" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="41"/>
       <c r="AH95" s="35" t="s">
         <v>28</v>
       </c>
@@ -9319,24 +9316,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B96" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C96" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D96" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="40" t="s">
-        <v>191</v>
+      <c r="D96" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F96" s="20"/>
-      <c r="G96" s="9">
+      <c r="G96" s="35">
         <v>0</v>
       </c>
       <c r="H96" s="20"/>
@@ -9361,7 +9358,7 @@
       <c r="O96" s="35">
         <v>10</v>
       </c>
-      <c r="P96" s="36"/>
+      <c r="P96" s="41"/>
       <c r="Q96" s="37" t="s">
         <v>75</v>
       </c>
@@ -9371,34 +9368,34 @@
       <c r="S96" s="35">
         <v>1</v>
       </c>
-      <c r="T96" s="36"/>
+      <c r="T96" s="41"/>
       <c r="U96" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V96" s="36"/>
+      <c r="V96" s="41"/>
       <c r="W96" s="35">
         <v>1</v>
       </c>
-      <c r="X96" s="36"/>
+      <c r="X96" s="41"/>
       <c r="Y96" s="35">
         <v>1</v>
       </c>
-      <c r="Z96" s="36"/>
+      <c r="Z96" s="41"/>
       <c r="AA96" s="35">
         <v>0</v>
       </c>
-      <c r="AB96" s="36"/>
+      <c r="AB96" s="41"/>
       <c r="AC96" s="35">
         <v>1</v>
       </c>
       <c r="AD96" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE96" s="36"/>
+      <c r="AE96" s="41"/>
       <c r="AF96" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG96" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="41"/>
       <c r="AH96" s="35" t="s">
         <v>28</v>
       </c>
@@ -9412,16 +9409,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="40"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="41"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="9"/>
+      <c r="G97" s="35"/>
       <c r="H97" s="20"/>
       <c r="I97" s="35"/>
       <c r="J97" s="35"/>
@@ -9430,30 +9427,30 @@
       <c r="M97" s="35"/>
       <c r="N97" s="35"/>
       <c r="O97" s="35"/>
-      <c r="P97" s="36"/>
+      <c r="P97" s="41"/>
       <c r="Q97" s="35"/>
       <c r="R97" s="35"/>
       <c r="S97" s="35"/>
-      <c r="T97" s="36"/>
+      <c r="T97" s="41"/>
       <c r="U97" s="35"/>
-      <c r="V97" s="36"/>
+      <c r="V97" s="41"/>
       <c r="W97" s="35"/>
-      <c r="X97" s="36"/>
+      <c r="X97" s="41"/>
       <c r="Y97" s="35"/>
-      <c r="Z97" s="36"/>
+      <c r="Z97" s="41"/>
       <c r="AA97" s="35"/>
-      <c r="AB97" s="36"/>
+      <c r="AB97" s="41"/>
       <c r="AC97" s="35"/>
       <c r="AD97" s="35"/>
-      <c r="AE97" s="36"/>
+      <c r="AE97" s="41"/>
       <c r="AF97" s="35"/>
-      <c r="AG97" s="36"/>
+      <c r="AG97" s="41"/>
       <c r="AH97" s="35"/>
       <c r="AI97" s="35"/>
       <c r="AJ97" s="35"/>
       <c r="AK97" s="35"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
         <v>25</v>
       </c>
@@ -9493,9 +9490,9 @@
         <v>11</v>
       </c>
       <c r="O98" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P98" s="36"/>
+        <v>186</v>
+      </c>
+      <c r="P98" s="41"/>
       <c r="Q98" s="11" t="s">
         <v>85</v>
       </c>
@@ -9505,34 +9502,34 @@
       <c r="S98" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="T98" s="36"/>
+      <c r="T98" s="41"/>
       <c r="U98" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="V98" s="36"/>
+      <c r="V98" s="41"/>
       <c r="W98" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X98" s="36"/>
+      <c r="X98" s="41"/>
       <c r="Y98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z98" s="36"/>
+      <c r="Z98" s="41"/>
       <c r="AA98" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB98" s="36"/>
+      <c r="AB98" s="41"/>
       <c r="AC98" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD98" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE98" s="36"/>
+      <c r="AE98" s="41"/>
       <c r="AF98" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AG98" s="36"/>
+      <c r="AG98" s="41"/>
       <c r="AH98" s="11" t="s">
         <v>133</v>
       </c>
@@ -9546,24 +9543,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C99" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D99" s="40" t="s">
+      <c r="D99" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E99" s="34" t="s">
         <v>123</v>
       </c>
       <c r="F99" s="20"/>
-      <c r="G99" s="9">
+      <c r="G99" s="35">
         <v>0</v>
       </c>
       <c r="H99" s="20"/>
@@ -9585,10 +9582,10 @@
       <c r="N99" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O99" s="35">
-        <v>10</v>
-      </c>
-      <c r="P99" s="36"/>
+      <c r="O99" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P99" s="41"/>
       <c r="Q99" s="35">
         <v>0</v>
       </c>
@@ -9598,34 +9595,34 @@
       <c r="S99" s="35">
         <v>1</v>
       </c>
-      <c r="T99" s="36"/>
+      <c r="T99" s="41"/>
       <c r="U99" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V99" s="36"/>
+      <c r="V99" s="41"/>
       <c r="W99" s="35">
         <v>1</v>
       </c>
-      <c r="X99" s="36"/>
+      <c r="X99" s="41"/>
       <c r="Y99" s="35">
         <v>1</v>
       </c>
-      <c r="Z99" s="36"/>
+      <c r="Z99" s="41"/>
       <c r="AA99" s="35">
         <v>0</v>
       </c>
-      <c r="AB99" s="36"/>
+      <c r="AB99" s="41"/>
       <c r="AC99" s="35">
         <v>1</v>
       </c>
       <c r="AD99" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE99" s="36"/>
+      <c r="AE99" s="41"/>
       <c r="AF99" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG99" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="41"/>
       <c r="AH99" s="35" t="s">
         <v>28</v>
       </c>
@@ -9639,24 +9636,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C100" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="40" t="s">
+      <c r="D100" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E100" s="34" t="s">
         <v>123</v>
       </c>
       <c r="F100" s="20"/>
-      <c r="G100" s="9">
+      <c r="G100" s="35">
         <v>0</v>
       </c>
       <c r="H100" s="20"/>
@@ -9678,10 +9675,10 @@
       <c r="N100" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O100" s="35">
-        <v>10</v>
-      </c>
-      <c r="P100" s="36"/>
+      <c r="O100" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P100" s="41"/>
       <c r="Q100" s="35">
         <v>0</v>
       </c>
@@ -9691,34 +9688,34 @@
       <c r="S100" s="35">
         <v>1</v>
       </c>
-      <c r="T100" s="36"/>
+      <c r="T100" s="41"/>
       <c r="U100" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V100" s="36"/>
+      <c r="V100" s="41"/>
       <c r="W100" s="35">
         <v>1</v>
       </c>
-      <c r="X100" s="36"/>
+      <c r="X100" s="41"/>
       <c r="Y100" s="35">
         <v>1</v>
       </c>
-      <c r="Z100" s="36"/>
+      <c r="Z100" s="41"/>
       <c r="AA100" s="35">
         <v>0</v>
       </c>
-      <c r="AB100" s="36"/>
+      <c r="AB100" s="41"/>
       <c r="AC100" s="35">
         <v>1</v>
       </c>
       <c r="AD100" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE100" s="36"/>
+      <c r="AE100" s="41"/>
       <c r="AF100" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG100" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="41"/>
       <c r="AH100" s="35" t="s">
         <v>28</v>
       </c>
@@ -9732,24 +9729,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D101" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E101" s="40" t="s">
-        <v>191</v>
+      <c r="D101" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F101" s="20"/>
-      <c r="G101" s="9">
+      <c r="G101" s="35">
         <v>0</v>
       </c>
       <c r="H101" s="20"/>
@@ -9771,10 +9768,10 @@
       <c r="N101" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O101" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P101" s="36"/>
+      <c r="O101" s="35">
+        <v>10</v>
+      </c>
+      <c r="P101" s="41"/>
       <c r="Q101" s="37">
         <v>101</v>
       </c>
@@ -9784,34 +9781,34 @@
       <c r="S101" s="35">
         <v>1</v>
       </c>
-      <c r="T101" s="36"/>
+      <c r="T101" s="41"/>
       <c r="U101" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V101" s="36"/>
+      <c r="V101" s="41"/>
       <c r="W101" s="35">
         <v>1</v>
       </c>
-      <c r="X101" s="36"/>
+      <c r="X101" s="41"/>
       <c r="Y101" s="35">
         <v>1</v>
       </c>
-      <c r="Z101" s="36"/>
+      <c r="Z101" s="41"/>
       <c r="AA101" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="AB101" s="41"/>
       <c r="AC101" s="35">
         <v>1</v>
       </c>
       <c r="AD101" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE101" s="36"/>
+      <c r="AE101" s="41"/>
       <c r="AF101" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG101" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="41"/>
       <c r="AH101" s="35" t="s">
         <v>28</v>
       </c>
@@ -9825,24 +9822,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C102" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D102" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>191</v>
+      <c r="D102" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F102" s="20"/>
-      <c r="G102" s="9">
+      <c r="G102" s="35">
         <v>0</v>
       </c>
       <c r="H102" s="20"/>
@@ -9864,10 +9861,10 @@
       <c r="N102" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O102" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P102" s="36"/>
+      <c r="O102" s="35">
+        <v>10</v>
+      </c>
+      <c r="P102" s="41"/>
       <c r="Q102" s="37">
         <v>101</v>
       </c>
@@ -9877,34 +9874,34 @@
       <c r="S102" s="35">
         <v>1</v>
       </c>
-      <c r="T102" s="36"/>
+      <c r="T102" s="41"/>
       <c r="U102" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V102" s="36"/>
+      <c r="V102" s="41"/>
       <c r="W102" s="35">
         <v>1</v>
       </c>
-      <c r="X102" s="36"/>
+      <c r="X102" s="41"/>
       <c r="Y102" s="35">
         <v>1</v>
       </c>
-      <c r="Z102" s="36"/>
+      <c r="Z102" s="41"/>
       <c r="AA102" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="AB102" s="41"/>
       <c r="AC102" s="35">
         <v>1</v>
       </c>
       <c r="AD102" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE102" s="36"/>
+      <c r="AE102" s="41"/>
       <c r="AF102" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG102" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="41"/>
       <c r="AH102" s="35" t="s">
         <v>28</v>
       </c>
@@ -9918,16 +9915,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="9"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="40"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="41"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="9"/>
+      <c r="G103" s="35"/>
       <c r="H103" s="20"/>
       <c r="I103" s="35"/>
       <c r="J103" s="35"/>
@@ -9936,30 +9933,30 @@
       <c r="M103" s="35"/>
       <c r="N103" s="35"/>
       <c r="O103" s="35"/>
-      <c r="P103" s="36"/>
+      <c r="P103" s="41"/>
       <c r="Q103" s="35"/>
       <c r="R103" s="35"/>
       <c r="S103" s="35"/>
-      <c r="T103" s="36"/>
+      <c r="T103" s="41"/>
       <c r="U103" s="35"/>
-      <c r="V103" s="36"/>
+      <c r="V103" s="41"/>
       <c r="W103" s="35"/>
-      <c r="X103" s="36"/>
+      <c r="X103" s="41"/>
       <c r="Y103" s="35"/>
-      <c r="Z103" s="36"/>
+      <c r="Z103" s="41"/>
       <c r="AA103" s="35"/>
-      <c r="AB103" s="36"/>
+      <c r="AB103" s="41"/>
       <c r="AC103" s="35"/>
       <c r="AD103" s="35"/>
-      <c r="AE103" s="36"/>
+      <c r="AE103" s="41"/>
       <c r="AF103" s="35"/>
-      <c r="AG103" s="36"/>
+      <c r="AG103" s="41"/>
       <c r="AH103" s="35"/>
       <c r="AI103" s="35"/>
       <c r="AJ103" s="35"/>
       <c r="AK103" s="35"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
         <v>25</v>
       </c>
@@ -9999,9 +9996,9 @@
         <v>11</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P104" s="36"/>
+        <v>186</v>
+      </c>
+      <c r="P104" s="41"/>
       <c r="Q104" s="11" t="s">
         <v>85</v>
       </c>
@@ -10011,34 +10008,34 @@
       <c r="S104" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="T104" s="36"/>
+      <c r="T104" s="41"/>
       <c r="U104" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="V104" s="36"/>
+      <c r="V104" s="41"/>
       <c r="W104" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X104" s="36"/>
+      <c r="X104" s="41"/>
       <c r="Y104" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z104" s="36"/>
+      <c r="Z104" s="41"/>
       <c r="AA104" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB104" s="36"/>
+      <c r="AB104" s="41"/>
       <c r="AC104" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD104" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE104" s="36"/>
+      <c r="AE104" s="41"/>
       <c r="AF104" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AG104" s="36"/>
+      <c r="AG104" s="41"/>
       <c r="AH104" s="11" t="s">
         <v>133</v>
       </c>
@@ -10052,24 +10049,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C105" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D105" s="40" t="s">
+      <c r="D105" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E105" s="34" t="s">
         <v>123</v>
       </c>
       <c r="F105" s="20"/>
-      <c r="G105" s="9">
+      <c r="G105" s="35">
         <v>0</v>
       </c>
       <c r="H105" s="20"/>
@@ -10085,53 +10082,53 @@
       <c r="L105" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M105" s="35">
+      <c r="M105" s="41">
         <v>11</v>
       </c>
       <c r="N105" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O105" s="35">
-        <v>10</v>
-      </c>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="35">
-        <v>0</v>
-      </c>
-      <c r="R105" s="35">
+      <c r="O105" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P105" s="41"/>
+      <c r="Q105" s="41">
+        <v>0</v>
+      </c>
+      <c r="R105" s="41">
         <v>1101</v>
       </c>
-      <c r="S105" s="35">
-        <v>1</v>
-      </c>
-      <c r="T105" s="36"/>
+      <c r="S105" s="41">
+        <v>1</v>
+      </c>
+      <c r="T105" s="41"/>
       <c r="U105" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V105" s="36"/>
+      <c r="V105" s="41"/>
       <c r="W105" s="35">
         <v>1</v>
       </c>
-      <c r="X105" s="36"/>
+      <c r="X105" s="41"/>
       <c r="Y105" s="35">
         <v>1</v>
       </c>
-      <c r="Z105" s="36"/>
-      <c r="AA105" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB105" s="36"/>
+      <c r="Z105" s="41"/>
+      <c r="AA105" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="41"/>
       <c r="AC105" s="35">
         <v>1</v>
       </c>
       <c r="AD105" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE105" s="36"/>
-      <c r="AF105" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG105" s="36"/>
+      <c r="AE105" s="41"/>
+      <c r="AF105" s="41">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="41"/>
       <c r="AH105" s="35" t="s">
         <v>28</v>
       </c>
@@ -10145,24 +10142,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C106" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D106" s="40" t="s">
+      <c r="D106" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E106" s="34" t="s">
         <v>123</v>
       </c>
       <c r="F106" s="20"/>
-      <c r="G106" s="9">
+      <c r="G106" s="35">
         <v>0</v>
       </c>
       <c r="H106" s="20"/>
@@ -10184,10 +10181,10 @@
       <c r="N106" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="O106" s="35">
-        <v>10</v>
-      </c>
-      <c r="P106" s="36"/>
+      <c r="O106" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P106" s="41"/>
       <c r="Q106" s="35">
         <v>0</v>
       </c>
@@ -10197,34 +10194,34 @@
       <c r="S106" s="35">
         <v>1</v>
       </c>
-      <c r="T106" s="36"/>
+      <c r="T106" s="41"/>
       <c r="U106" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V106" s="36"/>
+      <c r="V106" s="41"/>
       <c r="W106" s="35">
         <v>1</v>
       </c>
-      <c r="X106" s="36"/>
+      <c r="X106" s="41"/>
       <c r="Y106" s="35">
         <v>1</v>
       </c>
-      <c r="Z106" s="36"/>
+      <c r="Z106" s="41"/>
       <c r="AA106" s="35">
         <v>0</v>
       </c>
-      <c r="AB106" s="36"/>
+      <c r="AB106" s="41"/>
       <c r="AC106" s="35">
         <v>1</v>
       </c>
       <c r="AD106" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE106" s="36"/>
+      <c r="AE106" s="41"/>
       <c r="AF106" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG106" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="41"/>
       <c r="AH106" s="35" t="s">
         <v>28</v>
       </c>
@@ -10238,24 +10235,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C107" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D107" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E107" s="40" t="s">
-        <v>191</v>
+      <c r="D107" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="34" t="s">
+        <v>188</v>
       </c>
       <c r="F107" s="20"/>
-      <c r="G107" s="9">
+      <c r="G107" s="35">
         <v>0</v>
       </c>
       <c r="H107" s="20"/>
@@ -10280,7 +10277,7 @@
       <c r="O107" s="35">
         <v>10</v>
       </c>
-      <c r="P107" s="36"/>
+      <c r="P107" s="41"/>
       <c r="Q107" s="37" t="s">
         <v>75</v>
       </c>
@@ -10290,34 +10287,34 @@
       <c r="S107" s="35">
         <v>1</v>
       </c>
-      <c r="T107" s="36"/>
+      <c r="T107" s="41"/>
       <c r="U107" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V107" s="36"/>
+      <c r="V107" s="41"/>
       <c r="W107" s="35">
         <v>1</v>
       </c>
-      <c r="X107" s="36"/>
+      <c r="X107" s="41"/>
       <c r="Y107" s="35">
         <v>1</v>
       </c>
-      <c r="Z107" s="36"/>
+      <c r="Z107" s="41"/>
       <c r="AA107" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB107" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="AB107" s="41"/>
       <c r="AC107" s="35">
         <v>1</v>
       </c>
       <c r="AD107" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE107" s="36"/>
+      <c r="AE107" s="41"/>
       <c r="AF107" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG107" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="41"/>
       <c r="AH107" s="35" t="s">
         <v>28</v>
       </c>
@@ -10331,24 +10328,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B108" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C108" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E108" s="34" t="s">
+      <c r="D108" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="41" t="s">
         <v>123</v>
       </c>
       <c r="F108" s="20"/>
-      <c r="G108" s="9">
+      <c r="G108" s="35">
         <v>0</v>
       </c>
       <c r="H108" s="20"/>
@@ -10373,7 +10370,7 @@
       <c r="O108" s="35">
         <v>10</v>
       </c>
-      <c r="P108" s="36"/>
+      <c r="P108" s="41"/>
       <c r="Q108" s="37" t="s">
         <v>75</v>
       </c>
@@ -10383,34 +10380,34 @@
       <c r="S108" s="35">
         <v>1</v>
       </c>
-      <c r="T108" s="36"/>
+      <c r="T108" s="41"/>
       <c r="U108" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="V108" s="36"/>
+      <c r="V108" s="41"/>
       <c r="W108" s="35">
         <v>1</v>
       </c>
-      <c r="X108" s="36"/>
+      <c r="X108" s="41"/>
       <c r="Y108" s="35">
         <v>1</v>
       </c>
-      <c r="Z108" s="36"/>
+      <c r="Z108" s="41"/>
       <c r="AA108" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB108" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="AB108" s="41"/>
       <c r="AC108" s="35">
         <v>1</v>
       </c>
       <c r="AD108" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE108" s="36"/>
+      <c r="AE108" s="41"/>
       <c r="AF108" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG108" s="36"/>
+        <v>0</v>
+      </c>
+      <c r="AG108" s="41"/>
       <c r="AH108" s="35" t="s">
         <v>28</v>
       </c>
@@ -10424,9 +10421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B109" s="35" t="s">
         <v>21</v>
@@ -10438,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F109" s="21"/>
       <c r="G109" s="9">
@@ -10517,9 +10514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>28</v>
@@ -10610,7 +10607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="6"/>
       <c r="B111" s="9"/>
       <c r="C111" s="40"/>
@@ -10649,7 +10646,7 @@
       <c r="AJ111" s="9"/>
       <c r="AK111" s="9"/>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="5" t="s">
         <v>39</v>
       </c>
@@ -10690,34 +10687,34 @@
       <c r="AJ112" s="9"/>
       <c r="AK112" s="9"/>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B113" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
-      <c r="I113" s="42" t="s">
+      <c r="I113" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J113" s="42"/>
-      <c r="K113" s="42"/>
-      <c r="L113" s="42"/>
-      <c r="M113" s="42"/>
-      <c r="N113" s="42"/>
-      <c r="O113" s="42"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="43"/>
+      <c r="N113" s="43"/>
+      <c r="O113" s="43"/>
       <c r="P113" s="13"/>
-      <c r="Q113" s="41" t="s">
+      <c r="Q113" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R113" s="41"/>
-      <c r="S113" s="41"/>
+      <c r="R113" s="42"/>
+      <c r="S113" s="42"/>
       <c r="T113" s="13"/>
       <c r="U113" s="7" t="s">
         <v>67</v>
@@ -10734,23 +10731,23 @@
         <v>70</v>
       </c>
       <c r="AB113" s="13"/>
-      <c r="AC113" s="42" t="s">
+      <c r="AC113" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD113" s="42"/>
+      <c r="AD113" s="43"/>
       <c r="AE113" s="23"/>
       <c r="AF113" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG113" s="13"/>
-      <c r="AH113" s="42" t="s">
+      <c r="AH113" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI113" s="42"/>
-      <c r="AJ113" s="42"/>
-      <c r="AK113" s="42"/>
-    </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI113" s="43"/>
+      <c r="AJ113" s="43"/>
+      <c r="AK113" s="43"/>
+    </row>
+    <row r="114" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
         <v>25</v>
       </c>
@@ -10790,7 +10787,7 @@
         <v>11</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P114" s="13"/>
       <c r="Q114" s="11" t="s">
@@ -10843,9 +10840,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>28</v>
@@ -10886,14 +10883,14 @@
         <v>28</v>
       </c>
       <c r="P115" s="13"/>
-      <c r="Q115" s="17" t="s">
-        <v>48</v>
+      <c r="Q115" s="17">
+        <v>110</v>
       </c>
       <c r="R115" s="17" t="s">
         <v>43</v>
       </c>
       <c r="S115" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T115" s="13"/>
       <c r="U115" s="9" t="s">
@@ -10936,9 +10933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>28</v>
@@ -10979,14 +10976,14 @@
         <v>28</v>
       </c>
       <c r="P116" s="13"/>
-      <c r="Q116" s="17" t="s">
-        <v>48</v>
+      <c r="Q116" s="17">
+        <v>110</v>
       </c>
       <c r="R116" s="17" t="s">
         <v>44</v>
       </c>
       <c r="S116" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" s="13"/>
       <c r="U116" s="9" t="s">
@@ -11029,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>4</v>
       </c>
@@ -11070,7 +11067,7 @@
       <c r="AJ117" s="9"/>
       <c r="AK117" s="9"/>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
         <v>25</v>
       </c>
@@ -11110,7 +11107,7 @@
         <v>11</v>
       </c>
       <c r="O118" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P118" s="13"/>
       <c r="Q118" s="11" t="s">
@@ -11163,9 +11160,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>28</v>
@@ -11206,14 +11203,14 @@
         <v>139</v>
       </c>
       <c r="P119" s="13"/>
-      <c r="Q119" s="17" t="s">
-        <v>48</v>
+      <c r="Q119" s="17">
+        <v>110</v>
       </c>
       <c r="R119" s="17" t="s">
         <v>43</v>
       </c>
       <c r="S119" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T119" s="13"/>
       <c r="U119" s="9" t="s">
@@ -11256,9 +11253,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>28</v>
@@ -11299,14 +11296,14 @@
         <v>139</v>
       </c>
       <c r="P120" s="13"/>
-      <c r="Q120" s="17" t="s">
-        <v>48</v>
+      <c r="Q120" s="17">
+        <v>110</v>
       </c>
       <c r="R120" s="17" t="s">
         <v>44</v>
       </c>
       <c r="S120" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T120" s="13"/>
       <c r="U120" s="9" t="s">
@@ -11349,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -11390,7 +11387,7 @@
       <c r="AJ121" s="9"/>
       <c r="AK121" s="9"/>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
         <v>25</v>
       </c>
@@ -11430,7 +11427,7 @@
         <v>11</v>
       </c>
       <c r="O122" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P122" s="13"/>
       <c r="Q122" s="11" t="s">
@@ -11483,9 +11480,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>28</v>
@@ -11576,9 +11573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>28</v>
@@ -11669,9 +11666,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>28</v>
@@ -11712,8 +11709,8 @@
         <v>10</v>
       </c>
       <c r="P125" s="13"/>
-      <c r="Q125" s="17" t="s">
-        <v>48</v>
+      <c r="Q125" s="17">
+        <v>110</v>
       </c>
       <c r="R125" s="17" t="s">
         <v>43</v>
@@ -11762,9 +11759,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>28</v>
@@ -11805,8 +11802,8 @@
         <v>10</v>
       </c>
       <c r="P126" s="13"/>
-      <c r="Q126" s="17" t="s">
-        <v>48</v>
+      <c r="Q126" s="17">
+        <v>110</v>
       </c>
       <c r="R126" s="17" t="s">
         <v>44</v>
@@ -11855,9 +11852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>21</v>
@@ -11948,9 +11945,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>28</v>
@@ -12041,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="6"/>
       <c r="B129" s="9"/>
       <c r="C129" s="40"/>
@@ -12080,7 +12077,7 @@
       <c r="AJ129" s="9"/>
       <c r="AK129" s="9"/>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="5" t="s">
         <v>40</v>
       </c>
@@ -12121,34 +12118,34 @@
       <c r="AJ130" s="9"/>
       <c r="AK130" s="9"/>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="41" t="s">
+      <c r="B131" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C131" s="41"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="41"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="42"/>
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="42" t="s">
+      <c r="I131" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J131" s="42"/>
-      <c r="K131" s="42"/>
-      <c r="L131" s="42"/>
-      <c r="M131" s="42"/>
-      <c r="N131" s="42"/>
-      <c r="O131" s="42"/>
+      <c r="J131" s="43"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="43"/>
+      <c r="M131" s="43"/>
+      <c r="N131" s="43"/>
+      <c r="O131" s="43"/>
       <c r="P131" s="13"/>
-      <c r="Q131" s="41" t="s">
+      <c r="Q131" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R131" s="41"/>
-      <c r="S131" s="41"/>
+      <c r="R131" s="42"/>
+      <c r="S131" s="42"/>
       <c r="T131" s="13"/>
       <c r="U131" s="7" t="s">
         <v>67</v>
@@ -12165,23 +12162,23 @@
         <v>70</v>
       </c>
       <c r="AB131" s="13"/>
-      <c r="AC131" s="42" t="s">
+      <c r="AC131" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD131" s="42"/>
+      <c r="AD131" s="43"/>
       <c r="AE131" s="23"/>
       <c r="AF131" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG131" s="13"/>
-      <c r="AH131" s="42" t="s">
+      <c r="AH131" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI131" s="42"/>
-      <c r="AJ131" s="42"/>
-      <c r="AK131" s="42"/>
-    </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI131" s="43"/>
+      <c r="AJ131" s="43"/>
+      <c r="AK131" s="43"/>
+    </row>
+    <row r="132" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -12221,7 +12218,7 @@
         <v>11</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P132" s="13"/>
       <c r="Q132" s="11" t="s">
@@ -12274,9 +12271,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>28</v>
@@ -12288,7 +12285,7 @@
         <v>29</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="9">
@@ -12317,8 +12314,8 @@
         <v>28</v>
       </c>
       <c r="P133" s="13"/>
-      <c r="Q133" s="17" t="s">
-        <v>48</v>
+      <c r="Q133" s="17">
+        <v>110</v>
       </c>
       <c r="R133" s="17" t="s">
         <v>43</v>
@@ -12367,9 +12364,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>28</v>
@@ -12381,7 +12378,7 @@
         <v>29</v>
       </c>
       <c r="E134" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="9">
@@ -12410,8 +12407,8 @@
         <v>28</v>
       </c>
       <c r="P134" s="13"/>
-      <c r="Q134" s="17" t="s">
-        <v>48</v>
+      <c r="Q134" s="17">
+        <v>110</v>
       </c>
       <c r="R134" s="17" t="s">
         <v>44</v>
@@ -12460,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -12501,7 +12498,7 @@
       <c r="AJ135" s="9"/>
       <c r="AK135" s="9"/>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
         <v>25</v>
       </c>
@@ -12541,7 +12538,7 @@
         <v>11</v>
       </c>
       <c r="O136" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P136" s="13"/>
       <c r="Q136" s="11" t="s">
@@ -12594,9 +12591,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>28</v>
@@ -12608,7 +12605,7 @@
         <v>29</v>
       </c>
       <c r="E137" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F137" s="20"/>
       <c r="G137" s="9">
@@ -12637,8 +12634,8 @@
         <v>139</v>
       </c>
       <c r="P137" s="13"/>
-      <c r="Q137" s="17" t="s">
-        <v>48</v>
+      <c r="Q137" s="17">
+        <v>110</v>
       </c>
       <c r="R137" s="17" t="s">
         <v>43</v>
@@ -12687,9 +12684,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>28</v>
@@ -12701,7 +12698,7 @@
         <v>29</v>
       </c>
       <c r="E138" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="9">
@@ -12730,8 +12727,8 @@
         <v>139</v>
       </c>
       <c r="P138" s="13"/>
-      <c r="Q138" s="17" t="s">
-        <v>48</v>
+      <c r="Q138" s="17">
+        <v>110</v>
       </c>
       <c r="R138" s="17" t="s">
         <v>44</v>
@@ -12780,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -12821,7 +12818,7 @@
       <c r="AJ139" s="9"/>
       <c r="AK139" s="9"/>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2" t="s">
         <v>25</v>
       </c>
@@ -12861,7 +12858,7 @@
         <v>11</v>
       </c>
       <c r="O140" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P140" s="13"/>
       <c r="Q140" s="11" t="s">
@@ -12914,9 +12911,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>28</v>
@@ -13007,9 +13004,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>28</v>
@@ -13100,9 +13097,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>28</v>
@@ -13114,7 +13111,7 @@
         <v>29</v>
       </c>
       <c r="E143" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="9">
@@ -13128,7 +13125,7 @@
         <v>27</v>
       </c>
       <c r="K143" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" s="9" t="s">
         <v>27</v>
@@ -13143,8 +13140,8 @@
         <v>10</v>
       </c>
       <c r="P143" s="13"/>
-      <c r="Q143" s="17" t="s">
-        <v>48</v>
+      <c r="Q143" s="17">
+        <v>110</v>
       </c>
       <c r="R143" s="17" t="s">
         <v>43</v>
@@ -13193,9 +13190,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>28</v>
@@ -13236,8 +13233,8 @@
         <v>10</v>
       </c>
       <c r="P144" s="13"/>
-      <c r="Q144" s="17" t="s">
-        <v>48</v>
+      <c r="Q144" s="17">
+        <v>110</v>
       </c>
       <c r="R144" s="17" t="s">
         <v>44</v>
@@ -13286,9 +13283,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>21</v>
@@ -13300,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="E145" s="40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F145" s="21"/>
       <c r="G145" s="9">
@@ -13379,9 +13376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>28</v>
@@ -13472,7 +13469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="6"/>
       <c r="B147" s="9"/>
       <c r="C147" s="40"/>
@@ -13511,34 +13508,34 @@
       <c r="AJ147" s="9"/>
       <c r="AK147" s="9"/>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="41" t="s">
+      <c r="B148" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C148" s="41"/>
-      <c r="D148" s="41"/>
-      <c r="E148" s="41"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42"/>
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
-      <c r="I148" s="42" t="s">
+      <c r="I148" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J148" s="42"/>
-      <c r="K148" s="42"/>
-      <c r="L148" s="42"/>
-      <c r="M148" s="42"/>
-      <c r="N148" s="42"/>
-      <c r="O148" s="42"/>
+      <c r="J148" s="43"/>
+      <c r="K148" s="43"/>
+      <c r="L148" s="43"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="43"/>
+      <c r="O148" s="43"/>
       <c r="P148" s="13"/>
-      <c r="Q148" s="41" t="s">
+      <c r="Q148" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R148" s="41"/>
-      <c r="S148" s="41"/>
+      <c r="R148" s="42"/>
+      <c r="S148" s="42"/>
       <c r="T148" s="13"/>
       <c r="U148" s="7" t="s">
         <v>67</v>
@@ -13555,23 +13552,23 @@
         <v>70</v>
       </c>
       <c r="AB148" s="13"/>
-      <c r="AC148" s="42" t="s">
+      <c r="AC148" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD148" s="42"/>
+      <c r="AD148" s="43"/>
       <c r="AE148" s="23"/>
       <c r="AF148" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG148" s="13"/>
-      <c r="AH148" s="42" t="s">
+      <c r="AH148" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI148" s="42"/>
-      <c r="AJ148" s="42"/>
-      <c r="AK148" s="42"/>
-    </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI148" s="43"/>
+      <c r="AJ148" s="43"/>
+      <c r="AK148" s="43"/>
+    </row>
+    <row r="149" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2" t="s">
         <v>25</v>
       </c>
@@ -13611,7 +13608,7 @@
         <v>11</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P149" s="13"/>
       <c r="Q149" s="11" t="s">
@@ -13664,7 +13661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="6">
         <v>92</v>
       </c>
@@ -13757,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="6"/>
       <c r="B151" s="9"/>
       <c r="C151" s="40"/>
@@ -13796,34 +13793,34 @@
       <c r="AJ151" s="9"/>
       <c r="AK151" s="9"/>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="41" t="s">
+      <c r="B152" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C152" s="41"/>
-      <c r="D152" s="41"/>
-      <c r="E152" s="41"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="42"/>
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="42" t="s">
+      <c r="I152" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J152" s="42"/>
-      <c r="K152" s="42"/>
-      <c r="L152" s="42"/>
-      <c r="M152" s="42"/>
-      <c r="N152" s="42"/>
-      <c r="O152" s="42"/>
+      <c r="J152" s="43"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="43"/>
+      <c r="M152" s="43"/>
+      <c r="N152" s="43"/>
+      <c r="O152" s="43"/>
       <c r="P152" s="13"/>
-      <c r="Q152" s="41" t="s">
+      <c r="Q152" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R152" s="41"/>
-      <c r="S152" s="41"/>
+      <c r="R152" s="42"/>
+      <c r="S152" s="42"/>
       <c r="T152" s="13"/>
       <c r="U152" s="7" t="s">
         <v>67</v>
@@ -13840,23 +13837,23 @@
         <v>70</v>
       </c>
       <c r="AB152" s="13"/>
-      <c r="AC152" s="42" t="s">
+      <c r="AC152" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD152" s="42"/>
+      <c r="AD152" s="43"/>
       <c r="AE152" s="23"/>
       <c r="AF152" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG152" s="13"/>
-      <c r="AH152" s="42" t="s">
+      <c r="AH152" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI152" s="42"/>
-      <c r="AJ152" s="42"/>
-      <c r="AK152" s="42"/>
-    </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI152" s="43"/>
+      <c r="AJ152" s="43"/>
+      <c r="AK152" s="43"/>
+    </row>
+    <row r="153" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2" t="s">
         <v>25</v>
       </c>
@@ -13896,7 +13893,7 @@
         <v>11</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P153" s="13"/>
       <c r="Q153" s="11" t="s">
@@ -13949,7 +13946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="6">
         <v>93</v>
       </c>
@@ -14042,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="9"/>
       <c r="C155" s="40"/>
       <c r="D155" s="9"/>
@@ -14080,34 +14077,34 @@
       <c r="AJ155" s="9"/>
       <c r="AK155" s="9"/>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B156" s="41" t="s">
+      <c r="B156" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C156" s="41"/>
-      <c r="D156" s="41"/>
-      <c r="E156" s="41"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42"/>
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
-      <c r="I156" s="42" t="s">
+      <c r="I156" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J156" s="42"/>
-      <c r="K156" s="42"/>
-      <c r="L156" s="42"/>
-      <c r="M156" s="42"/>
-      <c r="N156" s="42"/>
-      <c r="O156" s="42"/>
+      <c r="J156" s="43"/>
+      <c r="K156" s="43"/>
+      <c r="L156" s="43"/>
+      <c r="M156" s="43"/>
+      <c r="N156" s="43"/>
+      <c r="O156" s="43"/>
       <c r="P156" s="13"/>
-      <c r="Q156" s="41" t="s">
+      <c r="Q156" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R156" s="41"/>
-      <c r="S156" s="41"/>
+      <c r="R156" s="42"/>
+      <c r="S156" s="42"/>
       <c r="T156" s="13"/>
       <c r="U156" s="7" t="s">
         <v>67</v>
@@ -14124,23 +14121,23 @@
         <v>70</v>
       </c>
       <c r="AB156" s="13"/>
-      <c r="AC156" s="42" t="s">
+      <c r="AC156" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD156" s="42"/>
+      <c r="AD156" s="43"/>
       <c r="AE156" s="23"/>
       <c r="AF156" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG156" s="13"/>
-      <c r="AH156" s="42" t="s">
+      <c r="AH156" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI156" s="42"/>
-      <c r="AJ156" s="42"/>
-      <c r="AK156" s="42"/>
-    </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AI156" s="43"/>
+      <c r="AJ156" s="43"/>
+      <c r="AK156" s="43"/>
+    </row>
+    <row r="157" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2" t="s">
         <v>25</v>
       </c>
@@ -14180,7 +14177,7 @@
         <v>11</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P157" s="13"/>
       <c r="Q157" s="11" t="s">
@@ -14233,7 +14230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="27">
         <v>94</v>
       </c>
@@ -14278,7 +14275,7 @@
       <c r="AJ158" s="25"/>
       <c r="AK158" s="25"/>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="6"/>
       <c r="B159" s="9"/>
       <c r="C159" s="40"/>
@@ -14317,34 +14314,34 @@
       <c r="AJ159" s="9"/>
       <c r="AK159" s="9"/>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B160" s="41" t="s">
+      <c r="B160" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C160" s="41"/>
-      <c r="D160" s="41"/>
-      <c r="E160" s="41"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="42"/>
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
-      <c r="I160" s="42" t="s">
+      <c r="I160" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J160" s="42"/>
-      <c r="K160" s="42"/>
-      <c r="L160" s="42"/>
-      <c r="M160" s="42"/>
-      <c r="N160" s="42"/>
-      <c r="O160" s="42"/>
+      <c r="J160" s="43"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="43"/>
+      <c r="M160" s="43"/>
+      <c r="N160" s="43"/>
+      <c r="O160" s="43"/>
       <c r="P160" s="13"/>
-      <c r="Q160" s="41" t="s">
+      <c r="Q160" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="R160" s="41"/>
-      <c r="S160" s="41"/>
+      <c r="R160" s="42"/>
+      <c r="S160" s="42"/>
       <c r="T160" s="13"/>
       <c r="U160" s="7" t="s">
         <v>67</v>
@@ -14361,23 +14358,23 @@
         <v>70</v>
       </c>
       <c r="AB160" s="13"/>
-      <c r="AC160" s="42" t="s">
+      <c r="AC160" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="AD160" s="42"/>
+      <c r="AD160" s="43"/>
       <c r="AE160" s="23"/>
       <c r="AF160" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG160" s="13"/>
-      <c r="AH160" s="42" t="s">
+      <c r="AH160" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AI160" s="42"/>
-      <c r="AJ160" s="42"/>
-      <c r="AK160" s="42"/>
-    </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AI160" s="43"/>
+      <c r="AJ160" s="43"/>
+      <c r="AK160" s="43"/>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2" t="s">
         <v>25</v>
       </c>
@@ -14417,7 +14414,7 @@
         <v>11</v>
       </c>
       <c r="O161" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P161" s="13"/>
       <c r="Q161" s="11" t="s">
@@ -14470,7 +14467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="27">
         <v>95</v>
       </c>
@@ -14515,7 +14512,7 @@
       <c r="AJ162" s="25"/>
       <c r="AK162" s="25"/>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="6"/>
       <c r="B163" s="9"/>
       <c r="C163" s="40"/>
@@ -14555,186 +14552,183 @@
       <c r="AK163" s="9"/>
       <c r="AL163" s="8"/>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL164" s="8"/>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL165" s="8"/>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL166" s="8"/>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="39"/>
       <c r="AL167" s="8"/>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL168" s="8"/>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL169" s="8"/>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL170" s="8"/>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL171" s="8"/>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL172" s="8"/>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL173" s="8"/>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL174" s="8"/>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL175" s="8"/>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL176" s="8"/>
     </row>
-    <row r="177" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL177" s="8"/>
     </row>
-    <row r="178" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL178" s="8"/>
     </row>
-    <row r="179" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL179" s="8"/>
     </row>
-    <row r="180" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL180" s="8"/>
     </row>
-    <row r="181" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL181" s="8"/>
     </row>
-    <row r="182" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL182" s="8"/>
     </row>
-    <row r="183" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL183" s="8"/>
     </row>
-    <row r="184" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL184" s="8"/>
     </row>
-    <row r="185" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL185" s="8"/>
     </row>
-    <row r="186" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL186" s="8"/>
     </row>
-    <row r="187" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL187" s="8"/>
     </row>
-    <row r="188" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL188" s="8"/>
     </row>
-    <row r="189" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL189" s="8"/>
     </row>
-    <row r="190" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL190" s="8"/>
     </row>
-    <row r="191" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL191" s="8"/>
     </row>
-    <row r="192" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL192" s="8"/>
     </row>
-    <row r="193" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL193" s="8"/>
     </row>
-    <row r="194" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL194" s="8"/>
     </row>
-    <row r="195" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL195" s="8"/>
     </row>
-    <row r="196" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL196" s="8"/>
     </row>
-    <row r="197" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL197" s="8"/>
     </row>
-    <row r="198" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL198" s="8"/>
     </row>
-    <row r="199" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL199" s="8"/>
     </row>
-    <row r="200" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL200" s="8"/>
     </row>
-    <row r="201" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL201" s="8"/>
     </row>
-    <row r="202" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL202" s="8"/>
     </row>
-    <row r="203" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL203" s="8"/>
     </row>
-    <row r="204" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL204" s="8"/>
     </row>
-    <row r="205" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL205" s="8"/>
     </row>
-    <row r="206" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL206" s="8"/>
     </row>
-    <row r="207" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL207" s="8"/>
     </row>
-    <row r="208" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL208" s="8"/>
     </row>
-    <row r="209" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL209" s="8"/>
     </row>
-    <row r="210" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL210" s="8"/>
     </row>
-    <row r="211" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="38:38" x14ac:dyDescent="0.55000000000000004">
       <c r="AL211" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="I152:O152"/>
-    <mergeCell ref="Q148:S148"/>
-    <mergeCell ref="Q152:S152"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="AH81:AK81"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AH131:AK131"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B152:E152"/>
     <mergeCell ref="I81:O81"/>
     <mergeCell ref="I113:O113"/>
     <mergeCell ref="I131:O131"/>
     <mergeCell ref="Q81:S81"/>
     <mergeCell ref="Q113:S113"/>
     <mergeCell ref="Q131:S131"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="AC113:AD113"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="AC148:AD148"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="I11:N11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="B12:E12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="I12:O12"/>
     <mergeCell ref="AC152:AD152"/>
     <mergeCell ref="D47:AI47"/>
     <mergeCell ref="AC49:AD49"/>
     <mergeCell ref="AH148:AK148"/>
     <mergeCell ref="AH152:AK152"/>
+    <mergeCell ref="I152:O152"/>
     <mergeCell ref="I148:O148"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="I49:O49"/>
+    <mergeCell ref="AC148:AD148"/>
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="Q152:S152"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="AH81:AK81"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="AH113:AK113"/>
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="I2:O2"/>
@@ -14743,11 +14737,14 @@
     <mergeCell ref="AH12:AK12"/>
     <mergeCell ref="AH49:AK49"/>
     <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="I49:O49"/>
-    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="AC113:AD113"/>
+    <mergeCell ref="Q148:S148"/>
     <mergeCell ref="Q12:S12"/>
     <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AH131:AK131"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AC81:AD81"/>
     <mergeCell ref="B156:E156"/>
     <mergeCell ref="AC156:AD156"/>
     <mergeCell ref="AH156:AK156"/>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Documents\Github Files\ARMVerilogImplementation\ArquiProjecto\Phase2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Documents\armverilogimplementation\ArquiProjecto\Phase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12798" windowHeight="4038"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="4035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="194">
   <si>
     <t>BRANCH</t>
   </si>
@@ -883,12 +883,6 @@
     <t>Rn=Rn-Rm - 69</t>
   </si>
   <si>
-    <t>mfc wait - 70</t>
-  </si>
-  <si>
-    <t>save in ram - 71</t>
-  </si>
-  <si>
     <t>EA=Rn+offset_8 - 72</t>
   </si>
   <si>
@@ -931,12 +925,6 @@
     <t>Rn=Rn-offset_8 - 89</t>
   </si>
   <si>
-    <t>mfc wait - 90</t>
-  </si>
-  <si>
-    <t>save in ram - 91</t>
-  </si>
-  <si>
     <t>Rn=Rn+offset_8 - 87</t>
   </si>
   <si>
@@ -968,12 +956,30 @@
   </si>
   <si>
     <t>00</t>
+  </si>
+  <si>
+    <t>EA=Rn+offset_12 - 54</t>
+  </si>
+  <si>
+    <t>EA=Rn-offset_12 - 55</t>
+  </si>
+  <si>
+    <t>mfc wait - 71</t>
+  </si>
+  <si>
+    <t>save in ram - 70</t>
+  </si>
+  <si>
+    <t>save in ram - 90</t>
+  </si>
+  <si>
+    <t>mfc wait - 91</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1093,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1200,6 +1206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1211,6 +1220,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,68 +1509,68 @@
   </sheetPr>
   <dimension ref="A1:AQ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL144" sqref="AL144"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.26171875" customWidth="1"/>
-    <col min="2" max="2" width="9.15625" customWidth="1"/>
-    <col min="3" max="3" width="9.83984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="10.41796875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="1.83984375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="5.68359375" customWidth="1"/>
-    <col min="8" max="8" width="1.83984375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="11.68359375" customWidth="1"/>
-    <col min="16" max="16" width="1.83984375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="1.83984375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="1.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.85546875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="1.85546875" style="8" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="1.68359375" style="8" customWidth="1"/>
-    <col min="24" max="24" width="1.83984375" style="8" customWidth="1"/>
-    <col min="26" max="26" width="1.83984375" style="8" customWidth="1"/>
-    <col min="28" max="28" width="1.83984375" style="8" customWidth="1"/>
-    <col min="31" max="31" width="1.83984375" style="8" customWidth="1"/>
-    <col min="33" max="33" width="1.83984375" style="8" customWidth="1"/>
-    <col min="34" max="35" width="10.41796875" customWidth="1"/>
+    <col min="22" max="22" width="1.7109375" style="8" customWidth="1"/>
+    <col min="24" max="24" width="1.85546875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="1.85546875" style="8" customWidth="1"/>
+    <col min="28" max="28" width="1.85546875" style="8" customWidth="1"/>
+    <col min="31" max="31" width="1.85546875" style="8" customWidth="1"/>
+    <col min="33" max="33" width="1.85546875" style="8" customWidth="1"/>
+    <col min="34" max="35" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
       <c r="T2" s="13"/>
       <c r="U2" s="7" t="s">
         <v>67</v>
@@ -1575,23 +1587,23 @@
         <v>70</v>
       </c>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="43" t="s">
+      <c r="AC2" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="43"/>
+      <c r="AD2" s="44"/>
       <c r="AE2" s="23"/>
       <c r="AF2" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG2" s="13"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1643,7 @@
         <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="11" t="s">
@@ -1684,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1777,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1870,9 +1882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>28</v>
@@ -1901,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>28</v>
@@ -1964,7 +1976,7 @@
       </c>
       <c r="AQ6" s="26"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -2045,7 +2057,7 @@
       </c>
       <c r="AG7" s="36"/>
       <c r="AH7" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AI7" s="35" t="s">
         <v>74</v>
@@ -2057,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -2151,7 +2163,7 @@
       </c>
       <c r="AL8" s="8"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="13"/>
       <c r="C9" s="40"/>
@@ -2191,7 +2203,7 @@
       <c r="AK9" s="13"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2233,27 +2245,27 @@
       <c r="AK10" s="13"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="8"/>
@@ -2263,44 +2275,44 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
       <c r="AE11" s="23"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="42" t="s">
+      <c r="Q12" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
       <c r="T12" s="13"/>
       <c r="U12" s="7" t="s">
         <v>67</v>
@@ -2317,23 +2329,23 @@
         <v>70</v>
       </c>
       <c r="AB12" s="13"/>
-      <c r="AC12" s="43" t="s">
+      <c r="AC12" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD12" s="43"/>
+      <c r="AD12" s="44"/>
       <c r="AE12" s="23"/>
       <c r="AF12" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG12" s="13"/>
-      <c r="AH12" s="43" t="s">
+      <c r="AH12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>11</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="11" t="s">
@@ -2431,7 +2443,7 @@
       <c r="AO13" s="8"/>
       <c r="AP13" s="8"/>
     </row>
-    <row r="14" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="40"/>
@@ -2470,7 +2482,7 @@
       <c r="AJ14" s="13"/>
       <c r="AK14" s="13"/>
     </row>
-    <row r="15" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>87</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>88</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>89</v>
       </c>
@@ -2749,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -2842,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>91</v>
       </c>
@@ -2935,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>103</v>
       </c>
@@ -3028,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>92</v>
       </c>
@@ -3121,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>104</v>
       </c>
@@ -3214,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>93</v>
       </c>
@@ -3307,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>105</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>94</v>
       </c>
@@ -3493,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>106</v>
       </c>
@@ -3586,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>95</v>
       </c>
@@ -3679,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>107</v>
       </c>
@@ -3772,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>96</v>
       </c>
@@ -3865,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>108</v>
       </c>
@@ -3958,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>97</v>
       </c>
@@ -4051,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>109</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>98</v>
       </c>
@@ -4237,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>110</v>
       </c>
@@ -4330,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>99</v>
       </c>
@@ -4423,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>111</v>
       </c>
@@ -4516,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>100</v>
       </c>
@@ -4609,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>112</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>101</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>113</v>
       </c>
@@ -4888,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>102</v>
       </c>
@@ -4981,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>114</v>
       </c>
@@ -5074,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>116</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>117</v>
       </c>
@@ -5260,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>115</v>
       </c>
@@ -5353,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>118</v>
       </c>
@@ -5446,44 +5458,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="13"/>
       <c r="C47" s="40"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="45"/>
-      <c r="AE47" s="45"/>
-      <c r="AF47" s="45"/>
-      <c r="AG47" s="45"/>
-      <c r="AH47" s="45"/>
-      <c r="AI47" s="45"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="46"/>
+      <c r="AB47" s="46"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="46"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="46"/>
       <c r="AJ47" s="13"/>
       <c r="AK47" s="13"/>
       <c r="AL47"/>
@@ -5492,7 +5504,7 @@
       <c r="AO47"/>
       <c r="AP47"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>119</v>
       </c>
@@ -5533,34 +5545,34 @@
       <c r="AJ48" s="9"/>
       <c r="AK48" s="9"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="43" t="s">
+      <c r="I49" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
       <c r="P49" s="13"/>
-      <c r="Q49" s="42" t="s">
+      <c r="Q49" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
       <c r="T49" s="13"/>
       <c r="U49" s="7" t="s">
         <v>67</v>
@@ -5577,23 +5589,23 @@
         <v>70</v>
       </c>
       <c r="AB49" s="13"/>
-      <c r="AC49" s="43" t="s">
+      <c r="AC49" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD49" s="43"/>
+      <c r="AD49" s="44"/>
       <c r="AE49" s="23"/>
       <c r="AF49" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG49" s="13"/>
-      <c r="AH49" s="43" t="s">
+      <c r="AH49" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI49" s="43"/>
-      <c r="AJ49" s="43"/>
-      <c r="AK49" s="43"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI49" s="44"/>
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="44"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -5633,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="11" t="s">
@@ -5686,7 +5698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>121</v>
       </c>
@@ -5700,7 +5712,7 @@
         <v>29</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="9">
@@ -5779,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>125</v>
       </c>
@@ -5793,7 +5805,7 @@
         <v>29</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="9">
@@ -5872,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -5913,7 +5925,7 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>25</v>
       </c>
@@ -5953,7 +5965,7 @@
         <v>11</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P54" s="13"/>
       <c r="Q54" s="11" t="s">
@@ -6006,7 +6018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>126</v>
       </c>
@@ -6020,7 +6032,7 @@
         <v>29</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="9">
@@ -6099,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>127</v>
       </c>
@@ -6113,7 +6125,7 @@
         <v>29</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="9">
@@ -6192,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -6233,7 +6245,7 @@
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -6273,7 +6285,7 @@
         <v>11</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P58" s="13"/>
       <c r="Q58" s="11" t="s">
@@ -6326,7 +6338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>141</v>
       </c>
@@ -6340,7 +6352,7 @@
         <v>29</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="9">
@@ -6419,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>142</v>
       </c>
@@ -6433,7 +6445,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="9">
@@ -6512,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -6553,7 +6565,7 @@
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -6593,7 +6605,7 @@
         <v>11</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P62" s="13"/>
       <c r="Q62" s="11" t="s">
@@ -6646,7 +6658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>143</v>
       </c>
@@ -6660,7 +6672,7 @@
         <v>29</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="9">
@@ -6739,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>144</v>
       </c>
@@ -6753,7 +6765,7 @@
         <v>29</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="9">
@@ -6832,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -6873,7 +6885,7 @@
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>25</v>
       </c>
@@ -6913,7 +6925,7 @@
         <v>11</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P66" s="13"/>
       <c r="Q66" s="11" t="s">
@@ -6966,7 +6978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>145</v>
       </c>
@@ -7059,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>128</v>
       </c>
@@ -7152,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>146</v>
       </c>
@@ -7166,7 +7178,7 @@
         <v>29</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="9">
@@ -7245,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>147</v>
       </c>
@@ -7259,7 +7271,7 @@
         <v>29</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="9">
@@ -7338,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -7379,7 +7391,7 @@
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>25</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>11</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P72" s="13"/>
       <c r="Q72" s="11" t="s">
@@ -7472,7 +7484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>134</v>
       </c>
@@ -7565,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>129</v>
       </c>
@@ -7658,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>148</v>
       </c>
@@ -7672,7 +7684,7 @@
         <v>29</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="9">
@@ -7751,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>149</v>
       </c>
@@ -7844,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>150</v>
       </c>
@@ -7858,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="9">
@@ -7886,7 +7898,7 @@
       <c r="O77" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="P77" s="38"/>
+      <c r="P77" s="42"/>
       <c r="Q77" s="35" t="s">
         <v>76</v>
       </c>
@@ -7896,34 +7908,34 @@
       <c r="S77" s="35">
         <v>1</v>
       </c>
-      <c r="T77" s="38"/>
+      <c r="T77" s="42"/>
       <c r="U77" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="V77" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="V77" s="42"/>
       <c r="W77" s="35">
         <v>1</v>
       </c>
-      <c r="X77" s="38"/>
+      <c r="X77" s="42"/>
       <c r="Y77" s="35">
         <v>1</v>
       </c>
-      <c r="Z77" s="38"/>
+      <c r="Z77" s="42"/>
       <c r="AA77" s="35">
         <v>1</v>
       </c>
-      <c r="AB77" s="38"/>
+      <c r="AB77" s="42"/>
       <c r="AC77" s="35">
         <v>0</v>
       </c>
       <c r="AD77" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AE77" s="38"/>
+      <c r="AE77" s="42"/>
       <c r="AF77" s="35">
         <v>0</v>
       </c>
-      <c r="AG77" s="38"/>
+      <c r="AG77" s="42"/>
       <c r="AH77" s="37" t="s">
         <v>137</v>
       </c>
@@ -7937,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>151</v>
       </c>
@@ -7977,46 +7989,46 @@
         <v>27</v>
       </c>
       <c r="O78" s="35">
-        <v>1</v>
-      </c>
-      <c r="P78" s="38"/>
+        <v>10</v>
+      </c>
+      <c r="P78" s="42"/>
       <c r="Q78" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="R78" s="35" t="s">
-        <v>27</v>
+        <v>140</v>
+      </c>
+      <c r="R78" s="35">
+        <v>1101</v>
       </c>
       <c r="S78" s="35">
         <v>1</v>
       </c>
-      <c r="T78" s="38"/>
+      <c r="T78" s="42"/>
       <c r="U78" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="V78" s="38"/>
+        <v>29</v>
+      </c>
+      <c r="V78" s="42"/>
       <c r="W78" s="35">
         <v>1</v>
       </c>
-      <c r="X78" s="38"/>
+      <c r="X78" s="42"/>
       <c r="Y78" s="35">
         <v>1</v>
       </c>
-      <c r="Z78" s="38"/>
+      <c r="Z78" s="42"/>
       <c r="AA78" s="35">
         <v>1</v>
       </c>
-      <c r="AB78" s="38"/>
+      <c r="AB78" s="42"/>
       <c r="AC78" s="35">
         <v>1</v>
       </c>
       <c r="AD78" s="35">
         <v>1</v>
       </c>
-      <c r="AE78" s="38"/>
+      <c r="AE78" s="42"/>
       <c r="AF78" s="35">
         <v>0</v>
       </c>
-      <c r="AG78" s="38"/>
+      <c r="AG78" s="42"/>
       <c r="AH78" s="35" t="s">
         <v>28</v>
       </c>
@@ -8030,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="9"/>
       <c r="C79" s="34"/>
@@ -8069,7 +8081,7 @@
       <c r="AJ79" s="9"/>
       <c r="AK79" s="9"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>120</v>
       </c>
@@ -8110,34 +8122,34 @@
       <c r="AJ80" s="9"/>
       <c r="AK80" s="9"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="43" t="s">
+      <c r="I81" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
       <c r="P81" s="13"/>
-      <c r="Q81" s="42" t="s">
+      <c r="Q81" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
       <c r="T81" s="13"/>
       <c r="U81" s="7" t="s">
         <v>67</v>
@@ -8154,23 +8166,23 @@
         <v>70</v>
       </c>
       <c r="AB81" s="13"/>
-      <c r="AC81" s="43" t="s">
+      <c r="AC81" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD81" s="43"/>
+      <c r="AD81" s="44"/>
       <c r="AE81" s="23"/>
       <c r="AF81" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG81" s="13"/>
-      <c r="AH81" s="43" t="s">
+      <c r="AH81" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI81" s="43"/>
-      <c r="AJ81" s="43"/>
-      <c r="AK81" s="43"/>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI81" s="44"/>
+      <c r="AJ81" s="44"/>
+      <c r="AK81" s="44"/>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>25</v>
       </c>
@@ -8210,7 +8222,7 @@
         <v>11</v>
       </c>
       <c r="O82" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P82" s="41"/>
       <c r="Q82" s="11" t="s">
@@ -8263,9 +8275,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="B83" s="35" t="s">
         <v>28</v>
@@ -8277,7 +8289,7 @@
         <v>29</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="35">
@@ -8356,9 +8368,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="B84" s="35" t="s">
         <v>28</v>
@@ -8370,7 +8382,7 @@
         <v>29</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="35">
@@ -8449,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -8490,7 +8502,7 @@
       <c r="AJ85" s="35"/>
       <c r="AK85" s="35"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>25</v>
       </c>
@@ -8530,7 +8542,7 @@
         <v>11</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P86" s="41"/>
       <c r="Q86" s="11" t="s">
@@ -8583,7 +8595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>152</v>
       </c>
@@ -8597,7 +8609,7 @@
         <v>29</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="35">
@@ -8676,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>153</v>
       </c>
@@ -8690,7 +8702,7 @@
         <v>29</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F88" s="20"/>
       <c r="G88" s="35">
@@ -8769,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
@@ -8810,7 +8822,7 @@
       <c r="AJ89" s="35"/>
       <c r="AK89" s="35"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>25</v>
       </c>
@@ -8850,7 +8862,7 @@
         <v>11</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P90" s="41"/>
       <c r="Q90" s="11" t="s">
@@ -8903,7 +8915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>154</v>
       </c>
@@ -8917,7 +8929,7 @@
         <v>29</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="35">
@@ -8996,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>155</v>
       </c>
@@ -9010,7 +9022,7 @@
         <v>29</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="35">
@@ -9089,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -9130,7 +9142,7 @@
       <c r="AJ93" s="35"/>
       <c r="AK93" s="35"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>25</v>
       </c>
@@ -9170,7 +9182,7 @@
         <v>11</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P94" s="41"/>
       <c r="Q94" s="11" t="s">
@@ -9223,7 +9235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>156</v>
       </c>
@@ -9237,7 +9249,7 @@
         <v>29</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F95" s="20"/>
       <c r="G95" s="35">
@@ -9316,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>157</v>
       </c>
@@ -9330,7 +9342,7 @@
         <v>29</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F96" s="20"/>
       <c r="G96" s="35">
@@ -9409,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -9450,7 +9462,7 @@
       <c r="AJ97" s="35"/>
       <c r="AK97" s="35"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>25</v>
       </c>
@@ -9490,7 +9502,7 @@
         <v>11</v>
       </c>
       <c r="O98" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P98" s="41"/>
       <c r="Q98" s="11" t="s">
@@ -9543,7 +9555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>124</v>
       </c>
@@ -9636,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>159</v>
       </c>
@@ -9729,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>158</v>
       </c>
@@ -9743,7 +9755,7 @@
         <v>29</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F101" s="20"/>
       <c r="G101" s="35">
@@ -9822,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>160</v>
       </c>
@@ -9836,7 +9848,7 @@
         <v>29</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="35">
@@ -9915,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -9956,7 +9968,7 @@
       <c r="AJ103" s="35"/>
       <c r="AK103" s="35"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>25</v>
       </c>
@@ -9996,7 +10008,7 @@
         <v>11</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P104" s="41"/>
       <c r="Q104" s="11" t="s">
@@ -10049,7 +10061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>130</v>
       </c>
@@ -10142,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>135</v>
       </c>
@@ -10235,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>161</v>
       </c>
@@ -10249,7 +10261,7 @@
         <v>29</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="35">
@@ -10328,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>162</v>
       </c>
@@ -10421,27 +10433,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B109" s="35" t="s">
-        <v>21</v>
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="40">
-        <v>1</v>
-      </c>
-      <c r="E109" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="F109" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F109" s="20"/>
       <c r="G109" s="9">
         <v>0</v>
       </c>
-      <c r="H109" s="21"/>
+      <c r="H109" s="20"/>
       <c r="I109" s="35">
         <v>1</v>
       </c>
@@ -10454,8 +10466,8 @@
       <c r="L109" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M109" s="35" t="s">
-        <v>28</v>
+      <c r="M109" s="42">
+        <v>10</v>
       </c>
       <c r="N109" s="35" t="s">
         <v>27</v>
@@ -10464,14 +10476,14 @@
         <v>28</v>
       </c>
       <c r="P109" s="38"/>
-      <c r="Q109" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="R109" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="S109" s="35">
-        <v>1</v>
+      <c r="Q109" s="35">
+        <v>0</v>
+      </c>
+      <c r="R109" s="35">
+        <v>1101</v>
+      </c>
+      <c r="S109" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="T109" s="38"/>
       <c r="U109" s="35" t="s">
@@ -10490,11 +10502,11 @@
         <v>1</v>
       </c>
       <c r="AB109" s="38"/>
-      <c r="AC109" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD109" s="35" t="s">
-        <v>29</v>
+      <c r="AC109" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="42">
+        <v>0</v>
       </c>
       <c r="AE109" s="38"/>
       <c r="AF109" s="35">
@@ -10508,33 +10520,33 @@
         <v>28</v>
       </c>
       <c r="AJ109" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK109" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>28</v>
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A110" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D110" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E110" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F110" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="D110" s="40">
+        <v>1</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="F110" s="21"/>
       <c r="G110" s="9">
         <v>0</v>
       </c>
-      <c r="H110" s="20"/>
+      <c r="H110" s="21"/>
       <c r="I110" s="35">
         <v>1</v>
       </c>
@@ -10563,8 +10575,8 @@
       <c r="R110" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="S110" s="35" t="s">
-        <v>29</v>
+      <c r="S110" s="35">
+        <v>1</v>
       </c>
       <c r="T110" s="38"/>
       <c r="U110" s="35" t="s">
@@ -10601,52 +10613,16 @@
         <v>28</v>
       </c>
       <c r="AJ110" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK110" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="6"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="9"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="13"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="13"/>
-      <c r="W111" s="9"/>
-      <c r="X111" s="13"/>
-      <c r="Y111" s="9"/>
-      <c r="Z111" s="13"/>
-      <c r="AA111" s="9"/>
-      <c r="AB111" s="13"/>
-      <c r="AC111" s="9"/>
-      <c r="AD111" s="9"/>
-      <c r="AE111" s="13"/>
-      <c r="AF111" s="9"/>
-      <c r="AG111" s="13"/>
-      <c r="AH111" s="9"/>
-      <c r="AI111" s="9"/>
-      <c r="AJ111" s="9"/>
-      <c r="AK111" s="9"/>
-    </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A111" s="47"/>
+    </row>
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>39</v>
       </c>
@@ -10687,34 +10663,34 @@
       <c r="AJ112" s="9"/>
       <c r="AK112" s="9"/>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
-      <c r="I113" s="43" t="s">
+      <c r="I113" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J113" s="43"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="43"/>
-      <c r="M113" s="43"/>
-      <c r="N113" s="43"/>
-      <c r="O113" s="43"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+      <c r="N113" s="44"/>
+      <c r="O113" s="44"/>
       <c r="P113" s="13"/>
-      <c r="Q113" s="42" t="s">
+      <c r="Q113" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R113" s="42"/>
-      <c r="S113" s="42"/>
+      <c r="R113" s="43"/>
+      <c r="S113" s="43"/>
       <c r="T113" s="13"/>
       <c r="U113" s="7" t="s">
         <v>67</v>
@@ -10731,23 +10707,23 @@
         <v>70</v>
       </c>
       <c r="AB113" s="13"/>
-      <c r="AC113" s="43" t="s">
+      <c r="AC113" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD113" s="43"/>
+      <c r="AD113" s="44"/>
       <c r="AE113" s="23"/>
       <c r="AF113" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG113" s="13"/>
-      <c r="AH113" s="43" t="s">
+      <c r="AH113" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI113" s="43"/>
-      <c r="AJ113" s="43"/>
-      <c r="AK113" s="43"/>
-    </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI113" s="44"/>
+      <c r="AJ113" s="44"/>
+      <c r="AK113" s="44"/>
+    </row>
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>25</v>
       </c>
@@ -10787,7 +10763,7 @@
         <v>11</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P114" s="13"/>
       <c r="Q114" s="11" t="s">
@@ -10840,9 +10816,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>28</v>
@@ -10933,9 +10909,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>28</v>
@@ -11026,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>4</v>
       </c>
@@ -11067,7 +11043,7 @@
       <c r="AJ117" s="9"/>
       <c r="AK117" s="9"/>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>25</v>
       </c>
@@ -11107,7 +11083,7 @@
         <v>11</v>
       </c>
       <c r="O118" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P118" s="13"/>
       <c r="Q118" s="11" t="s">
@@ -11160,9 +11136,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>28</v>
@@ -11253,9 +11229,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>28</v>
@@ -11346,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -11387,7 +11363,7 @@
       <c r="AJ121" s="9"/>
       <c r="AK121" s="9"/>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>25</v>
       </c>
@@ -11427,7 +11403,7 @@
         <v>11</v>
       </c>
       <c r="O122" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P122" s="13"/>
       <c r="Q122" s="11" t="s">
@@ -11480,9 +11456,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>28</v>
@@ -11573,9 +11549,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>28</v>
@@ -11666,9 +11642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>28</v>
@@ -11759,9 +11735,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>28</v>
@@ -11852,9 +11828,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>21</v>
@@ -11945,9 +11921,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>28</v>
@@ -12038,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="9"/>
       <c r="C129" s="40"/>
@@ -12077,7 +12053,7 @@
       <c r="AJ129" s="9"/>
       <c r="AK129" s="9"/>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>40</v>
       </c>
@@ -12118,34 +12094,34 @@
       <c r="AJ130" s="9"/>
       <c r="AK130" s="9"/>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="42" t="s">
+      <c r="B131" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="43" t="s">
+      <c r="I131" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J131" s="43"/>
-      <c r="K131" s="43"/>
-      <c r="L131" s="43"/>
-      <c r="M131" s="43"/>
-      <c r="N131" s="43"/>
-      <c r="O131" s="43"/>
+      <c r="J131" s="44"/>
+      <c r="K131" s="44"/>
+      <c r="L131" s="44"/>
+      <c r="M131" s="44"/>
+      <c r="N131" s="44"/>
+      <c r="O131" s="44"/>
       <c r="P131" s="13"/>
-      <c r="Q131" s="42" t="s">
+      <c r="Q131" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R131" s="42"/>
-      <c r="S131" s="42"/>
+      <c r="R131" s="43"/>
+      <c r="S131" s="43"/>
       <c r="T131" s="13"/>
       <c r="U131" s="7" t="s">
         <v>67</v>
@@ -12162,23 +12138,23 @@
         <v>70</v>
       </c>
       <c r="AB131" s="13"/>
-      <c r="AC131" s="43" t="s">
+      <c r="AC131" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD131" s="43"/>
+      <c r="AD131" s="44"/>
       <c r="AE131" s="23"/>
       <c r="AF131" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG131" s="13"/>
-      <c r="AH131" s="43" t="s">
+      <c r="AH131" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI131" s="43"/>
-      <c r="AJ131" s="43"/>
-      <c r="AK131" s="43"/>
-    </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI131" s="44"/>
+      <c r="AJ131" s="44"/>
+      <c r="AK131" s="44"/>
+    </row>
+    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -12218,7 +12194,7 @@
         <v>11</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P132" s="13"/>
       <c r="Q132" s="11" t="s">
@@ -12271,9 +12247,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>28</v>
@@ -12285,7 +12261,7 @@
         <v>29</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="9">
@@ -12364,9 +12340,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>28</v>
@@ -12378,7 +12354,7 @@
         <v>29</v>
       </c>
       <c r="E134" s="40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="9">
@@ -12457,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -12498,7 +12474,7 @@
       <c r="AJ135" s="9"/>
       <c r="AK135" s="9"/>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>25</v>
       </c>
@@ -12538,7 +12514,7 @@
         <v>11</v>
       </c>
       <c r="O136" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P136" s="13"/>
       <c r="Q136" s="11" t="s">
@@ -12591,9 +12567,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>28</v>
@@ -12605,7 +12581,7 @@
         <v>29</v>
       </c>
       <c r="E137" s="40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F137" s="20"/>
       <c r="G137" s="9">
@@ -12684,9 +12660,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>28</v>
@@ -12698,7 +12674,7 @@
         <v>29</v>
       </c>
       <c r="E138" s="40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="9">
@@ -12777,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -12818,7 +12794,7 @@
       <c r="AJ139" s="9"/>
       <c r="AK139" s="9"/>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>25</v>
       </c>
@@ -12858,7 +12834,7 @@
         <v>11</v>
       </c>
       <c r="O140" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P140" s="13"/>
       <c r="Q140" s="11" t="s">
@@ -12911,9 +12887,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>28</v>
@@ -13004,9 +12980,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>28</v>
@@ -13097,9 +13073,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>28</v>
@@ -13111,7 +13087,7 @@
         <v>29</v>
       </c>
       <c r="E143" s="40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="9">
@@ -13190,9 +13166,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>28</v>
@@ -13283,193 +13259,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B145" s="9" t="s">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D145" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F145" s="20"/>
+      <c r="G145" s="35">
+        <v>0</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="35">
+        <v>1</v>
+      </c>
+      <c r="J145" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K145" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L145" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M145" s="42">
+        <v>10</v>
+      </c>
+      <c r="N145" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O145" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P145" s="42"/>
+      <c r="Q145" s="35">
+        <v>0</v>
+      </c>
+      <c r="R145" s="35">
+        <v>1101</v>
+      </c>
+      <c r="S145" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="T145" s="42"/>
+      <c r="U145" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="V145" s="42"/>
+      <c r="W145" s="35">
+        <v>1</v>
+      </c>
+      <c r="X145" s="42"/>
+      <c r="Y145" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z145" s="42"/>
+      <c r="AA145" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB145" s="42"/>
+      <c r="AC145" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="42"/>
+      <c r="AF145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG145" s="42"/>
+      <c r="AH145" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI145" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK145" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A146" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B146" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="34" t="s">
+      <c r="C146" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D145" s="40">
-        <v>1</v>
-      </c>
-      <c r="E145" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="F145" s="21"/>
-      <c r="G145" s="9">
-        <v>0</v>
-      </c>
-      <c r="H145" s="21"/>
-      <c r="I145" s="9">
-        <v>1</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K145" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L145" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M145" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N145" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O145" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P145" s="13"/>
-      <c r="Q145" s="9" t="s">
+      <c r="D146" s="42">
+        <v>1</v>
+      </c>
+      <c r="E146" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F146" s="21"/>
+      <c r="G146" s="35">
+        <v>0</v>
+      </c>
+      <c r="H146" s="21"/>
+      <c r="I146" s="35">
+        <v>1</v>
+      </c>
+      <c r="J146" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K146" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L146" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M146" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N146" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O146" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146" s="42"/>
+      <c r="Q146" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="R145" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S145" s="9">
-        <v>1</v>
-      </c>
-      <c r="T145" s="13"/>
-      <c r="U145" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V145" s="13"/>
-      <c r="W145" s="9">
-        <v>1</v>
-      </c>
-      <c r="X145" s="13"/>
-      <c r="Y145" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z145" s="13"/>
-      <c r="AA145" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB145" s="13"/>
-      <c r="AC145" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD145" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE145" s="13"/>
-      <c r="AF145" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG145" s="13"/>
-      <c r="AH145" s="17" t="s">
+      <c r="R146" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="S146" s="35">
+        <v>1</v>
+      </c>
+      <c r="T146" s="42"/>
+      <c r="U146" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="V146" s="42"/>
+      <c r="W146" s="35">
+        <v>1</v>
+      </c>
+      <c r="X146" s="42"/>
+      <c r="Y146" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z146" s="42"/>
+      <c r="AA146" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB146" s="42"/>
+      <c r="AC146" s="35">
+        <v>1</v>
+      </c>
+      <c r="AD146" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE146" s="42"/>
+      <c r="AF146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG146" s="42"/>
+      <c r="AH146" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AI145" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ145" s="9">
-        <v>1</v>
-      </c>
-      <c r="AK145" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C146" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D146" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E146" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F146" s="20"/>
-      <c r="G146" s="9">
-        <v>0</v>
-      </c>
-      <c r="H146" s="20"/>
-      <c r="I146" s="9">
-        <v>1</v>
-      </c>
-      <c r="J146" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K146" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L146" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M146" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N146" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O146" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P146" s="13"/>
-      <c r="Q146" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R146" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S146" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T146" s="13"/>
-      <c r="U146" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V146" s="13"/>
-      <c r="W146" s="9">
-        <v>1</v>
-      </c>
-      <c r="X146" s="13"/>
-      <c r="Y146" s="9">
-        <v>1</v>
-      </c>
-      <c r="Z146" s="13"/>
-      <c r="AA146" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB146" s="13"/>
-      <c r="AC146" s="9">
-        <v>1</v>
-      </c>
-      <c r="AD146" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE146" s="13"/>
-      <c r="AF146" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG146" s="13"/>
-      <c r="AH146" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI146" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ146" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK146" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI146" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ146" s="35">
+        <v>1</v>
+      </c>
+      <c r="AK146" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="9"/>
       <c r="C147" s="40"/>
@@ -13508,34 +13484,34 @@
       <c r="AJ147" s="9"/>
       <c r="AK147" s="9"/>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="42" t="s">
+      <c r="B148" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C148" s="42"/>
-      <c r="D148" s="42"/>
-      <c r="E148" s="42"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="43"/>
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
-      <c r="I148" s="43" t="s">
+      <c r="I148" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J148" s="43"/>
-      <c r="K148" s="43"/>
-      <c r="L148" s="43"/>
-      <c r="M148" s="43"/>
-      <c r="N148" s="43"/>
-      <c r="O148" s="43"/>
+      <c r="J148" s="44"/>
+      <c r="K148" s="44"/>
+      <c r="L148" s="44"/>
+      <c r="M148" s="44"/>
+      <c r="N148" s="44"/>
+      <c r="O148" s="44"/>
       <c r="P148" s="13"/>
-      <c r="Q148" s="42" t="s">
+      <c r="Q148" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R148" s="42"/>
-      <c r="S148" s="42"/>
+      <c r="R148" s="43"/>
+      <c r="S148" s="43"/>
       <c r="T148" s="13"/>
       <c r="U148" s="7" t="s">
         <v>67</v>
@@ -13552,23 +13528,23 @@
         <v>70</v>
       </c>
       <c r="AB148" s="13"/>
-      <c r="AC148" s="43" t="s">
+      <c r="AC148" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD148" s="43"/>
+      <c r="AD148" s="44"/>
       <c r="AE148" s="23"/>
       <c r="AF148" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG148" s="13"/>
-      <c r="AH148" s="43" t="s">
+      <c r="AH148" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI148" s="43"/>
-      <c r="AJ148" s="43"/>
-      <c r="AK148" s="43"/>
-    </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI148" s="44"/>
+      <c r="AJ148" s="44"/>
+      <c r="AK148" s="44"/>
+    </row>
+    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>25</v>
       </c>
@@ -13608,7 +13584,7 @@
         <v>11</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P149" s="13"/>
       <c r="Q149" s="11" t="s">
@@ -13661,7 +13637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>92</v>
       </c>
@@ -13754,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="9"/>
       <c r="C151" s="40"/>
@@ -13793,34 +13769,34 @@
       <c r="AJ151" s="9"/>
       <c r="AK151" s="9"/>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="42" t="s">
+      <c r="B152" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C152" s="42"/>
-      <c r="D152" s="42"/>
-      <c r="E152" s="42"/>
+      <c r="C152" s="43"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="43" t="s">
+      <c r="I152" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J152" s="43"/>
-      <c r="K152" s="43"/>
-      <c r="L152" s="43"/>
-      <c r="M152" s="43"/>
-      <c r="N152" s="43"/>
-      <c r="O152" s="43"/>
+      <c r="J152" s="44"/>
+      <c r="K152" s="44"/>
+      <c r="L152" s="44"/>
+      <c r="M152" s="44"/>
+      <c r="N152" s="44"/>
+      <c r="O152" s="44"/>
       <c r="P152" s="13"/>
-      <c r="Q152" s="42" t="s">
+      <c r="Q152" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R152" s="42"/>
-      <c r="S152" s="42"/>
+      <c r="R152" s="43"/>
+      <c r="S152" s="43"/>
       <c r="T152" s="13"/>
       <c r="U152" s="7" t="s">
         <v>67</v>
@@ -13837,23 +13813,23 @@
         <v>70</v>
       </c>
       <c r="AB152" s="13"/>
-      <c r="AC152" s="43" t="s">
+      <c r="AC152" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD152" s="43"/>
+      <c r="AD152" s="44"/>
       <c r="AE152" s="23"/>
       <c r="AF152" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG152" s="13"/>
-      <c r="AH152" s="43" t="s">
+      <c r="AH152" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI152" s="43"/>
-      <c r="AJ152" s="43"/>
-      <c r="AK152" s="43"/>
-    </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI152" s="44"/>
+      <c r="AJ152" s="44"/>
+      <c r="AK152" s="44"/>
+    </row>
+    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>25</v>
       </c>
@@ -13893,7 +13869,7 @@
         <v>11</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P153" s="13"/>
       <c r="Q153" s="11" t="s">
@@ -13946,7 +13922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>93</v>
       </c>
@@ -14039,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="C155" s="40"/>
       <c r="D155" s="9"/>
@@ -14077,34 +14053,34 @@
       <c r="AJ155" s="9"/>
       <c r="AK155" s="9"/>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B156" s="42" t="s">
+      <c r="B156" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C156" s="42"/>
-      <c r="D156" s="42"/>
-      <c r="E156" s="42"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="43"/>
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
-      <c r="I156" s="43" t="s">
+      <c r="I156" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J156" s="43"/>
-      <c r="K156" s="43"/>
-      <c r="L156" s="43"/>
-      <c r="M156" s="43"/>
-      <c r="N156" s="43"/>
-      <c r="O156" s="43"/>
+      <c r="J156" s="44"/>
+      <c r="K156" s="44"/>
+      <c r="L156" s="44"/>
+      <c r="M156" s="44"/>
+      <c r="N156" s="44"/>
+      <c r="O156" s="44"/>
       <c r="P156" s="13"/>
-      <c r="Q156" s="42" t="s">
+      <c r="Q156" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R156" s="42"/>
-      <c r="S156" s="42"/>
+      <c r="R156" s="43"/>
+      <c r="S156" s="43"/>
       <c r="T156" s="13"/>
       <c r="U156" s="7" t="s">
         <v>67</v>
@@ -14121,23 +14097,23 @@
         <v>70</v>
       </c>
       <c r="AB156" s="13"/>
-      <c r="AC156" s="43" t="s">
+      <c r="AC156" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD156" s="43"/>
+      <c r="AD156" s="44"/>
       <c r="AE156" s="23"/>
       <c r="AF156" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG156" s="13"/>
-      <c r="AH156" s="43" t="s">
+      <c r="AH156" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI156" s="43"/>
-      <c r="AJ156" s="43"/>
-      <c r="AK156" s="43"/>
-    </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI156" s="44"/>
+      <c r="AJ156" s="44"/>
+      <c r="AK156" s="44"/>
+    </row>
+    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>25</v>
       </c>
@@ -14177,7 +14153,7 @@
         <v>11</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P157" s="13"/>
       <c r="Q157" s="11" t="s">
@@ -14230,7 +14206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A158" s="27">
         <v>94</v>
       </c>
@@ -14275,7 +14251,7 @@
       <c r="AJ158" s="25"/>
       <c r="AK158" s="25"/>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="9"/>
       <c r="C159" s="40"/>
@@ -14314,34 +14290,34 @@
       <c r="AJ159" s="9"/>
       <c r="AK159" s="9"/>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B160" s="42" t="s">
+      <c r="B160" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C160" s="42"/>
-      <c r="D160" s="42"/>
-      <c r="E160" s="42"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
-      <c r="I160" s="43" t="s">
+      <c r="I160" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="J160" s="43"/>
-      <c r="K160" s="43"/>
-      <c r="L160" s="43"/>
-      <c r="M160" s="43"/>
-      <c r="N160" s="43"/>
-      <c r="O160" s="43"/>
+      <c r="J160" s="44"/>
+      <c r="K160" s="44"/>
+      <c r="L160" s="44"/>
+      <c r="M160" s="44"/>
+      <c r="N160" s="44"/>
+      <c r="O160" s="44"/>
       <c r="P160" s="13"/>
-      <c r="Q160" s="42" t="s">
+      <c r="Q160" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="R160" s="42"/>
-      <c r="S160" s="42"/>
+      <c r="R160" s="43"/>
+      <c r="S160" s="43"/>
       <c r="T160" s="13"/>
       <c r="U160" s="7" t="s">
         <v>67</v>
@@ -14358,23 +14334,23 @@
         <v>70</v>
       </c>
       <c r="AB160" s="13"/>
-      <c r="AC160" s="43" t="s">
+      <c r="AC160" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="AD160" s="43"/>
+      <c r="AD160" s="44"/>
       <c r="AE160" s="23"/>
       <c r="AF160" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AG160" s="13"/>
-      <c r="AH160" s="43" t="s">
+      <c r="AH160" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AI160" s="43"/>
-      <c r="AJ160" s="43"/>
-      <c r="AK160" s="43"/>
-    </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI160" s="44"/>
+      <c r="AJ160" s="44"/>
+      <c r="AK160" s="44"/>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>25</v>
       </c>
@@ -14414,7 +14390,7 @@
         <v>11</v>
       </c>
       <c r="O161" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P161" s="13"/>
       <c r="Q161" s="11" t="s">
@@ -14467,7 +14443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A162" s="27">
         <v>95</v>
       </c>
@@ -14512,7 +14488,7 @@
       <c r="AJ162" s="25"/>
       <c r="AK162" s="25"/>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="9"/>
       <c r="C163" s="40"/>
@@ -14552,167 +14528,179 @@
       <c r="AK163" s="9"/>
       <c r="AL163" s="8"/>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL164" s="8"/>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL165" s="8"/>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL166" s="8"/>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
       <c r="AL167" s="8"/>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL168" s="8"/>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL169" s="8"/>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL170" s="8"/>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL171" s="8"/>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL172" s="8"/>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL173" s="8"/>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL174" s="8"/>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL175" s="8"/>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AL176" s="8"/>
     </row>
-    <row r="177" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL177" s="8"/>
     </row>
-    <row r="178" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL178" s="8"/>
     </row>
-    <row r="179" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL179" s="8"/>
     </row>
-    <row r="180" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL180" s="8"/>
     </row>
-    <row r="181" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL181" s="8"/>
     </row>
-    <row r="182" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL182" s="8"/>
     </row>
-    <row r="183" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL183" s="8"/>
     </row>
-    <row r="184" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL184" s="8"/>
     </row>
-    <row r="185" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL185" s="8"/>
     </row>
-    <row r="186" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL186" s="8"/>
     </row>
-    <row r="187" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL187" s="8"/>
     </row>
-    <row r="188" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL188" s="8"/>
     </row>
-    <row r="189" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL189" s="8"/>
     </row>
-    <row r="190" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL190" s="8"/>
     </row>
-    <row r="191" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL191" s="8"/>
     </row>
-    <row r="192" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL192" s="8"/>
     </row>
-    <row r="193" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL193" s="8"/>
     </row>
-    <row r="194" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL194" s="8"/>
     </row>
-    <row r="195" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL195" s="8"/>
     </row>
-    <row r="196" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL196" s="8"/>
     </row>
-    <row r="197" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL197" s="8"/>
     </row>
-    <row r="198" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL198" s="8"/>
     </row>
-    <row r="199" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL199" s="8"/>
     </row>
-    <row r="200" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL200" s="8"/>
     </row>
-    <row r="201" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL201" s="8"/>
     </row>
-    <row r="202" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL202" s="8"/>
     </row>
-    <row r="203" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL203" s="8"/>
     </row>
-    <row r="204" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL204" s="8"/>
     </row>
-    <row r="205" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL205" s="8"/>
     </row>
-    <row r="206" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL206" s="8"/>
     </row>
-    <row r="207" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL207" s="8"/>
     </row>
-    <row r="208" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL208" s="8"/>
     </row>
-    <row r="209" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL209" s="8"/>
     </row>
-    <row r="210" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL210" s="8"/>
     </row>
-    <row r="211" spans="38:38" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="38:38" x14ac:dyDescent="0.25">
       <c r="AL211" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="I81:O81"/>
-    <mergeCell ref="I113:O113"/>
-    <mergeCell ref="I131:O131"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="Q131:S131"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="AC160:AD160"/>
+    <mergeCell ref="AH160:AK160"/>
+    <mergeCell ref="I160:O160"/>
+    <mergeCell ref="Q160:S160"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="AC156:AD156"/>
+    <mergeCell ref="AH156:AK156"/>
+    <mergeCell ref="I156:O156"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="AC113:AD113"/>
+    <mergeCell ref="Q148:S148"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AH131:AK131"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC11:AD11"/>
     <mergeCell ref="AC152:AD152"/>
     <mergeCell ref="D47:AI47"/>
     <mergeCell ref="AC49:AD49"/>
@@ -14729,32 +14717,20 @@
     <mergeCell ref="AH81:AK81"/>
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="AC113:AD113"/>
-    <mergeCell ref="Q148:S148"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AH131:AK131"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="AC156:AD156"/>
-    <mergeCell ref="AH156:AK156"/>
-    <mergeCell ref="I156:O156"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="AC160:AD160"/>
-    <mergeCell ref="AH160:AK160"/>
-    <mergeCell ref="I160:O160"/>
-    <mergeCell ref="Q160:S160"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="Q131:S131"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="I81:O81"/>
+    <mergeCell ref="I113:O113"/>
+    <mergeCell ref="I131:O131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Documents\armverilogimplementation\ArquiProjecto\Phase2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Arqui\gitrepository\armverilogimplementation\ArquiProjecto\Phase2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="198">
   <si>
     <t>BRANCH</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>00011</t>
   </si>
   <si>
     <t>00001</t>
@@ -757,9 +754,6 @@
     <t>Store W &amp; B</t>
   </si>
   <si>
-    <t>EA=Rn+offset_12 - 36</t>
-  </si>
-  <si>
     <t>0000 0001</t>
   </si>
   <si>
@@ -787,9 +781,6 @@
     <t>EA=Rn - 66</t>
   </si>
   <si>
-    <t>PL7-PL0</t>
-  </si>
-  <si>
     <t>S12</t>
   </si>
   <si>
@@ -883,9 +874,6 @@
     <t>Rn=Rn-Rm - 69</t>
   </si>
   <si>
-    <t>EA=Rn+offset_8 - 72</t>
-  </si>
-  <si>
     <t>EA=Rn-offset_8 - 73</t>
   </si>
   <si>
@@ -974,13 +962,37 @@
   </si>
   <si>
     <t>mfc wait - 91</t>
+  </si>
+  <si>
+    <t>PL6-PL0</t>
+  </si>
+  <si>
+    <t>xxx xxxx</t>
+  </si>
+  <si>
+    <t>000 0011</t>
+  </si>
+  <si>
+    <t>000 0001</t>
+  </si>
+  <si>
+    <t>go to fetch again? - 72</t>
+  </si>
+  <si>
+    <t>go to fetch again? - 92</t>
+  </si>
+  <si>
+    <t>EA=Rn+offset_8 - 95</t>
+  </si>
+  <si>
+    <t>EA=Rn+offset_12 - 96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,6 +1026,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1099,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1209,6 +1227,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1221,7 +1242,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1509,8 +1530,8 @@
   </sheetPr>
   <dimension ref="A1:AQ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,61 +1568,61 @@
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="I2" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
+      <c r="Q2" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
       <c r="T2" s="13"/>
       <c r="U2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X2" s="13"/>
       <c r="Y2" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z2" s="13"/>
       <c r="AA2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD2" s="44"/>
+      <c r="AD2" s="45"/>
       <c r="AE2" s="23"/>
       <c r="AF2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1617,47 +1638,47 @@
         <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V3" s="13"/>
       <c r="W3" s="11" t="s">
@@ -1680,11 +1701,11 @@
       </c>
       <c r="AE3" s="13"/>
       <c r="AF3" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AG3" s="13"/>
       <c r="AH3" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI3" s="11" t="s">
         <v>17</v>
@@ -1710,7 +1731,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="9">
@@ -1740,7 +1761,7 @@
       </c>
       <c r="P4" s="36"/>
       <c r="Q4" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" s="35" t="s">
         <v>27</v>
@@ -1803,7 +1824,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="9">
@@ -1833,7 +1854,7 @@
       </c>
       <c r="P5" s="36"/>
       <c r="Q5" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R5" s="35">
         <v>1101</v>
@@ -1884,7 +1905,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>28</v>
@@ -1896,7 +1917,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="9">
@@ -1913,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>28</v>
@@ -1990,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="9">
@@ -2020,7 +2041,7 @@
       </c>
       <c r="P7" s="36"/>
       <c r="Q7" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R7" s="35" t="s">
         <v>27</v>
@@ -2057,10 +2078,10 @@
       </c>
       <c r="AG7" s="36"/>
       <c r="AH7" s="37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AI7" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ7" s="35">
         <v>0</v>
@@ -2083,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="9">
@@ -2113,7 +2134,7 @@
       </c>
       <c r="P8" s="36"/>
       <c r="Q8" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R8" s="35" t="s">
         <v>27</v>
@@ -2249,23 +2270,23 @@
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="8"/>
@@ -2275,75 +2296,75 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
       <c r="AE11" s="23"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+        <v>85</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
+      <c r="I12" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
+      <c r="Q12" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
       <c r="T12" s="13"/>
       <c r="U12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W12" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z12" s="13"/>
       <c r="AA12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD12" s="44"/>
+      <c r="AD12" s="45"/>
       <c r="AE12" s="23"/>
       <c r="AF12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2359,74 +2380,74 @@
         <v>20</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P13" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P13" s="43"/>
       <c r="Q13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T13" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T13" s="43"/>
       <c r="U13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V13" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V13" s="43"/>
       <c r="W13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X13" s="13"/>
+      <c r="X13" s="43"/>
       <c r="Y13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z13" s="13"/>
+      <c r="Z13" s="43"/>
       <c r="AA13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB13" s="13"/>
+      <c r="AB13" s="43"/>
       <c r="AC13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE13" s="13"/>
+      <c r="AE13" s="43"/>
       <c r="AF13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG13" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG13" s="43"/>
       <c r="AH13" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI13" s="11" t="s">
         <v>17</v>
@@ -2437,11 +2458,6 @@
       <c r="AK13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
     </row>
     <row r="14" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
@@ -2484,19 +2500,19 @@
     </row>
     <row r="15" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="15">
@@ -2526,7 +2542,7 @@
       </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R15" s="32" t="s">
         <v>46</v>
@@ -2577,19 +2593,19 @@
     </row>
     <row r="16" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="14">
@@ -2619,7 +2635,7 @@
       </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R16" s="32" t="s">
         <v>46</v>
@@ -2670,19 +2686,19 @@
     </row>
     <row r="17" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="15">
@@ -2712,7 +2728,7 @@
       </c>
       <c r="P17" s="29"/>
       <c r="Q17" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R17" s="32" t="s">
         <v>45</v>
@@ -2763,19 +2779,19 @@
     </row>
     <row r="18" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>122</v>
+      <c r="E18" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="14">
@@ -2805,7 +2821,7 @@
       </c>
       <c r="P18" s="29"/>
       <c r="Q18" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R18" s="32" t="s">
         <v>45</v>
@@ -2856,19 +2872,19 @@
     </row>
     <row r="19" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="15">
@@ -2898,7 +2914,7 @@
       </c>
       <c r="P19" s="29"/>
       <c r="Q19" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R19" s="32" t="s">
         <v>44</v>
@@ -2949,19 +2965,19 @@
     </row>
     <row r="20" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>122</v>
+      <c r="E20" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="14">
@@ -2991,7 +3007,7 @@
       </c>
       <c r="P20" s="29"/>
       <c r="Q20" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R20" s="32" t="s">
         <v>44</v>
@@ -3042,19 +3058,19 @@
     </row>
     <row r="21" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="15">
@@ -3084,7 +3100,7 @@
       </c>
       <c r="P21" s="29"/>
       <c r="Q21" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R21" s="32" t="s">
         <v>42</v>
@@ -3135,19 +3151,19 @@
     </row>
     <row r="22" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>122</v>
+      <c r="E22" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="14">
@@ -3177,7 +3193,7 @@
       </c>
       <c r="P22" s="29"/>
       <c r="Q22" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R22" s="32" t="s">
         <v>42</v>
@@ -3228,19 +3244,19 @@
     </row>
     <row r="23" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="15">
@@ -3270,7 +3286,7 @@
       </c>
       <c r="P23" s="29"/>
       <c r="Q23" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R23" s="32" t="s">
         <v>43</v>
@@ -3321,19 +3337,19 @@
     </row>
     <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>122</v>
+      <c r="E24" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="14">
@@ -3363,7 +3379,7 @@
       </c>
       <c r="P24" s="29"/>
       <c r="Q24" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R24" s="32" t="s">
         <v>43</v>
@@ -3414,19 +3430,19 @@
     </row>
     <row r="25" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="15">
@@ -3456,7 +3472,7 @@
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R25" s="32" t="s">
         <v>47</v>
@@ -3507,19 +3523,19 @@
     </row>
     <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>122</v>
+      <c r="E26" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="14">
@@ -3549,7 +3565,7 @@
       </c>
       <c r="P26" s="29"/>
       <c r="Q26" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R26" s="32" t="s">
         <v>47</v>
@@ -3600,19 +3616,19 @@
     </row>
     <row r="27" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="15">
@@ -3642,7 +3658,7 @@
       </c>
       <c r="P27" s="29"/>
       <c r="Q27" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R27" s="32" t="s">
         <v>48</v>
@@ -3693,19 +3709,19 @@
     </row>
     <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>122</v>
+      <c r="E28" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="14">
@@ -3735,7 +3751,7 @@
       </c>
       <c r="P28" s="29"/>
       <c r="Q28" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R28" s="32" t="s">
         <v>48</v>
@@ -3786,19 +3802,19 @@
     </row>
     <row r="29" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="15">
@@ -3828,7 +3844,7 @@
       </c>
       <c r="P29" s="29"/>
       <c r="Q29" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R29" s="32" t="s">
         <v>49</v>
@@ -3879,19 +3895,19 @@
     </row>
     <row r="30" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>122</v>
+      <c r="E30" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="14">
@@ -3921,7 +3937,7 @@
       </c>
       <c r="P30" s="29"/>
       <c r="Q30" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R30" s="32" t="s">
         <v>49</v>
@@ -3972,19 +3988,19 @@
     </row>
     <row r="31" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="15">
@@ -4014,7 +4030,7 @@
       </c>
       <c r="P31" s="29"/>
       <c r="Q31" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R31" s="32" t="s">
         <v>50</v>
@@ -4065,19 +4081,19 @@
     </row>
     <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>122</v>
+      <c r="E32" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="14">
@@ -4107,7 +4123,7 @@
       </c>
       <c r="P32" s="29"/>
       <c r="Q32" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R32" s="32" t="s">
         <v>50</v>
@@ -4158,19 +4174,19 @@
     </row>
     <row r="33" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="15">
@@ -4200,7 +4216,7 @@
       </c>
       <c r="P33" s="29"/>
       <c r="Q33" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R33" s="32" t="s">
         <v>51</v>
@@ -4251,19 +4267,19 @@
     </row>
     <row r="34" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>122</v>
+      <c r="E34" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="14">
@@ -4293,7 +4309,7 @@
       </c>
       <c r="P34" s="29"/>
       <c r="Q34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R34" s="32" t="s">
         <v>51</v>
@@ -4344,19 +4360,19 @@
     </row>
     <row r="35" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="15">
@@ -4386,7 +4402,7 @@
       </c>
       <c r="P35" s="29"/>
       <c r="Q35" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R35" s="32" t="s">
         <v>52</v>
@@ -4437,19 +4453,19 @@
     </row>
     <row r="36" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>122</v>
+      <c r="E36" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="14">
@@ -4479,7 +4495,7 @@
       </c>
       <c r="P36" s="29"/>
       <c r="Q36" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R36" s="32" t="s">
         <v>52</v>
@@ -4530,19 +4546,19 @@
     </row>
     <row r="37" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="15">
@@ -4572,7 +4588,7 @@
       </c>
       <c r="P37" s="29"/>
       <c r="Q37" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R37" s="32" t="s">
         <v>53</v>
@@ -4623,19 +4639,19 @@
     </row>
     <row r="38" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="33" t="s">
-        <v>122</v>
+      <c r="E38" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="14">
@@ -4665,7 +4681,7 @@
       </c>
       <c r="P38" s="29"/>
       <c r="Q38" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R38" s="32" t="s">
         <v>53</v>
@@ -4716,19 +4732,19 @@
     </row>
     <row r="39" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="15">
@@ -4758,7 +4774,7 @@
       </c>
       <c r="P39" s="29"/>
       <c r="Q39" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R39" s="32" t="s">
         <v>54</v>
@@ -4809,19 +4825,19 @@
     </row>
     <row r="40" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>122</v>
+      <c r="E40" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="14">
@@ -4851,7 +4867,7 @@
       </c>
       <c r="P40" s="29"/>
       <c r="Q40" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R40" s="32" t="s">
         <v>54</v>
@@ -4902,19 +4918,19 @@
     </row>
     <row r="41" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="15">
@@ -4944,7 +4960,7 @@
       </c>
       <c r="P41" s="29"/>
       <c r="Q41" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R41" s="32" t="s">
         <v>55</v>
@@ -4995,19 +5011,19 @@
     </row>
     <row r="42" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>122</v>
+      <c r="E42" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="14">
@@ -5037,7 +5053,7 @@
       </c>
       <c r="P42" s="29"/>
       <c r="Q42" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R42" s="32" t="s">
         <v>55</v>
@@ -5088,19 +5104,19 @@
     </row>
     <row r="43" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="15">
@@ -5130,7 +5146,7 @@
       </c>
       <c r="P43" s="29"/>
       <c r="Q43" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R43" s="32" t="s">
         <v>56</v>
@@ -5181,19 +5197,19 @@
     </row>
     <row r="44" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="33" t="s">
-        <v>122</v>
+      <c r="E44" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="14">
@@ -5223,7 +5239,7 @@
       </c>
       <c r="P44" s="29"/>
       <c r="Q44" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R44" s="32" t="s">
         <v>56</v>
@@ -5274,19 +5290,19 @@
     </row>
     <row r="45" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="15">
@@ -5316,7 +5332,7 @@
       </c>
       <c r="P45" s="29"/>
       <c r="Q45" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R45" s="32" t="s">
         <v>57</v>
@@ -5367,19 +5383,19 @@
     </row>
     <row r="46" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="33" t="s">
-        <v>122</v>
+      <c r="E46" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="14">
@@ -5409,7 +5425,7 @@
       </c>
       <c r="P46" s="29"/>
       <c r="Q46" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R46" s="32" t="s">
         <v>57</v>
@@ -5462,40 +5478,40 @@
       <c r="A47" s="16"/>
       <c r="B47" s="13"/>
       <c r="C47" s="40"/>
-      <c r="D47" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="46"/>
-      <c r="AB47" s="46"/>
-      <c r="AC47" s="46"/>
-      <c r="AD47" s="46"/>
-      <c r="AE47" s="46"/>
-      <c r="AF47" s="46"/>
-      <c r="AG47" s="46"/>
-      <c r="AH47" s="46"/>
-      <c r="AI47" s="46"/>
+      <c r="D47" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="47"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="47"/>
       <c r="AJ47" s="13"/>
       <c r="AK47" s="13"/>
       <c r="AL47"/>
@@ -5506,7 +5522,7 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="40"/>
@@ -5549,61 +5565,61 @@
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
+      <c r="B49" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
+      <c r="I49" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
       <c r="P49" s="13"/>
-      <c r="Q49" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
+      <c r="Q49" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
       <c r="T49" s="13"/>
       <c r="U49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W49" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W49" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z49" s="13"/>
       <c r="AA49" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD49" s="44"/>
+      <c r="AD49" s="45"/>
       <c r="AE49" s="23"/>
       <c r="AF49" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI49" s="44"/>
-      <c r="AJ49" s="44"/>
-      <c r="AK49" s="44"/>
+      <c r="AI49" s="45"/>
+      <c r="AJ49" s="45"/>
+      <c r="AK49" s="45"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -5619,74 +5635,74 @@
         <v>20</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="40"/>
+        <v>190</v>
+      </c>
+      <c r="F50" s="20"/>
       <c r="G50" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P50" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P50" s="43"/>
       <c r="Q50" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T50" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T50" s="43"/>
       <c r="U50" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V50" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V50" s="43"/>
       <c r="W50" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X50" s="13"/>
+      <c r="X50" s="43"/>
       <c r="Y50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z50" s="13"/>
+      <c r="Z50" s="43"/>
       <c r="AA50" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB50" s="13"/>
+      <c r="AB50" s="43"/>
       <c r="AC50" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE50" s="13"/>
+      <c r="AE50" s="43"/>
       <c r="AF50" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG50" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG50" s="43"/>
       <c r="AH50" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI50" s="11" t="s">
         <v>17</v>
@@ -5700,19 +5716,19 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="9">
@@ -5793,19 +5809,19 @@
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="9">
@@ -5939,74 +5955,74 @@
         <v>20</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N54" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P54" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P54" s="43"/>
       <c r="Q54" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R54" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S54" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T54" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T54" s="43"/>
       <c r="U54" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V54" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V54" s="43"/>
       <c r="W54" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X54" s="13"/>
+      <c r="X54" s="43"/>
       <c r="Y54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z54" s="13"/>
+      <c r="Z54" s="43"/>
       <c r="AA54" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB54" s="13"/>
+      <c r="AB54" s="43"/>
       <c r="AC54" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE54" s="13"/>
+      <c r="AE54" s="43"/>
       <c r="AF54" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG54" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG54" s="43"/>
       <c r="AH54" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI54" s="11" t="s">
         <v>17</v>
@@ -6020,19 +6036,19 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="9">
@@ -6052,7 +6068,7 @@
         <v>27</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N55" s="9" t="s">
         <v>27</v>
@@ -6062,7 +6078,7 @@
       </c>
       <c r="P55" s="13"/>
       <c r="Q55" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R55" s="17" t="s">
         <v>43</v>
@@ -6113,19 +6129,19 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="9">
@@ -6145,7 +6161,7 @@
         <v>27</v>
       </c>
       <c r="M56" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N56" s="9" t="s">
         <v>27</v>
@@ -6155,7 +6171,7 @@
       </c>
       <c r="P56" s="13"/>
       <c r="Q56" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R56" s="17" t="s">
         <v>44</v>
@@ -6259,74 +6275,74 @@
         <v>20</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L58" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N58" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P58" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P58" s="43"/>
       <c r="Q58" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R58" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T58" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T58" s="43"/>
       <c r="U58" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V58" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V58" s="43"/>
       <c r="W58" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X58" s="13"/>
+      <c r="X58" s="43"/>
       <c r="Y58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z58" s="13"/>
+      <c r="Z58" s="43"/>
       <c r="AA58" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB58" s="13"/>
+      <c r="AB58" s="43"/>
       <c r="AC58" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD58" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE58" s="13"/>
+      <c r="AE58" s="43"/>
       <c r="AF58" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG58" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG58" s="43"/>
       <c r="AH58" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI58" s="11" t="s">
         <v>17</v>
@@ -6340,19 +6356,19 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="9">
@@ -6433,19 +6449,19 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="9">
@@ -6579,74 +6595,74 @@
         <v>20</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L62" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N62" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P62" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P62" s="43"/>
       <c r="Q62" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R62" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S62" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T62" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T62" s="43"/>
       <c r="U62" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V62" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V62" s="43"/>
       <c r="W62" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X62" s="13"/>
+      <c r="X62" s="43"/>
       <c r="Y62" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z62" s="13"/>
+      <c r="Z62" s="43"/>
       <c r="AA62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB62" s="13"/>
+      <c r="AB62" s="43"/>
       <c r="AC62" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD62" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE62" s="13"/>
+      <c r="AE62" s="43"/>
       <c r="AF62" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG62" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG62" s="43"/>
       <c r="AH62" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI62" s="11" t="s">
         <v>17</v>
@@ -6660,19 +6676,19 @@
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="9">
@@ -6692,7 +6708,7 @@
         <v>27</v>
       </c>
       <c r="M63" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N63" s="35" t="s">
         <v>27</v>
@@ -6702,7 +6718,7 @@
       </c>
       <c r="P63" s="36"/>
       <c r="Q63" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R63" s="37" t="s">
         <v>43</v>
@@ -6753,19 +6769,19 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="9">
@@ -6785,7 +6801,7 @@
         <v>27</v>
       </c>
       <c r="M64" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N64" s="35" t="s">
         <v>27</v>
@@ -6795,7 +6811,7 @@
       </c>
       <c r="P64" s="36"/>
       <c r="Q64" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R64" s="37" t="s">
         <v>44</v>
@@ -6899,74 +6915,74 @@
         <v>20</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H66" s="20"/>
       <c r="I66" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N66" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P66" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P66" s="43"/>
       <c r="Q66" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R66" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S66" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T66" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T66" s="43"/>
       <c r="U66" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V66" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V66" s="43"/>
       <c r="W66" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X66" s="13"/>
+      <c r="X66" s="43"/>
       <c r="Y66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z66" s="13"/>
+      <c r="Z66" s="43"/>
       <c r="AA66" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB66" s="13"/>
+      <c r="AB66" s="43"/>
       <c r="AC66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD66" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE66" s="13"/>
+      <c r="AE66" s="43"/>
       <c r="AF66" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG66" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG66" s="43"/>
       <c r="AH66" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI66" s="11" t="s">
         <v>17</v>
@@ -6980,7 +6996,7 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>28</v>
@@ -6992,7 +7008,7 @@
         <v>29</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="9">
@@ -7073,7 +7089,7 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>28</v>
@@ -7085,7 +7101,7 @@
         <v>29</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="9">
@@ -7166,19 +7182,19 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D69" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="9">
@@ -7259,19 +7275,19 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="9">
@@ -7405,74 +7421,74 @@
         <v>20</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J72" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L72" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P72" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P72" s="43"/>
       <c r="Q72" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R72" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S72" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T72" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T72" s="43"/>
       <c r="U72" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V72" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V72" s="43"/>
       <c r="W72" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X72" s="13"/>
+      <c r="X72" s="43"/>
       <c r="Y72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z72" s="13"/>
+      <c r="Z72" s="43"/>
       <c r="AA72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB72" s="13"/>
+      <c r="AB72" s="43"/>
       <c r="AC72" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD72" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE72" s="13"/>
+      <c r="AE72" s="43"/>
       <c r="AF72" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG72" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG72" s="43"/>
       <c r="AH72" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI72" s="11" t="s">
         <v>17</v>
@@ -7486,7 +7502,7 @@
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>28</v>
@@ -7498,7 +7514,7 @@
         <v>29</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="9">
@@ -7579,7 +7595,7 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>28</v>
@@ -7591,7 +7607,7 @@
         <v>29</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="9">
@@ -7672,19 +7688,19 @@
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="9">
@@ -7704,7 +7720,7 @@
         <v>27</v>
       </c>
       <c r="M75" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N75" s="35" t="s">
         <v>27</v>
@@ -7714,7 +7730,7 @@
       </c>
       <c r="P75" s="36"/>
       <c r="Q75" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R75" s="37" t="s">
         <v>43</v>
@@ -7765,7 +7781,7 @@
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>28</v>
@@ -7777,7 +7793,7 @@
         <v>29</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="9">
@@ -7797,7 +7813,7 @@
         <v>27</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N76" s="35" t="s">
         <v>27</v>
@@ -7807,7 +7823,7 @@
       </c>
       <c r="P76" s="36"/>
       <c r="Q76" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R76" s="37" t="s">
         <v>44</v>
@@ -7858,7 +7874,7 @@
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>21</v>
@@ -7870,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="9">
@@ -7900,7 +7916,7 @@
       </c>
       <c r="P77" s="42"/>
       <c r="Q77" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R77" s="35" t="s">
         <v>27</v>
@@ -7937,7 +7953,7 @@
       </c>
       <c r="AG77" s="42"/>
       <c r="AH77" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AI77" s="35" t="s">
         <v>28</v>
@@ -7951,19 +7967,19 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="34" t="s">
-        <v>122</v>
+      <c r="E78" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="9">
@@ -7993,7 +8009,7 @@
       </c>
       <c r="P78" s="42"/>
       <c r="Q78" s="37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R78" s="35">
         <v>1101</v>
@@ -8083,7 +8099,7 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="40"/>
@@ -8126,61 +8142,61 @@
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J81" s="44"/>
-      <c r="K81" s="44"/>
-      <c r="L81" s="44"/>
-      <c r="M81" s="44"/>
-      <c r="N81" s="44"/>
-      <c r="O81" s="44"/>
+      <c r="I81" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="45"/>
       <c r="P81" s="13"/>
-      <c r="Q81" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
+      <c r="Q81" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R81" s="44"/>
+      <c r="S81" s="44"/>
       <c r="T81" s="13"/>
       <c r="U81" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W81" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W81" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z81" s="13"/>
       <c r="AA81" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB81" s="13"/>
+      <c r="AC81" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB81" s="13"/>
-      <c r="AC81" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD81" s="44"/>
+      <c r="AD81" s="45"/>
       <c r="AE81" s="23"/>
       <c r="AF81" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG81" s="13"/>
+      <c r="AH81" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG81" s="13"/>
-      <c r="AH81" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI81" s="44"/>
-      <c r="AJ81" s="44"/>
-      <c r="AK81" s="44"/>
+      <c r="AI81" s="45"/>
+      <c r="AJ81" s="45"/>
+      <c r="AK81" s="45"/>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -8196,74 +8212,74 @@
         <v>20</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F82" s="41"/>
+        <v>190</v>
+      </c>
+      <c r="F82" s="20"/>
       <c r="G82" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H82" s="20"/>
       <c r="I82" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J82" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L82" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N82" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O82" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P82" s="41"/>
+        <v>178</v>
+      </c>
+      <c r="P82" s="43"/>
       <c r="Q82" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R82" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T82" s="41"/>
+        <v>129</v>
+      </c>
+      <c r="T82" s="43"/>
       <c r="U82" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V82" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="V82" s="43"/>
       <c r="W82" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X82" s="41"/>
+      <c r="X82" s="43"/>
       <c r="Y82" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z82" s="41"/>
+      <c r="Z82" s="43"/>
       <c r="AA82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB82" s="41"/>
+      <c r="AB82" s="43"/>
       <c r="AC82" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD82" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE82" s="41"/>
+      <c r="AE82" s="43"/>
       <c r="AF82" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG82" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="AG82" s="43"/>
       <c r="AH82" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI82" s="11" t="s">
         <v>17</v>
@@ -8277,19 +8293,19 @@
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B83" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="35">
@@ -8370,19 +8386,19 @@
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B84" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D84" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="35">
@@ -8516,74 +8532,74 @@
         <v>20</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H86" s="20"/>
       <c r="I86" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J86" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L86" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N86" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P86" s="41"/>
+        <v>178</v>
+      </c>
+      <c r="P86" s="43"/>
       <c r="Q86" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R86" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S86" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T86" s="41"/>
+        <v>129</v>
+      </c>
+      <c r="T86" s="43"/>
       <c r="U86" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V86" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="V86" s="43"/>
       <c r="W86" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X86" s="41"/>
+      <c r="X86" s="43"/>
       <c r="Y86" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z86" s="41"/>
+      <c r="Z86" s="43"/>
       <c r="AA86" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB86" s="41"/>
+      <c r="AB86" s="43"/>
       <c r="AC86" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD86" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE86" s="41"/>
+      <c r="AE86" s="43"/>
       <c r="AF86" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG86" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="AG86" s="43"/>
       <c r="AH86" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI86" s="11" t="s">
         <v>17</v>
@@ -8597,19 +8613,19 @@
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B87" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D87" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="35">
@@ -8629,7 +8645,7 @@
         <v>27</v>
       </c>
       <c r="M87" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N87" s="35" t="s">
         <v>27</v>
@@ -8639,7 +8655,7 @@
       </c>
       <c r="P87" s="41"/>
       <c r="Q87" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R87" s="37" t="s">
         <v>43</v>
@@ -8690,19 +8706,19 @@
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B88" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D88" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F88" s="20"/>
       <c r="G88" s="35">
@@ -8722,7 +8738,7 @@
         <v>27</v>
       </c>
       <c r="M88" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N88" s="35" t="s">
         <v>27</v>
@@ -8732,7 +8748,7 @@
       </c>
       <c r="P88" s="41"/>
       <c r="Q88" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R88" s="37" t="s">
         <v>44</v>
@@ -8836,74 +8852,74 @@
         <v>20</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H90" s="20"/>
       <c r="I90" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J90" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L90" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N90" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P90" s="41"/>
+        <v>178</v>
+      </c>
+      <c r="P90" s="43"/>
       <c r="Q90" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R90" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S90" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T90" s="41"/>
+        <v>129</v>
+      </c>
+      <c r="T90" s="43"/>
       <c r="U90" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V90" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="V90" s="43"/>
       <c r="W90" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X90" s="41"/>
+      <c r="X90" s="43"/>
       <c r="Y90" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z90" s="41"/>
+      <c r="Z90" s="43"/>
       <c r="AA90" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB90" s="41"/>
+      <c r="AB90" s="43"/>
       <c r="AC90" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD90" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE90" s="41"/>
+      <c r="AE90" s="43"/>
       <c r="AF90" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG90" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="AG90" s="43"/>
       <c r="AH90" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI90" s="11" t="s">
         <v>17</v>
@@ -8917,19 +8933,19 @@
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B91" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="35">
@@ -9010,19 +9026,19 @@
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B92" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D92" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="35">
@@ -9156,74 +9172,74 @@
         <v>20</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F94" s="20"/>
       <c r="G94" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H94" s="20"/>
       <c r="I94" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J94" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N94" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P94" s="41"/>
+        <v>178</v>
+      </c>
+      <c r="P94" s="43"/>
       <c r="Q94" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R94" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S94" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T94" s="41"/>
+        <v>129</v>
+      </c>
+      <c r="T94" s="43"/>
       <c r="U94" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V94" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="V94" s="43"/>
       <c r="W94" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X94" s="41"/>
+      <c r="X94" s="43"/>
       <c r="Y94" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z94" s="41"/>
+      <c r="Z94" s="43"/>
       <c r="AA94" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB94" s="41"/>
+      <c r="AB94" s="43"/>
       <c r="AC94" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD94" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE94" s="41"/>
+      <c r="AE94" s="43"/>
       <c r="AF94" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG94" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="AG94" s="43"/>
       <c r="AH94" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI94" s="11" t="s">
         <v>17</v>
@@ -9237,19 +9253,19 @@
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B95" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D95" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F95" s="20"/>
       <c r="G95" s="35">
@@ -9269,7 +9285,7 @@
         <v>27</v>
       </c>
       <c r="M95" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N95" s="35" t="s">
         <v>27</v>
@@ -9279,7 +9295,7 @@
       </c>
       <c r="P95" s="41"/>
       <c r="Q95" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R95" s="37" t="s">
         <v>43</v>
@@ -9330,19 +9346,19 @@
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B96" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D96" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F96" s="20"/>
       <c r="G96" s="35">
@@ -9362,7 +9378,7 @@
         <v>27</v>
       </c>
       <c r="M96" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N96" s="35" t="s">
         <v>27</v>
@@ -9372,7 +9388,7 @@
       </c>
       <c r="P96" s="41"/>
       <c r="Q96" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R96" s="37" t="s">
         <v>44</v>
@@ -9476,74 +9492,74 @@
         <v>20</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F98" s="20"/>
       <c r="G98" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H98" s="20"/>
       <c r="I98" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J98" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N98" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O98" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P98" s="41"/>
+        <v>178</v>
+      </c>
+      <c r="P98" s="43"/>
       <c r="Q98" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R98" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S98" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T98" s="41"/>
+        <v>129</v>
+      </c>
+      <c r="T98" s="43"/>
       <c r="U98" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V98" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="V98" s="43"/>
       <c r="W98" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X98" s="41"/>
+      <c r="X98" s="43"/>
       <c r="Y98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z98" s="41"/>
+      <c r="Z98" s="43"/>
       <c r="AA98" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB98" s="41"/>
+      <c r="AB98" s="43"/>
       <c r="AC98" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD98" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE98" s="41"/>
+      <c r="AE98" s="43"/>
       <c r="AF98" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG98" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="AG98" s="43"/>
       <c r="AH98" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI98" s="11" t="s">
         <v>17</v>
@@ -9557,7 +9573,7 @@
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B99" s="35" t="s">
         <v>28</v>
@@ -9569,7 +9585,7 @@
         <v>29</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="35">
@@ -9650,7 +9666,7 @@
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B100" s="35" t="s">
         <v>28</v>
@@ -9662,7 +9678,7 @@
         <v>29</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F100" s="20"/>
       <c r="G100" s="35">
@@ -9743,19 +9759,19 @@
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B101" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D101" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F101" s="20"/>
       <c r="G101" s="35">
@@ -9836,19 +9852,19 @@
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B102" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D102" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="35">
@@ -9982,74 +9998,74 @@
         <v>20</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H104" s="20"/>
       <c r="I104" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J104" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N104" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P104" s="41"/>
+        <v>178</v>
+      </c>
+      <c r="P104" s="43"/>
       <c r="Q104" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R104" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S104" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T104" s="41"/>
+        <v>129</v>
+      </c>
+      <c r="T104" s="43"/>
       <c r="U104" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V104" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="V104" s="43"/>
       <c r="W104" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X104" s="41"/>
+      <c r="X104" s="43"/>
       <c r="Y104" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z104" s="41"/>
+      <c r="Z104" s="43"/>
       <c r="AA104" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB104" s="41"/>
+      <c r="AB104" s="43"/>
       <c r="AC104" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD104" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE104" s="41"/>
+      <c r="AE104" s="43"/>
       <c r="AF104" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG104" s="41"/>
+        <v>135</v>
+      </c>
+      <c r="AG104" s="43"/>
       <c r="AH104" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI104" s="11" t="s">
         <v>17</v>
@@ -10063,7 +10079,7 @@
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B105" s="35" t="s">
         <v>28</v>
@@ -10075,7 +10091,7 @@
         <v>29</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="35">
@@ -10156,7 +10172,7 @@
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B106" s="35" t="s">
         <v>28</v>
@@ -10168,7 +10184,7 @@
         <v>29</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="35">
@@ -10249,19 +10265,19 @@
     </row>
     <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B107" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D107" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="35">
@@ -10281,7 +10297,7 @@
         <v>27</v>
       </c>
       <c r="M107" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N107" s="35" t="s">
         <v>27</v>
@@ -10291,7 +10307,7 @@
       </c>
       <c r="P107" s="41"/>
       <c r="Q107" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R107" s="37" t="s">
         <v>43</v>
@@ -10342,7 +10358,7 @@
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B108" s="35" t="s">
         <v>28</v>
@@ -10354,7 +10370,7 @@
         <v>29</v>
       </c>
       <c r="E108" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="35">
@@ -10374,7 +10390,7 @@
         <v>27</v>
       </c>
       <c r="M108" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N108" s="35" t="s">
         <v>27</v>
@@ -10384,7 +10400,7 @@
       </c>
       <c r="P108" s="41"/>
       <c r="Q108" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R108" s="37" t="s">
         <v>44</v>
@@ -10435,19 +10451,19 @@
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D109" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="9">
@@ -10514,7 +10530,7 @@
       </c>
       <c r="AG109" s="38"/>
       <c r="AH109" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AI109" s="35" t="s">
         <v>28</v>
@@ -10528,7 +10544,7 @@
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B110" s="35" t="s">
         <v>21</v>
@@ -10540,7 +10556,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F110" s="21"/>
       <c r="G110" s="9">
@@ -10570,7 +10586,7 @@
       </c>
       <c r="P110" s="38"/>
       <c r="Q110" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R110" s="35" t="s">
         <v>27</v>
@@ -10607,7 +10623,7 @@
       </c>
       <c r="AG110" s="38"/>
       <c r="AH110" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AI110" s="35" t="s">
         <v>28</v>
@@ -10620,7 +10636,95 @@
       </c>
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A111" s="47"/>
+      <c r="A111" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="G111" s="35">
+        <v>0</v>
+      </c>
+      <c r="I111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J111" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L111" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M111" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N111" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O111" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P111" s="43"/>
+      <c r="Q111" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="R111" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="S111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="T111" s="43"/>
+      <c r="U111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="V111" s="43"/>
+      <c r="W111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="X111" s="43"/>
+      <c r="Y111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z111" s="43"/>
+      <c r="AA111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB111" s="43"/>
+      <c r="AC111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE111" s="43"/>
+      <c r="AF111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG111" s="43"/>
+      <c r="AH111" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI111" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ111" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK111" s="35" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
@@ -10667,61 +10771,61 @@
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
+      <c r="B113" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
-      <c r="I113" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J113" s="44"/>
-      <c r="K113" s="44"/>
-      <c r="L113" s="44"/>
-      <c r="M113" s="44"/>
-      <c r="N113" s="44"/>
-      <c r="O113" s="44"/>
+      <c r="I113" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="45"/>
+      <c r="M113" s="45"/>
+      <c r="N113" s="45"/>
+      <c r="O113" s="45"/>
       <c r="P113" s="13"/>
-      <c r="Q113" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R113" s="43"/>
-      <c r="S113" s="43"/>
+      <c r="Q113" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R113" s="44"/>
+      <c r="S113" s="44"/>
       <c r="T113" s="13"/>
       <c r="U113" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W113" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W113" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z113" s="13"/>
       <c r="AA113" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB113" s="13"/>
+      <c r="AC113" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB113" s="13"/>
-      <c r="AC113" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD113" s="44"/>
+      <c r="AD113" s="45"/>
       <c r="AE113" s="23"/>
       <c r="AF113" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG113" s="13"/>
+      <c r="AH113" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG113" s="13"/>
-      <c r="AH113" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI113" s="44"/>
-      <c r="AJ113" s="44"/>
-      <c r="AK113" s="44"/>
+      <c r="AI113" s="45"/>
+      <c r="AJ113" s="45"/>
+      <c r="AK113" s="45"/>
     </row>
     <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
@@ -10737,74 +10841,74 @@
         <v>20</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H114" s="20"/>
       <c r="I114" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J114" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L114" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N114" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P114" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P114" s="43"/>
       <c r="Q114" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R114" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S114" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T114" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T114" s="43"/>
       <c r="U114" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V114" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V114" s="43"/>
       <c r="W114" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X114" s="13"/>
+      <c r="X114" s="43"/>
       <c r="Y114" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z114" s="13"/>
+      <c r="Z114" s="43"/>
       <c r="AA114" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB114" s="13"/>
+      <c r="AB114" s="43"/>
       <c r="AC114" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD114" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE114" s="13"/>
+      <c r="AE114" s="43"/>
       <c r="AF114" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG114" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG114" s="43"/>
       <c r="AH114" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI114" s="11" t="s">
         <v>17</v>
@@ -10818,19 +10922,19 @@
     </row>
     <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D115" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="9">
@@ -10911,19 +11015,19 @@
     </row>
     <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D116" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="9">
@@ -11057,74 +11161,74 @@
         <v>20</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H118" s="20"/>
       <c r="I118" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J118" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M118" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N118" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O118" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P118" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P118" s="43"/>
       <c r="Q118" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R118" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S118" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T118" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T118" s="43"/>
       <c r="U118" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V118" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V118" s="43"/>
       <c r="W118" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X118" s="13"/>
+      <c r="X118" s="43"/>
       <c r="Y118" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z118" s="13"/>
+      <c r="Z118" s="43"/>
       <c r="AA118" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB118" s="13"/>
+      <c r="AB118" s="43"/>
       <c r="AC118" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD118" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE118" s="13"/>
+      <c r="AE118" s="43"/>
       <c r="AF118" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG118" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG118" s="43"/>
       <c r="AH118" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI118" s="11" t="s">
         <v>17</v>
@@ -11138,19 +11242,19 @@
     </row>
     <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D119" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E119" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="9">
@@ -11176,7 +11280,7 @@
         <v>27</v>
       </c>
       <c r="O119" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P119" s="13"/>
       <c r="Q119" s="17">
@@ -11231,19 +11335,19 @@
     </row>
     <row r="120" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D120" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F120" s="20"/>
       <c r="G120" s="9">
@@ -11269,7 +11373,7 @@
         <v>27</v>
       </c>
       <c r="O120" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P120" s="13"/>
       <c r="Q120" s="17">
@@ -11377,74 +11481,74 @@
         <v>20</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H122" s="20"/>
       <c r="I122" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J122" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K122" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L122" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N122" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O122" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P122" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P122" s="43"/>
       <c r="Q122" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R122" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S122" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T122" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T122" s="43"/>
       <c r="U122" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V122" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V122" s="43"/>
       <c r="W122" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X122" s="13"/>
+      <c r="X122" s="43"/>
       <c r="Y122" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z122" s="13"/>
+      <c r="Z122" s="43"/>
       <c r="AA122" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB122" s="13"/>
+      <c r="AB122" s="43"/>
       <c r="AC122" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD122" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE122" s="13"/>
+      <c r="AE122" s="43"/>
       <c r="AF122" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG122" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG122" s="43"/>
       <c r="AH122" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI122" s="11" t="s">
         <v>17</v>
@@ -11458,7 +11562,7 @@
     </row>
     <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>28</v>
@@ -11470,7 +11574,7 @@
         <v>29</v>
       </c>
       <c r="E123" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="9">
@@ -11500,7 +11604,7 @@
       </c>
       <c r="P123" s="13"/>
       <c r="Q123" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R123" s="9">
         <v>1101</v>
@@ -11551,7 +11655,7 @@
     </row>
     <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>28</v>
@@ -11563,7 +11667,7 @@
         <v>29</v>
       </c>
       <c r="E124" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="9">
@@ -11593,7 +11697,7 @@
       </c>
       <c r="P124" s="13"/>
       <c r="Q124" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R124" s="9">
         <v>1101</v>
@@ -11644,19 +11748,19 @@
     </row>
     <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D125" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="9">
@@ -11737,7 +11841,7 @@
     </row>
     <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>28</v>
@@ -11749,7 +11853,7 @@
         <v>29</v>
       </c>
       <c r="E126" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="9">
@@ -11830,7 +11934,7 @@
     </row>
     <row r="127" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>21</v>
@@ -11842,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F127" s="21"/>
       <c r="G127" s="9">
@@ -11872,7 +11976,7 @@
       </c>
       <c r="P127" s="38"/>
       <c r="Q127" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R127" s="35" t="s">
         <v>27</v>
@@ -11909,7 +12013,7 @@
       </c>
       <c r="AG127" s="38"/>
       <c r="AH127" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AI127" s="35" t="s">
         <v>28</v>
@@ -11923,19 +12027,19 @@
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D128" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="9">
@@ -11965,7 +12069,7 @@
       </c>
       <c r="P128" s="13"/>
       <c r="Q128" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R128" s="9">
         <v>1101</v>
@@ -12098,61 +12202,61 @@
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C131" s="43"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="43"/>
+      <c r="B131" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J131" s="44"/>
-      <c r="K131" s="44"/>
-      <c r="L131" s="44"/>
-      <c r="M131" s="44"/>
-      <c r="N131" s="44"/>
-      <c r="O131" s="44"/>
+      <c r="I131" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J131" s="45"/>
+      <c r="K131" s="45"/>
+      <c r="L131" s="45"/>
+      <c r="M131" s="45"/>
+      <c r="N131" s="45"/>
+      <c r="O131" s="45"/>
       <c r="P131" s="13"/>
-      <c r="Q131" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R131" s="43"/>
-      <c r="S131" s="43"/>
+      <c r="Q131" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R131" s="44"/>
+      <c r="S131" s="44"/>
       <c r="T131" s="13"/>
       <c r="U131" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W131" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W131" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X131" s="13"/>
       <c r="Y131" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z131" s="13"/>
       <c r="AA131" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB131" s="13"/>
+      <c r="AC131" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB131" s="13"/>
-      <c r="AC131" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD131" s="44"/>
+      <c r="AD131" s="45"/>
       <c r="AE131" s="23"/>
       <c r="AF131" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG131" s="13"/>
+      <c r="AH131" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG131" s="13"/>
-      <c r="AH131" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI131" s="44"/>
-      <c r="AJ131" s="44"/>
-      <c r="AK131" s="44"/>
+      <c r="AI131" s="45"/>
+      <c r="AJ131" s="45"/>
+      <c r="AK131" s="45"/>
     </row>
     <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -12168,74 +12272,74 @@
         <v>20</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H132" s="20"/>
       <c r="I132" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J132" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L132" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N132" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P132" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P132" s="43"/>
       <c r="Q132" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R132" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S132" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T132" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T132" s="43"/>
       <c r="U132" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V132" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V132" s="43"/>
       <c r="W132" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X132" s="13"/>
+      <c r="X132" s="43"/>
       <c r="Y132" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z132" s="13"/>
+      <c r="Z132" s="43"/>
       <c r="AA132" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB132" s="13"/>
+      <c r="AB132" s="43"/>
       <c r="AC132" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD132" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE132" s="13"/>
+      <c r="AE132" s="43"/>
       <c r="AF132" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG132" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG132" s="43"/>
       <c r="AH132" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI132" s="11" t="s">
         <v>17</v>
@@ -12249,19 +12353,19 @@
     </row>
     <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D133" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="9">
@@ -12342,19 +12446,19 @@
     </row>
     <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D134" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E134" s="40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="9">
@@ -12488,74 +12592,74 @@
         <v>20</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F136" s="20"/>
       <c r="G136" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H136" s="20"/>
       <c r="I136" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J136" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L136" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M136" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N136" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O136" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P136" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P136" s="43"/>
       <c r="Q136" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R136" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S136" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T136" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T136" s="43"/>
       <c r="U136" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V136" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V136" s="43"/>
       <c r="W136" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X136" s="13"/>
+      <c r="X136" s="43"/>
       <c r="Y136" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z136" s="13"/>
+      <c r="Z136" s="43"/>
       <c r="AA136" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB136" s="13"/>
+      <c r="AB136" s="43"/>
       <c r="AC136" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD136" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE136" s="13"/>
+      <c r="AE136" s="43"/>
       <c r="AF136" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG136" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG136" s="43"/>
       <c r="AH136" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI136" s="11" t="s">
         <v>17</v>
@@ -12569,19 +12673,19 @@
     </row>
     <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D137" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E137" s="40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F137" s="20"/>
       <c r="G137" s="9">
@@ -12607,7 +12711,7 @@
         <v>27</v>
       </c>
       <c r="O137" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P137" s="13"/>
       <c r="Q137" s="17">
@@ -12662,19 +12766,19 @@
     </row>
     <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D138" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E138" s="40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="9">
@@ -12700,7 +12804,7 @@
         <v>27</v>
       </c>
       <c r="O138" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P138" s="13"/>
       <c r="Q138" s="17">
@@ -12808,74 +12912,74 @@
         <v>20</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F140" s="20"/>
       <c r="G140" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H140" s="20"/>
       <c r="I140" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J140" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L140" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N140" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O140" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P140" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P140" s="43"/>
       <c r="Q140" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R140" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S140" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T140" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T140" s="43"/>
       <c r="U140" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V140" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V140" s="43"/>
       <c r="W140" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X140" s="13"/>
+      <c r="X140" s="43"/>
       <c r="Y140" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z140" s="13"/>
+      <c r="Z140" s="43"/>
       <c r="AA140" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB140" s="13"/>
+      <c r="AB140" s="43"/>
       <c r="AC140" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD140" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE140" s="13"/>
+      <c r="AE140" s="43"/>
       <c r="AF140" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG140" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG140" s="43"/>
       <c r="AH140" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI140" s="11" t="s">
         <v>17</v>
@@ -12889,7 +12993,7 @@
     </row>
     <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>28</v>
@@ -12901,7 +13005,7 @@
         <v>29</v>
       </c>
       <c r="E141" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F141" s="20"/>
       <c r="G141" s="9">
@@ -12931,7 +13035,7 @@
       </c>
       <c r="P141" s="13"/>
       <c r="Q141" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R141" s="9">
         <v>1101</v>
@@ -12982,7 +13086,7 @@
     </row>
     <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>28</v>
@@ -12994,7 +13098,7 @@
         <v>29</v>
       </c>
       <c r="E142" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F142" s="20"/>
       <c r="G142" s="9">
@@ -13024,7 +13128,7 @@
       </c>
       <c r="P142" s="13"/>
       <c r="Q142" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R142" s="9">
         <v>1101</v>
@@ -13075,19 +13179,19 @@
     </row>
     <row r="143" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D143" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E143" s="40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="9">
@@ -13168,7 +13272,7 @@
     </row>
     <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>28</v>
@@ -13180,7 +13284,7 @@
         <v>29</v>
       </c>
       <c r="E144" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F144" s="20"/>
       <c r="G144" s="9">
@@ -13261,19 +13365,19 @@
     </row>
     <row r="145" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B145" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D145" s="42" t="s">
         <v>29</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F145" s="20"/>
       <c r="G145" s="35">
@@ -13340,7 +13444,7 @@
       </c>
       <c r="AG145" s="42"/>
       <c r="AH145" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AI145" s="35" t="s">
         <v>28</v>
@@ -13354,7 +13458,7 @@
     </row>
     <row r="146" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B146" s="35" t="s">
         <v>21</v>
@@ -13366,7 +13470,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="42" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F146" s="21"/>
       <c r="G146" s="35">
@@ -13396,7 +13500,7 @@
       </c>
       <c r="P146" s="42"/>
       <c r="Q146" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R146" s="35" t="s">
         <v>27</v>
@@ -13433,7 +13537,7 @@
       </c>
       <c r="AG146" s="42"/>
       <c r="AH146" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AI146" s="35" t="s">
         <v>28</v>
@@ -13446,103 +13550,157 @@
       </c>
     </row>
     <row r="147" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A147" s="6"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="40"/>
+      <c r="A147" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B147" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D147" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="43" t="s">
+        <v>193</v>
+      </c>
       <c r="F147" s="20"/>
-      <c r="G147" s="9"/>
+      <c r="G147" s="9">
+        <v>0</v>
+      </c>
       <c r="H147" s="20"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
-      <c r="N147" s="9"/>
-      <c r="O147" s="9"/>
+      <c r="I147" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N147" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="P147" s="13"/>
-      <c r="Q147" s="9"/>
-      <c r="R147" s="9"/>
-      <c r="S147" s="9"/>
+      <c r="Q147" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="R147" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S147" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="T147" s="13"/>
-      <c r="U147" s="9"/>
+      <c r="U147" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="V147" s="13"/>
-      <c r="W147" s="9"/>
+      <c r="W147" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="X147" s="13"/>
-      <c r="Y147" s="9"/>
+      <c r="Y147" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="Z147" s="13"/>
-      <c r="AA147" s="9"/>
+      <c r="AA147" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="AB147" s="13"/>
-      <c r="AC147" s="9"/>
-      <c r="AD147" s="9"/>
+      <c r="AC147" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD147" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="AE147" s="13"/>
-      <c r="AF147" s="9"/>
+      <c r="AF147" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="AG147" s="13"/>
-      <c r="AH147" s="9"/>
-      <c r="AI147" s="9"/>
-      <c r="AJ147" s="9"/>
-      <c r="AK147" s="9"/>
+      <c r="AH147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ147" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK147" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="148" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C148" s="43"/>
-      <c r="D148" s="43"/>
-      <c r="E148" s="43"/>
+      <c r="B148" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
-      <c r="I148" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J148" s="44"/>
-      <c r="K148" s="44"/>
-      <c r="L148" s="44"/>
-      <c r="M148" s="44"/>
-      <c r="N148" s="44"/>
-      <c r="O148" s="44"/>
+      <c r="I148" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J148" s="45"/>
+      <c r="K148" s="45"/>
+      <c r="L148" s="45"/>
+      <c r="M148" s="45"/>
+      <c r="N148" s="45"/>
+      <c r="O148" s="45"/>
       <c r="P148" s="13"/>
-      <c r="Q148" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R148" s="43"/>
-      <c r="S148" s="43"/>
+      <c r="Q148" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R148" s="44"/>
+      <c r="S148" s="44"/>
       <c r="T148" s="13"/>
       <c r="U148" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W148" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W148" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X148" s="13"/>
       <c r="Y148" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z148" s="13"/>
       <c r="AA148" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB148" s="13"/>
+      <c r="AC148" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB148" s="13"/>
-      <c r="AC148" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD148" s="44"/>
+      <c r="AD148" s="45"/>
       <c r="AE148" s="23"/>
       <c r="AF148" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG148" s="13"/>
+      <c r="AH148" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG148" s="13"/>
-      <c r="AH148" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI148" s="44"/>
-      <c r="AJ148" s="44"/>
-      <c r="AK148" s="44"/>
+      <c r="AI148" s="45"/>
+      <c r="AJ148" s="45"/>
+      <c r="AK148" s="45"/>
     </row>
     <row r="149" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -13558,74 +13716,74 @@
         <v>20</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F149" s="20"/>
       <c r="G149" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H149" s="20"/>
       <c r="I149" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J149" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K149" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L149" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M149" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N149" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P149" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P149" s="43"/>
       <c r="Q149" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R149" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S149" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T149" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T149" s="43"/>
       <c r="U149" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V149" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V149" s="43"/>
       <c r="W149" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X149" s="13"/>
+      <c r="X149" s="43"/>
       <c r="Y149" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z149" s="13"/>
+      <c r="Z149" s="43"/>
       <c r="AA149" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB149" s="13"/>
+      <c r="AB149" s="43"/>
       <c r="AC149" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD149" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE149" s="13"/>
+      <c r="AE149" s="43"/>
       <c r="AF149" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG149" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG149" s="43"/>
       <c r="AH149" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI149" s="11" t="s">
         <v>17</v>
@@ -13639,7 +13797,7 @@
     </row>
     <row r="150" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>28</v>
@@ -13651,7 +13809,7 @@
         <v>29</v>
       </c>
       <c r="E150" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="13">
@@ -13681,7 +13839,7 @@
       </c>
       <c r="P150" s="13"/>
       <c r="Q150" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R150" s="24" t="s">
         <v>55</v>
@@ -13773,61 +13931,61 @@
       <c r="A152" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C152" s="43"/>
-      <c r="D152" s="43"/>
-      <c r="E152" s="43"/>
+      <c r="B152" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44"/>
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J152" s="44"/>
-      <c r="K152" s="44"/>
-      <c r="L152" s="44"/>
-      <c r="M152" s="44"/>
-      <c r="N152" s="44"/>
-      <c r="O152" s="44"/>
+      <c r="I152" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J152" s="45"/>
+      <c r="K152" s="45"/>
+      <c r="L152" s="45"/>
+      <c r="M152" s="45"/>
+      <c r="N152" s="45"/>
+      <c r="O152" s="45"/>
       <c r="P152" s="13"/>
-      <c r="Q152" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R152" s="43"/>
-      <c r="S152" s="43"/>
+      <c r="Q152" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R152" s="44"/>
+      <c r="S152" s="44"/>
       <c r="T152" s="13"/>
       <c r="U152" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W152" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W152" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X152" s="13"/>
       <c r="Y152" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z152" s="13"/>
       <c r="AA152" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB152" s="13"/>
+      <c r="AC152" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB152" s="13"/>
-      <c r="AC152" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD152" s="44"/>
+      <c r="AD152" s="45"/>
       <c r="AE152" s="23"/>
       <c r="AF152" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG152" s="13"/>
+      <c r="AH152" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG152" s="13"/>
-      <c r="AH152" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI152" s="44"/>
-      <c r="AJ152" s="44"/>
-      <c r="AK152" s="44"/>
+      <c r="AI152" s="45"/>
+      <c r="AJ152" s="45"/>
+      <c r="AK152" s="45"/>
     </row>
     <row r="153" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
@@ -13843,74 +14001,74 @@
         <v>20</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H153" s="20"/>
       <c r="I153" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J153" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K153" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L153" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M153" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N153" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P153" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P153" s="43"/>
       <c r="Q153" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R153" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S153" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T153" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T153" s="43"/>
       <c r="U153" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V153" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V153" s="43"/>
       <c r="W153" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X153" s="13"/>
+      <c r="X153" s="43"/>
       <c r="Y153" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z153" s="13"/>
+      <c r="Z153" s="43"/>
       <c r="AA153" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB153" s="13"/>
+      <c r="AB153" s="43"/>
       <c r="AC153" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD153" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE153" s="13"/>
+      <c r="AE153" s="43"/>
       <c r="AF153" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG153" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG153" s="43"/>
       <c r="AH153" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI153" s="11" t="s">
         <v>17</v>
@@ -13924,19 +14082,19 @@
     </row>
     <row r="154" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E154" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F154" s="13"/>
       <c r="G154" s="13">
@@ -14057,61 +14215,61 @@
       <c r="A156" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B156" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C156" s="43"/>
-      <c r="D156" s="43"/>
-      <c r="E156" s="43"/>
+      <c r="B156" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" s="44"/>
+      <c r="D156" s="44"/>
+      <c r="E156" s="44"/>
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
-      <c r="I156" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J156" s="44"/>
-      <c r="K156" s="44"/>
-      <c r="L156" s="44"/>
-      <c r="M156" s="44"/>
-      <c r="N156" s="44"/>
-      <c r="O156" s="44"/>
+      <c r="I156" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J156" s="45"/>
+      <c r="K156" s="45"/>
+      <c r="L156" s="45"/>
+      <c r="M156" s="45"/>
+      <c r="N156" s="45"/>
+      <c r="O156" s="45"/>
       <c r="P156" s="13"/>
-      <c r="Q156" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R156" s="43"/>
-      <c r="S156" s="43"/>
+      <c r="Q156" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R156" s="44"/>
+      <c r="S156" s="44"/>
       <c r="T156" s="13"/>
       <c r="U156" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W156" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W156" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X156" s="13"/>
       <c r="Y156" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z156" s="13"/>
       <c r="AA156" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB156" s="13"/>
+      <c r="AC156" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB156" s="13"/>
-      <c r="AC156" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD156" s="44"/>
+      <c r="AD156" s="45"/>
       <c r="AE156" s="23"/>
       <c r="AF156" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG156" s="13"/>
+      <c r="AH156" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG156" s="13"/>
-      <c r="AH156" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI156" s="44"/>
-      <c r="AJ156" s="44"/>
-      <c r="AK156" s="44"/>
+      <c r="AI156" s="45"/>
+      <c r="AJ156" s="45"/>
+      <c r="AK156" s="45"/>
     </row>
     <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
@@ -14127,74 +14285,74 @@
         <v>20</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F157" s="20"/>
       <c r="G157" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H157" s="20"/>
       <c r="I157" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J157" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K157" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L157" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M157" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N157" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P157" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P157" s="43"/>
       <c r="Q157" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R157" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S157" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T157" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T157" s="43"/>
       <c r="U157" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V157" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V157" s="43"/>
       <c r="W157" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X157" s="13"/>
+      <c r="X157" s="43"/>
       <c r="Y157" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z157" s="13"/>
+      <c r="Z157" s="43"/>
       <c r="AA157" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB157" s="13"/>
+      <c r="AB157" s="43"/>
       <c r="AC157" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD157" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE157" s="13"/>
+      <c r="AE157" s="43"/>
       <c r="AF157" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG157" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG157" s="43"/>
       <c r="AH157" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI157" s="11" t="s">
         <v>17</v>
@@ -14208,7 +14366,7 @@
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A158" s="27">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
@@ -14294,61 +14452,61 @@
       <c r="A160" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B160" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C160" s="43"/>
-      <c r="D160" s="43"/>
-      <c r="E160" s="43"/>
+      <c r="B160" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
+      <c r="E160" s="44"/>
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
-      <c r="I160" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J160" s="44"/>
-      <c r="K160" s="44"/>
-      <c r="L160" s="44"/>
-      <c r="M160" s="44"/>
-      <c r="N160" s="44"/>
-      <c r="O160" s="44"/>
+      <c r="I160" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J160" s="45"/>
+      <c r="K160" s="45"/>
+      <c r="L160" s="45"/>
+      <c r="M160" s="45"/>
+      <c r="N160" s="45"/>
+      <c r="O160" s="45"/>
       <c r="P160" s="13"/>
-      <c r="Q160" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="R160" s="43"/>
-      <c r="S160" s="43"/>
+      <c r="Q160" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="R160" s="44"/>
+      <c r="S160" s="44"/>
       <c r="T160" s="13"/>
       <c r="U160" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W160" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="W160" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="X160" s="13"/>
       <c r="Y160" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z160" s="13"/>
       <c r="AA160" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB160" s="13"/>
+      <c r="AC160" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AB160" s="13"/>
-      <c r="AC160" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD160" s="44"/>
+      <c r="AD160" s="45"/>
       <c r="AE160" s="23"/>
       <c r="AF160" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG160" s="13"/>
+      <c r="AH160" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="AG160" s="13"/>
-      <c r="AH160" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI160" s="44"/>
-      <c r="AJ160" s="44"/>
-      <c r="AK160" s="44"/>
+      <c r="AI160" s="45"/>
+      <c r="AJ160" s="45"/>
+      <c r="AK160" s="45"/>
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
@@ -14364,74 +14522,74 @@
         <v>20</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F161" s="20"/>
       <c r="G161" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H161" s="20"/>
       <c r="I161" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J161" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K161" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L161" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N161" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O161" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="P161" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="P161" s="43"/>
       <c r="Q161" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R161" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S161" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T161" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="T161" s="43"/>
       <c r="U161" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="V161" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="V161" s="43"/>
       <c r="W161" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="X161" s="13"/>
+      <c r="X161" s="43"/>
       <c r="Y161" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z161" s="13"/>
+      <c r="Z161" s="43"/>
       <c r="AA161" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AB161" s="13"/>
+      <c r="AB161" s="43"/>
       <c r="AC161" s="11" t="s">
         <v>15</v>
       </c>
       <c r="AD161" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AE161" s="13"/>
+      <c r="AE161" s="43"/>
       <c r="AF161" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG161" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="AG161" s="43"/>
       <c r="AH161" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AI161" s="11" t="s">
         <v>17</v>
@@ -14445,7 +14603,7 @@
     </row>
     <row r="162" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A162" s="27">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
@@ -14675,32 +14833,17 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="AC160:AD160"/>
-    <mergeCell ref="AH160:AK160"/>
-    <mergeCell ref="I160:O160"/>
-    <mergeCell ref="Q160:S160"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="AC156:AD156"/>
-    <mergeCell ref="AH156:AK156"/>
-    <mergeCell ref="I156:O156"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="AC113:AD113"/>
-    <mergeCell ref="Q148:S148"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AH131:AK131"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="I81:O81"/>
+    <mergeCell ref="I113:O113"/>
+    <mergeCell ref="I131:O131"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="I12:O12"/>
     <mergeCell ref="AC152:AD152"/>
     <mergeCell ref="D47:AI47"/>
     <mergeCell ref="AC49:AD49"/>
@@ -14717,20 +14860,35 @@
     <mergeCell ref="AH81:AK81"/>
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="AC113:AD113"/>
+    <mergeCell ref="Q148:S148"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AH131:AK131"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AC81:AD81"/>
     <mergeCell ref="Q81:S81"/>
     <mergeCell ref="Q113:S113"/>
     <mergeCell ref="Q131:S131"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="I81:O81"/>
-    <mergeCell ref="I113:O113"/>
-    <mergeCell ref="I131:O131"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="AC156:AD156"/>
+    <mergeCell ref="AH156:AK156"/>
+    <mergeCell ref="I156:O156"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="AC160:AD160"/>
+    <mergeCell ref="AH160:AK160"/>
+    <mergeCell ref="I160:O160"/>
+    <mergeCell ref="Q160:S160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="197">
   <si>
     <t>BRANCH</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>00001</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
   </si>
   <si>
     <t>rf</t>
@@ -754,12 +751,6 @@
     <t>Store W &amp; B</t>
   </si>
   <si>
-    <t>0000 0001</t>
-  </si>
-  <si>
-    <t>xxxx xxxx</t>
-  </si>
-  <si>
     <t>EA=Rn - 62</t>
   </si>
   <si>
@@ -793,9 +784,6 @@
     <t>EA=Rn - 68</t>
   </si>
   <si>
-    <t>0101 0000</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -934,15 +922,6 @@
     <t xml:space="preserve">inc/save pc - 2 NOTE: put satandar flag values in SR </t>
   </si>
   <si>
-    <t>0011 0100</t>
-  </si>
-  <si>
-    <t>0100 0110</t>
-  </si>
-  <si>
-    <t>0101 1010</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
@@ -986,6 +965,24 @@
   </si>
   <si>
     <t>EA=Rn+offset_12 - 96</t>
+  </si>
+  <si>
+    <t>100 0111</t>
+  </si>
+  <si>
+    <t>011 0100</t>
+  </si>
+  <si>
+    <t>100 0110</t>
+  </si>
+  <si>
+    <t>101 0000</t>
+  </si>
+  <si>
+    <t>101 1010</t>
+  </si>
+  <si>
+    <t>101 1011</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1528,7 @@
   <dimension ref="A1:AQ211"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -1578,7 +1575,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
@@ -1588,37 +1585,37 @@
       <c r="O2" s="45"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
       <c r="T2" s="13"/>
       <c r="U2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X2" s="13"/>
       <c r="Y2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="13"/>
       <c r="AA2" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="13"/>
       <c r="AC2" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="45"/>
       <c r="AE2" s="23"/>
       <c r="AF2" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG2" s="13"/>
       <c r="AH2" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI2" s="45"/>
       <c r="AJ2" s="45"/>
@@ -1638,47 +1635,47 @@
         <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V3" s="13"/>
       <c r="W3" s="11" t="s">
@@ -1701,11 +1698,11 @@
       </c>
       <c r="AE3" s="13"/>
       <c r="AF3" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG3" s="13"/>
       <c r="AH3" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI3" s="11" t="s">
         <v>17</v>
@@ -1731,7 +1728,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="9">
@@ -1761,7 +1758,7 @@
       </c>
       <c r="P4" s="36"/>
       <c r="Q4" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R4" s="35" t="s">
         <v>27</v>
@@ -1824,7 +1821,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="9">
@@ -1854,7 +1851,7 @@
       </c>
       <c r="P5" s="36"/>
       <c r="Q5" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R5" s="35">
         <v>1101</v>
@@ -1905,7 +1902,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>28</v>
@@ -1917,7 +1914,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="9">
@@ -1934,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>28</v>
@@ -2011,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="9">
@@ -2041,7 +2038,7 @@
       </c>
       <c r="P7" s="36"/>
       <c r="Q7" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R7" s="35" t="s">
         <v>27</v>
@@ -2078,10 +2075,10 @@
       </c>
       <c r="AG7" s="36"/>
       <c r="AH7" s="37" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AI7" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ7" s="35">
         <v>0</v>
@@ -2104,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="9">
@@ -2134,7 +2131,7 @@
       </c>
       <c r="P8" s="36"/>
       <c r="Q8" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R8" s="35" t="s">
         <v>27</v>
@@ -2308,10 +2305,10 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
@@ -2320,7 +2317,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
@@ -2330,37 +2327,37 @@
       <c r="O12" s="45"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
       <c r="T12" s="13"/>
       <c r="U12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W12" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W12" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z12" s="13"/>
       <c r="AA12" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB12" s="13"/>
       <c r="AC12" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD12" s="45"/>
       <c r="AE12" s="23"/>
       <c r="AF12" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI12" s="45"/>
       <c r="AJ12" s="45"/>
@@ -2380,47 +2377,47 @@
         <v>20</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P13" s="43"/>
       <c r="Q13" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R13" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T13" s="43"/>
       <c r="U13" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V13" s="43"/>
       <c r="W13" s="11" t="s">
@@ -2443,11 +2440,11 @@
       </c>
       <c r="AE13" s="43"/>
       <c r="AF13" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG13" s="43"/>
       <c r="AH13" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI13" s="11" t="s">
         <v>17</v>
@@ -2500,19 +2497,19 @@
     </row>
     <row r="15" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="15">
@@ -2542,7 +2539,7 @@
       </c>
       <c r="P15" s="29"/>
       <c r="Q15" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R15" s="32" t="s">
         <v>46</v>
@@ -2593,19 +2590,19 @@
     </row>
     <row r="16" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="14">
@@ -2635,7 +2632,7 @@
       </c>
       <c r="P16" s="29"/>
       <c r="Q16" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R16" s="32" t="s">
         <v>46</v>
@@ -2686,19 +2683,19 @@
     </row>
     <row r="17" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="15">
@@ -2728,7 +2725,7 @@
       </c>
       <c r="P17" s="29"/>
       <c r="Q17" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R17" s="32" t="s">
         <v>45</v>
@@ -2779,19 +2776,19 @@
     </row>
     <row r="18" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="14">
@@ -2821,7 +2818,7 @@
       </c>
       <c r="P18" s="29"/>
       <c r="Q18" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R18" s="32" t="s">
         <v>45</v>
@@ -2872,19 +2869,19 @@
     </row>
     <row r="19" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="15">
@@ -2914,7 +2911,7 @@
       </c>
       <c r="P19" s="29"/>
       <c r="Q19" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R19" s="32" t="s">
         <v>44</v>
@@ -2965,19 +2962,19 @@
     </row>
     <row r="20" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="14">
@@ -3007,7 +3004,7 @@
       </c>
       <c r="P20" s="29"/>
       <c r="Q20" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R20" s="32" t="s">
         <v>44</v>
@@ -3058,19 +3055,19 @@
     </row>
     <row r="21" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="15">
@@ -3100,7 +3097,7 @@
       </c>
       <c r="P21" s="29"/>
       <c r="Q21" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R21" s="32" t="s">
         <v>42</v>
@@ -3151,19 +3148,19 @@
     </row>
     <row r="22" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="14">
@@ -3193,7 +3190,7 @@
       </c>
       <c r="P22" s="29"/>
       <c r="Q22" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R22" s="32" t="s">
         <v>42</v>
@@ -3244,19 +3241,19 @@
     </row>
     <row r="23" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="15">
@@ -3286,7 +3283,7 @@
       </c>
       <c r="P23" s="29"/>
       <c r="Q23" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R23" s="32" t="s">
         <v>43</v>
@@ -3337,19 +3334,19 @@
     </row>
     <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="14">
@@ -3379,7 +3376,7 @@
       </c>
       <c r="P24" s="29"/>
       <c r="Q24" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R24" s="32" t="s">
         <v>43</v>
@@ -3430,19 +3427,19 @@
     </row>
     <row r="25" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="15">
@@ -3472,7 +3469,7 @@
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R25" s="32" t="s">
         <v>47</v>
@@ -3523,19 +3520,19 @@
     </row>
     <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="14">
@@ -3565,7 +3562,7 @@
       </c>
       <c r="P26" s="29"/>
       <c r="Q26" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R26" s="32" t="s">
         <v>47</v>
@@ -3616,19 +3613,19 @@
     </row>
     <row r="27" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="15">
@@ -3658,7 +3655,7 @@
       </c>
       <c r="P27" s="29"/>
       <c r="Q27" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R27" s="32" t="s">
         <v>48</v>
@@ -3709,19 +3706,19 @@
     </row>
     <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="14">
@@ -3751,7 +3748,7 @@
       </c>
       <c r="P28" s="29"/>
       <c r="Q28" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R28" s="32" t="s">
         <v>48</v>
@@ -3802,19 +3799,19 @@
     </row>
     <row r="29" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="15">
@@ -3844,7 +3841,7 @@
       </c>
       <c r="P29" s="29"/>
       <c r="Q29" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R29" s="32" t="s">
         <v>49</v>
@@ -3895,19 +3892,19 @@
     </row>
     <row r="30" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="14">
@@ -3937,7 +3934,7 @@
       </c>
       <c r="P30" s="29"/>
       <c r="Q30" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R30" s="32" t="s">
         <v>49</v>
@@ -3988,19 +3985,19 @@
     </row>
     <row r="31" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="15">
@@ -4030,7 +4027,7 @@
       </c>
       <c r="P31" s="29"/>
       <c r="Q31" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R31" s="32" t="s">
         <v>50</v>
@@ -4081,19 +4078,19 @@
     </row>
     <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="14">
@@ -4123,7 +4120,7 @@
       </c>
       <c r="P32" s="29"/>
       <c r="Q32" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R32" s="32" t="s">
         <v>50</v>
@@ -4174,19 +4171,19 @@
     </row>
     <row r="33" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="15">
@@ -4216,7 +4213,7 @@
       </c>
       <c r="P33" s="29"/>
       <c r="Q33" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R33" s="32" t="s">
         <v>51</v>
@@ -4267,19 +4264,19 @@
     </row>
     <row r="34" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="14">
@@ -4309,7 +4306,7 @@
       </c>
       <c r="P34" s="29"/>
       <c r="Q34" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R34" s="32" t="s">
         <v>51</v>
@@ -4360,19 +4357,19 @@
     </row>
     <row r="35" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="15">
@@ -4402,7 +4399,7 @@
       </c>
       <c r="P35" s="29"/>
       <c r="Q35" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R35" s="32" t="s">
         <v>52</v>
@@ -4453,19 +4450,19 @@
     </row>
     <row r="36" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="14">
@@ -4495,7 +4492,7 @@
       </c>
       <c r="P36" s="29"/>
       <c r="Q36" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R36" s="32" t="s">
         <v>52</v>
@@ -4546,19 +4543,19 @@
     </row>
     <row r="37" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="15">
@@ -4588,7 +4585,7 @@
       </c>
       <c r="P37" s="29"/>
       <c r="Q37" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R37" s="32" t="s">
         <v>53</v>
@@ -4639,19 +4636,19 @@
     </row>
     <row r="38" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="14">
@@ -4681,7 +4678,7 @@
       </c>
       <c r="P38" s="29"/>
       <c r="Q38" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R38" s="32" t="s">
         <v>53</v>
@@ -4732,19 +4729,19 @@
     </row>
     <row r="39" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="15">
@@ -4774,7 +4771,7 @@
       </c>
       <c r="P39" s="29"/>
       <c r="Q39" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R39" s="32" t="s">
         <v>54</v>
@@ -4825,19 +4822,19 @@
     </row>
     <row r="40" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="14">
@@ -4867,7 +4864,7 @@
       </c>
       <c r="P40" s="29"/>
       <c r="Q40" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R40" s="32" t="s">
         <v>54</v>
@@ -4918,19 +4915,19 @@
     </row>
     <row r="41" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="15">
@@ -4960,7 +4957,7 @@
       </c>
       <c r="P41" s="29"/>
       <c r="Q41" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R41" s="32" t="s">
         <v>55</v>
@@ -5011,19 +5008,19 @@
     </row>
     <row r="42" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="14">
@@ -5053,7 +5050,7 @@
       </c>
       <c r="P42" s="29"/>
       <c r="Q42" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R42" s="32" t="s">
         <v>55</v>
@@ -5104,19 +5101,19 @@
     </row>
     <row r="43" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="15">
@@ -5146,7 +5143,7 @@
       </c>
       <c r="P43" s="29"/>
       <c r="Q43" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R43" s="32" t="s">
         <v>56</v>
@@ -5197,19 +5194,19 @@
     </row>
     <row r="44" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="14">
@@ -5239,7 +5236,7 @@
       </c>
       <c r="P44" s="29"/>
       <c r="Q44" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R44" s="32" t="s">
         <v>56</v>
@@ -5290,19 +5287,19 @@
     </row>
     <row r="45" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="15">
@@ -5332,7 +5329,7 @@
       </c>
       <c r="P45" s="29"/>
       <c r="Q45" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R45" s="32" t="s">
         <v>57</v>
@@ -5383,19 +5380,19 @@
     </row>
     <row r="46" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="14">
@@ -5425,7 +5422,7 @@
       </c>
       <c r="P46" s="29"/>
       <c r="Q46" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R46" s="32" t="s">
         <v>57</v>
@@ -5479,7 +5476,7 @@
       <c r="B47" s="13"/>
       <c r="C47" s="40"/>
       <c r="D47" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -5522,7 +5519,7 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="40"/>
@@ -5566,7 +5563,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
@@ -5575,7 +5572,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J49" s="45"/>
       <c r="K49" s="45"/>
@@ -5585,37 +5582,37 @@
       <c r="O49" s="45"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R49" s="44"/>
       <c r="S49" s="44"/>
       <c r="T49" s="13"/>
       <c r="U49" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W49" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W49" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z49" s="13"/>
       <c r="AA49" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB49" s="13"/>
       <c r="AC49" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD49" s="45"/>
       <c r="AE49" s="23"/>
       <c r="AF49" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI49" s="45"/>
       <c r="AJ49" s="45"/>
@@ -5635,47 +5632,47 @@
         <v>20</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O50" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P50" s="43"/>
       <c r="Q50" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T50" s="43"/>
       <c r="U50" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V50" s="43"/>
       <c r="W50" s="11" t="s">
@@ -5698,11 +5695,11 @@
       </c>
       <c r="AE50" s="43"/>
       <c r="AF50" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG50" s="43"/>
       <c r="AH50" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI50" s="11" t="s">
         <v>17</v>
@@ -5716,19 +5713,19 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="9">
@@ -5809,19 +5806,19 @@
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="9">
@@ -5955,47 +5952,47 @@
         <v>20</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N54" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P54" s="43"/>
       <c r="Q54" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R54" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S54" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T54" s="43"/>
       <c r="U54" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V54" s="43"/>
       <c r="W54" s="11" t="s">
@@ -6018,11 +6015,11 @@
       </c>
       <c r="AE54" s="43"/>
       <c r="AF54" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG54" s="43"/>
       <c r="AH54" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI54" s="11" t="s">
         <v>17</v>
@@ -6036,19 +6033,19 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="9">
@@ -6068,7 +6065,7 @@
         <v>27</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N55" s="9" t="s">
         <v>27</v>
@@ -6078,7 +6075,7 @@
       </c>
       <c r="P55" s="13"/>
       <c r="Q55" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R55" s="17" t="s">
         <v>43</v>
@@ -6129,19 +6126,19 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="9">
@@ -6161,7 +6158,7 @@
         <v>27</v>
       </c>
       <c r="M56" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N56" s="9" t="s">
         <v>27</v>
@@ -6171,7 +6168,7 @@
       </c>
       <c r="P56" s="13"/>
       <c r="Q56" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R56" s="17" t="s">
         <v>44</v>
@@ -6275,47 +6272,47 @@
         <v>20</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="20"/>
       <c r="I58" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L58" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N58" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O58" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P58" s="43"/>
       <c r="Q58" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R58" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T58" s="43"/>
       <c r="U58" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V58" s="43"/>
       <c r="W58" s="11" t="s">
@@ -6338,11 +6335,11 @@
       </c>
       <c r="AE58" s="43"/>
       <c r="AF58" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG58" s="43"/>
       <c r="AH58" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI58" s="11" t="s">
         <v>17</v>
@@ -6356,19 +6353,19 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="9">
@@ -6449,19 +6446,19 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="9">
@@ -6595,47 +6592,47 @@
         <v>20</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L62" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N62" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O62" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P62" s="43"/>
       <c r="Q62" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R62" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S62" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T62" s="43"/>
       <c r="U62" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V62" s="43"/>
       <c r="W62" s="11" t="s">
@@ -6658,11 +6655,11 @@
       </c>
       <c r="AE62" s="43"/>
       <c r="AF62" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG62" s="43"/>
       <c r="AH62" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI62" s="11" t="s">
         <v>17</v>
@@ -6676,19 +6673,19 @@
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="9">
@@ -6708,7 +6705,7 @@
         <v>27</v>
       </c>
       <c r="M63" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N63" s="35" t="s">
         <v>27</v>
@@ -6718,7 +6715,7 @@
       </c>
       <c r="P63" s="36"/>
       <c r="Q63" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R63" s="37" t="s">
         <v>43</v>
@@ -6769,19 +6766,19 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="9">
@@ -6801,7 +6798,7 @@
         <v>27</v>
       </c>
       <c r="M64" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N64" s="35" t="s">
         <v>27</v>
@@ -6811,7 +6808,7 @@
       </c>
       <c r="P64" s="36"/>
       <c r="Q64" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R64" s="37" t="s">
         <v>44</v>
@@ -6915,47 +6912,47 @@
         <v>20</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="20"/>
       <c r="I66" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N66" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O66" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P66" s="43"/>
       <c r="Q66" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R66" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S66" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T66" s="43"/>
       <c r="U66" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V66" s="43"/>
       <c r="W66" s="11" t="s">
@@ -6978,11 +6975,11 @@
       </c>
       <c r="AE66" s="43"/>
       <c r="AF66" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG66" s="43"/>
       <c r="AH66" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI66" s="11" t="s">
         <v>17</v>
@@ -6996,7 +6993,7 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>28</v>
@@ -7008,7 +7005,7 @@
         <v>29</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="9">
@@ -7089,7 +7086,7 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>28</v>
@@ -7101,7 +7098,7 @@
         <v>29</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="9">
@@ -7182,19 +7179,19 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="9">
@@ -7275,19 +7272,19 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D70" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="9">
@@ -7421,47 +7418,47 @@
         <v>20</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J72" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L72" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P72" s="43"/>
       <c r="Q72" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R72" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S72" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T72" s="43"/>
       <c r="U72" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V72" s="43"/>
       <c r="W72" s="11" t="s">
@@ -7484,11 +7481,11 @@
       </c>
       <c r="AE72" s="43"/>
       <c r="AF72" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG72" s="43"/>
       <c r="AH72" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI72" s="11" t="s">
         <v>17</v>
@@ -7502,7 +7499,7 @@
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>28</v>
@@ -7514,7 +7511,7 @@
         <v>29</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="9">
@@ -7595,7 +7592,7 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>28</v>
@@ -7607,7 +7604,7 @@
         <v>29</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="9">
@@ -7688,19 +7685,19 @@
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="9">
@@ -7720,7 +7717,7 @@
         <v>27</v>
       </c>
       <c r="M75" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N75" s="35" t="s">
         <v>27</v>
@@ -7730,7 +7727,7 @@
       </c>
       <c r="P75" s="36"/>
       <c r="Q75" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R75" s="37" t="s">
         <v>43</v>
@@ -7781,7 +7778,7 @@
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>28</v>
@@ -7793,7 +7790,7 @@
         <v>29</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="9">
@@ -7813,7 +7810,7 @@
         <v>27</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N76" s="35" t="s">
         <v>27</v>
@@ -7823,7 +7820,7 @@
       </c>
       <c r="P76" s="36"/>
       <c r="Q76" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R76" s="37" t="s">
         <v>44</v>
@@ -7874,7 +7871,7 @@
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>21</v>
@@ -7886,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="9">
@@ -7916,7 +7913,7 @@
       </c>
       <c r="P77" s="42"/>
       <c r="Q77" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R77" s="35" t="s">
         <v>27</v>
@@ -7953,7 +7950,7 @@
       </c>
       <c r="AG77" s="42"/>
       <c r="AH77" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AI77" s="35" t="s">
         <v>28</v>
@@ -7967,19 +7964,19 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="9">
@@ -8009,7 +8006,7 @@
       </c>
       <c r="P78" s="42"/>
       <c r="Q78" s="37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R78" s="35">
         <v>1101</v>
@@ -8099,7 +8096,7 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="40"/>
@@ -8143,7 +8140,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
@@ -8152,7 +8149,7 @@
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
       <c r="I81" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J81" s="45"/>
       <c r="K81" s="45"/>
@@ -8162,37 +8159,37 @@
       <c r="O81" s="45"/>
       <c r="P81" s="13"/>
       <c r="Q81" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R81" s="44"/>
       <c r="S81" s="44"/>
       <c r="T81" s="13"/>
       <c r="U81" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W81" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W81" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z81" s="13"/>
       <c r="AA81" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB81" s="13"/>
       <c r="AC81" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD81" s="45"/>
       <c r="AE81" s="23"/>
       <c r="AF81" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI81" s="45"/>
       <c r="AJ81" s="45"/>
@@ -8212,47 +8209,47 @@
         <v>20</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H82" s="20"/>
       <c r="I82" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J82" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L82" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N82" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O82" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P82" s="43"/>
       <c r="Q82" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R82" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T82" s="43"/>
       <c r="U82" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V82" s="43"/>
       <c r="W82" s="11" t="s">
@@ -8275,11 +8272,11 @@
       </c>
       <c r="AE82" s="43"/>
       <c r="AF82" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG82" s="43"/>
       <c r="AH82" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI82" s="11" t="s">
         <v>17</v>
@@ -8293,19 +8290,19 @@
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B83" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D83" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F83" s="20"/>
       <c r="G83" s="35">
@@ -8386,19 +8383,19 @@
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B84" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D84" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F84" s="20"/>
       <c r="G84" s="35">
@@ -8532,47 +8529,47 @@
         <v>20</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F86" s="20"/>
       <c r="G86" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H86" s="20"/>
       <c r="I86" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J86" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L86" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N86" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O86" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P86" s="43"/>
       <c r="Q86" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R86" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S86" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T86" s="43"/>
       <c r="U86" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V86" s="43"/>
       <c r="W86" s="11" t="s">
@@ -8595,11 +8592,11 @@
       </c>
       <c r="AE86" s="43"/>
       <c r="AF86" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG86" s="43"/>
       <c r="AH86" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI86" s="11" t="s">
         <v>17</v>
@@ -8613,19 +8610,19 @@
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B87" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D87" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F87" s="20"/>
       <c r="G87" s="35">
@@ -8645,7 +8642,7 @@
         <v>27</v>
       </c>
       <c r="M87" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N87" s="35" t="s">
         <v>27</v>
@@ -8655,7 +8652,7 @@
       </c>
       <c r="P87" s="41"/>
       <c r="Q87" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R87" s="37" t="s">
         <v>43</v>
@@ -8706,19 +8703,19 @@
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B88" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F88" s="20"/>
       <c r="G88" s="35">
@@ -8738,7 +8735,7 @@
         <v>27</v>
       </c>
       <c r="M88" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N88" s="35" t="s">
         <v>27</v>
@@ -8748,7 +8745,7 @@
       </c>
       <c r="P88" s="41"/>
       <c r="Q88" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R88" s="37" t="s">
         <v>44</v>
@@ -8852,47 +8849,47 @@
         <v>20</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F90" s="20"/>
       <c r="G90" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H90" s="20"/>
       <c r="I90" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J90" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L90" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M90" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N90" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P90" s="43"/>
       <c r="Q90" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R90" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S90" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T90" s="43"/>
       <c r="U90" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V90" s="43"/>
       <c r="W90" s="11" t="s">
@@ -8915,11 +8912,11 @@
       </c>
       <c r="AE90" s="43"/>
       <c r="AF90" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG90" s="43"/>
       <c r="AH90" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI90" s="11" t="s">
         <v>17</v>
@@ -8933,19 +8930,19 @@
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B91" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F91" s="20"/>
       <c r="G91" s="35">
@@ -9026,19 +9023,19 @@
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B92" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D92" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F92" s="20"/>
       <c r="G92" s="35">
@@ -9172,47 +9169,47 @@
         <v>20</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F94" s="20"/>
       <c r="G94" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H94" s="20"/>
       <c r="I94" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J94" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L94" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N94" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O94" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P94" s="43"/>
       <c r="Q94" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R94" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S94" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T94" s="43"/>
       <c r="U94" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V94" s="43"/>
       <c r="W94" s="11" t="s">
@@ -9235,11 +9232,11 @@
       </c>
       <c r="AE94" s="43"/>
       <c r="AF94" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG94" s="43"/>
       <c r="AH94" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI94" s="11" t="s">
         <v>17</v>
@@ -9253,19 +9250,19 @@
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B95" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D95" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F95" s="20"/>
       <c r="G95" s="35">
@@ -9285,7 +9282,7 @@
         <v>27</v>
       </c>
       <c r="M95" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N95" s="35" t="s">
         <v>27</v>
@@ -9295,7 +9292,7 @@
       </c>
       <c r="P95" s="41"/>
       <c r="Q95" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R95" s="37" t="s">
         <v>43</v>
@@ -9346,19 +9343,19 @@
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B96" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D96" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F96" s="20"/>
       <c r="G96" s="35">
@@ -9378,7 +9375,7 @@
         <v>27</v>
       </c>
       <c r="M96" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N96" s="35" t="s">
         <v>27</v>
@@ -9388,7 +9385,7 @@
       </c>
       <c r="P96" s="41"/>
       <c r="Q96" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R96" s="37" t="s">
         <v>44</v>
@@ -9492,47 +9489,47 @@
         <v>20</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F98" s="20"/>
       <c r="G98" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H98" s="20"/>
       <c r="I98" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J98" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L98" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N98" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O98" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P98" s="43"/>
       <c r="Q98" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R98" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S98" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T98" s="43"/>
       <c r="U98" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V98" s="43"/>
       <c r="W98" s="11" t="s">
@@ -9555,11 +9552,11 @@
       </c>
       <c r="AE98" s="43"/>
       <c r="AF98" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG98" s="43"/>
       <c r="AH98" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI98" s="11" t="s">
         <v>17</v>
@@ -9573,7 +9570,7 @@
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B99" s="35" t="s">
         <v>28</v>
@@ -9584,8 +9581,8 @@
       <c r="D99" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="34" t="s">
-        <v>121</v>
+      <c r="E99" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F99" s="20"/>
       <c r="G99" s="35">
@@ -9666,7 +9663,7 @@
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B100" s="35" t="s">
         <v>28</v>
@@ -9677,8 +9674,8 @@
       <c r="D100" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E100" s="34" t="s">
-        <v>121</v>
+      <c r="E100" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F100" s="20"/>
       <c r="G100" s="35">
@@ -9759,19 +9756,19 @@
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B101" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D101" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F101" s="20"/>
       <c r="G101" s="35">
@@ -9852,19 +9849,19 @@
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B102" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D102" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F102" s="20"/>
       <c r="G102" s="35">
@@ -9998,47 +9995,47 @@
         <v>20</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F104" s="20"/>
       <c r="G104" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H104" s="20"/>
       <c r="I104" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J104" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L104" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N104" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O104" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P104" s="43"/>
       <c r="Q104" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R104" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S104" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T104" s="43"/>
       <c r="U104" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V104" s="43"/>
       <c r="W104" s="11" t="s">
@@ -10061,11 +10058,11 @@
       </c>
       <c r="AE104" s="43"/>
       <c r="AF104" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG104" s="43"/>
       <c r="AH104" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI104" s="11" t="s">
         <v>17</v>
@@ -10079,7 +10076,7 @@
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B105" s="35" t="s">
         <v>28</v>
@@ -10090,8 +10087,8 @@
       <c r="D105" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E105" s="34" t="s">
-        <v>121</v>
+      <c r="E105" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F105" s="20"/>
       <c r="G105" s="35">
@@ -10172,7 +10169,7 @@
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B106" s="35" t="s">
         <v>28</v>
@@ -10183,8 +10180,8 @@
       <c r="D106" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E106" s="34" t="s">
-        <v>121</v>
+      <c r="E106" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F106" s="20"/>
       <c r="G106" s="35">
@@ -10265,19 +10262,19 @@
     </row>
     <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B107" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D107" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F107" s="20"/>
       <c r="G107" s="35">
@@ -10297,7 +10294,7 @@
         <v>27</v>
       </c>
       <c r="M107" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N107" s="35" t="s">
         <v>27</v>
@@ -10307,7 +10304,7 @@
       </c>
       <c r="P107" s="41"/>
       <c r="Q107" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R107" s="37" t="s">
         <v>43</v>
@@ -10358,7 +10355,7 @@
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B108" s="35" t="s">
         <v>28</v>
@@ -10369,8 +10366,8 @@
       <c r="D108" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E108" s="41" t="s">
-        <v>121</v>
+      <c r="E108" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F108" s="20"/>
       <c r="G108" s="35">
@@ -10390,7 +10387,7 @@
         <v>27</v>
       </c>
       <c r="M108" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N108" s="35" t="s">
         <v>27</v>
@@ -10400,7 +10397,7 @@
       </c>
       <c r="P108" s="41"/>
       <c r="Q108" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R108" s="37" t="s">
         <v>44</v>
@@ -10451,19 +10448,19 @@
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D109" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="F109" s="20"/>
       <c r="G109" s="9">
@@ -10530,7 +10527,7 @@
       </c>
       <c r="AG109" s="38"/>
       <c r="AH109" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AI109" s="35" t="s">
         <v>28</v>
@@ -10544,7 +10541,7 @@
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B110" s="35" t="s">
         <v>21</v>
@@ -10556,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F110" s="21"/>
       <c r="G110" s="9">
@@ -10586,7 +10583,7 @@
       </c>
       <c r="P110" s="38"/>
       <c r="Q110" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R110" s="35" t="s">
         <v>27</v>
@@ -10623,7 +10620,7 @@
       </c>
       <c r="AG110" s="38"/>
       <c r="AH110" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AI110" s="35" t="s">
         <v>28</v>
@@ -10637,19 +10634,19 @@
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B111" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D111" s="43" t="s">
         <v>29</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G111" s="35">
         <v>0</v>
@@ -10677,7 +10674,7 @@
       </c>
       <c r="P111" s="43"/>
       <c r="Q111" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R111" s="35" t="s">
         <v>27</v>
@@ -10772,7 +10769,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C113" s="44"/>
       <c r="D113" s="44"/>
@@ -10781,7 +10778,7 @@
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
       <c r="I113" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J113" s="45"/>
       <c r="K113" s="45"/>
@@ -10791,37 +10788,37 @@
       <c r="O113" s="45"/>
       <c r="P113" s="13"/>
       <c r="Q113" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R113" s="44"/>
       <c r="S113" s="44"/>
       <c r="T113" s="13"/>
       <c r="U113" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W113" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W113" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z113" s="13"/>
       <c r="AA113" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB113" s="13"/>
       <c r="AC113" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD113" s="45"/>
       <c r="AE113" s="23"/>
       <c r="AF113" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI113" s="45"/>
       <c r="AJ113" s="45"/>
@@ -10841,47 +10838,47 @@
         <v>20</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H114" s="20"/>
       <c r="I114" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J114" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L114" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N114" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P114" s="43"/>
       <c r="Q114" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R114" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S114" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T114" s="43"/>
       <c r="U114" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V114" s="43"/>
       <c r="W114" s="11" t="s">
@@ -10904,11 +10901,11 @@
       </c>
       <c r="AE114" s="43"/>
       <c r="AF114" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG114" s="43"/>
       <c r="AH114" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI114" s="11" t="s">
         <v>17</v>
@@ -10922,19 +10919,19 @@
     </row>
     <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D115" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="F115" s="20"/>
       <c r="G115" s="9">
@@ -11015,19 +11012,19 @@
     </row>
     <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D116" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="40" t="s">
-        <v>133</v>
+      <c r="E116" s="43" t="s">
+        <v>194</v>
       </c>
       <c r="F116" s="20"/>
       <c r="G116" s="9">
@@ -11161,47 +11158,47 @@
         <v>20</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F118" s="20"/>
       <c r="G118" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H118" s="20"/>
       <c r="I118" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J118" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L118" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M118" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N118" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O118" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P118" s="43"/>
       <c r="Q118" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R118" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S118" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T118" s="43"/>
       <c r="U118" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V118" s="43"/>
       <c r="W118" s="11" t="s">
@@ -11224,11 +11221,11 @@
       </c>
       <c r="AE118" s="43"/>
       <c r="AF118" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG118" s="43"/>
       <c r="AH118" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI118" s="11" t="s">
         <v>17</v>
@@ -11242,19 +11239,19 @@
     </row>
     <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D119" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E119" s="40" t="s">
-        <v>133</v>
+      <c r="E119" s="43" t="s">
+        <v>194</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="9">
@@ -11280,7 +11277,7 @@
         <v>27</v>
       </c>
       <c r="O119" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P119" s="13"/>
       <c r="Q119" s="17">
@@ -11335,19 +11332,19 @@
     </row>
     <row r="120" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D120" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="40" t="s">
-        <v>133</v>
+      <c r="E120" s="43" t="s">
+        <v>194</v>
       </c>
       <c r="F120" s="20"/>
       <c r="G120" s="9">
@@ -11373,7 +11370,7 @@
         <v>27</v>
       </c>
       <c r="O120" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P120" s="13"/>
       <c r="Q120" s="17">
@@ -11481,47 +11478,47 @@
         <v>20</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F122" s="20"/>
       <c r="G122" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H122" s="20"/>
       <c r="I122" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J122" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K122" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L122" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N122" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O122" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P122" s="43"/>
       <c r="Q122" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R122" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S122" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T122" s="43"/>
       <c r="U122" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V122" s="43"/>
       <c r="W122" s="11" t="s">
@@ -11544,11 +11541,11 @@
       </c>
       <c r="AE122" s="43"/>
       <c r="AF122" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG122" s="43"/>
       <c r="AH122" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI122" s="11" t="s">
         <v>17</v>
@@ -11562,7 +11559,7 @@
     </row>
     <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>28</v>
@@ -11573,8 +11570,8 @@
       <c r="D123" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E123" s="34" t="s">
-        <v>121</v>
+      <c r="E123" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="9">
@@ -11604,7 +11601,7 @@
       </c>
       <c r="P123" s="13"/>
       <c r="Q123" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R123" s="9">
         <v>1101</v>
@@ -11655,7 +11652,7 @@
     </row>
     <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>28</v>
@@ -11666,8 +11663,8 @@
       <c r="D124" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E124" s="34" t="s">
-        <v>121</v>
+      <c r="E124" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F124" s="20"/>
       <c r="G124" s="9">
@@ -11697,7 +11694,7 @@
       </c>
       <c r="P124" s="13"/>
       <c r="Q124" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R124" s="9">
         <v>1101</v>
@@ -11748,19 +11745,19 @@
     </row>
     <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D125" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E125" s="40" t="s">
-        <v>133</v>
+      <c r="E125" s="43" t="s">
+        <v>194</v>
       </c>
       <c r="F125" s="20"/>
       <c r="G125" s="9">
@@ -11841,7 +11838,7 @@
     </row>
     <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>28</v>
@@ -11852,8 +11849,8 @@
       <c r="D126" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E126" s="34" t="s">
-        <v>121</v>
+      <c r="E126" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F126" s="20"/>
       <c r="G126" s="9">
@@ -11934,7 +11931,7 @@
     </row>
     <row r="127" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A127" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>21</v>
@@ -11945,8 +11942,8 @@
       <c r="D127" s="40">
         <v>1</v>
       </c>
-      <c r="E127" s="40" t="s">
-        <v>133</v>
+      <c r="E127" s="43" t="s">
+        <v>194</v>
       </c>
       <c r="F127" s="21"/>
       <c r="G127" s="9">
@@ -11976,7 +11973,7 @@
       </c>
       <c r="P127" s="38"/>
       <c r="Q127" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R127" s="35" t="s">
         <v>27</v>
@@ -12013,7 +12010,7 @@
       </c>
       <c r="AG127" s="38"/>
       <c r="AH127" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AI127" s="35" t="s">
         <v>28</v>
@@ -12027,19 +12024,19 @@
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D128" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E128" s="34" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="9">
@@ -12069,7 +12066,7 @@
       </c>
       <c r="P128" s="13"/>
       <c r="Q128" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="R128" s="9">
         <v>1101</v>
@@ -12203,7 +12200,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C131" s="44"/>
       <c r="D131" s="44"/>
@@ -12212,7 +12209,7 @@
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
       <c r="I131" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J131" s="45"/>
       <c r="K131" s="45"/>
@@ -12222,37 +12219,37 @@
       <c r="O131" s="45"/>
       <c r="P131" s="13"/>
       <c r="Q131" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R131" s="44"/>
       <c r="S131" s="44"/>
       <c r="T131" s="13"/>
       <c r="U131" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W131" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W131" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X131" s="13"/>
       <c r="Y131" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z131" s="13"/>
       <c r="AA131" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB131" s="13"/>
       <c r="AC131" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD131" s="45"/>
       <c r="AE131" s="23"/>
       <c r="AF131" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG131" s="13"/>
       <c r="AH131" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI131" s="45"/>
       <c r="AJ131" s="45"/>
@@ -12272,47 +12269,47 @@
         <v>20</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F132" s="20"/>
       <c r="G132" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H132" s="20"/>
       <c r="I132" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J132" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L132" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N132" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O132" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P132" s="43"/>
       <c r="Q132" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R132" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S132" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T132" s="43"/>
       <c r="U132" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V132" s="43"/>
       <c r="W132" s="11" t="s">
@@ -12335,11 +12332,11 @@
       </c>
       <c r="AE132" s="43"/>
       <c r="AF132" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG132" s="43"/>
       <c r="AH132" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI132" s="11" t="s">
         <v>17</v>
@@ -12353,19 +12350,19 @@
     </row>
     <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D133" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F133" s="20"/>
       <c r="G133" s="9">
@@ -12446,19 +12443,19 @@
     </row>
     <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D134" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E134" s="40" t="s">
-        <v>182</v>
+      <c r="E134" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="F134" s="20"/>
       <c r="G134" s="9">
@@ -12592,47 +12589,47 @@
         <v>20</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F136" s="20"/>
       <c r="G136" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H136" s="20"/>
       <c r="I136" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J136" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L136" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M136" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N136" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O136" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P136" s="43"/>
       <c r="Q136" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R136" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S136" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T136" s="43"/>
       <c r="U136" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V136" s="43"/>
       <c r="W136" s="11" t="s">
@@ -12655,11 +12652,11 @@
       </c>
       <c r="AE136" s="43"/>
       <c r="AF136" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG136" s="43"/>
       <c r="AH136" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI136" s="11" t="s">
         <v>17</v>
@@ -12673,19 +12670,19 @@
     </row>
     <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D137" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E137" s="40" t="s">
-        <v>182</v>
+      <c r="E137" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="F137" s="20"/>
       <c r="G137" s="9">
@@ -12711,7 +12708,7 @@
         <v>27</v>
       </c>
       <c r="O137" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P137" s="13"/>
       <c r="Q137" s="17">
@@ -12766,19 +12763,19 @@
     </row>
     <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D138" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E138" s="40" t="s">
-        <v>182</v>
+      <c r="E138" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="F138" s="20"/>
       <c r="G138" s="9">
@@ -12804,7 +12801,7 @@
         <v>27</v>
       </c>
       <c r="O138" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P138" s="13"/>
       <c r="Q138" s="17">
@@ -12912,47 +12909,47 @@
         <v>20</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F140" s="20"/>
       <c r="G140" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H140" s="20"/>
       <c r="I140" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J140" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L140" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N140" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O140" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P140" s="43"/>
       <c r="Q140" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R140" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S140" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T140" s="43"/>
       <c r="U140" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V140" s="43"/>
       <c r="W140" s="11" t="s">
@@ -12975,11 +12972,11 @@
       </c>
       <c r="AE140" s="43"/>
       <c r="AF140" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG140" s="43"/>
       <c r="AH140" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI140" s="11" t="s">
         <v>17</v>
@@ -12993,7 +12990,7 @@
     </row>
     <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>28</v>
@@ -13004,8 +13001,8 @@
       <c r="D141" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E141" s="34" t="s">
-        <v>121</v>
+      <c r="E141" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F141" s="20"/>
       <c r="G141" s="9">
@@ -13035,7 +13032,7 @@
       </c>
       <c r="P141" s="13"/>
       <c r="Q141" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R141" s="9">
         <v>1101</v>
@@ -13086,7 +13083,7 @@
     </row>
     <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>28</v>
@@ -13097,8 +13094,8 @@
       <c r="D142" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E142" s="34" t="s">
-        <v>121</v>
+      <c r="E142" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F142" s="20"/>
       <c r="G142" s="9">
@@ -13128,7 +13125,7 @@
       </c>
       <c r="P142" s="13"/>
       <c r="Q142" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R142" s="9">
         <v>1101</v>
@@ -13179,19 +13176,19 @@
     </row>
     <row r="143" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D143" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E143" s="40" t="s">
-        <v>182</v>
+      <c r="E143" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="F143" s="20"/>
       <c r="G143" s="9">
@@ -13272,7 +13269,7 @@
     </row>
     <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>28</v>
@@ -13283,8 +13280,8 @@
       <c r="D144" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E144" s="34" t="s">
-        <v>121</v>
+      <c r="E144" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F144" s="20"/>
       <c r="G144" s="9">
@@ -13365,19 +13362,19 @@
     </row>
     <row r="145" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B145" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D145" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E145" s="34" t="s">
-        <v>120</v>
+      <c r="E145" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F145" s="20"/>
       <c r="G145" s="35">
@@ -13444,7 +13441,7 @@
       </c>
       <c r="AG145" s="42"/>
       <c r="AH145" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AI145" s="35" t="s">
         <v>28</v>
@@ -13458,7 +13455,7 @@
     </row>
     <row r="146" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A146" s="28" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B146" s="35" t="s">
         <v>21</v>
@@ -13470,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="42" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F146" s="21"/>
       <c r="G146" s="35">
@@ -13500,7 +13497,7 @@
       </c>
       <c r="P146" s="42"/>
       <c r="Q146" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R146" s="35" t="s">
         <v>27</v>
@@ -13537,7 +13534,7 @@
       </c>
       <c r="AG146" s="42"/>
       <c r="AH146" s="37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AI146" s="35" t="s">
         <v>28</v>
@@ -13551,19 +13548,19 @@
     </row>
     <row r="147" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B147" s="35" t="s">
         <v>28</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D147" s="43" t="s">
         <v>29</v>
       </c>
       <c r="E147" s="43" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F147" s="20"/>
       <c r="G147" s="9">
@@ -13593,7 +13590,7 @@
       </c>
       <c r="P147" s="13"/>
       <c r="Q147" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R147" s="9" t="s">
         <v>27</v>
@@ -13647,7 +13644,7 @@
         <v>41</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
@@ -13656,7 +13653,7 @@
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
       <c r="I148" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J148" s="45"/>
       <c r="K148" s="45"/>
@@ -13666,37 +13663,37 @@
       <c r="O148" s="45"/>
       <c r="P148" s="13"/>
       <c r="Q148" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R148" s="44"/>
       <c r="S148" s="44"/>
       <c r="T148" s="13"/>
       <c r="U148" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W148" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W148" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X148" s="13"/>
       <c r="Y148" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z148" s="13"/>
       <c r="AA148" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB148" s="13"/>
       <c r="AC148" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD148" s="45"/>
       <c r="AE148" s="23"/>
       <c r="AF148" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG148" s="13"/>
       <c r="AH148" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI148" s="45"/>
       <c r="AJ148" s="45"/>
@@ -13716,47 +13713,47 @@
         <v>20</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F149" s="20"/>
       <c r="G149" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H149" s="20"/>
       <c r="I149" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J149" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K149" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L149" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M149" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N149" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O149" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P149" s="43"/>
       <c r="Q149" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R149" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S149" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T149" s="43"/>
       <c r="U149" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V149" s="43"/>
       <c r="W149" s="11" t="s">
@@ -13779,11 +13776,11 @@
       </c>
       <c r="AE149" s="43"/>
       <c r="AF149" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG149" s="43"/>
       <c r="AH149" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI149" s="11" t="s">
         <v>17</v>
@@ -13808,8 +13805,8 @@
       <c r="D150" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E150" s="34" t="s">
-        <v>62</v>
+      <c r="E150" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="13">
@@ -13839,7 +13836,7 @@
       </c>
       <c r="P150" s="13"/>
       <c r="Q150" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R150" s="24" t="s">
         <v>55</v>
@@ -13932,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="44"/>
@@ -13941,7 +13938,7 @@
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
       <c r="I152" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J152" s="45"/>
       <c r="K152" s="45"/>
@@ -13951,37 +13948,37 @@
       <c r="O152" s="45"/>
       <c r="P152" s="13"/>
       <c r="Q152" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R152" s="44"/>
       <c r="S152" s="44"/>
       <c r="T152" s="13"/>
       <c r="U152" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W152" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W152" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X152" s="13"/>
       <c r="Y152" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z152" s="13"/>
       <c r="AA152" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB152" s="13"/>
       <c r="AC152" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD152" s="45"/>
       <c r="AE152" s="23"/>
       <c r="AF152" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG152" s="13"/>
       <c r="AH152" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI152" s="45"/>
       <c r="AJ152" s="45"/>
@@ -14001,47 +13998,47 @@
         <v>20</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F153" s="20"/>
       <c r="G153" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H153" s="20"/>
       <c r="I153" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J153" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K153" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L153" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M153" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N153" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P153" s="43"/>
       <c r="Q153" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R153" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S153" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T153" s="43"/>
       <c r="U153" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V153" s="43"/>
       <c r="W153" s="11" t="s">
@@ -14064,11 +14061,11 @@
       </c>
       <c r="AE153" s="43"/>
       <c r="AF153" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG153" s="43"/>
       <c r="AH153" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI153" s="11" t="s">
         <v>17</v>
@@ -14088,7 +14085,7 @@
         <v>28</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>29</v>
@@ -14216,7 +14213,7 @@
         <v>37</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C156" s="44"/>
       <c r="D156" s="44"/>
@@ -14225,7 +14222,7 @@
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
       <c r="I156" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J156" s="45"/>
       <c r="K156" s="45"/>
@@ -14235,37 +14232,37 @@
       <c r="O156" s="45"/>
       <c r="P156" s="13"/>
       <c r="Q156" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R156" s="44"/>
       <c r="S156" s="44"/>
       <c r="T156" s="13"/>
       <c r="U156" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W156" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W156" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X156" s="13"/>
       <c r="Y156" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z156" s="13"/>
       <c r="AA156" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB156" s="13"/>
       <c r="AC156" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD156" s="45"/>
       <c r="AE156" s="23"/>
       <c r="AF156" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG156" s="13"/>
       <c r="AH156" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI156" s="45"/>
       <c r="AJ156" s="45"/>
@@ -14285,47 +14282,47 @@
         <v>20</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F157" s="20"/>
       <c r="G157" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H157" s="20"/>
       <c r="I157" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J157" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K157" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L157" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M157" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N157" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P157" s="43"/>
       <c r="Q157" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R157" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S157" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T157" s="43"/>
       <c r="U157" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V157" s="43"/>
       <c r="W157" s="11" t="s">
@@ -14348,11 +14345,11 @@
       </c>
       <c r="AE157" s="43"/>
       <c r="AF157" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG157" s="43"/>
       <c r="AH157" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI157" s="11" t="s">
         <v>17</v>
@@ -14453,7 +14450,7 @@
         <v>38</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C160" s="44"/>
       <c r="D160" s="44"/>
@@ -14462,7 +14459,7 @@
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
       <c r="I160" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J160" s="45"/>
       <c r="K160" s="45"/>
@@ -14472,37 +14469,37 @@
       <c r="O160" s="45"/>
       <c r="P160" s="13"/>
       <c r="Q160" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R160" s="44"/>
       <c r="S160" s="44"/>
       <c r="T160" s="13"/>
       <c r="U160" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W160" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="W160" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="X160" s="13"/>
       <c r="Y160" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z160" s="13"/>
       <c r="AA160" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB160" s="13"/>
       <c r="AC160" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD160" s="45"/>
       <c r="AE160" s="23"/>
       <c r="AF160" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG160" s="13"/>
       <c r="AH160" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AI160" s="45"/>
       <c r="AJ160" s="45"/>
@@ -14522,47 +14519,47 @@
         <v>20</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F161" s="20"/>
       <c r="G161" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H161" s="20"/>
       <c r="I161" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J161" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K161" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L161" s="11" t="s">
         <v>12</v>
       </c>
       <c r="M161" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N161" s="11" t="s">
         <v>11</v>
       </c>
       <c r="O161" s="11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P161" s="43"/>
       <c r="Q161" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R161" s="11" t="s">
         <v>30</v>
       </c>
       <c r="S161" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T161" s="43"/>
       <c r="U161" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V161" s="43"/>
       <c r="W161" s="11" t="s">
@@ -14585,11 +14582,11 @@
       </c>
       <c r="AE161" s="43"/>
       <c r="AF161" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG161" s="43"/>
       <c r="AH161" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AI161" s="11" t="s">
         <v>17</v>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -1227,6 +1227,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,9 +1241,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,8 +1527,8 @@
   </sheetPr>
   <dimension ref="A1:AQ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,30 +1565,30 @@
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
       <c r="T2" s="13"/>
       <c r="U2" s="7" t="s">
         <v>65</v>
@@ -1605,21 +1605,21 @@
         <v>68</v>
       </c>
       <c r="AB2" s="13"/>
-      <c r="AC2" s="45" t="s">
+      <c r="AC2" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" s="45"/>
+      <c r="AD2" s="46"/>
       <c r="AE2" s="23"/>
       <c r="AF2" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG2" s="13"/>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2267,23 +2267,23 @@
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="8"/>
@@ -2293,44 +2293,44 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
       <c r="AE11" s="23"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
-      <c r="AI11" s="46"/>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="44" t="s">
+      <c r="Q12" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
       <c r="T12" s="13"/>
       <c r="U12" s="7" t="s">
         <v>65</v>
@@ -2347,21 +2347,21 @@
         <v>68</v>
       </c>
       <c r="AB12" s="13"/>
-      <c r="AC12" s="45" t="s">
+      <c r="AC12" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD12" s="45"/>
+      <c r="AD12" s="46"/>
       <c r="AE12" s="23"/>
       <c r="AF12" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG12" s="13"/>
-      <c r="AH12" s="45" t="s">
+      <c r="AH12" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5475,40 +5475,40 @@
       <c r="A47" s="16"/>
       <c r="B47" s="13"/>
       <c r="C47" s="40"/>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="47"/>
-      <c r="Z47" s="47"/>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="47"/>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-      <c r="AG47" s="47"/>
-      <c r="AH47" s="47"/>
-      <c r="AI47" s="47"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="48"/>
+      <c r="AA47" s="48"/>
+      <c r="AB47" s="48"/>
+      <c r="AC47" s="48"/>
+      <c r="AD47" s="48"/>
+      <c r="AE47" s="48"/>
+      <c r="AF47" s="48"/>
+      <c r="AG47" s="48"/>
+      <c r="AH47" s="48"/>
+      <c r="AI47" s="48"/>
       <c r="AJ47" s="13"/>
       <c r="AK47" s="13"/>
       <c r="AL47"/>
@@ -5562,30 +5562,30 @@
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
       <c r="P49" s="13"/>
-      <c r="Q49" s="44" t="s">
+      <c r="Q49" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
       <c r="T49" s="13"/>
       <c r="U49" s="7" t="s">
         <v>65</v>
@@ -5602,21 +5602,21 @@
         <v>68</v>
       </c>
       <c r="AB49" s="13"/>
-      <c r="AC49" s="45" t="s">
+      <c r="AC49" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD49" s="45"/>
+      <c r="AD49" s="46"/>
       <c r="AE49" s="23"/>
       <c r="AF49" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG49" s="13"/>
-      <c r="AH49" s="45" t="s">
+      <c r="AH49" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI49" s="45"/>
-      <c r="AJ49" s="45"/>
-      <c r="AK49" s="45"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -8139,30 +8139,30 @@
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="45" t="s">
+      <c r="I81" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="45"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
       <c r="P81" s="13"/>
-      <c r="Q81" s="44" t="s">
+      <c r="Q81" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R81" s="44"/>
-      <c r="S81" s="44"/>
+      <c r="R81" s="45"/>
+      <c r="S81" s="45"/>
       <c r="T81" s="13"/>
       <c r="U81" s="7" t="s">
         <v>65</v>
@@ -8179,21 +8179,21 @@
         <v>68</v>
       </c>
       <c r="AB81" s="13"/>
-      <c r="AC81" s="45" t="s">
+      <c r="AC81" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD81" s="45"/>
+      <c r="AD81" s="46"/>
       <c r="AE81" s="23"/>
       <c r="AF81" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG81" s="13"/>
-      <c r="AH81" s="45" t="s">
+      <c r="AH81" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI81" s="45"/>
-      <c r="AJ81" s="45"/>
-      <c r="AK81" s="45"/>
+      <c r="AI81" s="46"/>
+      <c r="AJ81" s="46"/>
+      <c r="AK81" s="46"/>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -10633,7 +10633,7 @@
       </c>
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="44" t="s">
         <v>187</v>
       </c>
       <c r="B111" s="35" t="s">
@@ -10768,30 +10768,30 @@
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="44"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
-      <c r="I113" s="45" t="s">
+      <c r="I113" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J113" s="45"/>
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="45"/>
-      <c r="N113" s="45"/>
-      <c r="O113" s="45"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
       <c r="P113" s="13"/>
-      <c r="Q113" s="44" t="s">
+      <c r="Q113" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R113" s="44"/>
-      <c r="S113" s="44"/>
+      <c r="R113" s="45"/>
+      <c r="S113" s="45"/>
       <c r="T113" s="13"/>
       <c r="U113" s="7" t="s">
         <v>65</v>
@@ -10808,21 +10808,21 @@
         <v>68</v>
       </c>
       <c r="AB113" s="13"/>
-      <c r="AC113" s="45" t="s">
+      <c r="AC113" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD113" s="45"/>
+      <c r="AD113" s="46"/>
       <c r="AE113" s="23"/>
       <c r="AF113" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG113" s="13"/>
-      <c r="AH113" s="45" t="s">
+      <c r="AH113" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI113" s="45"/>
-      <c r="AJ113" s="45"/>
-      <c r="AK113" s="45"/>
+      <c r="AI113" s="46"/>
+      <c r="AJ113" s="46"/>
+      <c r="AK113" s="46"/>
     </row>
     <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
@@ -12199,30 +12199,30 @@
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B131" s="44" t="s">
+      <c r="B131" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
       <c r="F131" s="20"/>
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
-      <c r="I131" s="45" t="s">
+      <c r="I131" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J131" s="45"/>
-      <c r="K131" s="45"/>
-      <c r="L131" s="45"/>
-      <c r="M131" s="45"/>
-      <c r="N131" s="45"/>
-      <c r="O131" s="45"/>
+      <c r="J131" s="46"/>
+      <c r="K131" s="46"/>
+      <c r="L131" s="46"/>
+      <c r="M131" s="46"/>
+      <c r="N131" s="46"/>
+      <c r="O131" s="46"/>
       <c r="P131" s="13"/>
-      <c r="Q131" s="44" t="s">
+      <c r="Q131" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R131" s="44"/>
-      <c r="S131" s="44"/>
+      <c r="R131" s="45"/>
+      <c r="S131" s="45"/>
       <c r="T131" s="13"/>
       <c r="U131" s="7" t="s">
         <v>65</v>
@@ -12239,21 +12239,21 @@
         <v>68</v>
       </c>
       <c r="AB131" s="13"/>
-      <c r="AC131" s="45" t="s">
+      <c r="AC131" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD131" s="45"/>
+      <c r="AD131" s="46"/>
       <c r="AE131" s="23"/>
       <c r="AF131" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG131" s="13"/>
-      <c r="AH131" s="45" t="s">
+      <c r="AH131" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI131" s="45"/>
-      <c r="AJ131" s="45"/>
-      <c r="AK131" s="45"/>
+      <c r="AI131" s="46"/>
+      <c r="AJ131" s="46"/>
+      <c r="AK131" s="46"/>
     </row>
     <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -13547,7 +13547,7 @@
       </c>
     </row>
     <row r="147" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A147" s="48" t="s">
+      <c r="A147" s="44" t="s">
         <v>188</v>
       </c>
       <c r="B147" s="35" t="s">
@@ -13643,30 +13643,30 @@
       <c r="A148" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="44" t="s">
+      <c r="B148" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
       <c r="F148" s="20"/>
       <c r="G148" s="20"/>
       <c r="H148" s="20"/>
-      <c r="I148" s="45" t="s">
+      <c r="I148" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J148" s="45"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="45"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="45"/>
+      <c r="J148" s="46"/>
+      <c r="K148" s="46"/>
+      <c r="L148" s="46"/>
+      <c r="M148" s="46"/>
+      <c r="N148" s="46"/>
+      <c r="O148" s="46"/>
       <c r="P148" s="13"/>
-      <c r="Q148" s="44" t="s">
+      <c r="Q148" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R148" s="44"/>
-      <c r="S148" s="44"/>
+      <c r="R148" s="45"/>
+      <c r="S148" s="45"/>
       <c r="T148" s="13"/>
       <c r="U148" s="7" t="s">
         <v>65</v>
@@ -13683,21 +13683,21 @@
         <v>68</v>
       </c>
       <c r="AB148" s="13"/>
-      <c r="AC148" s="45" t="s">
+      <c r="AC148" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD148" s="45"/>
+      <c r="AD148" s="46"/>
       <c r="AE148" s="23"/>
       <c r="AF148" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG148" s="13"/>
-      <c r="AH148" s="45" t="s">
+      <c r="AH148" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI148" s="45"/>
-      <c r="AJ148" s="45"/>
-      <c r="AK148" s="45"/>
+      <c r="AI148" s="46"/>
+      <c r="AJ148" s="46"/>
+      <c r="AK148" s="46"/>
     </row>
     <row r="149" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -13928,30 +13928,30 @@
       <c r="A152" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="44" t="s">
+      <c r="B152" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C152" s="44"/>
-      <c r="D152" s="44"/>
-      <c r="E152" s="44"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
+      <c r="E152" s="45"/>
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
       <c r="H152" s="20"/>
-      <c r="I152" s="45" t="s">
+      <c r="I152" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J152" s="45"/>
-      <c r="K152" s="45"/>
-      <c r="L152" s="45"/>
-      <c r="M152" s="45"/>
-      <c r="N152" s="45"/>
-      <c r="O152" s="45"/>
+      <c r="J152" s="46"/>
+      <c r="K152" s="46"/>
+      <c r="L152" s="46"/>
+      <c r="M152" s="46"/>
+      <c r="N152" s="46"/>
+      <c r="O152" s="46"/>
       <c r="P152" s="13"/>
-      <c r="Q152" s="44" t="s">
+      <c r="Q152" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R152" s="44"/>
-      <c r="S152" s="44"/>
+      <c r="R152" s="45"/>
+      <c r="S152" s="45"/>
       <c r="T152" s="13"/>
       <c r="U152" s="7" t="s">
         <v>65</v>
@@ -13968,21 +13968,21 @@
         <v>68</v>
       </c>
       <c r="AB152" s="13"/>
-      <c r="AC152" s="45" t="s">
+      <c r="AC152" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD152" s="45"/>
+      <c r="AD152" s="46"/>
       <c r="AE152" s="23"/>
       <c r="AF152" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG152" s="13"/>
-      <c r="AH152" s="45" t="s">
+      <c r="AH152" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI152" s="45"/>
-      <c r="AJ152" s="45"/>
-      <c r="AK152" s="45"/>
+      <c r="AI152" s="46"/>
+      <c r="AJ152" s="46"/>
+      <c r="AK152" s="46"/>
     </row>
     <row r="153" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
@@ -14212,30 +14212,30 @@
       <c r="A156" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B156" s="44" t="s">
+      <c r="B156" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C156" s="44"/>
-      <c r="D156" s="44"/>
-      <c r="E156" s="44"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="45"/>
+      <c r="E156" s="45"/>
       <c r="F156" s="20"/>
       <c r="G156" s="20"/>
       <c r="H156" s="20"/>
-      <c r="I156" s="45" t="s">
+      <c r="I156" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J156" s="45"/>
-      <c r="K156" s="45"/>
-      <c r="L156" s="45"/>
-      <c r="M156" s="45"/>
-      <c r="N156" s="45"/>
-      <c r="O156" s="45"/>
+      <c r="J156" s="46"/>
+      <c r="K156" s="46"/>
+      <c r="L156" s="46"/>
+      <c r="M156" s="46"/>
+      <c r="N156" s="46"/>
+      <c r="O156" s="46"/>
       <c r="P156" s="13"/>
-      <c r="Q156" s="44" t="s">
+      <c r="Q156" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R156" s="44"/>
-      <c r="S156" s="44"/>
+      <c r="R156" s="45"/>
+      <c r="S156" s="45"/>
       <c r="T156" s="13"/>
       <c r="U156" s="7" t="s">
         <v>65</v>
@@ -14252,21 +14252,21 @@
         <v>68</v>
       </c>
       <c r="AB156" s="13"/>
-      <c r="AC156" s="45" t="s">
+      <c r="AC156" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD156" s="45"/>
+      <c r="AD156" s="46"/>
       <c r="AE156" s="23"/>
       <c r="AF156" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG156" s="13"/>
-      <c r="AH156" s="45" t="s">
+      <c r="AH156" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI156" s="45"/>
-      <c r="AJ156" s="45"/>
-      <c r="AK156" s="45"/>
+      <c r="AI156" s="46"/>
+      <c r="AJ156" s="46"/>
+      <c r="AK156" s="46"/>
     </row>
     <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
@@ -14449,30 +14449,30 @@
       <c r="A160" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B160" s="44" t="s">
+      <c r="B160" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C160" s="44"/>
-      <c r="D160" s="44"/>
-      <c r="E160" s="44"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
       <c r="F160" s="20"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
-      <c r="I160" s="45" t="s">
+      <c r="I160" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="J160" s="45"/>
-      <c r="K160" s="45"/>
-      <c r="L160" s="45"/>
-      <c r="M160" s="45"/>
-      <c r="N160" s="45"/>
-      <c r="O160" s="45"/>
+      <c r="J160" s="46"/>
+      <c r="K160" s="46"/>
+      <c r="L160" s="46"/>
+      <c r="M160" s="46"/>
+      <c r="N160" s="46"/>
+      <c r="O160" s="46"/>
       <c r="P160" s="13"/>
-      <c r="Q160" s="44" t="s">
+      <c r="Q160" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R160" s="44"/>
-      <c r="S160" s="44"/>
+      <c r="R160" s="45"/>
+      <c r="S160" s="45"/>
       <c r="T160" s="13"/>
       <c r="U160" s="7" t="s">
         <v>65</v>
@@ -14489,21 +14489,21 @@
         <v>68</v>
       </c>
       <c r="AB160" s="13"/>
-      <c r="AC160" s="45" t="s">
+      <c r="AC160" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="AD160" s="45"/>
+      <c r="AD160" s="46"/>
       <c r="AE160" s="23"/>
       <c r="AF160" s="18" t="s">
         <v>70</v>
       </c>
       <c r="AG160" s="13"/>
-      <c r="AH160" s="45" t="s">
+      <c r="AH160" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AI160" s="45"/>
-      <c r="AJ160" s="45"/>
-      <c r="AK160" s="45"/>
+      <c r="AI160" s="46"/>
+      <c r="AJ160" s="46"/>
+      <c r="AK160" s="46"/>
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
@@ -14830,17 +14830,35 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="I81:O81"/>
-    <mergeCell ref="I113:O113"/>
-    <mergeCell ref="I131:O131"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="AC160:AD160"/>
+    <mergeCell ref="AH160:AK160"/>
+    <mergeCell ref="I160:O160"/>
+    <mergeCell ref="Q160:S160"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="AC156:AD156"/>
+    <mergeCell ref="AH156:AK156"/>
+    <mergeCell ref="I156:O156"/>
+    <mergeCell ref="Q156:S156"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="AC113:AD113"/>
+    <mergeCell ref="Q148:S148"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AH131:AK131"/>
+    <mergeCell ref="AC131:AD131"/>
+    <mergeCell ref="AC81:AD81"/>
+    <mergeCell ref="Q81:S81"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="Q131:S131"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC11:AD11"/>
     <mergeCell ref="AC152:AD152"/>
     <mergeCell ref="D47:AI47"/>
     <mergeCell ref="AC49:AD49"/>
@@ -14857,35 +14875,17 @@
     <mergeCell ref="AH81:AK81"/>
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="AC113:AD113"/>
-    <mergeCell ref="Q148:S148"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AH131:AK131"/>
-    <mergeCell ref="AC131:AD131"/>
-    <mergeCell ref="AC81:AD81"/>
-    <mergeCell ref="Q81:S81"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="Q131:S131"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="AC156:AD156"/>
-    <mergeCell ref="AH156:AK156"/>
-    <mergeCell ref="I156:O156"/>
-    <mergeCell ref="Q156:S156"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="AC160:AD160"/>
-    <mergeCell ref="AH160:AK160"/>
-    <mergeCell ref="I160:O160"/>
-    <mergeCell ref="Q160:S160"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="I81:O81"/>
+    <mergeCell ref="I113:O113"/>
+    <mergeCell ref="I131:O131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
+++ b/ArquiProjecto/Phase2/ControlStateDiagram.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\Arqui\gitrepository\armverilogimplementation\ArquiProjecto\Phase2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/Documents/git/armverilogimplementation/ArquiProjecto/Phase2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="4035"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24880" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="198">
   <si>
     <t>BRANCH</t>
   </si>
@@ -983,6 +986,9 @@
   </si>
   <si>
     <t>101 1011</t>
+  </si>
+  <si>
+    <t>110 0010</t>
   </si>
 </sst>
 </file>
@@ -1305,9 +1311,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1340,9 +1346,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1522,46 +1528,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="94" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.85546875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="1.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="8" width="1.83203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.83203125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="1.83203125" style="8" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="1.7109375" style="8" customWidth="1"/>
-    <col min="24" max="24" width="1.85546875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="1.85546875" style="8" customWidth="1"/>
-    <col min="28" max="28" width="1.85546875" style="8" customWidth="1"/>
-    <col min="31" max="31" width="1.85546875" style="8" customWidth="1"/>
-    <col min="33" max="33" width="1.85546875" style="8" customWidth="1"/>
-    <col min="34" max="35" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="1.6640625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="1.83203125" style="8" customWidth="1"/>
+    <col min="26" max="26" width="1.83203125" style="8" customWidth="1"/>
+    <col min="28" max="28" width="1.83203125" style="8" customWidth="1"/>
+    <col min="31" max="31" width="1.83203125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="1.83203125" style="8" customWidth="1"/>
+    <col min="34" max="35" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1621,7 +1627,7 @@
       <c r="AJ2" s="46"/>
       <c r="AK2" s="46"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>175</v>
       </c>
@@ -1994,7 +2000,7 @@
       </c>
       <c r="AQ6" s="26"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -2181,7 +2187,7 @@
       </c>
       <c r="AL8" s="8"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="13"/>
       <c r="C9" s="40"/>
@@ -2221,7 +2227,7 @@
       <c r="AK9" s="13"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2263,7 +2269,7 @@
       <c r="AK10" s="13"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2303,7 +2309,7 @@
       <c r="AJ11" s="47"/>
       <c r="AK11" s="47"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>84</v>
       </c>
@@ -2363,7 +2369,7 @@
       <c r="AJ12" s="46"/>
       <c r="AK12" s="46"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="40"/>
@@ -2495,7 +2501,7 @@
       <c r="AJ14" s="13"/>
       <c r="AK14" s="13"/>
     </row>
-    <row r="15" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>85</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>86</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>87</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>88</v>
       </c>
@@ -2867,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>89</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>101</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>90</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>102</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>103</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>92</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>104</v>
       </c>
@@ -3611,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>93</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>105</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>94</v>
       </c>
@@ -3890,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>106</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>95</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>107</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>96</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>108</v>
       </c>
@@ -4355,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>97</v>
       </c>
@@ -4448,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>109</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>98</v>
       </c>
@@ -4634,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>110</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>99</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>111</v>
       </c>
@@ -4913,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>100</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>112</v>
       </c>
@@ -5099,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>114</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>115</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>113</v>
       </c>
@@ -5378,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>116</v>
       </c>
@@ -5471,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="13"/>
       <c r="C47" s="40"/>
@@ -5517,7 +5523,7 @@
       <c r="AO47"/>
       <c r="AP47"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -5558,7 +5564,7 @@
       <c r="AJ48" s="9"/>
       <c r="AK48" s="9"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5618,7 +5624,7 @@
       <c r="AJ49" s="46"/>
       <c r="AK49" s="46"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>190</v>
       </c>
@@ -5804,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>120</v>
       </c>
@@ -5897,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -5938,7 +5944,7 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>25</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>121</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>122</v>
       </c>
@@ -6217,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -6258,7 +6264,7 @@
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -6351,7 +6357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>134</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>135</v>
       </c>
@@ -6537,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -6578,7 +6584,7 @@
       <c r="AJ61" s="9"/>
       <c r="AK61" s="9"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>25</v>
       </c>
@@ -6671,7 +6677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>136</v>
       </c>
@@ -6764,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>137</v>
       </c>
@@ -6857,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -6898,7 +6904,7 @@
       <c r="AJ65" s="9"/>
       <c r="AK65" s="9"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>25</v>
       </c>
@@ -6991,7 +6997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>138</v>
       </c>
@@ -7084,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>123</v>
       </c>
@@ -7177,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>139</v>
       </c>
@@ -7190,8 +7196,8 @@
       <c r="D69" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="34" t="s">
-        <v>192</v>
+      <c r="E69" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="9">
@@ -7270,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>140</v>
       </c>
@@ -7283,8 +7289,8 @@
       <c r="D70" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="34" t="s">
-        <v>192</v>
+      <c r="E70" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="9">
@@ -7363,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -7404,7 +7410,7 @@
       <c r="AJ71" s="9"/>
       <c r="AK71" s="9"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>25</v>
       </c>
@@ -7497,7 +7503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>128</v>
       </c>
@@ -7590,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>124</v>
       </c>
@@ -7683,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>141</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>142</v>
       </c>
@@ -7869,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A77" s="28" t="s">
         <v>143</v>
       </c>
@@ -7962,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>144</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="9"/>
       <c r="C79" s="34"/>
@@ -8094,7 +8100,7 @@
       <c r="AJ79" s="9"/>
       <c r="AK79" s="9"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>118</v>
       </c>
@@ -8135,7 +8141,7 @@
       <c r="AJ80" s="9"/>
       <c r="AK80" s="9"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -8195,7 +8201,7 @@
       <c r="AJ81" s="46"/>
       <c r="AK81" s="46"/>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>25</v>
       </c>
@@ -8288,7 +8294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
         <v>177</v>
       </c>
@@ -8381,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>178</v>
       </c>
@@ -8474,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -8515,7 +8521,7 @@
       <c r="AJ85" s="35"/>
       <c r="AK85" s="35"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>25</v>
       </c>
@@ -8608,7 +8614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>145</v>
       </c>
@@ -8701,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>146</v>
       </c>
@@ -8794,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>4</v>
       </c>
@@ -8835,7 +8841,7 @@
       <c r="AJ89" s="35"/>
       <c r="AK89" s="35"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>25</v>
       </c>
@@ -8928,7 +8934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>147</v>
       </c>
@@ -9021,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>148</v>
       </c>
@@ -9114,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -9155,7 +9161,7 @@
       <c r="AJ93" s="35"/>
       <c r="AK93" s="35"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>25</v>
       </c>
@@ -9248,7 +9254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>149</v>
       </c>
@@ -9341,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>150</v>
       </c>
@@ -9434,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -9475,7 +9481,7 @@
       <c r="AJ97" s="35"/>
       <c r="AK97" s="35"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>25</v>
       </c>
@@ -9568,7 +9574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>119</v>
       </c>
@@ -9661,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>152</v>
       </c>
@@ -9754,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>151</v>
       </c>
@@ -9847,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>153</v>
       </c>
@@ -9940,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -9981,7 +9987,7 @@
       <c r="AJ103" s="35"/>
       <c r="AK103" s="35"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>25</v>
       </c>
@@ -10074,7 +10080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>125</v>
       </c>
@@ -10167,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>129</v>
       </c>
@@ -10260,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>154</v>
       </c>
@@ -10353,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>155</v>
       </c>
@@ -10446,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>180</v>
       </c>
@@ -10539,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A110" s="28" t="s">
         <v>179</v>
       </c>
@@ -10632,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A111" s="44" t="s">
         <v>187</v>
       </c>
@@ -10723,7 +10729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>39</v>
       </c>
@@ -10764,7 +10770,7 @@
       <c r="AJ112" s="9"/>
       <c r="AK112" s="9"/>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -10824,7 +10830,7 @@
       <c r="AJ113" s="46"/>
       <c r="AK113" s="46"/>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>25</v>
       </c>
@@ -10917,7 +10923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>189</v>
       </c>
@@ -11010,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>156</v>
       </c>
@@ -11103,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>4</v>
       </c>
@@ -11144,7 +11150,7 @@
       <c r="AJ117" s="9"/>
       <c r="AK117" s="9"/>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>25</v>
       </c>
@@ -11237,7 +11243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>157</v>
       </c>
@@ -11330,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -11423,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -11464,7 +11470,7 @@
       <c r="AJ121" s="9"/>
       <c r="AK121" s="9"/>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>25</v>
       </c>
@@ -11557,7 +11563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>159</v>
       </c>
@@ -11650,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -11743,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>173</v>
       </c>
@@ -11836,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>160</v>
       </c>
@@ -11929,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A127" s="28" t="s">
         <v>161</v>
       </c>
@@ -12022,7 +12028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -12115,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="9"/>
       <c r="C129" s="40"/>
@@ -12154,7 +12160,7 @@
       <c r="AJ129" s="9"/>
       <c r="AK129" s="9"/>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>40</v>
       </c>
@@ -12195,7 +12201,7 @@
       <c r="AJ130" s="9"/>
       <c r="AK130" s="9"/>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
@@ -12255,7 +12261,7 @@
       <c r="AJ131" s="46"/>
       <c r="AK131" s="46"/>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -12348,7 +12354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>163</v>
       </c>
@@ -12441,7 +12447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>164</v>
       </c>
@@ -12534,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -12575,7 +12581,7 @@
       <c r="AJ135" s="9"/>
       <c r="AK135" s="9"/>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>25</v>
       </c>
@@ -12668,7 +12674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>165</v>
       </c>
@@ -12761,7 +12767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>166</v>
       </c>
@@ -12854,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -12895,7 +12901,7 @@
       <c r="AJ139" s="9"/>
       <c r="AK139" s="9"/>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>25</v>
       </c>
@@ -12988,7 +12994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>167</v>
       </c>
@@ -13081,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>170</v>
       </c>
@@ -13174,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>169</v>
       </c>
@@ -13267,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>168</v>
       </c>
@@ -13360,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>181</v>
       </c>
@@ -13453,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A146" s="28" t="s">
         <v>182</v>
       </c>
@@ -13546,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A147" s="44" t="s">
         <v>188</v>
       </c>
@@ -13639,7 +13645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>41</v>
       </c>
@@ -13699,7 +13705,7 @@
       <c r="AJ148" s="46"/>
       <c r="AK148" s="46"/>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>25</v>
       </c>
@@ -13792,7 +13798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
         <v>93</v>
       </c>
@@ -13885,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="9"/>
       <c r="C151" s="40"/>
@@ -13924,7 +13930,7 @@
       <c r="AJ151" s="9"/>
       <c r="AK151" s="9"/>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>0</v>
       </c>
@@ -13984,7 +13990,7 @@
       <c r="AJ152" s="46"/>
       <c r="AK152" s="46"/>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>25</v>
       </c>
@@ -14077,7 +14083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
         <v>94</v>
       </c>
@@ -14170,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B155" s="9"/>
       <c r="C155" s="40"/>
       <c r="D155" s="9"/>
@@ -14208,7 +14214,7 @@
       <c r="AJ155" s="9"/>
       <c r="AK155" s="9"/>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>37</v>
       </c>
@@ -14268,7 +14274,7 @@
       <c r="AJ156" s="46"/>
       <c r="AK156" s="46"/>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>25</v>
       </c>
@@ -14361,7 +14367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A158" s="27">
         <v>97</v>
       </c>
@@ -14406,7 +14412,7 @@
       <c r="AJ158" s="25"/>
       <c r="AK158" s="25"/>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="9"/>
       <c r="C159" s="40"/>
@@ -14445,7 +14451,7 @@
       <c r="AJ159" s="9"/>
       <c r="AK159" s="9"/>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>38</v>
       </c>
@@ -14505,7 +14511,7 @@
       <c r="AJ160" s="46"/>
       <c r="AK160" s="46"/>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>25</v>
       </c>
@@ -14598,7 +14604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A162" s="27">
         <v>98</v>
       </c>
@@ -14643,7 +14649,7 @@
       <c r="AJ162" s="25"/>
       <c r="AK162" s="25"/>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="9"/>
       <c r="C163" s="40"/>
@@ -14683,149 +14689,149 @@
       <c r="AK163" s="9"/>
       <c r="AL163" s="8"/>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL164" s="8"/>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL165" s="8"/>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL166" s="8"/>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A167" s="39"/>
       <c r="AL167" s="8"/>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL168" s="8"/>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL169" s="8"/>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL170" s="8"/>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL171" s="8"/>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL172" s="8"/>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL173" s="8"/>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL174" s="8"/>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL175" s="8"/>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL176" s="8"/>
     </row>
-    <row r="177" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL177" s="8"/>
     </row>
-    <row r="178" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL178" s="8"/>
     </row>
-    <row r="179" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL179" s="8"/>
     </row>
-    <row r="180" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL180" s="8"/>
     </row>
-    <row r="181" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL181" s="8"/>
     </row>
-    <row r="182" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL182" s="8"/>
     </row>
-    <row r="183" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL183" s="8"/>
     </row>
-    <row r="184" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL184" s="8"/>
     </row>
-    <row r="185" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL185" s="8"/>
     </row>
-    <row r="186" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL186" s="8"/>
     </row>
-    <row r="187" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL187" s="8"/>
     </row>
-    <row r="188" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL188" s="8"/>
     </row>
-    <row r="189" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL189" s="8"/>
     </row>
-    <row r="190" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL190" s="8"/>
     </row>
-    <row r="191" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL191" s="8"/>
     </row>
-    <row r="192" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL192" s="8"/>
     </row>
-    <row r="193" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL193" s="8"/>
     </row>
-    <row r="194" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL194" s="8"/>
     </row>
-    <row r="195" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL195" s="8"/>
     </row>
-    <row r="196" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL196" s="8"/>
     </row>
-    <row r="197" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL197" s="8"/>
     </row>
-    <row r="198" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL198" s="8"/>
     </row>
-    <row r="199" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL199" s="8"/>
     </row>
-    <row r="200" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL200" s="8"/>
     </row>
-    <row r="201" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL201" s="8"/>
     </row>
-    <row r="202" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL202" s="8"/>
     </row>
-    <row r="203" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL203" s="8"/>
     </row>
-    <row r="204" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL204" s="8"/>
     </row>
-    <row r="205" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL205" s="8"/>
     </row>
-    <row r="206" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL206" s="8"/>
     </row>
-    <row r="207" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL207" s="8"/>
     </row>
-    <row r="208" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL208" s="8"/>
     </row>
-    <row r="209" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL209" s="8"/>
     </row>
-    <row r="210" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL210" s="8"/>
     </row>
-    <row r="211" spans="38:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="38:38" x14ac:dyDescent="0.2">
       <c r="AL211" s="8"/>
     </row>
   </sheetData>
